--- a/11.13 novel/novel analysis on sentence.xlsx
+++ b/11.13 novel/novel analysis on sentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24660" windowHeight="13180"/>
+    <workbookView windowWidth="24660" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +149,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -623,148 +616,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,7 +1115,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>

--- a/11.13 novel/novel analysis on sentence.xlsx
+++ b/11.13 novel/novel analysis on sentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24660" windowHeight="13160"/>
+    <workbookView windowWidth="24660" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>小说名</t>
   </si>
@@ -68,9 +68,6 @@
     <t>名词性从句</t>
   </si>
   <si>
-    <t>依存分析结果</t>
-  </si>
-  <si>
     <t>逻辑关系结构</t>
   </si>
   <si>
@@ -89,43 +86,7 @@
     <t>A Tale of Two Cities.txt</t>
   </si>
   <si>
-    <t>[('CHAPTER', 'NNP', 'compound', 'I.', 'NNP'), ('I.', 'NNP', 'ROOT', 'I.', 'NNP'), ('\n', '_SP', 'dep', 'I.', 'NNP'), ('The', 'DT', 'det', 'Period', 'NNP'), ('Period', 'NNP', 'dep', 'was', 'VBD'), ('\n\n\n', '_SP', 'dep', 'Period', 'NNP'), ('It', 'PRP', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'relcl', 'Period', 'NNP'), ('the', 'DT', 'det', 'best', 'JJS'), ('best', 'JJS', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'best', 'JJS'), ('times', 'NNS', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'ccomp', 'was', 'VBD'), ('the', 'DT', 'det', 'worst', 'JJS'), ('worst', 'JJS', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'worst', 'JJS'), ('times', 'NNS', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'ccomp', 'was', 'VBD'), ('the', 'DT', 'det', 'age', 'NN'), ('age', 'NN', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'age', 'NN'), ('\n', '_SP', 'dep', 'of', 'IN'), ('wisdom', 'NN', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'ccomp', 'was', 'VBD'), ('the', 'DT', 'det', 'age', 'NN'), ('age', 'NN', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'age', 'NN'), ('foolishness', 'NN', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'ccomp', 'was', 'VBD'), ('the', 'DT', 'det', 'epoch', 'NN'), ('epoch', 'NN', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'epoch', 'NN'), ('belief', 'NN', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('\n', '_SP', 'dep', 'it', 'PRP'), ('was', 'VBD', 'ccomp', 'was', 'VBD'), ('the', 'DT', 'det', 'epoch', 'NN'), ('epoch', 'NN', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'epoch', 'NN'), ('incredulity', 'NN', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'ccomp', 'was', 'VBD'), ('the', 'DT', 'det', 'season', 'NN'), ('season', 'NN', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'season', 'NN'), ('Light', 'NNP', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'ccomp', 'was', 'VBD'), ('the', 'DT', 'det', 'season', 'NN'), ('\n', '_SP', 'dep', 'the', 'DT'), ('season', 'NN', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'season', 'NN'), ('Darkness', 'NN', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'ccomp', 'was', 'VBD'), ('the', 'DT', 'det', 'spring', 'NN'), ('spring', 'NN', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'spring', 'NN'), ('hope', 'NN', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'ccomp', 'had', 'VBD'), ('the', 'DT', 'det', 'winter', 'NN'), ('winter', 'NN', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'winter', 'NN'), ('\n', '_SP', 'dep', 'of', 'IN'), ('despair', 'NN', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'had', 'VBD'), ('we', 'PRP', 'nsubj', 'had', 'VBD'), ('had', 'VBD', 'ccomp', 'had', 'VBD'), ('everything', 'NN', 'dobj', 'had', 'VBD'), ('before', 'IN', 'prep', 'had', 'VBD'), ('us', 'PRP', 'pobj', 'before', 'IN'), (',', ',', 'punct', 'had', 'VBD'), ('we', 'PRP', 'nsubj', 'had', 'VBD'), ('had', 'VBD', 'ccomp', 'going', 'VBG'), ('nothing', 'NN', 'dobj', 'had', 'VBD'), ('before', 'IN', 'prep', 'had', 'VBD'), ('us', 'PRP', 'pobj', 'before', 'IN'), (',', ',', 'punct', 'going', 'VBG'), ('we', 'PRP', 'nsubj', 'going', 'VBG'), ('were', 'VBD', 'aux', 'going', 'VBG'), ('\n', '_SP', 'dep', 'were', 'VBD'), ('all', 'DT', 'advmod', 'going', 'VBG'), ('going', 'VBG', 'ccomp', 'going', 'VBG'), ('direct', 'JJ', 'acomp', 'going', 'VBG'), ('to', 'IN', 'prep', 'direct', 'JJ'), ('Heaven', 'NNP', 'pobj', 'to', 'IN'), (',', ',', 'punct', 'going', 'VBG'), ('we', 'PRP', 'nsubj', 'going', 'VBG'), ('were', 'VBD', 'aux', 'going', 'VBG'), ('all', 'RB', 'advmod', 'going', 'VBG'), ('going', 'VBG', 'ccomp', 'was', 'VBD'), ('direct', 'JJ', 'acomp', 'going', 'VBG'), ('the', 'DT', 'det', 'way', 'NN'), ('other', 'JJ', 'amod', 'way', 'NN'), ('way', 'NN', 'npadvmod', 'going', 'VBG'), ('--', ':', 'punct', 'way', 'NN'), ('in', 'IN', 'prep', 'going', 'VBG'), ('\n', '_SP', 'dep', 'in', 'IN'), ('short', 'JJ', 'amod', 'in', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('the', 'DT', 'det', 'period', 'NN'), ('period', 'NN', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'ROOT', 'was', 'VBD'), ('so', 'RB', 'advmod', 'far', 'RB'), ('far', 'RB', 'advmod', 'was', 'VBD'), ('like', 'IN', 'prep', 'was', 'VBD'), ('the', 'DT', 'det', 'period', 'NN'), ('present', 'JJ', 'amod', 'period', 'NN'), ('period', 'NN', 'pobj', 'like', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('that', 'IN', 'mark', 'insisted', 'VBD'), ('some', 'DT', 'nsubj', 'insisted', 'VBD'), ('of', 'IN', 'prep', 'some', 'DT'), ('its', 'PRP$', 'poss', 'authorities', 'NNS'), ('\n', '_SP', 'dep', 'its', 'PRP$'), ('noisiest', 'JJS', 'amod', 'authorities', 'NNS'), ('authorities', 'NNS', 'pobj', 'of', 'IN'), ('insisted', 'VBD', 'ccomp', 'was', 'VBD'), ('on', 'IN', 'prep', 'insisted', 'VBD'), ('its', 'PRP$', 'nsubjpass', 'received', 'VBN'), ('being', 'NN', 'auxpass', 'received', 'VBN'), ('received', 'VBN', 'pcomp', 'on', 'IN'), (',', ',', 'punct', 'insisted', 'VBD'), ('for', 'IN', 'prep', 'insisted', 'VBD'), ('good', 'JJ', 'pobj', 'for', 'IN'), ('or', 'CC', 'cc', 'good', 'JJ'), ('for', 'IN', 'conj', 'good', 'JJ'), ('\n', '_SP', 'dep', 'for', 'IN'), ('evil', 'NN', 'pobj', 'for', 'IN'), (',', ',', 'punct', 'insisted', 'VBD'), ('in', 'IN', 'prep', 'insisted', 'VBD'), ('the', 'DT', 'det', 'degree', 'NN'), ('superlative', 'JJ', 'amod', 'degree', 'NN'), ('degree', 'NN', 'pobj', 'in', 'IN'), ('of', 'IN', 'prep', 'degree', 'NN'), ('comparison', 'NN', 'pobj', 'of', 'IN'), ('only', 'RB', 'advmod', 'degree', 'NN'), ('.', '.', 'punct', 'was', 'VBD'), ('\n\n', '_SP', 'dep', '.', '.'), ('There', 'EX', 'expl', 'were', 'VBD'), ('were', 'VBD', 'ccomp', 'were', 'VBD'), ('a', 'DT', 'det', 'king', 'NN'), ('king', 'NN', 'attr', 'were', 'VBD'), ('with', 'IN', 'prep', 'king', 'NN'), ('a', 'DT', 'det', 'jaw', 'NN'), ('large', 'JJ', 'amod', 'jaw', 'NN'), ('jaw', 'NN', 'pobj', 'with', 'IN'), ('and', 'CC', 'cc', 'jaw', 'NN'), ('a', 'DT', 'det', 'queen', 'NN'), ('queen', 'NN', 'conj', 'jaw', 'NN'), ('with', 'IN', 'prep', 'queen', 'NN'), ('a', 'DT', 'det', 'face', 'NN'), ('plain', 'JJ', 'amod', 'face', 'NN'), ('face', 'NN', 'pobj', 'with', 'IN'), (',', ',', 'punct', 'were', 'VBD'), ('on', 'IN', 'prep', 'were', 'VBD'), ('the', 'DT', 'det', 'throne', 'NN'), ('\n', '_SP', 'dep', 'the', 'DT'), ('throne', 'NN', 'pobj', 'on', 'IN'), ('of', 'IN', 'prep', 'throne', 'NN'), ('England', 'NNP', 'pobj', 'of', 'IN'), (';', ':', 'punct', 'were', 'VBD'), ('there', 'EX', 'expl', 'were', 'VBD'), ('were', 'VBD', 'ROOT', 'were', 'VBD'), ('a', 'DT', 'det', 'king', 'NN'), ('king', 'NN', 'attr', 'were', 'VBD'), ('with', 'IN', 'prep', 'king', 'NN'), ('a', 'DT', 'det', 'jaw', 'NN'), ('large', 'JJ', 'amod', 'jaw', 'NN'), ('jaw', 'NN', 'pobj', 'with', 'IN'), ('and', 'CC', 'cc', 'jaw', 'NN'), ('a', 'DT', 'det', 'queen', 'NN'), ('queen', 'NN', 'conj', 'jaw', 'NN'), ('with', 'IN', 'prep', 'queen', 'NN'), ('\n', '_SP', 'dep', 'with', 'IN'), ('a', 'DT', 'det', 'face', 'NN'), ('fair', 'JJ', 'amod', 'face', 'NN'), ('face', 'NN', 'pobj', 'with', 'IN'), (',', ',', 'punct', 'were', 'VBD'), ('on', 'IN', 'prep', 'were', 'VBD'), ('the', 'DT', 'det', 'throne', 'NN'), ('throne', 'NN', 'pobj', 'on', 'IN'), ('of', 'IN', 'prep', 'throne', 'NN'), ('France', 'NNP', 'pobj', 'of', 'IN'), ('.', '.', 'punct', 'were', 'VBD'), ('In', 'IN', 'prep', 'was', 'VBD'), ('both', 'DT', 'det', 'countries', 'NNS'), ('countries', 'NNS', 'pobj', 'In', 'IN'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'ROOT', 'was', 'VBD'), ('clearer', 'JJR', 'acomp', 'was', 'VBD'), ('\n', '_SP', 'dep', 'clearer', 'JJR'), ('than', 'IN', 'prep', 'clearer', 'JJR'), ('crystal', 'NN', 'pobj', 'than', 'IN'), ('to', 'IN', 'prep', 'was', 'VBD'), ('the', 'DT', 'det', 'lords', 'NNS'), ('lords', 'NNS', 'pobj', 'to', 'IN'), ('of', 'IN', 'prep', 'lords', 'NNS'), ('the', 'DT', 'det', 'State', 'NNP'), ('State', 'NNP', 'pobj', 'of', 'IN'), ('preserves', 'NNS', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'preserves', 'NNS'), ('loaves', 'NNS', 'pobj', 'of', 'IN'), ('and', 'CC', 'cc', 'loaves', 'NNS'), ('fishes', 'NNS', 'conj', 'loaves', 'NNS'), (',', ',', 'punct', 'was', 'VBD'), ('\n', '_SP', 'dep', ',', ','), ('that', 'IN', 'mark', 'settled', 'VBN'), ('things', 'NNS', 'nsubjpass', 'settled', 'VBN'), ('in', 'IN', 'prep', 'things', 'NNS'), ('general', 'JJ', 'amod', 'in', 'IN'), ('were', 'VBD', 'auxpass', 'settled', 'VBN'), ('settled', 'VBN', 'advcl', 'was', 'VBD'), ('for', 'IN', 'prep', 'settled', 'VBN'), ('ever', 'RB', 'pcomp', 'for', 'IN'), ('.', '.', 'punct', 'was', 'VBD'), ('\n\n', '_SP', 'dep', '.', '.'), ('It', 'PRP', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'ROOT', 'was', 'VBD'), ('the', 'DT', 'det', 'year', 'NN'), ('year', 'NN', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'year', 'NN'), ('Our', 'PRP$', 'poss', 'Lord', 'NNP'), ('Lord', 'NNP', 'pobj', 'of', 'IN'), ('one', 'CD', 'compound', 'hundred', 'CD'), ('thousand', 'CD', 'compound', 'hundred', 'CD'), ('seven', 'CD', 'compound', 'hundred', 'CD'), ('hundred', 'CD', 'appos', 'Lord', 'NNP'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('seventy', 'CD', 'compound', 'five', 'CD'), ('-', 'HYPH', 'punct', 'five', 'CD'), ('five', 'CD', 'conj', 'hundred', 'CD'), ('.', '.', 'punct', 'was', 'VBD'), ('\n', '_SP', 'dep', '.', '.'), ('Spiritual', 'JJ', 'amod', 'revelations', 'NNS'), ('revelations', 'NNS', 'nsubjpass', 'conceded', 'VBN'), ('were', 'VBD', 'auxpass', 'conceded', 'VBN'), ('conceded', 'VBN', 'ROOT', 'conceded', 'VBN'), ('to', 'IN', 'prep', 'conceded', 'VBN'), ('England', 'NNP', 'pobj', 'to', 'IN'), ('at', 'IN', 'prep', 'conceded', 'VBN'), ('that', 'DT', 'det', 'period', 'NN'), ('favoured', 'VBN', 'amod', 'period', 'NN'), ('period', 'NN', 'pobj', 'at', 'IN'), (',', ',', 'punct', 'conceded', 'VBN'), ('\n', '_SP', 'dep', ',', ','), ('as', 'IN', 'prep', 'conceded', 'VBN'), ('at', 'IN', 'prep', 'as', 'IN'), ('this', 'DT', 'pobj', 'at', 'IN'), ('.', '.', 'punct', 'conceded', 'VBN'), ('Mrs.', 'NNP', 'compound', 'Southcott', 'NNP'), ('Southcott', 'NNP', 'nsubj', 'attained', 'VBN'), ('had', 'VBD', 'aux', 'attained', 'VBN'), ('recently', 'RB', 'advmod', 'attained', 'VBN'), ('attained', 'VBN', 'ROOT', 'attained', 'VBN'), ('her', 'PRP$', 'poss', 'birthday', 'NN'), ('five', 'CD', 'nummod', 'blessed', 'VBN'), ('-', 'HYPH', 'punct', 'five', 'CD'), ('and', 'CC', 'cc', 'five', 'CD'), ('-', 'HYPH', 'punct', 'twentieth', 'NN'), ('twentieth', 'NN', 'conj', 'five', 'CD'), ('\n', '_SP', 'dep', 'twentieth', 'NN'), ('blessed', 'VBN', 'amod', 'birthday', 'NN'), ('birthday', 'NN', 'dobj', 'attained', 'VBN'), (',', ',', 'punct', 'birthday', 'NN'), ('of', 'IN', 'prep', 'heralded', 'VBN'), ('whom', 'WP', 'pobj', 'of', 'IN'), ('a', 'DT', 'det', 'private', 'NN'), ('prophetic', 'JJ', 'amod', 'private', 'NN'), ('private', 'NN', 'nsubj', 'heralded', 'VBN'), ('in', 'IN', 'prep', 'private', 'NN'), ('the', 'DT', 'det', 'Guards', 'NNPS'), ('Life', 'NNP', 'compound', 'Guards', 'NNPS'), ('Guards', 'NNPS', 'pobj', 'in', 'IN'), ('had', 'VBD', 'aux', 'heralded', 'VBN'), ('\n', '_SP', 'dep', 'had', 'VBD'), ('heralded', 'VBN', 'relcl', 'birthday', 'NN'), ('the', 'DT', 'det', 'appearance', 'NN'), ('sublime', 'JJ', 'amod', 'appearance', 'NN'), ('appearance', 'NN', 'dobj', 'heralded', 'VBN'), ('by', 'IN', 'prep', 'heralded', 'VBN'), ('announcing', 'VBG', 'pcomp', 'by', 'IN'), ('that', 'IN', 'mark', 'made', 'VBN'), ('arrangements', 'NNS', 'nsubjpass', 'made', 'VBN'), ('were', 'VBD', 'auxpass', 'made', 'VBN'), ('\n', '_SP', 'dep', 'were', 'VBD'), ('made', 'VBN', 'ccomp', 'announcing', 'VBG'), ('for', 'IN', 'prep', 'made', 'VBN'), ('the', 'DT', 'det', 'swallowing', 'NN'), ('swallowing', 'NN', 'pobj', 'for', 'IN'), ('up', 'IN', 'advmod', 'swallowing', 'NN'), ('of', 'IN', 'prep', 'up', 'IN'), ('London', 'NNP', 'pobj', 'of', 'IN'), ('and', 'CC', 'cc', 'London', 'NNP'), ('Westminster', 'NNP', 'conj', 'London', 'NNP'), ('.', '.', 'punct', 'attained', 'VBN'), ('Even', 'RB', 'advmod', 'ghost', 'NN'), ('the', 'DT', 'det', 'ghost', 'NN'), ('Cock', 'NNP', 'compound', 'lane', 'NN'), ('-', 'HYPH', 'punct', 'lane', 'NN'), ('lane', 'NN', 'compound', 'ghost', 'NN'), ('\n', '_SP', 'dep', 'lane', 'NN'), ('ghost', 'NN', 'nsubjpass', 'laid', 'VBN'), ('had', 'VBD', 'aux', 'laid', 'VBN'), ('been', 'VBN', 'auxpass', 'laid', 'VBN'), ('laid', 'VBN', 'ROOT', 'laid', 'VBN'), ('only', 'RB', 'advmod', 'dozen', 'NN'), ('a', 'DT', 'det', 'dozen', 'NN'), ('round', 'JJ', 'amod', 'dozen', 'NN'), ('dozen', 'NN', 'dobj', 'laid', 'VBN'), ('of', 'IN', 'prep', 'dozen', 'NN'), ('years', 'NNS', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'laid', 'VBN'), ('after', 'IN', 'prep', 'laid', 'VBN'), ('rapping', 'VBG', 'pcomp', 'after', 'IN'), ('out', 'RP', 'prt', 'rapping', 'VBG'), ('its', 'PRP$', 'poss', 'messages', 'NNS'), ('\n', '_SP', 'dep', 'its', 'PRP$'), ('messages', 'NNS', 'dobj', 'rapping', 'VBG'), (',', ',', 'punct', 'laid', 'VBN'), ('as', 'IN', 'mark', 'deficient', 'JJ'), ('the', 'DT', 'det', 'spirits', 'NNS'), ('spirits', 'NNS', 'nsubj', 'deficient', 'JJ'), ('of', 'IN', 'prep', 'spirits', 'NNS'), ('this', 'DT', 'det', 'year', 'NN'), ('very', 'JJ', 'amod', 'year', 'NN'), ('year', 'NN', 'pobj', 'of', 'IN'), ('last', 'JJ', 'amod', 'past', 'NN'), ('past', 'NN', 'advmod', 'spirits', 'NNS'), ('(', '-LRB-', 'punct', 'deficient', 'JJ'), ('supernaturally', 'RB', 'advmod', 'deficient', 'JJ'), ('\n', '_SP', 'dep', 'supernaturally', 'RB'), ('deficient', 'JJ', 'advcl', 'laid', 'VBN'), ('in', 'IN', 'prep', 'deficient', 'JJ'), ('originality', 'NN', 'pobj', 'in', 'IN'), (')', '-RRB-', 'punct', 'laid', 'VBN'), ('rapped', 'VBD', 'conj', 'laid', 'VBN'), ('out', 'RP', 'prt', 'rapped', 'VBD'), ('theirs', 'PRP', 'dobj', 'rapped', 'VBD'), ('.', '.', 'punct', 'laid', 'VBN'), ('Mere', 'JJ', 'amod', 'messages', 'NNS'), ('messages', 'NNS', 'nsubj', 'come', 'VBN'), ('in', 'IN', 'prep', 'messages', 'NNS'), ('the', 'DT', 'det', 'order', 'NN'), ('\n', '_SP', 'dep', 'the', 'DT'), ('earthly', 'JJ', 'amod', 'order', 'NN'), ('order', 'NN', 'pobj', 'in', 'IN'), ('of', 'IN', 'prep', 'order', 'NN'), ('events', 'NNS', 'pobj', 'of', 'IN'), ('had', 'VBD', 'aux', 'come', 'VBN'), ('lately', 'RB', 'advmod', 'come', 'VBN'), ('come', 'VBN', 'ROOT', 'come', 'VBN'), ('to', 'IN', 'prep', 'come', 'VBN'), ('the', 'DT', 'det', 'Crown', 'NNP'), ('English', 'NNP', 'compound', 'Crown', 'NNP'), ('Crown', 'NNP', 'pobj', 'to', 'IN'), ('and', 'CC', 'cc', 'Crown', 'NNP'), ('People', 'NNPS', 'conj', 'Crown', 'NNP'), (',', ',', 'punct', 'come', 'VBN'), ('\n', '_SP', 'dep', ',', ','), ('from', 'IN', 'prep', 'come', 'VBN'), ('a', 'DT', 'det', 'congress', 'NN'), ('congress', 'NN', 'pobj', 'from', 'IN'), ('of', 'IN', 'prep', 'congress', 'NN'), ('British', 'JJ', 'amod', 'subjects', 'NNS'), ('subjects', 'NNS', 'pobj', 'of', 'IN'), ('in', 'IN', 'prep', 'subjects', 'NNS'), ('America', 'NNP', 'pobj', 'in', 'IN'), (':', ':', 'punct', 'congress', 'NN'), ('which', 'WDT', 'nsubj', 'proved', 'VBN'), (',', ',', 'punct', 'proved', 'VBN'), ('strange', 'JJ', 'advcl', 'proved', 'VBN'), ('\n', '_SP', 'dep', 'strange', 'JJ'), ('to', 'TO', 'aux', 'relate', 'VB'), ('relate', 'VB', 'xcomp', 'strange', 'JJ'), (',', ',', 'punct', 'proved', 'VBN'), ('have', 'VBP', 'aux', 'proved', 'VBN'), ('proved', 'VBN', 'relcl', 'congress', 'NN'), ('more', 'RBR', 'advmod', 'important', 'JJ'), ('important', 'JJ', 'oprd', 'proved', 'VBN'), ('to', 'IN', 'prep', 'important', 'JJ'), ('the', 'DT', 'det', 'race', 'NN'), ('human', 'JJ', 'amod', 'race', 'NN'), ('race', 'NN', 'pobj', 'to', 'IN'), ('than', 'IN', 'prep', 'proved', 'VBN'), ('any', 'DT', 'det', 'communications', 'NNS'), ('\n', '_SP', 'dep', 'any', 'DT'), ('communications', 'NNS', 'pobj', 'than', 'IN'), ('yet', 'RB', 'advmod', 'received', 'VBN'), ('received', 'VBN', 'acl', 'communications', 'NNS'), ('through', 'IN', 'prep', 'received', 'VBN'), ('any', 'DT', 'pobj', 'through', 'IN'), ('of', 'IN', 'prep', 'any', 'DT'), ('the', 'DT', 'det', 'chickens', 'NNS'), ('chickens', 'NNS', 'pobj', 'of', 'IN'), ('of', 'IN', 'prep', 'chickens', 'NNS'), ('the', 'DT', 'det', 'brood', 'NN'), ('Cock', 'NNP', 'nmod', 'lane', 'NN'), ('-', 'HYPH', 'punct', 'lane', 'NN'), ('lane', 'NN', 'compound', 'brood', 'NN'), ('\n', '_SP', 'dep', 'lane', 'NN'), ('brood', 'NN', 'pobj', 'of', 'IN'), ('.', '.', 'punct', 'come', 'VBN'), ('\n\n', '_SP', 'dep', '.', '.'), ('France', 'NNP', 'nsubj', 'favoured', 'VBN'), (',', ',', 'punct', 'France', 'NNP'), ('less', 'RBR', 'advmod', 'favoured', 'VBN'), ('favoured', 'VBN', 'ROOT', 'favoured', 'VBN'), ('on', 'IN', 'prep', 'favoured', 'VBN'), ('the', 'DT', 'det', 'whole', 'JJ'), ('whole', 'JJ', 'pobj', 'on', 'IN'), ('as', 'IN', 'prep', 'favoured', 'VBN'), ('to', 'IN', 'prep', 'as', 'IN'), ('matters', 'NNS', 'pobj', 'to', 'IN'), ('spiritual', 'JJ', 'amod', 'matters', 'NNS'), ('than', 'IN', 'prep', 'spiritual', 'JJ'), ('her', 'PRP$', 'poss', 'sister', 'NN'), ('\n', '_SP', 'dep', 'her', 'PRP$'), ('sister', 'NN', 'pobj', 'than', 'IN'), ('of', 'IN', 'prep', 'sister', 'NN'), ('the', 'DT', 'det', 'shield', 'NN'), ('shield', 'NN', 'pobj', 'of', 'IN'), ('and', 'CC', 'cc', 'shield', 'NN'), ('trident', 'JJ', 'conj', 'shield', 'NN'), (',', ',', 'punct', 'favoured', 'VBN'), ('rolled', 'VBN', 'conj', 'favoured', 'VBN'), ('with', 'IN', 'prep', 'rolled', 'VBN'), ('exceeding', 'VBG', 'pcomp', 'with', 'IN'), ('smoothness', 'JJ', 'dobj', 'exceeding', 'VBG'), ('down', 'IN', 'prep', 'exceeding', 'VBG'), ('\n', '_SP', 'dep', 'down', 'IN'), ('hill', 'NN', 'pobj', 'down', 'IN'), (',', ',', 'punct', 'rolled', 'VBN'), ('making', 'VBG', 'conj', 'rolled', 'VBN'), ('paper', 'NN', 'compound', 'money', 'NN'), ('money', 'NN', 'dobj', 'making', 'VBG'), ('and', 'CC', 'cc', 'making', 'VBG'), ('spending', 'VBG', 'conj', 'making', 'VBG'), ('it', 'PRP', 'dobj', 'spending', 'VBG'), ('.', '.', 'punct', 'favoured', 'VBN'), ('Under', 'IN', 'prep', 'entertained', 'VBD'), ('the', 'DT', 'det', 'guidance', 'NN'), ('guidance', 'NN', 'pobj', 'Under', 'IN'), ('of', 'IN', 'prep', 'guidance', 'NN'), ('her', 'PRP$', 'poss', 'pastors', 'NNS'), ('\n', '_SP', 'dep', 'her', 'PRP$'), ('Christian', 'JJ', 'amod', 'pastors', 'NNS'), ('pastors', 'NNS', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'entertained', 'VBD'), ('she', 'PRP', 'nsubj', 'entertained', 'VBD'), ('entertained', 'VBD', 'ROOT', 'entertained', 'VBD'), ('herself', 'PRP', 'dobj', 'entertained', 'VBD'), (',', ',', 'punct', 'entertained', 'VBD'), ('besides', 'RB', 'advmod', 'entertained', 'VBD'), (',', ',', 'punct', 'besides', 'RB'), ('with', 'IN', 'prep', 'besides', 'RB'), ('such', 'JJ', 'amod', 'achievements', 'NNS'), ('humane', 'JJ', 'amod', 'achievements', 'NNS'), ('\n', '_SP', 'dep', 'humane', 'JJ'), ('achievements', 'NNS', 'pobj', 'with', 'IN'), ('as', 'IN', 'prep', 'achievements', 'NNS'), ('sentencing', 'VBG', 'pcomp', 'as', 'IN'), ('a', 'DT', 'det', 'youth', 'NN'), ('youth', 'NN', 'dobj', 'sentencing', 'VBG'), ('to', 'TO', 'aux', 'have', 'VB'), ('have', 'VB', 'advcl', 'sentencing', 'VBG'), ('his', 'PRP$', 'poss', 'hands', 'NNS'), ('hands', 'NNS', 'nsubj', 'cut', 'VBN'), ('cut', 'VBN', 'ccomp', 'have', 'VB'), ('off', 'RP', 'prt', 'cut', 'VBN'), (',', ',', 'punct', 'torn', 'VBN'), ('his', 'PRP$', 'poss', 'tongue', 'NN'), ('tongue', 'NN', 'nsubj', 'torn', 'VBN'), ('\n', '_SP', 'dep', 'tongue', 'NN'), ('torn', 'VBN', 'conj', 'entertained', 'VBD'), ('out', 'RP', 'prt', 'torn', 'VBN'), ('with', 'IN', 'prep', 'torn', 'VBN'), ('pincers', 'NNS', 'pobj', 'with', 'IN'), (',', ',', 'punct', 'torn', 'VBN'), ('and', 'CC', 'cc', 'torn', 'VBN'), ('his', 'PRP$', 'poss', 'body', 'NN'), ('body', 'NN', 'nsubj', 'burned', 'VBD'), ('burned', 'VBD', 'conj', 'torn', 'VBN'), ('alive', 'JJ', 'acomp', 'burned', 'VBD'), (',', ',', 'punct', 'burned', 'VBD'), ('because', 'IN', 'mark', 'kneeled', 'VBN'), ('he', 'PRP', 'nsubj', 'kneeled', 'VBN'), ('had', 'VBD', 'aux', 'kneeled', 'VBN'), ('not', 'RB', 'neg', 'kneeled', 'VBN'), ('\n', '_SP', 'dep', 'not', 'RB'), ('kneeled', 'VBN', 'advcl', 'burned', 'VBD'), ('down', 'RP', 'prt', 'kneeled', 'VBN'), ('in', 'IN', 'prep', 'kneeled', 'VBN'), ('the', 'DT', 'det', 'rain', 'NN'), ('rain', 'NN', 'pobj', 'in', 'IN'), ('to', 'TO', 'aux', 'do', 'VB'), ('do', 'VB', 'advcl', 'kneeled', 'VBN'), ('honour', 'VB', 'dobj', 'do', 'VB'), ('to', 'IN', 'prep', 'do', 'VB'), ('a', 'DT', 'det', 'procession', 'NN'), ('dirty', 'JJ', 'amod', 'procession', 'NN'), ('procession', 'NN', 'pobj', 'to', 'IN'), ('of', 'IN', 'prep', 'procession', 'NN'), ('monks', 'NNS', 'pobj', 'of', 'IN'), ('\n', '_SP', 'dep', 'monks', 'NNS'), ('which', 'WDT', 'nsubj', 'passed', 'VBD'), ('passed', 'VBD', 'relcl', 'monks', 'NNS'), ('within', 'IN', 'prep', 'passed', 'VBD'), ('his', 'PRP$', 'poss', 'view', 'NN'), ('view', 'NN', 'pobj', 'within', 'IN'), (',', ',', 'punct', 'kneeled', 'VBN'), ('at', 'IN', 'prep', 'kneeled', 'VBN'), ('a', 'DT', 'det', 'distance', 'NN'), ('distance', 'NN', 'pobj', 'at', 'IN'), ('of', 'IN', 'prep', 'distance', 'NN'), ('some', 'DT', 'det', 'yards', 'NNS'), ('fifty', 'CD', 'preconj', 'some', 'DT'), ('or', 'CC', 'cc', 'fifty', 'CD'), ('sixty', 'CD', 'conj', 'fifty', 'CD'), ('\n', '_SP', 'dep', 'sixty', 'CD'), ('yards', 'NNS', 'pobj', 'of', 'IN'), ('.', '.', 'punct', 'entertained', 'VBD'), ('It', 'PRP', 'nsubj', 'is', 'VBZ'), ('is', 'VBZ', 'ROOT', 'is', 'VBZ'), ('likely', 'JJ', 'acomp', 'is', 'VBZ'), ('enough', 'RB', 'advmod', 'likely', 'JJ'), ('that', 'IN', 'mark', 'were', 'VBD'), (',', ',', 'punct', 'were', 'VBD'), ('rooted', 'VBN', 'advcl', 'were', 'VBD'), ('in', 'IN', 'prep', 'rooted', 'VBN'), ('the', 'DT', 'det', 'woods', 'NNS'), ('woods', 'NNS', 'pobj', 'in', 'IN'), ('of', 'IN', 'prep', 'woods', 'NNS'), ('France', 'NNP', 'pobj', 'of', 'IN'), ('and', 'CC', 'cc', 'France', 'NNP'), ('\n', '_SP', 'dep', 'and', 'CC'), ('Norway', 'NNP', 'conj', 'France', 'NNP'), (',', ',', 'punct', 'were', 'VBD'), ('there', 'EX', 'expl', 'were', 'VBD'), ('were', 'VBD', 'ccomp', 'is', 'VBZ'), ('growing', 'VBG', 'amod', 'trees', 'NNS'), ('trees', 'NNS', 'attr', 'were', 'VBD'), (',', ',', 'punct', 'trees', 'NNS'), ('when', 'WRB', 'advmod', 'put', 'VBN'), ('that', 'DT', 'det', 'sufferer', 'NN'), ('sufferer', 'NN', 'nsubjpass', 'put', 'VBN'), ('was', 'VBD', 'auxpass', 'put', 'VBN'), ('put', 'VBN', 'relcl', 'trees', 'NNS'), ('to', 'IN', 'prep', 'put', 'VBN'), ('death', 'NN', 'pobj', 'to', 'IN'), (',', ',', 'punct', 'trees', 'NNS'), ('\n', '_SP', 'dep', ',', ','), ('already', 'RB', 'advmod', 'marked', 'VBN'), ('marked', 'VBN', 'acl', 'trees', 'NNS'), ('by', 'IN', 'agent', 'marked', 'VBN'), ('the', 'DT', 'det', 'Woodman', 'NNP'), ('Woodman', 'NNP', 'pobj', 'by', 'IN'), (',', ',', 'punct', 'Woodman', 'NNP'), ('Fate', 'NNP', 'appos', 'Woodman', 'NNP'), (',', ',', 'punct', 'Woodman', 'NNP'), ('to', 'TO', 'aux', 'come', 'VB'), ('come', 'VB', 'xcomp', 'marked', 'VBN'), ('down', 'RP', 'prt', 'come', 'VB'), ('and', 'CC', 'cc', 'come', 'VB'), ('be', 'VB', 'conj', 'come', 'VB'), ('sawn', 'NN', 'acomp', 'be', 'VB'), ('into', 'IN', 'prep', 'sawn', 'NN'), ('\n', '_SP', 'dep', 'into', 'IN'), ('boards', 'NNS', 'pobj', 'into', 'IN'), (',', ',', 'punct', 'be', 'VB'), ('to', 'TO', 'aux', 'make', 'VB'), ('make', 'VB', 'advcl', 'come', 'VB'), ('a', 'DT', 'det', 'framework', 'NN'), ('certain', 'JJ', 'amod', 'framework', 'NN'), ('movable', 'JJ', 'amod', 'framework', 'NN'), ('framework', 'NN', 'dobj', 'make', 'VB'), ('with', 'IN', 'prep', 'framework', 'NN'), ('a', 'DT', 'det', 'sack', 'NN'), ('sack', 'NN', 'pobj', 'with', 'IN'), ('and', 'CC', 'cc', 'sack', 'NN'), ('a', 'DT', 'det', 'knife', 'NN'), ('knife', 'NN', 'conj', 'sack', 'NN'), ('in', 'IN', 'prep', 'knife', 'NN'), ('\n', '_SP', 'dep', 'in', 'IN'), ('it', 'PRP', 'pobj', 'in', 'IN'), (',', ',', 'punct', 'sack', 'NN'), ('terrible', 'JJ', 'amod', 'sack', 'NN'), ('in', 'IN', 'prep', 'terrible', 'JJ'), ('history', 'NN', 'pobj', 'in', 'IN'), ('.', '.', 'punct', 'is', 'VBZ'), ('It', 'PRP', 'nsubj', 'is', 'VBZ'), ('is', 'VBZ', 'ROOT', 'is', 'VBZ'), ('likely', 'JJ', 'acomp', 'is', 'VBZ'), ('enough', 'RB', 'advmod', 'likely', 'JJ'), ('that', 'IN', 'mark', 'sheltered', 'VBN'), ('in', 'IN', 'prep', 'sheltered', 'VBN'), ('the', 'DT', 'det', 'outhouses', 'NNS'), ('rough', 'JJ', 'amod', 'outhouses', 'NNS'), ('outhouses', 'NNS', 'pobj', 'in', 'IN'), ('\n', '_SP', 'dep', 'outhouses', 'NNS'), ('of', 'IN', 'prep', 'outhouses', 'NNS'), ('some', 'DT', 'det', 'tillers', 'NNS'), ('tillers', 'NNS', 'pobj', 'of', 'IN'), ('of', 'IN', 'prep', 'tillers', 'NNS'), ('the', 'DT', 'det', 'lands', 'NNS'), ('heavy', 'JJ', 'amod', 'lands', 'NNS'), ('lands', 'NNS', 'pobj', 'of', 'IN'), ('adjacent', 'JJ', 'amod', 'lands', 'NNS'), ('to', 'IN', 'prep', 'adjacent', 'JJ'), ('Paris', 'NNP', 'pobj', 'to', 'IN'), (',', ',', 'punct', 'sheltered', 'VBN'), ('there', 'EX', 'expl', 'were', 'VBD'), ('were', 'VBD', 'auxpass', 'sheltered', 'VBN'), ('\n', '_SP', 'dep', 'were', 'VBD'), ('sheltered', 'VBN', 'ccomp', 'is', 'VBZ'), ('from', 'IN', 'prep', 'sheltered', 'VBN'), ('the', 'DT', 'det', 'weather', 'NN'), ('weather', 'NN', 'pobj', 'from', 'IN'), ('that', 'WDT', 'det', 'day', 'NN'), ('very', 'JJ', 'amod', 'day', 'NN'), ('day', 'NN', 'npadvmod', 'sheltered', 'VBN'), (',', ',', 'punct', 'day', 'NN'), ('rude', 'JJ', 'compound', 'carts', 'NNS'), ('carts', 'NNS', 'npadvmod', 'sheltered', 'VBN'), (',', ',', 'punct', 'carts', 'NNS'), ('bespattered', 'VBD', 'acl', 'carts', 'NNS'), ('with', 'IN', 'prep', 'bespattered', 'VBD'), ('\n', '_SP', 'dep', 'with', 'IN'), ('rustic', 'JJ', 'amod', 'mire', 'NN'), ('mire', 'NN', 'pobj', 'with', 'IN'), (',', ',', 'punct', 'carts', 'NNS'), ('snuffed', 'VBN', 'acl', 'carts', 'NNS'), ('about', 'IN', 'prep', 'snuffed', 'VBN'), ('by', 'IN', 'agent', 'snuffed', 'VBN'), ('pigs', 'NNS', 'pobj', 'by', 'IN'), (',', ',', 'punct', 'snuffed', 'VBN'), ('and', 'CC', 'cc', 'snuffed', 'VBN'), ('roosted', 'VBN', 'conj', 'snuffed', 'VBN'), ('in', 'IN', 'prt', 'roosted', 'VBN'), ('by', 'IN', 'agent', 'roosted', 'VBN'), ('poultry', 'NN', 'pobj', 'by', 'IN'), (',', ',', 'punct', 'poultry', 'NN'), ('which', 'WDT', 'nsubj', 'set', 'VBN'), ('\n', '_SP', 'dep', 'which', 'WDT'), ('the', 'DT', 'det', 'Farmer', 'NNP'), ('Farmer', 'NNP', 'nsubj', 'set', 'VBN'), (',', ',', 'punct', 'Farmer', 'NNP'), ('Death', 'NNP', 'appos', 'Farmer', 'NNP'), (',', ',', 'punct', 'Farmer', 'NNP'), ('had', 'VBD', 'aux', 'set', 'VBN'), ('already', 'RB', 'advmod', 'set', 'VBN'), ('set', 'VBN', 'relcl', 'poultry', 'NN'), ('apart', 'RB', 'advmod', 'set', 'VBN'), ('to', 'TO', 'aux', 'be', 'VB'), ('be', 'VB', 'advcl', 'set', 'VBN'), ('his', 'PRP$', 'poss', 'tumbrils', 'NNS'), ('tumbrils', 'NNS', 'attr', 'be', 'VB'), ('of', 'IN', 'prep', 'tumbrils', 'NNS'), ('\n', '_SP', 'dep', 'of', 'IN'), ('the', 'DT', 'det', 'Revolution', 'NNP'), ('Revolution', 'NNP', 'pobj', 'of', 'IN'), ('.', '.', 'punct', 'is', 'VBZ'), ('But', 'CC', 'cc', 'heard', 'VBD'), ('that', 'IN', 'det', 'Woodman', 'NNP'), ('Woodman', 'NNP', 'nsubj', 'heard', 'VBD'), ('and', 'CC', 'cc', 'Woodman', 'NNP'), ('that', 'IN', 'mark', 'work', 'VBP'), ('Farmer', 'NNP', 'nsubj', 'work', 'VBP'), (',', ',', 'punct', 'work', 'VBP'), ('though', 'IN', 'mark', 'work', 'VBP'), ('they', 'PRP', 'nsubj', 'work', 'VBP'), ('work', 'VBP', 'advcl', 'work', 'VBP'), ('\n', '_SP', 'dep', 'work', 'VBP'), ('unceasingly', 'RB', 'advmod', 'work', 'VBP'), (',', ',', 'punct', 'work', 'VBP'), ('work', 'VBP', 'conj', 'Woodman', 'NNP'), ('silently', 'RB', 'advmod', 'work', 'VBP'), (',', ',', 'punct', 'Woodman', 'NNP'), ('and', 'CC', 'cc', 'Woodman', 'NNP'), ('no', 'DT', 'det', 'one', 'NN'), ('one', 'NN', 'nsubj', 'heard', 'VBD'), ('heard', 'VBD', 'ROOT', 'heard', 'VBD'), ('them', 'PRP', 'dobj', 'heard', 'VBD'), ('as', 'IN', 'mark', 'went', 'VBD'), ('they', 'PRP', 'nsubj', 'went', 'VBD'), ('went', 'VBD', 'advcl', 'heard', 'VBD'), ('about', 'RB', 'advmod', 'with', 'IN'), ('\n', '_SP', 'dep', 'about', 'RB'), ('with', 'IN', 'prep', 'went', 'VBD'), ('muffled', 'JJ', 'amod', 'tread', 'NN'), ('tread', 'NN', 'pobj', 'with', 'IN'), (':', ':', 'punct', 'heard', 'VBD'), ('the', 'DT', 'det', 'rather', 'RB'), ('rather', 'RB', 'advmod', 'entertain', 'VB'), (',', ',', 'punct', 'rather', 'RB'), ('forasmuch', 'RB', 'advmod', 'entertain', 'VB'), ('as', 'IN', 'mark', 'entertain', 'VB'), ('to', 'TO', 'aux', 'entertain', 'VB'), ('entertain', 'VB', 'advcl', 'heard', 'VBD'), ('any', 'DT', 'det', 'suspicion', 'NN'), ('suspicion', 'NN', 'dobj', 'entertain', 'VB'), ('\n', '_SP', 'dep', 'suspicion', 'NN'), ('that', 'IN', 'mark', 'were', 'VBD'), ('they', 'PRP', 'nsubj', 'were', 'VBD'), ('were', 'VBD', 'acl', 'suspicion', 'NN'), ('awake', 'JJ', 'acomp', 'were', 'VBD'), (',', ',', 'punct', 'heard', 'VBD'), ('was', 'VBD', 'conj', 'heard', 'VBD'), ('to', 'TO', 'aux', 'be', 'VB'), ('be', 'VB', 'xcomp', 'was', 'VBD'), ('atheistical', 'JJ', 'acomp', 'be', 'VB'), ('and', 'CC', 'cc', 'atheistical', 'JJ'), ('traitorous', 'JJ', 'conj', 'atheistical', 'JJ'), ('.', '.', 'punct', 'heard', 'VBD'), ('\n\n', '_SP', 'dep', '.', '.'), ('In', 'IN', 'prep', 'was', 'VBD'), ('England', 'NNP', 'pobj', 'In', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('there', 'EX', 'expl', 'was', 'VBD'), ('was', 'VBD', 'ROOT', 'was', 'VBD'), ('scarcely', 'RB', 'advmod', 'was', 'VBD'), ('an', 'DT', 'det', 'amount', 'NN'), ('amount', 'NN', 'attr', 'was', 'VBD'), ('of', 'IN', 'prep', 'amount', 'NN'), ('order', 'NN', 'pobj', 'of', 'IN'), ('and', 'CC', 'cc', 'order', 'NN'), ('protection', 'NN', 'conj', 'order', 'NN'), ('to', 'TO', 'aux', 'justify', 'VB'), ('\n', '_SP', 'dep', 'to', 'TO'), ('justify', 'VB', 'relcl', 'amount', 'NN'), ('much', 'JJ', 'amod', 'boasting', 'NN'), ('national', 'JJ', 'amod', 'boasting', 'NN'), ('boasting', 'NN', 'dobj', 'justify', 'VB'), ('.', '.', 'punct', 'was', 'VBD'), ('Daring', 'VBG', 'csubj', 'took', 'VBD'), ('burglaries', 'NNS', 'dobj', 'Daring', 'VBG'), ('by', 'IN', 'prep', 'Daring', 'VBG'), ('armed', 'JJ', 'amod', 'men', 'NNS'), ('men', 'NNS', 'pobj', 'by', 'IN'), (',', ',', 'punct', 'men', 'NNS'), ('and', 'CC', 'cc', 'men', 'NNS'), ('\n', '_SP', 'dep', 'and', 'CC'), ('highway', 'NN', 'compound', 'robberies', 'NNS'), ('robberies', 'NNS', 'conj', 'men', 'NNS'), (',', ',', 'punct', 'took', 'VBD'), ('took', 'VBD', 'ccomp', 'cautioned', 'VBN'), ('place', 'NN', 'dobj', 'took', 'VBD'), ('in', 'IN', 'prep', 'took', 'VBD'), ('the', 'DT', 'det', 'capital', 'NN'), ('capital', 'NN', 'pobj', 'in', 'IN'), ('itself', 'PRP', 'appos', 'capital', 'NN'), ('every', 'DT', 'det', 'night', 'NN'), ('night', 'NN', 'npadvmod', 'took', 'VBD'), (';', ':', 'punct', 'cautioned', 'VBN'), ('\n', '_SP', 'dep', ';', ':'), ('families', 'NNS', 'nsubjpass', 'cautioned', 'VBN'), ('were', 'VBD', 'auxpass', 'cautioned', 'VBN'), ('publicly', 'RB', 'advmod', 'cautioned', 'VBN'), ('cautioned', 'VBN', 'ccomp', 'was', 'VBD'), ('not', 'RB', 'neg', 'go', 'VB'), ('to', 'TO', 'aux', 'go', 'VB'), ('go', 'VB', 'xcomp', 'cautioned', 'VBN'), ('out', 'IN', 'prep', 'go', 'VB'), ('of', 'IN', 'prep', 'out', 'IN'), ('town', 'NN', 'pobj', 'of', 'IN'), ('without', 'IN', 'prep', 'go', 'VB'), ('removing', 'VBG', 'pcomp', 'without', 'IN'), ('\n', '_SP', 'dep', 'removing', 'VBG'), ('their', 'PRP$', 'poss', 'furniture', 'NN'), ('furniture', 'NN', 'dobj', 'removing', 'VBG'), ('to', 'IN', 'prep', 'removing', 'VBG'), ('upholsterers', 'NNS', 'poss', 'warehouses', 'NNS'), ('’', 'POS', 'case', 'upholsterers', 'NNS'), ('warehouses', 'NNS', 'pobj', 'to', 'IN'), ('for', 'IN', 'prep', 'warehouses', 'NNS'), ('security', 'NN', 'pobj', 'for', 'IN'), (';', ':', 'punct', 'was', 'VBD'), ('the', 'DT', 'det', 'highwayman', 'NN'), ('highwayman', 'NN', 'nsubj', 'was', 'VBD'), ('\n', '_SP', 'dep', 'highwayman', 'NN'), ('in', 'IN', 'prep', 'highwayman', 'NN'), ('the', 'DT', 'det', 'dark', 'NN'), ('dark', 'NN', 'pobj', 'in', 'IN'), ('was', 'VBD', 'ccomp', 'shot', 'VBD'), ('a', 'DT', 'det', 'tradesman', 'NN'), ('City', 'NNP', 'compound', 'tradesman', 'NN'), ('tradesman', 'NN', 'attr', 'was', 'VBD'), ('in', 'IN', 'prep', 'tradesman', 'NN'), ('the', 'DT', 'det', 'light', 'NN'), ('light', 'NN', 'pobj', 'in', 'IN'), (',', ',', 'punct', 'was', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), (',', ',', 'punct', 'was', 'VBD'), ('being', 'VBG', 'auxpass', 'recognised', 'VBN'), ('recognised', 'VBN', 'advcl', 'was', 'VBD'), ('and', 'CC', 'cc', 'recognised', 'VBN'), ('\n', '_SP', 'dep', 'and', 'CC'), ('challenged', 'VBN', 'conj', 'recognised', 'VBN'), ('by', 'IN', 'agent', 'challenged', 'VBN'), ('his', 'PRP$', 'poss', 'tradesman', 'NN'), ('fellow', 'NN', 'compound', 'tradesman', 'NN'), ('-', 'HYPH', 'punct', 'tradesman', 'NN'), ('tradesman', 'NN', 'pobj', 'by', 'IN'), ('whom', 'WP'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[('so', 'RB', 'advmod', 'far', 'RB'), ('or', 'CC', 'cc', 'good', 'JJ'), ('and', 'CC', 'cc', 'jaw', 'NN'), ('and', 'CC', 'cc', 'jaw', 'NN'), ('and', 'CC', 'cc', 'loaves', 'NNS'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'five', 'CD'), ('and', 'CC', 'cc', 'London', 'NNP'), ('and', 'CC', 'cc', 'Crown', 'NNP'), ('and', 'CC', 'cc', 'shield', 'NN'), ('and', 'CC', 'cc', 'making', 'VBG'), ('and', 'CC', 'cc', 'torn', 'VBN'), ('because', 'IN', 'mark', 'kneeled', 'VBN'), ('or', 'CC', 'cc', 'fifty', 'CD'), ('and', 'CC', 'cc', 'France', 'NNP'), ('and', 'CC', 'cc', 'come', 'VB'), ('and', 'CC', 'cc', 'sack', 'NN'), ('and', 'CC', 'cc', 'snuffed', 'VBN'), ('But', 'CC', 'cc', 'heard', 'VBD'), ('and', 'CC', 'cc', 'Woodman', 'NNP'), ('and', 'CC', 'cc', 'Woodman', 'NNP'), ('and', 'CC', 'cc', 'atheistical', 'JJ'), ('and', 'CC', 'cc', 'order', 'NN'), ('and', 'CC', 'cc', 'men', 'NNS'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'recognised', 'VBN'), ('and', 'CC', 'cc', 'shot', 'VBD'), ('and', 'CC', 'cc', 'waylaid', 'VBN'), ('and', 'CC', 'cc', 'shot', 'VBD'), ('and', 'CC', 'cc', 'stand', 'VB'), ('and', 'CC', 'cc', 'fought', 'VBD'), ('and', 'CC', 'cc', 'shot', 'NN'), ('and', 'CC', 'cc', 'went', 'VBD'), ('and', 'CC', 'cc', 'fired', 'VBD'), ('and', 'CC', 'cc', 'went', 'VBD'), ('and', 'CC', 'cc', 'busy', 'JJ'), ('and', 'CC', 'cc', 'burning', 'VBG'), ('and', 'CC', 'cc', 'taking', 'VBG'), ('and', 'CC', 'cc', 'things', 'NNS'), ('and', 'CC', 'cc', 'pass', 'VB'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'Woodman', 'NNP'), ('and', 'CC', 'cc', 'two', 'CD'), ('and', 'CC', 'cc', 'two', 'CD'), ('and', 'CC', 'cc', 'worked', 'VBD'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'conduct', 'VBP'), ('because', 'IN', 'mark', 'had', 'VBD'), ('but', 'CC', 'cc', 'had', 'VBD'), ('because', 'IN', 'mark', 'were', 'VBD'), ('and', 'CC', 'cc', 'hill', 'NN'), ('and', 'CC', 'cc', 'hill', 'NN'), ('and', 'CC', 'cc', 'mud', 'NN'), ('so', 'RB', 'advmod', 'heavy', 'JJ'), ('and', 'CC', 'cc', 'Reins', 'NNS'), ('and', 'CC', 'cc', 'whip', 'NN'), ('and', 'CC', 'cc', 'coachman', 'NN'), ('however', 'RB', 'advmod', 'read', 'VBN'), ('and', 'CC', 'cc', 'read', 'VBN'), ('and', 'CC', 'cc', 'capitulated', 'VBN'), ('and', 'CC', 'cc', 'heads', 'NNS'), ('and', 'CC', 'cc', 'floundering', 'VBG'), ('and', 'CC', 'cc', 'rested', 'VBD'), ('so', 'RB', 'advmod', 'ho', 'NN'), ('and', 'CC', 'cc', 'head', 'NN'), ('and', 'CC', 'cc', 'started', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'rest', 'NN'), ('and', 'CC', 'cc', 'clammy', 'JJ'), ('and', 'CC', 'cc', 'followed', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'workings', 'NNS'), ('and', 'CC', 'cc', 'workings', 'NNS'), ('and', 'CC', 'cc', 'to', 'IN'), ('and', 'CC', 'cc', 'wrapped', 'VBN'), ('and', 'CC', 'cc', 'said', 'VBN'), ('or', 'CC', 'cc', 'robber', 'NN'), ('and', 'CC', 'cc', 'house', 'NN'), ('So', 'RB', 'advmod', 'thought', 'VBD'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'beating', 'VBG'), ('and', 'CC', 'cc', 'eye', 'NN'), ('or', 'CC', 'cc', 'six', 'CD'), ('and', 'CC', 'cc', 'one', 'NN'), ('and', 'CC', 'cc', 'suspected', 'VBD'), ('but', 'IN', 'prep', 'nothing', 'NN'), ('So', 'RB', 'advmod', 'then', 'RB'), ('and', 'CC', 'cc', 'pull', 'VB'), ('and', 'CC', 'cc', '’re', 'VBP'), ('and', 'CC', 'cc', 'ejaculated', 'VBD'), ('and', 'CC', 'cc', 'made', 'VBD'), ('and', 'CC', 'cc', 'stopped', 'VBN'), ('and', 'CC', 'cc', 'mist', 'NN'), ('and', 'CC', 'cc', 'stopped', 'VBD'), ('and', 'CC', 'cc', 'got', 'VBD'), ('and', 'CC', 'cc', 'leaving', 'VBG'), ('and', 'CC', 'cc', 'cocked', 'VBD'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'coach', 'NN'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'pricked', 'VBD'), ('and', 'CC', 'cc', 'rumbling', 'VBG'), ('but', 'CC', 'cc', 'beat', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'holding', 'VBG'), ('and', 'CC', 'cc', 'fast', 'JJ'), ('So', 'NNP', 'compound', 'ho', 'NN'), ('and', 'CC', 'cc', 'checked', 'VBN'), ('and', 'CC', 'cc', 'splashing', 'NN'), ('and', 'CC', 'cc', 'coachman', 'NN'), ('because', 'IN', 'mark', 'set', 'VBN'), ('and', 'CC', 'cc', 'T.', 'NNP'), ('and', 'CC', 'cc', 'shut', 'VBD'), ('but', 'CC', 'cc', 'hope', 'VBP'), ('so', 'RB', 'advmod', 'make', 'VB'), ('And', 'CC', 'cc', 'hallo', 'VB'), ('And', 'CC', 'cc', 'let', 'VB'), ('and', 'CC', 'cc', '’m', 'VBP'), ('So', 'RB', 'advmod', 'let', 'VBD'), ('and', 'CC', 'cc', 'horse', 'NN'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'stooped', 'VBD'), ('and', 'CC', 'cc', 'blown', 'VBN'), ('and', 'CC', 'cc', 'horse', 'NN'), ('and', 'CC', 'cc', 'left', 'NN'), ('so', 'RB', 'advmod', 'be', 'VB'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('and', 'CC', 'cc', 'first', 'RB'), ('and', 'CC', 'cc', 'Take', 'VB'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('and', 'CC', 'cc', 'watches', 'NNS'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('and', 'CC', 'cc', 'replaced', 'VBD'), ('and', 'CC', 'cc', 'looked', 'VBN'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'blown', 'VBN'), ('and', 'CC', 'cc', 'flint', 'NN'), ('and', 'CC', 'cc', 'keep', 'VB'), ('and', 'CC', 'cc', 'safety', 'NN'), ('and', 'CC', 'cc', 'mist', 'NN'), ('but', 'CC', 'cc', 'ease', 'VB'), ('and', 'CC', 'cc', 'wipe', 'VB'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'secret', 'NN'), ('and', 'CC', 'cc', 'turn', 'VB'), ('and', 'CC', 'cc', 'treasure', 'NN'), ('and', 'CC', 'cc', 'ever', 'RB'), ('but', 'CC', 'cc', 'read', 'VBN'), ('and', 'CC', 'cc', 'appointed', 'VBN'), ('and', 'CC', 'cc', 'consolidation', 'NN'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('or', 'CC', 'cc', 'to', 'IN'), ('and', 'CC', 'cc', 'natural', 'JJ'), ('or', 'CC', 'cc', 'Minister', 'NNP'), ('So', 'RB', 'advmod', 'shut', 'VBD'), ('and', 'CC', 'cc', 'coach', 'NN'), ('or', 'CC', 'cc', 'coach', 'NN'), ('and', 'CC', 'cc', 'coach', 'NN'), ('and', 'CC', 'cc', 'him', 'PRP'), ('but', 'CC', 'cc', 'stopping', 'VBG'), ('and', 'CC', 'cc', 'keep', 'VB'), ('or', 'CC', 'cc', 'colour', 'NN'), ('and', 'CC', 'cc', 'being', 'VBG'), ('and', 'CC', 'cc', 'under', 'IN'), ('and', 'CC', 'cc', 'chin', 'NN'), ('and', 'CC', 'cc', 'standing', 'VBG'), ('so', 'RB', 'advmod', 'was', 'VBD'), ('so', 'RB', 'advmod', 'more', 'RBR'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'rattled', 'JJ'), ('and', 'CC', 'cc', 'eyes', 'NNS'), ('and', 'CC', 'cc', 'passenger', 'NN'), ('and', 'CC', 'cc', 'windows', 'NNS'), ('and', 'CC', 'cc', 'driving', 'VBG'), ('and', 'CC', 'cc', 'became', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'foreign', 'JJ'), ('and', 'CC', 'cc', 'stores', 'NNS'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('and', 'CC', 'cc', 'keys', 'NNS'), ('and', 'CC', 'cc', 'went', 'VBD'), ('and', 'CC', 'cc', 'safe', 'JJ'), ('and', 'CC', 'cc', 'strong', 'JJ'), ('and', 'CC', 'cc', 'sound', 'JJ'), ('But', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'indicate', 'VB'), ('and', 'CC', 'cc', 'five', 'CD'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'differed', 'VBD'), ('and', 'CC', 'cc', 'worn', 'JJ'), ('so', 'RB', 'advmod', 'did', 'VBD'), ('and', 'CC', 'cc', 'hands', 'NNS'), ('But', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('so', 'RB', 'advmod', 'tell', 'VBP'), ('and', 'CC', 'cc', 'come', 'VB'), ('and', 'CC', 'cc', 'various', 'JJ'), ('and', 'CC', 'cc', 'given', 'VBN'), ('and', 'CC', 'cc', 'staring', 'VBG'), ('and', 'CC', 'cc', 'staring', 'VBG'), ('and', 'CC', 'cc', 'dig', 'VB'), ('and', 'CC', 'cc', 'face', 'NN'), ('and', 'CC', 'cc', 'start', 'VB'), ('and', 'CC', 'cc', 'mist', 'NN'), ('and', 'CC', 'cc', 'mist', 'NN'), ('and', 'CC', 'cc', 'opened', 'VBN'), ('and', 'CC', 'cc', 'express', 'NN'), ('and', 'CC', 'cc', 'rise', 'VB'), ('and', 'CC', 'cc', 'draw', 'VB'), ('and', 'CC', 'cc', 'admonish', 'VB'), ('and', 'CC', 'cc', 'bank', 'NN'), ('and', 'CC', 'cc', 'started', 'VBD'), ('and', 'CC', 'cc', 'lowered', 'VBD'), ('and', 'CC', 'cc', 'red', 'JJ'), ('and', 'CC', 'cc', 'cold', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'placid', 'JJ'), ('and', 'CC', 'cc', 'damp', 'JJ'), ('and', 'CC', 'cc', 'smell', 'NN'), ('and', 'CC', 'cc', 'hat', 'NN'), ('and', 'CC', 'cc', 'holds', 'VBZ'), ('but', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'want', 'VBP'), ('And', 'CC', 'cc', 'breakfast', 'NN'), ('and', 'CC', 'cc', 'valise', 'NN'), ('and', 'CC', 'cc', 'assigned', 'VBN'), ('although', 'IN', 'mark', 'seen', 'VBN'), ('but', 'CC', 'cc', 'seen', 'VBN'), ('and', 'CC', 'cc', 'kinds', 'NNS'), ('and', 'CC', 'cc', 'drawer', 'NN'), ('and', 'CC', 'cc', 'porters', 'NNS'), ('and', 'CC', 'cc', 'maids', 'NNS'), ('and', 'CC', 'cc', 'Concord', 'NNP'), ('but', 'CC', 'cc', 'gentleman', 'NN'), ('and', 'CC', 'cc', 'cuffs', 'NNS'), ('and', 'CC', 'cc', 'drawn', 'VBN'), ('so', 'RB', 'advmod', 'sat', 'VBD'), ('and', 'CC', 'cc', 'orderly', 'JJ'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'gravity', 'NN'), ('and', 'CC', 'cc', 'levity', 'NN'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'sleek', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'shoes', 'NNS'), ('but', 'CC', 'cc', 'wore', 'VBD'), ('or', 'CC', 'cc', 'silk', 'NN'), ('or', 'CC', 'cc', 'beach', 'NN'), ('and', 'CC', 'cc', 'suppressed', 'VBN'), ('and', 'CC', 'cc', 'composed', 'VBN'), ('and', 'CC', 'cc', 'had', 'VBD'), ('But', 'CC', 'cc', 'occupied', 'VBN'), ('and', 'CC', 'cc', 'occupied', 'VBN'), ('and', 'CC', 'cc', 'off', 'RB'), ('and', 'CC', 'cc', 'roused', 'VBD'), ('or', 'CC', 'cc', 'ask', 'VB'), ('and', 'CC', 'cc', 'travelling', 'VBG'), ('and', 'CC', 'cc', 'London', 'NNP'), ('and', 'CC', 'cc', 'Tellson', 'NNP'), ('so', 'RB', 'advmod', 'believe', 'VBP'), ('But', 'CC', 'cc', 'hold', 'VB'), ('and', 'CC', 'cc', 'Tellson', 'NNP'), ('and', 'CC', 'cc', 'treble', 'VB'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'mouth', 'NN'), ('and', 'CC', 'cc', 'dropped', 'VBD'), ('and', 'CC', 'cc', 'ate', 'VBD'), ('or', 'CC', 'cc', 'observatory', 'NN'), ('and', 'CC', 'cc', 'hid', 'VBD'), ('and', 'CC', 'cc', 'sea', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'did', 'VBD'), ('and', 'CC', 'cc', 'thundered', 'VBD'), ('and', 'CC', 'cc', 'thundered', 'VBD'), ('so', 'RB', 'advmod', 'strong', 'JJ'), ('and', 'CC', 'cc', 'done', 'VBN'), ('and', 'CC', 'cc', 'quantity', 'NN'), ('and', 'CC', 'cc', 'at', 'IN'), ('and', 'CC', 'cc', 'tradesmen', 'NNS'), ('and', 'CC', 'cc', 'declined', 'VBD'), ('and', 'CC', 'cc', 'mist', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'came', 'VBD'), ('So', 'RB', 'advmod', 'soon', 'RB'), ('and', 'CC', 'cc', 'taken', 'VBN'), ('and', 'CC', 'cc', 'required', 'VBD'), ('and', 'CC', 'cc', 'pleasure', 'NN'), ('but', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'settle', 'VB'), ('and', 'CC', 'cc', 'furnished', 'VBN'), ('and', 'CC', 'cc', 'oiled', 'VBN'), ('and', 'CC', 'cc', 'buried', 'VBN'), ('so', 'RB', 'advmod', 'difficult', 'JJ'), ('and', 'CC', 'cc', 'them', 'PRP'), ('and', 'CC', 'cc', 'saw', 'VBD'), ('and', 'CC', 'cc', 'pair', 'NN'), ('and', 'CC', 'cc', 'young', 'JJ'), ('and', 'CC', 'cc', 'rifting', 'VBG'), ('or', 'CC', 'cc', 'one', 'CD'), ('or', 'CC', 'cc', 'wonder', 'NN'), ('or', 'CC', 'cc', 'alarm', 'NN'), ('and', 'CC', 'cc', 'drifted', 'VBD'), ('and', 'CC', 'cc', 'headless', 'NN'), ('and', 'CC', 'cc', 'passed', 'VBD'), ('and', 'CC', 'cc', 'clear', 'JJ'), ('but', 'CC', 'cc', 'foreign', 'JJ'), ('and', 'CC', 'cc', 'made', 'VBD'), ('or', 'CC', 'cc', 'intelligence', 'NN'), ('so', 'RB', 'advmod', 'long', 'JJ'), ('and', 'CC', 'cc', 'moved', 'VBD'), ('so', 'RB', 'advmod', 'good', 'JJ'), ('and', 'CC', 'cc', 'older', 'JJR'), ('and', 'CC', 'cc', 'considered', 'VBN'), ('so', 'RB', 'advmod', 'kind', 'RB'), ('and', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'am', 'VBP'), ('but', 'CC', 'cc', 'left', 'VBN'), ('and', 'CC', 'cc', 'explain', 'VB'), ('and', 'CC', 'cc', 'done', 'VBN'), ('and', 'CC', 'cc', 'strong', 'JJ'), ('but', 'CC', 'cc', 'begin', 'VB'), ('but', 'CC', 'cc', 'lifted', 'VBD'), ('and', 'CC', 'cc', 'pretty', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('or', 'CC', 'cc', 'raised', 'VBD'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('and', 'CC', 'cc', 'eyebrows', 'NNS'), ('and', 'CC', 'cc', 'delicate', 'JJ'), ('and', 'CC', 'cc', 'watched', 'VBD'), ('but', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'lady', 'NN'), ('and', 'CC', 'cc', 'gentlemen', 'NNS'), ('or', 'CC', 'cc', 'am', 'VBP'), ('or', 'CC', 'cc', 'kind', 'NN'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'conducted', 'VBD'), ('and', 'CC', 'cc', 'holding', 'VBG'), ('or', 'CC', 'cc', 'pull', 'VB'), ('And', 'CC', 'cc', 'see', 'VB'), ('and', 'CC', 'cc', 'see', 'VB'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'be', 'VB'), ('So', 'RB', 'advmod', 'far', 'RB'), ('And', 'CC', 'cc', 'caught', 'VBD'), ('so', 'RB', 'advmod', 'violent', 'JJ'), ('so', 'RB', 'advmod', 'discomposed', 'VBD'), ('and', 'CC', 'cc', 'discomposed', 'VBD'), ('and', 'CC', 'cc', 'suddenly', 'RB'), ('and', 'CC', 'cc', 'implored', 'VBN'), ('but', 'IN', 'cc', 'bear', 'VB'), ('and', 'CC', 'cc', 'speak', 'VBP'), ('and', 'CC', 'cc', 'courage', 'NN'), ('so', 'RB', 'advmod', 'intensely', 'RB'), ('so', 'RB', 'advmod', 'intensely', 'RB'), ('and', 'CC', 'cc', 'confuse', 'VBP'), ('or', 'CC', 'cc', 'are', 'VBP'), ('so', 'RB', 'advmod', 'encouraging', 'JJ'), ('so', 'RB', 'advmod', 'much', 'RB'), ('so', 'RB', 'advmod', 'still', 'RB'), ('and', 'CC', 'cc', 'sat', 'VBD'), ('so', 'RB', 'advmod', 'much', 'RB'), ('And', 'CC', 'cc', 'believe', 'VBP'), ('and', 'CC', 'cc', 'beautiful', 'JJ'), ('or', 'CC', 'cc', 'wore', 'VBD'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'to', 'IN'), ('or', 'CC', 'cc', 'discovery', 'NN'), ('and', 'CC', 'cc', 'felt', 'VBD'), ('so', 'RB', 'advmod', 'particularly', 'RB'), ('and', 'CC', 'cc', 'expression', 'NN'), ('and', 'CC', 'cc', 'pain', 'NN'), ('But', 'CC', 'cc', 'found', 'VBN'), ('and', 'CC', 'cc', 'taken', 'VBN'), ('and', 'CC', 'cc', 'ran', 'VBD'), ('and', 'CC', 'cc', 'best', 'JJS'), ('and', 'CC', 'cc', 'are', 'VBP'), ('and', 'CC', 'cc', 'are', 'VBP'), ('or', 'CC', 'cc', 'forgotten', 'VBN'), ('or', 'CC', 'cc', 'been', 'VBN'), ('because', 'IN', 'mark', 'be', 'VB'), ('or', 'CC', 'cc', 'anywhere', 'RB'), ('and', 'CC', 'cc', 'in', 'IN'), ('and', 'CC', 'cc', 'I', 'PRP'), ('and', 'CC', 'cc', 'entries', 'NNS'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'still', 'RB'), ('and', 'CC', 'cc', 'still', 'RB'), ('and', 'CC', 'cc', 'open', 'JJ'), ('and', 'CC', 'cc', 'open', 'JJ'), ('or', 'CC', 'cc', 'carved', 'VBN'), ('So', 'RB', 'advmod', 'was', 'VBD'), ('and', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'have', 'VB'), ('and', 'CC', 'cc', 'dressed', 'VBN'), ('and', 'CC', 'cc', 'woman', 'NN'), ('or', 'CC', 'cc', 'measure', 'NN'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'laying', 'VBG'), ('and', 'CC', 'cc', 'go', 'VB'), ('so', 'RB', 'advmod', 'much', 'JJ'), ('and', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'water', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'laid', 'VBD'), ('and', 'CC', 'cc', 'skill', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'spreading', 'VBG'), ('and', 'CC', 'cc', 'pride', 'NN'), ('And', 'CC', 'cc', 'you', 'PRP'), ('and', 'CC', 'cc', 'face', 'NN'), ('so', 'RB', 'advmod', 'exceedingly', 'RB'), ('so', 'RB', 'advmod', 'hard', 'RB'), ('and', 'CC', 'cc', 'sympathy', 'NN'), ('and', 'CC', 'cc', 'recovered', 'VBD'), ('and', 'CC', 'cc', 'sympathy', 'NN'), ('and', 'CC', 'cc', 'dropped', 'VBN'), ('and', 'CC', 'cc', 'burst', 'VBN'), ('or', 'CC', 'cc', 'suspended', 'VBN'), ('and', 'CC', 'cc', 'run', 'VB'), ('and', 'CC', 'cc', 'pointing', 'VBG'), ('or', 'CC', 'cc', 'by', 'IN'), ('and', 'CC', 'cc', 'made', 'VBD'), ('or', 'CC', 'cc', 'sipped', 'VBN'), ('and', 'CC', 'cc', 'men', 'NNS'), ('or', 'CC', 'cc', 'mugs', 'NNS'), ('and', 'CC', 'cc', 'darted', 'VBN'), ('and', 'CC', 'cc', 'sodden', 'JJ'), ('and', 'CC', 'cc', 'licking', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'taken', 'VBN'), ('so', 'RB', 'advmod', 'much', 'JJ'), ('and', 'CC', 'cc', 'sound', 'NN'), ('and', 'CC', 'cc', 'women', 'NNS'), ('and', 'CC', 'cc', 'roughness', 'NN'), ('or', 'CC', 'cc', 'luckier', 'JJR'), ('and', 'CC', 'cc', 'shaking', 'VBG'), ('and', 'CC', 'cc', 'hands', 'NNS'), ('and', 'CC', 'cc', 'gone', 'VBN'), ('and', 'CC', 'cc', 'fingers', 'NNS'), ('or', 'CC', 'cc', 'women', 'NNS'), ('and', 'CC', 'cc', 'locks', 'NNS'), ('and', 'CC', 'cc', 'moved', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'stained', 'VBN'), ('and', 'CC', 'cc', 'faces', 'NNS'), ('and', 'CC', 'cc', 'faces', 'NNS'), ('and', 'CC', 'cc', 'left', 'VBD'), ('and', 'CC', 'cc', 'acquired', 'VBN'), ('so', 'RB', 'advmod', 'besmirched', 'VBD'), ('and', 'CC', 'cc', 'spilled', 'VBN'), ('And', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'ignorance', 'NN'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'grinding', 'VBG'), ('and', 'CC', 'cc', 'Samples', 'NNS'), ('and', 'CC', 'cc', 'in', 'RP'), ('and', 'CC', 'cc', 'faces', 'NNS'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'upon', 'IN'), ('and', 'CC', 'cc', 'upon', 'IN'), ('and', 'CC', 'cc', 'ploughed', 'VBN'), ('and', 'CC', 'cc', 'poles', 'NNS'), ('and', 'CC', 'cc', 'straw', 'NN'), ('and', 'CC', 'cc', 'rag', 'NN'), ('and', 'CC', 'cc', 'wood', 'NN'), ('and', 'CC', 'cc', 'stared', 'VBD'), ('and', 'CC', 'cc', 'offence', 'NN'), ('and', 'CC', 'cc', 'rags', 'NNS'), ('and', 'CC', 'cc', 'peopled', 'VBN'), ('and', 'CC', 'cc', 'rags', 'NNS'), ('and', 'CC', 'cc', 'smelling', 'VBG'), ('and', 'CC', 'cc', 'Depressed', 'JJ'), ('or', 'CC', 'cc', 'enduring', 'JJ'), ('and', 'CC', 'cc', 'signs', 'NNS'), ('and', 'CC', 'cc', 'butcher', 'NN'), ('and', 'CC', 'cc', 'wine', 'NN'), ('and', 'CC', 'cc', 'croaked', 'VBD'), ('and', 'CC', 'cc', 'tools', 'NNS'), ('but', 'CC', 'cc', 'represented', 'VBN'), ('and', 'CC', 'cc', 'knives', 'NNS'), ('and', 'CC', 'cc', 'sharp', 'JJ'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'mud', 'NN'), ('but', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'ran', 'VBD'), ('and', 'CC', 'cc', 'rope', 'NN'), ('and', 'CC', 'cc', 'let', 'VBN'), ('and', 'CC', 'cc', 'let', 'VBN'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'ship', 'NN'), ('and', 'CC', 'cc', 'idleness', 'NN'), ('so', 'RB', 'advmod', 'long', 'RB'), ('and', 'CC', 'cc', 'watched', 'VBN'), ('and', 'CC', 'cc', 'ropes', 'NNS'), ('But', 'CC', 'cc', 'come', 'VBN'), ('and', 'CC', 'cc', 'come', 'VBN'), ('and', 'CC', 'cc', 'song', 'NN'), ('and', 'CC', 'cc', 'appearance', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'waistcoat', 'NN'), ('and', 'CC', 'cc', 'missed', 'VBD'), ('and', 'CC', 'cc', 'crossing', 'VBG'), ('and', 'CC', 'cc', 'picked', 'VBN'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'jerked', 'VBD'), ('and', 'CC', 'cc', 'wine', 'NN'), ('and', 'CC', 'cc', 'wiped', 'VBD'), ('and', 'CC', 'cc', 'recrossed', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('although', 'IN', 'mark', 'was', 'VBD'), ('but', 'CC', 'cc', 'wore', 'VBD'), ('and', 'CC', 'cc', 'rolled', 'VBN'), ('and', 'CC', 'cc', 'eyes', 'NNS'), ('but', 'CC', 'cc', 'looking', 'VBG'), ('and', 'CC', 'cc', 'man', 'NN'), ('and', 'CC', 'cc', 'features', 'NNS'), ('and', 'CC', 'cc', 'wrapped', 'VBN'), ('but', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'gentleman', 'NN'), ('But', 'CC', 'cc', 'feigned', 'VBD'), ('and', 'CC', 'cc', 'notice', 'VB'), ('and', 'CC', 'cc', 'coughed', 'VBD'), ('or', 'CC', 'cc', 'taste', 'NN'), ('but', 'IN', 'prep', 'anything', 'NN'), ('and', 'CC', 'cc', 'bread', 'NN'), ('so', 'RB', 'advmod', 'Is', 'VBZ'), ('so', 'RB', 'advmod', 'is', 'VBZ'), ('and', 'CC', 'cc', 'coughed', 'VBD'), ('and', 'CC', 'cc', 'put', 'VBD'), ('So', 'RB', 'advmod', 'much', 'RB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'kept', 'VBD'), ('and', 'CC', 'cc', 'acknowledged', 'VBD'), ('and', 'CC', 'cc', 'calmness', 'NN'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'wished', 'VBD'), ('But', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'paid', 'VBD'), ('and', 'CC', 'cc', 'studying', 'VBG'), ('and', 'CC', 'cc', 'said', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'started', 'VBD'), ('and', 'CC', 'cc', 'nodded', 'VBD'), ('and', 'CC', 'cc', 'beckoned', 'VBN'), ('and', 'CC', 'cc', 'fingers', 'NNS'), ('and', 'CC', 'cc', 'knitted', 'VBD'), ('and', 'CC', 'cc', 'Lorry', 'NNP'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('and', 'CC', 'cc', 'bent', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'left', 'VBN'), ('and', 'CC', 'cc', 'found', 'VBD'), ('and', 'CC', 'cc', 'demanded', 'VBD'), ('so', 'RB', 'advmod', 'is', 'VBZ'), ('and', 'CC', 'cc', 'stopped', 'VBD'), ('so', 'RB', 'advmod', 'forcible', 'JJ'), ('and', 'CC', 'cc', 'heavier', 'JJR'), ('and', 'CC', 'cc', 'he', 'PRP'), ('and', 'CC', 'cc', 'higher', 'JJR'), ('and', 'CC', 'cc', 'older', 'JJR'), ('but', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'unaccustomed', 'JJ'), ('or', 'CC', 'cc', 'room', 'NN'), ('and', 'CC', 'cc', 'uncontrollable', 'JJ'), ('so', 'RB', 'advmod', 'engendered', 'VBN'), ('and', 'CC', 'cc', 'poverty', 'NN'), ('and', 'CC', 'cc', 'dirt', 'NN'), ('and', 'CC', 'cc', 'Yielding', 'VBG'), ('and', 'CC', 'cc', 'seemed', 'VBD'), ('and', 'CC', 'cc', 'spoilt', 'NN'), ('and', 'CC', 'cc', 'caught', 'VBN'), ('or', 'CC', 'cc', 'nearer', 'NN'), ('or', 'CC', 'cc', 'life', 'NN'), ('and', 'CC', 'cc', 'gained', 'VBN'), ('and', 'CC', 'cc', 'of', 'IN'), ('and', 'CC', 'cc', 'going', 'VBG'), ('and', 'CC', 'cc', 'turned', 'VBD'), ('so', 'RB', 'advmod', 'retired', 'JJ'), ('and', 'CC', 'cc', 'whispered', 'VBD'), ('Because', 'IN', 'mark', 'lived', 'VBN'), ('so', 'RB', 'advmod', 'long', 'RB'), ('And', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'are', 'VBP'), ('but', 'CC', 'cc', 'possible', 'JJ'), ('so', 'RB', 'advmod', 'low', 'JJ'), ('But', 'CC', 'cc', 'trembled', 'VBD'), ('and', 'CC', 'cc', 'trembled', 'VBD'), ('and', 'CC', 'cc', 'expressed', 'VBD'), ('and', 'CC', 'cc', 'dread', 'NN'), ('or', 'CC', 'cc', 'two', 'CD'), ('but', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'slowly', 'RB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'came', 'VBD'), ('or', 'CC', 'cc', 'chinks', 'NNS'), ('and', 'CC', 'cc', 'turned', 'VBD'), ('and', 'CC', 'cc', 'rose', 'VBD'), ('and', 'CC', 'cc', 'three', 'CD'), ('and', 'CC', 'cc', 'appearing', 'VBG'), ('and', 'CC', 'cc', 'stooped', 'VBD'), ('or', 'CC', 'cc', 'twice', 'RB'), ('or', 'CC', 'cc', 'three', 'CD'), ('and', 'CC', 'cc', 'put', 'VBD'), ('and', 'CC', 'cc', 'opened', 'VBN'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'got', 'VBD'), ('and', 'CC', 'cc', 'by', 'IN'), ('and', 'CC', 'cc', 'lifted', 'VBD'), ('and', 'CC', 'cc', 'sat', 'VBD'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'methodically', 'RB'), ('and', 'CC', 'cc', 'loud', 'JJ'), ('and', 'CC', 'cc', 'stopped', 'VBD'), ('and', 'CC', 'cc', 'depository', 'NN'), ('and', 'CC', 'cc', 'dim', 'JJ'), ('and', 'CC', 'cc', 'unglazed', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'opened', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'for', 'IN'), ('and', 'CC', 'cc', 'forward', 'RB'), ('and', 'CC', 'cc', 'raised', 'VBN'), ('and', 'CC', 'cc', 'lifted', 'VBN'), ('and', 'CC', 'cc', 'pitiable', 'JJ'), ('and', 'CC', 'cc', 'confinement', 'NN'), ('and', 'CC', 'cc', 'solitude', 'NN'), ('and', 'CC', 'cc', 'long', 'JJ'), ('So', 'RB', 'advmod', 'lost', 'VBN'), ('and', 'CC', 'cc', 'life', 'NN'), ('So', 'RB', 'advmod', 'was', 'VBD'), ('and', 'CC', 'cc', 'sunken', 'VBN'), ('So', 'RB', 'advmod', 'was', 'VBD'), ('and', 'CC', 'cc', 'hopeless', 'JJ'), ('and', 'CC', 'cc', 'home', 'NN'), ('and', 'CC', 'cc', 'passed', 'VBN'), ('or', 'CC', 'cc', 'interest', 'NN'), ('but', 'CC', 'cc', 'with', 'IN'), ('and', 'CC', 'cc', 'opened', 'VBN'), ('and', 'CC', 'cc', 'fell', 'VBD'), ('and', 'CC', 'cc', 'tools', 'NNS'), ('and', 'CC', 'cc', 'at', 'IN'), ('but', 'CC', 'cc', 'cut', 'VBD'), ('and', 'CC', 'cc', 'face', 'NN'), ('and', 'CC', 'cc', 'hollowness', 'NN'), ('and', 'CC', 'cc', 'eyebrows', 'NNS'), ('but', 'CC', 'cc', 'caused', 'VBN'), ('and', 'CC', 'cc', 'were', 'VBD'), ('so', 'RB', 'advmod', 'looked', 'VBD'), ('and', 'CC', 'cc', 'lay', 'VBD'), ('and', 'CC', 'cc', 'withered', 'VBN'), ('and', 'CC', 'cc', 'He', 'PRP'), ('and', 'CC', 'cc', 'frock', 'NN'), ('and', 'CC', 'cc', 'stockings', 'NNS'), ('and', 'CC', 'cc', 'light', 'NN'), ('and', 'CC', 'cc', 'eyes', 'NNS'), ('and', 'CC', 'cc', 'put', 'VBN'), ('So', 'RB', 'advmod', 'sat', 'VBD'), ('and', 'CC', 'cc', 'wandering', 'VBG'), ('so', 'RB', 'advmod', 'suppose', 'VBP'), ('But', 'CC', 'cc', 'reminded', 'VBD'), ('and', 'CC', 'cc', 'reminded', 'VBD'), ('or', 'CC', 'cc', 'two', 'CD'), ('but', 'CC', 'cc', 'showed', 'VBD'), ('and', 'CC', 'cc', 'lips', 'NNS'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'dropped', 'VBD'), ('and', 'CC', 'cc', 'look', 'NN'), ('but', 'CC', 'cc', 'occupied', 'VBN'), ('but', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('And', 'CC', 'cc', 'name', 'NN'), ('and', 'CC', 'cc', 'laid', 'VBD'), ('and', 'CC', 'cc', 'laid', 'VBD'), ('and', 'CC', 'cc', 'passed', 'VBD'), ('so', 'RB', 'advmod', 'on', 'RB'), ('or', 'CC', 'cc', 'swoon', 'NN'), ('and', 'CC', 'cc', 'Hundred', 'CD'), ('and', 'CC', 'cc', 'Hundred', 'CD'), ('but', 'CC', 'cc', 'turned', 'VBD'), ('and', 'CC', 'cc', 'started', 'VBD'), ('and', 'CC', 'cc', 'asked', 'VBD'), ('and', 'CC', 'cc', 'got', 'VBD'), ('and', 'CC', 'cc', 'dropped', 'VBD'), ('and', 'CC', 'cc', 'at', 'IN'), ('but', 'CC', 'cc', 'gone', 'VBN'), ('And', 'CC', 'cc', 'was', 'VBD'), ('so', 'RB', 'advmod', 'exactly', 'RB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'keep', 'VB'), ('but', 'CC', 'cc', 'shut', 'VBD'), ('and', 'CC', 'cc', 'extending', 'VBG'), ('and', 'CC', 'cc', 'life', 'NN'), ('so', 'RB', 'advmod', 'exactly', 'RB'), ('and', 'CC', 'cc', 'less', 'JJR'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'sought', 'VBD'), ('and', 'CC', 'cc', 'took', 'VBD'), ('but', 'CC', 'cc', 'thought', 'VBD'), ('so', 'RB', 'advmod', 'well', 'RB'), ('and', 'CC', 'cc', 'put', 'VBN'), ('and', 'CC', 'cc', 'stood', 'VBD'), ('and', 'CC', 'cc', 'taken', 'VBN'), ('and', 'CC', 'cc', 'raised', 'VBD'), ('but', 'CC', 'cc', 'started', 'VBD'), ('and', 'CC', 'cc', 'stared', 'VBD'), ('and', 'CC', 'cc', 'quick', 'JJ'), ('and', 'CC', 'cc', 'put', 'VBD'), ('but', 'CC', 'cc', 'recoiled', 'VBD'), ('so', 'RB', 'advmod', 'did', 'VBD'), ('and', 'CC', 'cc', 'struck', 'VBD'), ('and', 'CC', 'cc', 'pushed', 'VBN'), ('and', 'CC', 'cc', 'little', 'JJ'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'went', 'VBD'), ('But', 'CC', 'cc', 'for', 'IN'), ('or', 'CC', 'cc', 'two', 'CD'), ('and', 'CC', 'cc', 'put', 'VBD'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('or', 'CC', 'cc', 'one', 'CD'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'turned', 'VBD'), ('and', 'CC', 'cc', 'had', 'VBD'), ('But', 'CC', 'cc', 'came', 'VBD'), ('But', 'CC', 'cc', 'sat', 'VBD'), ('and', 'CC', 'cc', 'sat', 'VBD'), ('and', 'CC', 'cc', 'released', 'VBD'), ('but', 'CC', 'cc', 'everything', 'NN'), ('and', 'CC', 'cc', 'died', 'VBD'), ('and', 'CC', 'cc', 'refolded', 'VBD'), ('but', 'CC', 'cc', 'refolded', 'VBD'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'tone', 'NN'), ('and', 'CC', 'cc', 'know', 'VB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'father', 'NN'), ('But', 'CC', 'cc', 'tell', 'VB'), ('and', 'CC', 'cc', 'tell', 'VB'), ('and', 'CC', 'cc', 'here', 'RB'), ('and', 'CC', 'cc', 'touch', 'VB'), ('and', 'CC', 'cc', 'warmed', 'VBD'), ('so', 'RB', 'advmod', 'is', 'VBZ'), ('but', 'CC', 'cc', 'know', 'VB'), ('and', 'CC', 'cc', 'young', 'JJ'), ('and', 'CC', 'cc', 'with', 'IN'), ('and', 'CC', 'cc', 'held', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'come', 'VBN'), ('and', 'CC', 'cc', 'at', 'IN'), ('and', 'CC', 'cc', 'cause', 'VBP'), ('so', 'RB', 'advmod', 'wicked', 'JJ'), ('And', 'CC', 'cc', 'learn', 'VBP'), ('and', 'CC', 'cc', 'tell', 'VB'), ('and', 'CC', 'cc', 'tell', 'VB'), ('and', 'CC', 'cc', 'have', 'VBP'), ('and', 'CC', 'cc', 'striven', 'VBN'), ('and', 'CC', 'cc', 'lain', 'VB'), ('because', 'IN', 'mark', 'hid', 'VBD'), ('and', 'CC', 'cc', 'Weep', 'VB'), ('and', 'CC', 'cc', 'feel', 'VBP'), ('and', 'CC', 'cc', 'sunk', 'VBN'), ('so', 'RB', 'advmod', 'touching', 'JJ'), ('so', 'RB', 'advmod', 'terrible', 'JJ'), ('and', 'CC', 'cc', 'wrong', 'NN'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'breast', 'NN'), ('and', 'CC', 'cc', 'rest', 'NN'), ('and', 'CC', 'cc', 'father', 'NN'), ('and', 'CC', 'cc', 'dropped', 'VBN'), ('and', 'CC', 'cc', 'lie', 'VB'), ('so', 'IN', 'mark', 'taken', 'VBN'), ('But', 'CC', 'cc', 'consider', 'VB'), ('so', 'RB', 'advmod', 'dreadful', 'JJ'), ('and', 'CC', 'cc', 'look', 'VB'), ('and', 'CC', 'cc', 'carriage', 'NN'), ('and', 'CC', 'cc', 'do', 'VB'), ('so', 'RB', 'advmod', 'kind', 'JJ'), ('and', 'CC', 'cc', 'see', 'VBP'), ('and', 'CC', 'cc', 'take', 'VB'), ('and', 'CC', 'cc', 'Lorry', 'NNP'), ('and', 'CC', 'cc', 'were', 'VBD'), ('But', 'CC', 'cc', 'drawing', 'VBG'), ('and', 'CC', 'cc', 'carriage', 'VB'), ('but', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'drawing', 'VBG'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'laid', 'VBD'), ('and', 'CC', 'cc', 'deepened', 'VBD'), ('and', 'CC', 'cc', 'darkness', 'NN'), ('and', 'CC', 'cc', 'Lorry', 'NNP'), ('and', 'CC', 'cc', 'made', 'VBN'), ('and', 'CC', 'cc', 'cloaks', 'NNS'), ('and', 'CC', 'cc', 'bread', 'NN'), ('and', 'CC', 'cc', 'wine', 'NN'), ('and', 'CC', 'cc', 'put', 'VBD'), ('but', 'CC', 'cc', 'nothing', 'NN'), ('and', 'CC', 'cc', 'put', 'VBD'), ('and', 'CC', 'cc', 'he', 'PRP'), ('and', 'CC', 'cc', 'roused', 'VBD'), ('but', 'CC', 'cc', 'tried', 'VBD'), ('so', 'RB', 'advmod', 'confused', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('so', 'RB', 'advmod', 'slow', 'JJ'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'ate', 'VBD'), ('and', 'CC', 'cc', 'eat', 'VB'), ('and', 'CC', 'cc', 'drank', 'VB'), ('and', 'CC', 'cc', 'cloak', 'NN'), ('and', 'CC', 'cc', 'drawing', 'VBG'), ('and', 'CC', 'cc', 'drawing', 'VBG'), ('and', 'CC', 'cc', 'traversed', 'VBN'), ('and', 'CC', 'cc', 'stared', 'VBD'), ('But', 'CC', 'cc', 'murmured', 'VBD'), ('so', 'RB', 'advmod', 'long', 'RB'), ('and', 'CC', 'cc', 'Hundred', 'CD'), ('and', 'CC', 'cc', 'heard', 'VBD'), ('and', 'CC', 'cc', 'altered', 'VBD'), ('and', 'CC', 'cc', 'altered', 'VBD'), ('and', 'CC', 'cc', 'dropped', 'VBD'), ('and', 'CC', 'cc', 'silence', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'knitting', 'NN'), ('and', 'CC', 'cc', 'got', 'VBN'), ('and', 'CC', 'cc', 'tools', 'NNS'), ('and', 'CC', 'cc', 'get', 'VB'), ('and', 'CC', 'cc', 'brought', 'VBD'), ('and', 'CC', 'cc', 'leaned', 'VBN'), ('and', 'CC', 'cc', 'got', 'VBD'), ('and', 'CC', 'cc', 'cracked', 'VBD'), ('and', 'CC', 'cc', 'swinging', 'VBG'), ('and', 'CC', 'cc', 'swinging', 'VBG'), ('and', 'CC', 'cc', 'houses', 'NNS'), ('and', 'CC', 'cc', 'getting', 'VBG'), ('and', 'CC', 'cc', 'was', 'VBD'), ('or', 'CC', 'cc', 'day', 'NN'), ('And', 'CC', 'ROOT', 'And', 'CC'), ('so', 'RB', 'advmod', 'And', 'CC'), ('and', 'CC', 'cc', 'feebler', 'NN'), ('and', 'CC', 'cc', 'unmoved', 'JJ'), ('so', 'RB', 'advmod', 'remote', 'RB'), ('or', 'CC', 'cc', 'suffered', 'VBN'), ('and', 'CC', 'cc', 'broad', 'JJ'), ('and', 'CC', 'cc', 'cold', 'JJ'), ('and', 'CC', 'cc', 'whispered', 'VBN'), ('and', 'CC', 'cc', 'whispered', 'VBN'), ('And', 'CC', 'cc', 'answer', 'NN'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'were', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'Noakes', 'NNP'), ('or', 'CC', 'cc', 'Noakes', 'NNP'), ('but', 'CC', 'cc', 'might', 'MD'), ('and', 'CC', 'cc', 'laws', 'NNS'), ('but', 'CC', 'cc', 'disinherit', 'VB'), ('and', 'CC', 'cc', 'fell', 'VBD'), ('and', 'CC', 'cc', 'examined', 'VBD'), ('and', 'CC', 'cc', 'made', 'VBN'), ('and', 'CC', 'cc', 'put', 'VBN'), ('or', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'flew', 'VBD'), ('and', 'CC', 'cc', 'opened', 'VBN'), ('and', 'CC', 'cc', 'stowed', 'VBN'), ('or', 'CC', 'cc', 'two', 'CD'), ('and', 'CC', 'cc', 'kitchens', 'NNS'), ('and', 'CC', 'cc', 'got', 'VBD'), ('and', 'CC', 'cc', </t>
-  </si>
-  <si>
-    <t>[('or', 'CC', 'cc', 'good', 'JJ'), ('and', 'CC', 'cc', 'jaw', 'NN'), ('and', 'CC', 'cc', 'jaw', 'NN'), ('and', 'CC', 'cc', 'loaves', 'NNS'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'five', 'CD'), ('and', 'CC', 'cc', 'London', 'NNP'), ('and', 'CC', 'cc', 'Crown', 'NNP'), ('and', 'CC', 'cc', 'shield', 'NN'), ('and', 'CC', 'cc', 'making', 'VBG'), ('and', 'CC', 'cc', 'torn', 'VBN'), ('or', 'CC', 'cc', 'fifty', 'CD'), ('and', 'CC', 'cc', 'France', 'NNP'), ('and', 'CC', 'cc', 'come', 'VB'), ('and', 'CC', 'cc', 'sack', 'NN'), ('and', 'CC', 'cc', 'snuffed', 'VBN'), ('But', 'CC', 'cc', 'heard', 'VBD'), ('and', 'CC', 'cc', 'Woodman', 'NNP'), ('and', 'CC', 'cc', 'Woodman', 'NNP'), ('and', 'CC', 'cc', 'atheistical', 'JJ'), ('and', 'CC', 'cc', 'order', 'NN'), ('and', 'CC', 'cc', 'men', 'NNS'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'recognised', 'VBN'), ('and', 'CC', 'cc', 'shot', 'VBD'), ('and', 'CC', 'cc', 'waylaid', 'VBN'), ('and', 'CC', 'cc', 'shot', 'VBD'), ('and', 'CC', 'cc', 'stand', 'VB'), ('and', 'CC', 'cc', 'fought', 'VBD'), ('and', 'CC', 'cc', 'shot', 'NN'), ('and', 'CC', 'cc', 'went', 'VBD'), ('and', 'CC', 'cc', 'fired', 'VBD'), ('and', 'CC', 'cc', 'went', 'VBD'), ('and', 'CC', 'cc', 'busy', 'JJ'), ('and', 'CC', 'cc', 'burning', 'VBG'), ('and', 'CC', 'cc', 'taking', 'VBG'), ('and', 'CC', 'cc', 'things', 'NNS'), ('and', 'CC', 'cc', 'pass', 'VB'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'Woodman', 'NNP'), ('and', 'CC', 'cc', 'two', 'CD'), ('and', 'CC', 'cc', 'two', 'CD'), ('and', 'CC', 'cc', 'worked', 'VBD'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'conduct', 'VBP'), ('not', 'RB', 'cc', 'walked', 'VBD'), ('but', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'hill', 'NN'), ('and', 'CC', 'cc', 'hill', 'NN'), ('and', 'CC', 'cc', 'mud', 'NN'), ('and', 'CC', 'cc', 'Reins', 'NNS'), ('and', 'CC', 'cc', 'whip', 'NN'), ('and', 'CC', 'cc', 'coachman', 'NN'), ('and', 'CC', 'cc', 'read', 'VBN'), ('and', 'CC', 'cc', 'capitulated', 'VBN'), ('and', 'CC', 'cc', 'heads', 'NNS'), ('and', 'CC', 'cc', 'floundering', 'VBG'), ('and', 'CC', 'cc', 'rested', 'VBD'), ('and', 'CC', 'cc', 'head', 'NN'), ('and', 'CC', 'cc', 'started', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'rest', 'NN'), ('and', 'CC', 'cc', 'clammy', 'JJ'), ('and', 'CC', 'cc', 'followed', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'workings', 'NNS'), ('and', 'CC', 'cc', 'workings', 'NNS'), ('and', 'CC', 'cc', 'to', 'IN'), ('and', 'CC', 'cc', 'wrapped', 'VBN'), ('and', 'CC', 'cc', 'said', 'VBN'), ('or', 'CC', 'cc', 'robber', 'NN'), ('and', 'CC', 'cc', 'house', 'NN'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'beating', 'VBG'), ('and', 'CC', 'cc', 'eye', 'NN'), ('or', 'CC', 'cc', 'six', 'CD'), ('and', 'CC', 'cc', 'one', 'NN'), ('and', 'CC', 'cc', 'suspected', 'VBD'), ('and', 'CC', 'cc', 'pull', 'VB'), ('and', 'CC', 'cc', '’re', 'VBP'), ('and', 'CC', 'cc', 'ejaculated', 'VBD'), ('and', 'CC', 'cc', 'made', 'VBD'), ('and', 'CC', 'cc', 'stopped', 'VBN'), ('and', 'CC', 'cc', 'mist', 'NN'), ('and', 'CC', 'cc', 'stopped', 'VBD'), ('and', 'CC', 'cc', 'got', 'VBD'), ('and', 'CC', 'cc', 'leaving', 'VBG'), ('and', 'CC', 'cc', 'cocked', 'VBD'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'coach', 'NN'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'pricked', 'VBD'), ('and', 'CC', 'cc', 'rumbling', 'VBG'), ('but', 'CC', 'cc', 'beat', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'holding', 'VBG'), ('and', 'CC', 'cc', 'fast', 'JJ'), ('and', 'CC', 'cc', 'checked', 'VBN'), ('and', 'CC', 'cc', 'splashing', 'NN'), ('and', 'CC', 'cc', 'coachman', 'NN'), ('and', 'CC', 'cc', 'T.', 'NNP'), ('and', 'CC', 'cc', 'shut', 'VBD'), ('but', 'CC', 'cc', 'hope', 'VBP'), ('And', 'CC', 'cc', 'hallo', 'VB'), ('And', 'CC', 'cc', 'let', 'VB'), ('and', 'CC', 'cc', '’m', 'VBP'), ('and', 'CC', 'cc', 'horse', 'NN'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'stooped', 'VBD'), ('and', 'CC', 'cc', 'blown', 'VBN'), ('and', 'CC', 'cc', 'horse', 'NN'), ('and', 'CC', 'cc', 'left', 'NN'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('and', 'CC', 'cc', 'first', 'RB'), ('and', 'CC', 'cc', 'Take', 'VB'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('and', 'CC', 'cc', 'watches', 'NNS'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('and', 'CC', 'cc', 'replaced', 'VBD'), ('and', 'CC', 'cc', 'looked', 'VBN'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'blown', 'VBN'), ('and', 'CC', 'cc', 'flint', 'NN'), ('and', 'CC', 'cc', 'keep', 'VB'), ('and', 'CC', 'cc', 'safety', 'NN'), ('and', 'CC', 'cc', 'mist', 'NN'), ('but', 'CC', 'cc', 'ease', 'VB'), ('and', 'CC', 'cc', 'wipe', 'VB'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'secret', 'NN'), ('and', 'CC', 'cc', 'turn', 'VB'), ('and', 'CC', 'cc', 'treasure', 'NN'), ('and', 'CC', 'cc', 'ever', 'RB'), ('but', 'CC', 'cc', 'read', 'VBN'), ('and', 'CC', 'cc', 'appointed', 'VBN'), ('and', 'CC', 'cc', 'consolidation', 'NN'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('or', 'CC', 'cc', 'to', 'IN'), ('and', 'CC', 'cc', 'natural', 'JJ'), ('or', 'CC', 'cc', 'Minister', 'NNP'), ('and', 'CC', 'cc', 'coach', 'NN'), ('or', 'CC', 'cc', 'coach', 'NN'), ('and', 'CC', 'cc', 'coach', 'NN'), ('and', 'CC', 'cc', 'him', 'PRP'), ('but', 'CC', 'cc', 'stopping', 'VBG'), ('and', 'CC', 'cc', 'keep', 'VB'), ('or', 'CC', 'cc', 'colour', 'NN'), ('and', 'CC', 'cc', 'being', 'VBG'), ('and', 'CC', 'cc', 'under', 'IN'), ('and', 'CC', 'cc', 'chin', 'NN'), ('and', 'CC', 'cc', 'standing', 'VBG'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'rattled', 'JJ'), ('and', 'CC', 'cc', 'eyes', 'NNS'), ('and', 'CC', 'cc', 'passenger', 'NN'), ('and', 'CC', 'cc', 'windows', 'NNS'), ('and', 'CC', 'cc', 'driving', 'VBG'), ('and', 'CC', 'cc', 'became', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'foreign', 'JJ'), ('and', 'CC', 'cc', 'stores', 'NNS'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('and', 'CC', 'cc', 'keys', 'NNS'), ('and', 'CC', 'cc', 'went', 'VBD'), ('and', 'CC', 'cc', 'safe', 'JJ'), ('and', 'CC', 'cc', 'strong', 'JJ'), ('and', 'CC', 'cc', 'sound', 'JJ'), ('But', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'indicate', 'VB'), ('and', 'CC', 'cc', 'five', 'CD'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'differed', 'VBD'), ('and', 'CC', 'cc', 'worn', 'JJ'), ('and', 'CC', 'cc', 'hands', 'NNS'), ('But', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'come', 'VB'), ('and', 'CC', 'cc', 'various', 'JJ'), ('and', 'CC', 'cc', 'given', 'VBN'), ('and', 'CC', 'cc', 'staring', 'VBG'), ('and', 'CC', 'cc', 'staring', 'VBG'), ('and', 'CC', 'cc', 'dig', 'VB'), ('and', 'CC', 'cc', 'face', 'NN'), ('and', 'CC', 'cc', 'start', 'VB'), ('and', 'CC', 'cc', 'mist', 'NN'), ('Yet', 'CC', 'cc', 'fall', 'VB'), ('and', 'CC', 'cc', 'mist', 'NN'), ('and', 'CC', 'cc', 'opened', 'VBN'), ('and', 'CC', 'cc', 'express', 'NN'), ('and', 'CC', 'cc', 'rise', 'VB'), ('and', 'CC', 'cc', 'draw', 'VB'), ('and', 'CC', 'cc', 'admonish', 'VB'), ('and', 'CC', 'cc', 'bank', 'NN'), ('and', 'CC', 'cc', 'started', 'VBD'), ('and', 'CC', 'cc', 'lowered', 'VBD'), ('and', 'CC', 'cc', 'red', 'JJ'), ('and', 'CC', 'cc', 'cold', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'placid', 'JJ'), ('and', 'CC', 'cc', 'damp', 'JJ'), ('and', 'CC', 'cc', 'smell', 'NN'), ('and', 'CC', 'cc', 'hat', 'NN'), ('and', 'CC', 'cc', 'holds', 'VBZ'), ('but', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'want', 'VBP'), ('And', 'CC', 'cc', 'breakfast', 'NN'), ('and', 'CC', 'cc', 'valise', 'NN'), ('and', 'CC', 'cc', 'assigned', 'VBN'), ('but', 'CC', 'cc', 'seen', 'VBN'), ('and', 'CC', 'cc', 'kinds', 'NNS'), ('and', 'CC', 'cc', 'drawer', 'NN'), ('and', 'CC', 'cc', 'porters', 'NNS'), ('and', 'CC', 'cc', 'maids', 'NNS'), ('and', 'CC', 'cc', 'Concord', 'NNP'), ('but', 'CC', 'cc', 'gentleman', 'NN'), ('and', 'CC', 'cc', 'cuffs', 'NNS'), ('and', 'CC', 'cc', 'drawn', 'VBN'), ('and', 'CC', 'cc', 'orderly', 'JJ'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'gravity', 'NN'), ('and', 'CC', 'cc', 'levity', 'NN'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'sleek', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'shoes', 'NNS'), ('but', 'CC', 'cc', 'wore', 'VBD'), ('or', 'CC', 'cc', 'silk', 'NN'), ('or', 'CC', 'cc', 'beach', 'NN'), ('and', 'CC', 'cc', 'suppressed', 'VBN'), ('and', 'CC', 'cc', 'composed', 'VBN'), ('and', 'CC', 'cc', 'had', 'VBD'), ('But', 'CC', 'cc', 'occupied', 'VBN'), ('and', 'CC', 'cc', 'occupied', 'VBN'), ('and', 'CC', 'cc', 'off', 'RB'), ('and', 'CC', 'cc', 'roused', 'VBD'), ('or', 'CC', 'cc', 'ask', 'VB'), ('and', 'CC', 'cc', 'travelling', 'VBG'), ('and', 'CC', 'cc', 'London', 'NNP'), ('and', 'CC', 'cc', 'Tellson', 'NNP'), ('as', 'IN', 'cc', 'House', 'NNP'), ('But', 'CC', 'cc', 'hold', 'VB'), ('and', 'CC', 'cc', 'Tellson', 'NNP'), ('and', 'CC', 'cc', 'treble', 'VB'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'mouth', 'NN'), ('and', 'CC', 'cc', 'dropped', 'VBD'), ('and', 'CC', 'cc', 'ate', 'VBD'), ('or', 'CC', 'cc', 'observatory', 'NN'), ('and', 'CC', 'cc', 'hid', 'VBD'), ('and', 'CC', 'cc', 'sea', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'did', 'VBD'), ('and', 'CC', 'cc', 'thundered', 'VBD'), ('and', 'CC', 'cc', 'thundered', 'VBD'), ('and', 'CC', 'cc', 'done', 'VBN'), ('and', 'CC', 'cc', 'quantity', 'NN'), ('and', 'CC', 'cc', 'at', 'IN'), ('and', 'CC', 'cc', 'tradesmen', 'NNS'), ('and', 'CC', 'cc', 'declined', 'VBD'), ('and', 'CC', 'cc', 'mist', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'taken', 'VBN'), ('and', 'CC', 'cc', 'required', 'VBD'), ('and', 'CC', 'cc', 'pleasure', 'NN'), ('but', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'settle', 'VB'), ('and', 'CC', 'cc', 'furnished', 'VBN'), ('and', 'CC', 'cc', 'oiled', 'VBN'), ('and', 'CC', 'cc', 'buried', 'VBN'), ('and', 'CC', 'cc', 'them', 'PRP'), ('and', 'CC', 'cc', 'saw', 'VBD'), ('and', 'CC', 'cc', 'pair', 'NN'), ('and', 'CC', 'cc', 'young', 'JJ'), ('and', 'CC', 'cc', 'rifting', 'VBG'), ('or', 'CC', 'cc', 'one', 'CD'), ('or', 'CC', 'cc', 'wonder', 'NN'), ('or', 'CC', 'cc', 'alarm', 'NN'), ('and', 'CC', 'cc', 'drifted', 'VBD'), ('and', 'CC', 'cc', 'headless', 'NN'), ('and', 'CC', 'cc', 'passed', 'VBD'), ('and', 'CC', 'cc', 'clear', 'JJ'), ('but', 'CC', 'cc', 'foreign', 'JJ'), ('and', 'CC', 'cc', 'made', 'VBD'), ('or', 'CC', 'cc', 'intelligence', 'NN'), ('and', 'CC', 'cc', 'moved', 'VBD'), ('and', 'CC', 'cc', 'older', 'JJR'), ('and', 'CC', 'cc', 'considered', 'VBN'), ('and', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'am', 'VBP'), ('but', 'CC', 'cc', 'left', 'VBN'), ('and', 'CC', 'cc', 'explain', 'VB'), ('and', 'CC', 'cc', 'done', 'VBN'), ('and', 'CC', 'cc', 'strong', 'JJ'), ('but', 'CC', 'cc', 'begin', 'VB'), ('but', 'CC', 'cc', 'lifted', 'VBD'), ('and', 'CC', 'cc', 'pretty', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('or', 'CC', 'cc', 'raised', 'VBD'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('and', 'CC', 'cc', 'eyebrows', 'NNS'), ('and', 'CC', 'cc', 'delicate', 'JJ'), ('and', 'CC', 'cc', 'watched', 'VBD'), ('but', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'lady', 'NN'), ('and', 'CC', 'cc', 'gentlemen', 'NNS'), ('or', 'CC', 'cc', 'am', 'VBP'), ('or', 'CC', 'cc', 'kind', 'NN'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'conducted', 'VBD'), ('and', 'CC', 'cc', 'holding', 'VBG'), ('or', 'CC', 'cc', 'pull', 'VB'), ('And', 'CC', 'cc', 'see', 'VB'), ('and', 'CC', 'cc', 'see', 'VB'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'be', 'VB'), ('And', 'CC', 'cc', 'caught', 'VBD'), ('and', 'CC', 'cc', 'discomposed', 'VBD'), ('and', 'CC', 'cc', 'suddenly', 'RB'), ('and', 'CC', 'cc', 'implored', 'VBN'), ('but', 'IN', 'cc', 'bear', 'VB'), ('and', 'CC', 'cc', 'speak', 'VBP'), ('and', 'CC', 'cc', 'courage', 'NN'), ('and', 'CC', 'cc', 'confuse', 'VBP'), ('or', 'CC', 'cc', 'are', 'VBP'), ('and', 'CC', 'cc', 'sat', 'VBD'), ('And', 'CC', 'cc', 'believe', 'VBP'), ('and', 'CC', 'cc', 'beautiful', 'JJ'), ('or', 'CC', 'cc', 'wore', 'VBD'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'to', 'IN'), ('or', 'CC', 'cc', 'discovery', 'NN'), ('and', 'CC', 'cc', 'felt', 'VBD'), ('and', 'CC', 'cc', 'expression', 'NN'), ('and', 'CC', 'cc', 'pain', 'NN'), ('But', 'CC', 'cc', 'found', 'VBN'), ('and', 'CC', 'cc', 'taken', 'VBN'), ('and', 'CC', 'cc', 'ran', 'VBD'), ('and', 'CC', 'cc', 'best', 'JJS'), ('and', 'CC', 'cc', 'are', 'VBP'), ('and', 'CC', 'cc', 'are', 'VBP'), ('yet', 'CC', 'cc', 'been', 'VBN'), ('or', 'CC', 'cc', 'forgotten', 'VBN'), ('or', 'CC', 'cc', 'been', 'VBN'), ('or', 'CC', 'cc', 'anywhere', 'RB'), ('and', 'CC', 'cc', 'in', 'IN'), ('and', 'CC', 'cc', 'I', 'PRP'), ('and', 'CC', 'cc', 'entries', 'NNS'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'still', 'RB'), ('and', 'CC', 'cc', 'still', 'RB'), ('and', 'CC', 'cc', 'open', 'JJ'), ('and', 'CC', 'cc', 'open', 'JJ'), ('or', 'CC', 'cc', 'carved', 'VBN'), ('and', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'have', 'VB'), ('and', 'CC', 'cc', 'dressed', 'VBN'), ('and', 'CC', 'cc', 'woman', 'NN'), ('or', 'CC', 'cc', 'measure', 'NN'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'laying', 'VBG'), ('and', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'water', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'laid', 'VBD'), ('and', 'CC', 'cc', 'skill', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'spreading', 'VBG'), ('and', 'CC', 'cc', 'pride', 'NN'), ('And', 'CC', 'cc', 'you', 'PRP'), ('and', 'CC', 'cc', 'face', 'NN'), ('and', 'CC', 'cc', 'sympathy', 'NN'), ('and', 'CC', 'cc', 'recovered', 'VBD'), ('and', 'CC', 'cc', 'sympathy', 'NN'), ('and', 'CC', 'cc', 'dropped', 'VBN'), ('and', 'CC', 'cc', 'burst', 'VBN'), ('or', 'CC', 'cc', 'suspended', 'VBN'), ('and', 'CC', 'cc', 'run', 'VB'), ('and', 'CC', 'cc', 'pointing', 'VBG'), ('or', 'CC', 'cc', 'by', 'IN'), ('and', 'CC', 'cc', 'made', 'VBD'), ('or', 'CC', 'cc', 'sipped', 'VBN'), ('and', 'CC', 'cc', 'men', 'NNS'), ('or', 'CC', 'cc', 'mugs', 'NNS'), ('and', 'CC', 'cc', 'darted', 'VBN'), ('and', 'CC', 'cc', 'sodden', 'JJ'), ('and', 'CC', 'cc', 'licking', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'taken', 'VBN'), ('and', 'CC', 'cc', 'sound', 'NN'), ('and', 'CC', 'cc', 'women', 'NNS'), ('and', 'CC', 'cc', 'roughness', 'NN'), ('or', 'CC', 'cc', 'luckier', 'JJR'), ('and', 'CC', 'cc', 'shaking', 'VBG'), ('and', 'CC', 'cc', 'hands', 'NNS'), ('and', 'CC', 'cc', 'gone', 'VBN'), ('and', 'CC', 'cc', 'fingers', 'NNS'), ('or', 'CC', 'cc', 'women', 'NNS'), ('and', 'CC', 'cc', 'locks', 'NNS'), ('and', 'CC', 'cc', 'moved', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'stained', 'VBN'), ('and', 'CC', 'cc', 'faces', 'NNS'), ('and', 'CC', 'cc', 'faces', 'NNS'), ('and', 'CC', 'cc', 'left', 'VBD'), ('and', 'CC', 'cc', 'acquired', 'VBN'), ('and', 'CC', 'cc', 'spilled', 'VBN'), ('And', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'ignorance', 'NN'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'grinding', 'VBG'), ('and', 'CC', 'cc', 'Samples', 'NNS'), ('and', 'CC', 'cc', 'in', 'RP'), ('and', 'CC', 'cc', 'faces', 'NNS'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'upon', 'IN'), ('and', 'CC', 'cc', 'upon', 'IN'), ('and', 'CC', 'cc', 'ploughed', 'VBN'), ('and', 'CC', 'cc', 'poles', 'NNS'), ('and', 'CC', 'cc', 'straw', 'NN'), ('and', 'CC', 'cc', 'rag', 'NN'), ('and', 'CC', 'cc', 'wood', 'NN'), ('and', 'CC', 'cc', 'stared', 'VBD'), ('and', 'CC', 'cc', 'offence', 'NN'), ('and', 'CC', 'cc', 'rags', 'NNS'), ('and', 'CC', 'cc', 'peopled', 'VBN'), ('and', 'CC', 'cc', 'rags', 'NNS'), ('and', 'CC', 'cc', 'smelling', 'VBG'), ('and', 'CC', 'cc', 'Depressed', 'JJ'), ('nor', 'CC', 'cc', 'wanting', 'VBG'), ('nor', 'CC', 'cc', 'wanting', 'VBG'), ('or', 'CC', 'cc', 'enduring', 'JJ'), ('and', 'CC', 'cc', 'signs', 'NNS'), ('and', 'CC', 'cc', 'butcher', 'NN'), ('and', 'CC', 'cc', 'wine', 'NN'), ('and', 'CC', 'cc', 'croaked', 'VBD'), ('and', 'CC', 'cc', 'tools', 'NNS'), ('but', 'CC', 'cc', 'represented', 'VBN'), ('and', 'CC', 'cc', 'knives', 'NNS'), ('and', 'CC', 'cc', 'sharp', 'JJ'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'mud', 'NN'), ('but', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'ran', 'VBD'), ('and', 'CC', 'cc', 'rope', 'NN'), ('and', 'CC', 'cc', 'let', 'VBN'), ('and', 'CC', 'cc', 'let', 'VBN'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'ship', 'NN'), ('and', 'CC', 'cc', 'idleness', 'NN'), ('and', 'CC', 'cc', 'watched', 'VBN'), ('and', 'CC', 'cc', 'ropes', 'NNS'), ('But', 'CC', 'cc', 'come', 'VBN'), ('and', 'CC', 'cc', 'come', 'VBN'), ('and', 'CC', 'cc', 'song', 'NN'), ('and', 'CC', 'cc', 'appearance', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'waistcoat', 'NN'), ('and', 'CC', 'cc', 'missed', 'VBD'), ('and', 'CC', 'cc', 'crossing', 'VBG'), ('and', 'CC', 'cc', 'picked', 'VBN'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'jerked', 'VBD'), ('and', 'CC', 'cc', 'wine', 'NN'), ('and', 'CC', 'cc', 'wiped', 'VBD'), ('and', 'CC', 'cc', 'recrossed', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'wore', 'VBD'), ('and', 'CC', 'cc', 'rolled', 'VBN'), ('and', 'CC', 'cc', 'eyes', 'NNS'), ('but', 'CC', 'cc', 'looking', 'VBG'), ('and', 'CC', 'cc', 'man', 'NN'), ('and', 'CC', 'cc', 'features', 'NNS'), ('and', 'CC', 'cc', 'wrapped', 'VBN'), ('but', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'gentleman', 'NN'), ('But', 'CC', 'cc', 'feigned', 'VBD'), ('and', 'CC', 'cc', 'notice', 'VB'), ('and', 'CC', 'cc', 'coughed', 'VBD'), ('or', 'CC', 'cc', 'taste', 'NN'), ('and', 'CC', 'cc', 'bread', 'NN'), ('and', 'CC', 'cc', 'coughed', 'VBD'), ('and', 'CC', 'cc', 'put', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'kept', 'VBD'), ('and', 'CC', 'cc', 'acknowledged', 'VBD'), ('and', 'CC', 'cc', 'calmness', 'NN'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'wished', 'VBD'), ('But', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'paid', 'VBD'), ('and', 'CC', 'cc', 'studying', 'VBG'), ('and', 'CC', 'cc', 'said', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'started', 'VBD'), ('and', 'CC', 'cc', 'nodded', 'VBD'), ('and', 'CC', 'cc', 'beckoned', 'VBN'), ('and', 'CC', 'cc', 'fingers', 'NNS'), ('and', 'CC', 'cc', 'knitted', 'VBD'), ('and', 'CC', 'cc', 'Lorry', 'NNP'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('and', 'CC', 'cc', 'bent', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('nor', 'CC', 'cc', 'had', 'VBD'), ('but', 'CC', 'cc', 'left', 'VBN'), ('and', 'CC', 'cc', 'found', 'VBD'), ('and', 'CC', 'cc', 'demanded', 'VBD'), ('and', 'CC', 'cc', 'stopped', 'VBD'), ('and', 'CC', 'cc', 'heavier', 'JJR'), ('and', 'CC', 'cc', 'he', 'PRP'), ('and', 'CC', 'cc', 'higher', 'JJR'), ('and', 'CC', 'cc', 'older', 'JJR'), ('but', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'unaccustomed', 'JJ'), ('or', 'CC', 'cc', 'room', 'NN'), ('and', 'CC', 'cc', 'uncontrollable', 'JJ'), ('and', 'CC', 'cc', 'poverty', 'NN'), ('and', 'CC', 'cc', 'dirt', 'NN'), ('and', 'CC', 'cc', 'Yielding', 'VBG'), ('and', 'CC', 'cc', 'seemed', 'VBD'), ('and', 'CC', 'cc', 'spoilt', 'NN'), ('than', 'IN', 'cc', 'tastes', 'NNS'), ('and', 'CC', 'cc', 'caught', 'VBN'), ('or', 'CC', 'cc', 'nearer', 'NN'), ('or', 'CC', 'cc', 'life', 'NN'), ('and', 'CC', 'cc', 'gained', 'VBN'), ('and', 'CC', 'cc', 'of', 'IN'), ('and', 'CC', 'cc', 'going', 'VBG'), ('and', 'CC', 'cc', 'turned', 'VBD'), ('and', 'CC', 'cc', 'whispered', 'VBD'), ('And', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'are', 'VBP'), ('but', 'CC', 'cc', 'possible', 'JJ'), ('But', 'CC', 'cc', 'trembled', 'VBD'), ('and', 'CC', 'cc', 'trembled', 'VBD'), ('and', 'CC', 'cc', 'expressed', 'VBD'), ('and', 'CC', 'cc', 'dread', 'NN'), ('or', 'CC', 'cc', 'two', 'CD'), ('but', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'slowly', 'RB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'came', 'VBD'), ('or', 'CC', 'cc', 'chinks', 'NNS'), ('and', 'CC', 'cc', 'turned', 'VBD'), ('and', 'CC', 'cc', 'rose', 'VBD'), ('and', 'CC', 'cc', 'three', 'CD'), ('and', 'CC', 'cc', 'appearing', 'VBG'), ('and', 'CC', 'cc', 'stooped', 'VBD'), ('or', 'CC', 'cc', 'twice', 'RB'), ('or', 'CC', 'cc', 'three', 'CD'), ('and', 'CC', 'cc', 'put', 'VBD'), ('and', 'CC', 'cc', 'opened', 'VBN'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'got', 'VBD'), ('and', 'CC', 'cc', 'by', 'IN'), ('and', 'CC', 'cc', 'lifted', 'VBD'), ('and', 'CC', 'cc', 'sat', 'VBD'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'methodically', 'RB'), ('and', 'CC', 'cc', 'loud', 'JJ'), ('and', 'CC', 'cc', 'stopped', 'VBD'), ('and', 'CC', 'cc', 'depository', 'NN'), ('and', 'CC', 'cc', 'dim', 'JJ'), ('and', 'CC', 'cc', 'unglazed', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'opened', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'for', 'IN'), ('and', 'CC', 'cc', 'forward', 'RB'), ('and', 'CC', 'cc', 'raised', 'VBN'), ('and', 'CC', 'cc', 'lifted', 'VBN'), ('and', 'CC', 'cc', 'pitiable', 'JJ'), ('and', 'CC', 'cc', 'confinement', 'NN'), ('and', 'CC', 'cc', 'solitude', 'NN'), ('and', 'CC', 'cc', 'long', 'JJ'), ('and', 'CC', 'cc', 'life', 'NN'), ('and', 'CC', 'cc', 'sunken', 'VBN'), ('and', 'CC', 'cc', 'hopeless', 'JJ'), ('and', 'CC', 'cc', 'home', 'NN'), ('and', 'CC', 'cc', 'passed', 'VBN'), ('or', 'CC', 'cc', 'interest', 'NN'), ('but', 'CC', 'cc', 'with', 'IN'), ('and', 'CC', 'cc', 'opened', 'VBN'), ('and', 'CC', 'cc', 'fell', 'VBD'), ('and', 'CC', 'cc', 'tools', 'NNS'), ('and', 'CC', 'cc', 'at', 'IN'), ('but', 'CC', 'cc', 'cut', 'VBD'), ('and', 'CC', 'cc', 'face', 'NN'), ('and', 'CC', 'cc', 'hollowness', 'NN'), ('and', 'CC', 'cc', 'eyebrows', 'NNS'), ('but', 'CC', 'cc', 'caused', 'VBN'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'lay', 'VBD'), ('and', 'CC', 'cc', 'withered', 'VBN'), ('and', 'CC', 'cc', 'He', 'PRP'), ('and', 'CC', 'cc', 'frock', 'NN'), ('and', 'CC', 'cc', 'stockings', 'NNS'), ('and', 'CC', 'cc', 'light', 'NN'), ('and', 'CC', 'cc', 'eyes', 'NNS'), ('and', 'CC', 'cc', 'put', 'VBN'), ('and', 'CC', 'cc', 'wandering', 'VBG'), ('But', 'CC', 'cc', 'reminded', 'VBD'), ('and', 'CC', 'cc', 'reminded', 'VBD'), ('or', 'CC', 'cc', 'two', 'CD'), ('but', 'CC', 'cc', 'showed', 'VBD'), ('and', 'CC', 'cc', 'lips', 'NNS'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'dropped', 'VBD'), ('and', 'CC', 'cc', 'look', 'NN'), ('but', 'CC', 'cc', 'occupied', 'VBN'), ('but', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('And', 'CC', 'cc', 'name', 'NN'), ('and', 'CC', 'cc', 'laid', 'VBD'), ('and', 'CC', 'cc', 'laid', 'VBD'), ('and', 'CC', 'cc', 'passed', 'VBD'), ('or', 'CC', 'cc', 'swoon', 'NN'), ('and', 'CC', 'cc', 'Hundred', 'CD'), ('and', 'CC', 'cc', 'Hundred', 'CD'), ('nor', 'CC', 'cc', 'sigh', 'NN'), ('but', 'CC', 'cc', 'turned', 'VBD'), ('and', 'CC', 'cc', 'started', 'VBD'), ('and', 'CC', 'cc', 'asked', 'VBD'), ('and', 'CC', 'cc', 'got', 'VBD'), ('and', 'CC', 'cc', 'dropped', 'VBD'), ('and', 'CC', 'cc', 'at', 'IN'), ('but', 'CC', 'cc', 'gone', 'VBN'), ('And', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'keep', 'VB'), ('but', 'CC', 'cc', 'shut', 'VBD'), ('and', 'CC', 'cc', 'extending', 'VBG'), ('and', 'CC', 'cc', 'life', 'NN'), ('and', 'CC', 'cc', 'less', 'JJR'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'sought', 'VBD'), ('and', 'CC', 'cc', 'took', 'VBD'), ('but', 'CC', 'cc', 'thought', 'VBD'), ('and', 'CC', 'cc', 'put', 'VBN'), ('and', 'CC', 'cc', 'stood', 'VBD'), ('and', 'CC', 'cc', 'taken', 'VBN'), ('and', 'CC', 'cc', 'raised', 'VBD'), ('but', 'CC', 'cc', 'started', 'VBD'), ('and', 'CC', 'cc', 'stared', 'VBD'), ('and', 'CC', 'cc', 'quick', 'JJ'), ('and', 'CC', 'cc', 'put', 'VBD'), ('but', 'CC', 'cc', 'recoiled', 'VBD'), ('and', 'CC', 'cc', 'struck', 'VBD'), ('and', 'CC', 'cc', 'pushed', 'VBN'), ('and', 'CC', 'cc', 'little', 'JJ'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'went', 'VBD'), ('But', 'CC', 'cc', 'for', 'IN'), ('or', 'CC', 'cc', 'two', 'CD'), ('and', 'CC', 'cc', 'put', 'VBD'), ('and', 'CC', 'cc', 'opened', 'VBD'), ('or', 'CC', 'cc', 'one', 'CD'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'turned', 'VBD'), ('and', 'CC', 'cc', 'had', 'VBD'), ('But', 'CC', 'cc', 'came', 'VBD'), ('But', 'CC', 'cc', 'sat', 'VBD'), ('and', 'CC', 'cc', 'sat', 'VBD'), ('and', 'CC', 'cc', 'released', 'VBD'), ('but', 'CC', 'cc', 'everything', 'NN'), ('and', 'CC', 'cc', 'died', 'VBD'), ('and', 'CC', 'cc', 'refolded', 'VBD'), ('but', 'CC', 'cc', 'refolded', 'VBD'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'tone', 'NN'), ('and', 'CC', 'cc', 'know', 'VB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'father', 'NN'), ('But', 'CC', 'cc', 'tell', 'VB'), ('and', 'CC', 'cc', 'tell', 'VB'), ('and', 'CC', 'cc', 'here', 'RB'), ('and', 'CC', 'cc', 'touch', 'VB'), ('and', 'CC', 'cc', 'warmed', 'VBD'), ('but', 'CC', 'cc', 'know', 'VB'), ('and', 'CC', 'cc', 'young', 'JJ'), ('and', 'CC', 'cc', 'with', 'IN'), ('and', 'CC', 'cc', 'held', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'come', 'VBN'), ('and', 'CC', 'cc', 'at', 'IN'), ('and', 'CC', 'cc', 'cause', 'VBP'), ('And', 'CC', 'cc', 'learn', 'VBP'), ('and', 'CC', 'cc', 'tell', 'VB'), ('and', 'CC', 'cc', 'tell', 'VB'), ('and', 'CC', 'cc', 'have', 'VBP'), ('and', 'CC', 'cc', 'striven', 'VBN'), ('and', 'CC', 'cc', 'lain', 'VB'), ('and', 'CC', 'cc', 'Weep', 'VB'), ('and', 'CC', 'cc', 'feel', 'VBP'), ('and', 'CC', 'cc', 'sunk', 'VBN'), ('yet', 'CC', 'cc', 'sight', 'NN'), ('and', 'CC', 'cc', 'wrong', 'NN'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'breast', 'NN'), ('and', 'CC', 'cc', 'rest', 'NN'), ('and', 'CC', 'cc', 'father', 'NN'), ('and', 'CC', 'cc', 'dropped', 'VBN'), ('and', 'CC', 'cc', 'lie', 'VB'), ('But', 'CC', 'cc', 'consider', 'VB'), ('and', 'CC', 'cc', 'look', 'VB'), ('and', 'CC', 'cc', 'carriage', 'NN'), ('and', 'CC', 'cc', 'do', 'VB'), ('and', 'CC', 'cc', 'see', 'VBP'), ('and', 'CC', 'cc', 'take', 'VB'), ('and', 'CC', 'cc', 'Lorry', 'NNP'), ('and', 'CC', 'cc', 'were', 'VBD'), ('But', 'CC', 'cc', 'drawing', 'VBG'), ('and', 'CC', 'cc', 'carriage', 'VB'), ('but', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'drawing', 'VBG'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'laid', 'VBD'), ('and', 'CC', 'cc', 'deepened', 'VBD'), ('and', 'CC', 'cc', 'darkness', 'NN'), ('and', 'CC', 'cc', 'Lorry', 'NNP'), ('and', 'CC', 'cc', 'made', 'VBN'), ('and', 'CC', 'cc', 'cloaks', 'NNS'), ('and', 'CC', 'cc', 'bread', 'NN'), ('and', 'CC', 'cc', 'wine', 'NN'), ('and', 'CC', 'cc', 'put', 'VBD'), ('but', 'CC', 'cc', 'nothing', 'NN'), ('and', 'CC', 'cc', 'put', 'VBD'), ('and', 'CC', 'cc', 'he', 'PRP'), ('and', 'CC', 'cc', 'roused', 'VBD'), ('but', 'CC', 'cc', 'tried', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'ate', 'VBD'), ('and', 'CC', 'cc', 'eat', 'VB'), ('and', 'CC', 'cc', 'drank', 'VB'), ('and', 'CC', 'cc', 'cloak', 'NN'), ('and', 'CC', 'cc', 'drawing', 'VBG'), ('and', 'CC', 'cc', 'drawing', 'VBG'), ('and', 'CC', 'cc', 'traversed', 'VBN'), ('and', 'CC', 'cc', 'stared', 'VBD'), ('But', 'CC', 'cc', 'murmured', 'VBD'), ('and', 'CC', 'cc', 'Hundred', 'CD'), ('and', 'CC', 'cc', 'heard', 'VBD'), ('and', 'CC', 'cc', 'altered', 'VBD'), ('and', 'CC', 'cc', 'altered', 'VBD'), ('and', 'CC', 'cc', 'dropped', 'VBD'), ('and', 'CC', 'cc', 'silence', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'knitting', 'NN'), ('and', 'CC', 'cc', 'got', 'VBN'), ('and', 'CC', 'cc', 'tools', 'NNS'), ('and', 'CC', 'cc', 'get', 'VB'), ('and', 'CC', 'cc', 'brought', 'VBD'), ('and', 'CC', 'cc', 'leaned', 'VBN'), ('and', 'CC', 'cc', 'got', 'VBD'), ('and', 'CC', 'cc', 'cracked', 'VBD'), ('and', 'CC', 'cc', 'swinging', 'VBG'), ('and', 'CC', 'cc', 'swinging', 'VBG'), ('and', 'CC', 'cc', 'houses', 'NNS'), ('and', 'CC', 'cc', 'getting', 'VBG'), ('and', 'CC', 'cc', 'was', 'VBD'), ('or', 'CC', 'cc', 'day', 'NN'), ('and', 'CC', 'cc', 'feebler', 'NN'), ('and', 'CC', 'cc', 'unmoved', 'JJ'), ('or', 'CC', 'cc', 'suffered', 'VBN'), ('and', 'CC', 'cc', 'broad', 'JJ'), ('and', 'CC', 'cc', 'cold', 'JJ'), ('and', 'CC', 'cc', 'whispered', 'VBN'), ('and', 'CC', 'cc', 'whispered', 'VBN'), ('And', 'CC', 'cc', 'answer', 'NN'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'were', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'Noakes', 'NNP'), ('or', 'CC', 'cc', 'Noakes', 'NNP'), ('but', 'CC', 'cc', 'might', 'MD'), ('and', 'CC', 'cc', 'laws', 'NNS'), ('but', 'CC', 'cc', 'disinherit', 'VB'), ('and', 'CC', 'cc', 'fell', 'VBD'), ('and', 'CC', 'cc', 'examined', 'VBD'), ('and', 'CC', 'cc', 'made', 'VBN'), ('and', 'CC', 'cc', 'put', 'VBN'), ('or', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'flew', 'VBD'), ('and', 'CC', 'cc', 'opened', 'VBN'), ('and', 'CC', 'cc', 'stowed', 'VBN'), ('or', 'CC', 'cc', 'two', 'CD'), ('and', 'CC', 'cc', 'kitchens', 'NNS'), ('and', 'CC', 'cc', 'got', 'VBD'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('or', 'CC', 'cc', 'written', 'VBN'), ('but', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'brutality', 'NN'), ('or', 'CC', 'cc', 'Abyssinia', 'NNP'), ('But', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'trades', 'NNS'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'shillings', 'NNS'), ('but', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'cleared', 'VBD'), ('of', 'IN', 'cc', 'ranged', 'VBN'), ('and', 'CC', 'cc', 'cupboards', 'NNS'), ('and', 'CC', 'cc', 'flavour', 'NN'), ('and', 'CC', 'cc', 'seen', 'VBN'), ('and', 'CC', 'cc', 'breeches', 'NNS'), ('and', 'CC', 'cc', 'porter', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'tolerated', 'VBN'), ('and', 'CC', 'cc', 'time', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'hundred', 'CD'), ('and', 'CC', 'cc', 'were', 'VBD'), ('but', 'CC', 'cc', 'were', 'VBD'), ('But', 'CC', 'cc', 'kept', 'VBN'), ('and', 'CC', 'cc', 'scrubbed', 'VBN'), ('and', 'CC', 'cc', 'cups', 'NNS'), ('and', 'CC', 'cc', 'arranged', 'VBD'), ('but', 'CC', 'cc', 'slept', 'VBD'), ('and', 'CC', 'cc', 'roll', 'VB'), ('and', 'CC', 'cc', 'orderly', 'JJ'), ('and', 'CC', 'cc', 'haste', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'flopping', 'VBG'), ('And', 'CC', 'cc', 'took', 'VBN'), ('and', 'CC', 'cc', 'going', 'VBG'), ('and', 'CC', 'cc', 'going', 'VBG'), ('and', 'CC', 'cc', 'bread', 'NN'), ('and', 'CC', 'cc', 'took', 'VBD'), ('And', 'CC', 'cc', 'suppose', 'VB'), ('or', 'CC', 'cc', 'Whether', 'IN'), ('and', 'CC', 'cc', 'husband', 'NN'), ('and', 'CC', 'cc', 'flop', 'NN'), ('and', 'CC', 'cc', 'had', 'VBN'), ('but', 'IN', 'cc', 'any', 'DT'), ('and', 'CC', 'cc', 'prayed', 'VBN'), ('and', 'CC', 'cc', 'countermined', 'VBN'), ('and', 'CC', 'cc', 'what', 'WP'), ('and', 'CC', 'cc', 'thing', 'NN'), ('and', 'CC', 'cc', 'dress', 'VB'), ('and', 'CC', 'cc', 'keep', 'VB'), ('and', 'CC', 'cc', 'dress', 'VB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', '’m', 'VBP'), ('and', 'CC', 'cc', '’s', 'VBZ'), ('and', 'CC', 'cc', 'put', 'VB'), ('and', 'CC', 'cc', 'husband', 'NN'), ('and', 'CC', 'cc', 'throwing', 'VBG'), ('and', 'CC', 'cc', 'cleaning', 'NN'), ('and', 'CC', 'cc', 'son', 'NN'), ('and', 'CC', 'cc', 'darting', 'VBG'), ('and', 'CC', 'cc', 'house', 'NN'), ('and', 'CC', 'cc', 'eyed', 'JJ'), ('than', 'IN', 'cc', 'worried', 'VBD'), ('and', 'CC', 'cc', 'smoothed', 'VBD'), ('and', 'CC', 'cc', 'respectable', 'JJ'), ('and', 'CC', 'cc', 'keep', 'VB'), ('and', 'CC', 'cc', 'street', 'NNP'), ('and', 'CC', 'cc', 'bodily', 'JJ'), ('and', 'CC', 'cc', 'Father', 'NNP'), ('and', 'CC', 'cc', 'bit', 'NN'), ('and', 'CC', 'cc', 'put', 'VBN'), ('and', 'CC', 'cc', 'entered', 'VBD'), ('And', 'CC', 'cc', 'know', 'VBP'), ('and', 'CC', 'cc', 'Find', 'VB'), ('and', 'CC', 'cc', 'seemed', 'VBD'), ('and', 'CC', 'cc', 'pass', 'VB'), ('and', 'CC', 'cc', 'attract', 'VB')</t>
-  </si>
-  <si>
-    <t>[('The', 'DT', 'det', 'Period', 'NNP'), ('the', 'DT', 'det', 'best', 'JJS'), ('the', 'DT', 'det', 'worst', 'JJS'), ('the', 'DT', 'det', 'age', 'NN'), ('the', 'DT', 'det', 'age', 'NN'), ('the', 'DT', 'det', 'epoch', 'NN'), ('the', 'DT', 'det', 'epoch', 'NN'), ('the', 'DT', 'det', 'season', 'NN'), ('the', 'DT', 'det', 'season', 'NN'), ('the', 'DT', 'det', 'spring', 'NN'), ('the', 'DT', 'det', 'winter', 'NN'), ('the', 'DT', 'det', 'way', 'NN'), ('the', 'DT', 'det', 'period', 'NN'), ('the', 'DT', 'det', 'period', 'NN'), ('the', 'DT', 'det', 'degree', 'NN'), ('a', 'DT', 'det', 'king', 'NN'), ('a', 'DT', 'det', 'jaw', 'NN'), ('a', 'DT', 'det', 'queen', 'NN'), ('a', 'DT', 'det', 'face', 'NN'), ('the', 'DT', 'det', 'throne', 'NN'), ('a', 'DT', 'det', 'king', 'NN'), ('a', 'DT', 'det', 'jaw', 'NN'), ('a', 'DT', 'det', 'queen', 'NN'), ('a', 'DT', 'det', 'face', 'NN'), ('the', 'DT', 'det', 'throne', 'NN'), ('both', 'DT', 'det', 'countries', 'NNS'), ('the', 'DT', 'det', 'lords', 'NNS'), ('the', 'DT', 'det', 'State', 'NNP'), ('the', 'DT', 'det', 'year', 'NN'), ('that', 'DT', 'det', 'period', 'NN'), ('a', 'DT', 'det', 'private', 'NN'), ('the', 'DT', 'det', 'Guards', 'NNPS'), ('the', 'DT', 'det', 'appearance', 'NN'), ('the', 'DT', 'det', 'swallowing', 'NN'), ('the', 'DT', 'det', 'ghost', 'NN'), ('a', 'DT', 'det', 'dozen', 'NN'), ('the', 'DT', 'det', 'spirits', 'NNS'), ('this', 'DT', 'det', 'year', 'NN'), ('the', 'DT', 'det', 'order', 'NN'), ('the', 'DT', 'det', 'Crown', 'NNP'), ('a', 'DT', 'det', 'congress', 'NN'), ('the', 'DT', 'det', 'race', 'NN'), ('any', 'DT', 'det', 'communications', 'NNS'), ('the', 'DT', 'det', 'chickens', 'NNS'), ('the', 'DT', 'det', 'brood', 'NN'), ('the', 'DT', 'det', 'whole', 'JJ'), ('the', 'DT', 'det', 'shield', 'NN'), ('the', 'DT', 'det', 'guidance', 'NN'), ('a', 'DT', 'det', 'youth', 'NN'), ('the', 'DT', 'det', 'rain', 'NN'), ('a', 'DT', 'det', 'procession', 'NN'), ('a', 'DT', 'det', 'distance', 'NN'), ('some', 'DT', 'det', 'yards', 'NNS'), ('the', 'DT', 'det', 'woods', 'NNS'), ('that', 'DT', 'det', 'sufferer', 'NN'), ('the', 'DT', 'det', 'Woodman', 'NNP'), ('a', 'DT', 'det', 'framework', 'NN'), ('a', 'DT', 'det', 'sack', 'NN'), ('a', 'DT', 'det', 'knife', 'NN'), ('the', 'DT', 'det', 'outhouses', 'NNS'), ('some', 'DT', 'det', 'tillers', 'NNS'), ('the', 'DT', 'det', 'lands', 'NNS'), ('the', 'DT', 'det', 'weather', 'NN'), ('that', 'WDT', 'det', 'day', 'NN'), ('the', 'DT', 'det', 'Farmer', 'NNP'), ('the', 'DT', 'det', 'Revolution', 'NNP'), ('that', 'IN', 'det', 'Woodman', 'NNP'), ('no', 'DT', 'det', 'one', 'NN'), ('the', 'DT', 'det', 'rather', 'RB'), ('any', 'DT', 'det', 'suspicion', 'NN'), ('an', 'DT', 'det', 'amount', 'NN'), ('the', 'DT', 'det', 'capital', 'NN'), ('every', 'DT', 'det', 'night', 'NN'), ('the', 'DT', 'det', 'highwayman', 'NN'), ('the', 'DT', 'det', 'dark', 'NN'), ('a', 'DT', 'det', 'tradesman', 'NN'), ('the', 'DT', 'det', 'light', 'NN'), ('the', 'DT', 'det', 'Captain', 'NNP'), ('the', 'DT', 'det', 'head', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'four', 'CD'), ('the', 'DT', 'det', 'failure', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('that', 'DT', 'det', 'potentate', 'NN'), ('the', 'DT', 'det', 'Mayor', 'NNP'), ('the', 'DT', 'det', 'creature', 'NN'), ('the', 'DT', 'det', 'majesty', 'NN'), ('the', 'DT', 'det', 'law', 'NN'), ('the', 'DT', 'det', 'necks', 'NNS'), ('the', 'DT', 'det', 'mob', 'NN'), ('the', 'DT', 'det', 'musketeers', 'NNS'), ('the', 'DT', 'det', 'musketeers', 'NNS'), ('the', 'DT', 'det', 'mob', 'NN'), ('these', 'DT', 'det', 'occurrences', 'NNS'), ('the', 'DT', 'det', 'way', 'NN'), ('the', 'DT', 'det', 'midst', 'NN'), ('the', 'DT', 'det', 'hangman', 'NN'), ('a', 'DT', 'det', 'housebreaker', 'NN'), ('the', 'DT', 'det', 'hand', 'NN'), ('the', 'DT', 'det', 'dozen', 'NN'), ('the', 'DT', 'det', 'door', 'NN'), ('the', 'DT', 'det', 'life', 'NN'), ('an', 'DT', 'det', 'murderer', 'NN'), ('a', 'DT', 'det', 'pilferer', 'NN'), ('a', 'DT', 'det', 'farmer', 'NN'), ('these', 'DT', 'det', 'things', 'NNS'), ('a', 'DT', 'det', 'thousand', 'CD'), ('the', 'DT', 'det', 'year', 'NN'), ('the', 'DT', 'det', 'Woodman', 'NNP'), ('the', 'DT', 'det', 'Farmer', 'NNP'), ('those', 'DT', 'det', 'two', 'CD'), ('the', 'DT', 'det', 'jaws', 'NNS'), ('those', 'DT', 'det', 'two', 'CD'), ('the', 'DT', 'det', 'plain', 'NN'), ('the', 'DT', 'det', 'faces', 'NNS'), ('a', 'DT', 'det', 'hand', 'NN'), ('the', 'DT', 'det', 'year', 'NN'), ('the', 'DT', 'det', 'creatures', 'NNS'), ('this', 'DT', 'det', 'chronicle', 'NN'), ('the', 'DT', 'det', 'rest', 'NN'), ('the', 'DT', 'det', 'roads', 'NNS'), ('The', 'DT', 'det', 'Mail', 'NNP'), ('the', 'DT', 'det', 'road', 'NN'), ('a', 'DT', 'det', 'night', 'NN'), ('the', 'DT', 'det', 'first', 'JJ'), ('the', 'DT', 'det', 'persons', 'NNS'), ('this', 'DT', 'det', 'history', 'NN'), ('The', 'DT', 'det', 'road', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'mire', 'NN'), ('the', 'DT', 'det', 'side', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'rest', 'NN'), ('the', 'DT', 'det', 'passengers', 'NNS'), ('the', 'DT', 'det', 'relish', 'NN'), ('the', 'DT', 'det', 'circumstances', 'NNS'), ('the', 'DT', 'det', 'hill', 'NN'), ('the', 'DT', 'det', 'harness', 'NN'), ('the', 'DT', 'det', 'mud', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'horses', 'NNS'), ('a', 'DT', 'det', 'stop', 'NN'), ('the', 'DT', 'det', 'coach', 'NN'), ('the', 'DT', 'det', 'road', 'NN'), ('the', 'DT', 'det', 'intent', 'NN'), ('that', 'DT', 'det', 'article', 'NN'), ('a', 'DT', 'det', 'purpose', 'NN'), ('the', 'DT', 'det', 'argument', 'NN'), ('some', 'DT', 'det', 'animals', 'NNS'), ('the', 'DT', 'det', 'team', 'NN'), ('the', 'DT', 'det', 'mud', 'NN'), ('the', 'DT', 'det', 'joints', 'NNS'), ('the', 'DT', 'det', 'driver', 'NN'), ('a', 'DT', 'det', 'stand', 'NN'), ('a', 'DT', 'det', 'ho', 'NNP'), ('the', 'DT', 'det', 'leader', 'NN'), ('an', 'DT', 'det', 'horse', 'NN'), ('the', 'DT', 'det', 'coach', 'NN'), ('the', 'DT', 'det', 'hill', 'NN'), ('the', 'DT', 'det', 'leader', 'NN'), ('this', 'DT', 'det', 'rattle', 'NN'), ('the', 'DT', 'det', 'passenger', 'NN'), ('a', 'DT', 'det', 'might', 'NN'), ('a', 'DT', 'det', 'mist', 'NN'), ('the', 'DT', 'det', 'hollows', 'NNS'), ('the', 'DT', 'det', 'hill', 'NN'), ('an', 'DT', 'det', 'spirit', 'NN'), ('A', 'DT', 'det', 'mist', 'NN'), ('the', 'DT', 'det', 'air', 'NN'), ('another', 'DT', 'det', 'one', 'CD'), ('the', 'DT', 'det', 'waves', 'NNS'), ('an', 'DT', 'det', 'sea', 'NN'), ('the', 'DT', 'det', 'light', 'NN'), ('the', 'DT', 'det', 'lamps', 'NNS'), ('these', 'DT', 'det', 'workings', 'NNS'), ('the', 'DT', 'det', 'reek', 'NN'), ('the', 'DT', 'det', 'horses', 'NNS'), ('the', 'DT', 'det', 'one', 'NN'), ('the', 'DT', 'det', 'hill', 'NN'), ('the', 'DT', 'det', 'side', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('All', 'DT', 'det', 'three', 'CD'), ('the', 'DT', 'det', 'cheekbones', 'NNS'), ('the', 'DT', 'det', 'ears', 'NNS'), ('the', 'DT', 'det', 'three', 'CD'), ('the', 'DT', 'det', 'two', 'CD'), ('the', 'DT', 'det', 'eyes', 'NNS'), ('the', 'DT', 'det', 'mind', 'NN'), ('the', 'DT', 'det', 'eyes', 'NNS'), ('the', 'DT', 'det', 'body', 'NN'), ('those', 'DT', 'det', 'days', 'NNS'), ('a', 'DT', 'det', 'notice', 'NN'), ('the', 'DT', 'det', 'road', 'NN'), ('a', 'DT', 'det', 'robber', 'NN'), ('the', 'DT', 'det', 'latter', 'JJ'), ('every', 'DT', 'det', 'house', 'NNP'), ('the', 'DT', 'det', 'Captain', 'NNP'), ('the', 'DT', 'det', 'landlord', 'NN'), ('the', 'DT', 'det', 'non', 'JJ'), ('the', 'DT', 'det', 'thing', 'NN'), ('the', 'DT', 'det', 'cards', 'NNS'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('an', 'DT', 'det', 'eye', 'NN'), ('a', 'DT', 'det', 'hand', 'NN'), ('the', 'DT', 'det', 'chest', 'NN'), ('a', 'DT', 'det', 'blunderbuss', 'NN'), ('the', 'DT', 'det', 'top', 'NN'), ('a', 'DT', 'det', 'substratum', 'NN'), ('The', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'passengers', 'NNS'), ('the', 'DT', 'det', 'passengers', 'NNS'), ('another', 'DT', 'det', 'one', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'coachman', 'NN'), ('the', 'DT', 'det', 'horses', 'NNS'), ('a', 'DT', 'det', 'conscience', 'NN'), ('the', 'DT', 'det', 'Testaments', 'NNPS'), ('the', 'DT', 'det', 'journey', 'NN'), ('the', 'DT', 'det', 'coachman', 'NN'), ('the', 'DT', 'det', 'top', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('What', 'WP', 'det', 'o’clock', 'NN'), ('the', 'DT', 'det', 'coachman', 'NN'), ('The', 'DT', 'det', 'horse', 'NN'), ('the', 'DT', 'det', 'whip', 'NN'), ('a', 'DT', 'det', 'negative', 'JJ'), ('a', 'DT', 'det', 'scramble', 'NN'), ('the', 'DT', 'det', 'horses', 'NNS'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'boots', 'NNS'), ('the', 'DT', 'det', 'coach', 'NN'), ('any', 'DT', 'det', 'one', 'CD'), ('the', 'DT', 'det', 'three', 'CD'), ('the', 'DT', 'det', 'hardihood', 'NN'), ('a', 'DT', 'det', 'little', 'JJ'), ('the', 'DT', 'det', 'mist', 'NN'), ('a', 'DT', 'det', 'way', 'NN'), ('a', 'DT', 'det', 'highwayman', 'NN'), ('The', 'DT', 'det', 'burst', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'summit', 'NN'), ('the', 'DT', 'det', 'hill', 'NN'), ('The', 'DT', 'det', 'horses', 'NNS'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'wheel', 'NN'), ('the', 'DT', 'det', 'descent', 'NN'), ('the', 'DT', 'det', 'door', 'NN'), ('the', 'DT', 'det', 'passengers', 'NNS'), ('the', 'DT', 'det', 'coachman', 'NN'), ('a', 'DT', 'det', 'voice', 'NN'), ('a', 'DT', 'det', 'horse', 'NN'), ('a', 'DT', 'det', 'canter', 'NN'), ('a', 'DT', 'det', 'horse', 'NN'), ('a', 'DT', 'det', 'gallop', 'NNP'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'door', 'NN'), ('the', 'DT', 'det', 'king', 'NN'), ('this', 'DT', 'det', 'adjuration', 'NN'), ('the', 'DT', 'det', 'offensive', 'NN'), ('The', 'DT', 'det', 'passenger', 'NN'), ('this', 'DT', 'det', 'history', 'NN'), ('the', 'DT', 'det', 'step', 'NN'), ('the', 'DT', 'det', 'passengers', 'NNS'), ('the', 'DT', 'det', 'step', 'NN'), ('the', 'DT', 'det', 'coach', 'NN'), ('the', 'DT', 'det', 'road', 'NN'), ('the', 'DT', 'det', 'coachman', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'coachman', 'NN'), ('The', 'DT', 'det', 'coachman', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'leader', 'NN'), ('The', 'DT', 'det', 'consequent', 'NN'), ('the', 'DT', 'det', 'cessation', 'NN'), ('the', 'DT', 'det', 'rumbling', 'VBG'), ('the', 'DT', 'det', 'coach', 'NN'), ('the', 'DT', 'det', 'stillness', 'NN'), ('the', 'DT', 'det', 'night', 'NN'), ('The', 'DT', 'det', 'panting', 'NN'), ('the', 'DT', 'det', 'horses', 'NNS'), ('a', 'DT', 'det', 'motion', 'NN'), ('the', 'DT', 'det', 'coach', 'NN'), ('a', 'DT', 'det', 'state', 'NN'), ('The', 'DT', 'det', 'hearts', 'NNS'), ('the', 'DT', 'det', 'passengers', 'NNS'), ('any', 'DT', 'det', 'rate', 'NN'), ('the', 'DT', 'det', 'pause', 'NN'), ('the', 'DT', 'det', 'breath', 'NN'), ('the', 'DT', 'det', 'pulses', 'NNS'), ('The', 'DT', 'det', 'sound', 'NN'), ('a', 'DT', 'det', 'horse', 'NN'), ('a', 'DT', 'det', 'gallop', 'NN'), ('the', 'DT', 'det', 'hill', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('The', 'DT', 'det', 'pace', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('the', 'DT', 'det', 'mist', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('a', 'DT', 'det', 'passenger', 'NN'), ('What', 'WP', 'det', 'passenger', 'NN'), ('a', 'DT', 'det', 'moment', 'NN'), ('The', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'coachman', 'NN'), ('the', 'DT', 'det', 'passengers', 'NNS'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'voice', 'NN'), ('the', 'DT', 'det', 'mist', 'NN'), ('a', 'DT', 'det', 'mistake', 'NN'), ('the', 'DT', 'det', 'name', 'NN'), ('the', 'DT', 'det', 'matter', 'NN'), ('the', 'DT', 'det', 'passenger', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'matter', 'NN'), ('A', 'DT', 'det', 'despatch', 'NN'), ('this', 'DT', 'det', 'messenger', 'NN'), ('the', 'DT', 'det', 'road', 'NN'), ('the', 'DT', 'det', 'passengers', 'NNS'), ('the', 'DT', 'det', 'coach', 'NN'), ('the', 'DT', 'det', 'door', 'NN'), ('the', 'DT', 'det', 'window', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('a', 'DT', 'det', 'footpace', 'NN'), ('that', 'DT', 'det', 'yourn', 'NN'), ('a', 'DT', 'det', 'devil', 'NN'), ('a', 'DT', 'det', 'mistake', 'NN'), ('the', 'DT', 'det', 'form', 'NN'), ('The', 'DT', 'det', 'figures', 'NNS'), ('a', 'DT', 'det', 'horse', 'NN'), ('the', 'DT', 'det', 'mist', 'NN'), ('the', 'DT', 'det', 'side', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'passenger', 'NN'), ('The', 'DT', 'det', 'rider', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'passenger', 'NN'), ('a', 'DT', 'det', 'paper', 'NN'), ('The', 'DT', 'det', 'rider', 'NN'), ('the', 'DT', 'det', 'hoofs', 'NN'), ('the', 'DT', 'det', 'horse', 'NN'), ('the', 'DT', 'det', 'hat', 'NN'), ('the', 'DT', 'det', 'man', 'NN'), ('the', 'DT', 'det', 'passenger', 'NN'), ('a', 'DT', 'det', 'tone', 'NN'), ('The', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'stock', 'NN'), ('the', 'DT', 'det', 'barrel', 'NN'), ('the', 'DT', 'det', 'horseman', 'NN'), ('A', 'DT', 'det', 'crown', 'NN'), ('the', 'DT', 'det', 'light', 'NN'), ('the', 'DT', 'det', 'lamp', 'NN'), ('that', 'DT', 'det', 'side', 'NN'), ('a', 'DT', 'det', 'answer', 'NN'), ('that', 'DT', 'det', 'message', 'NN'), ('the', 'DT', 'det', 'best', 'JJS'), ('those', 'DT', 'det', 'words', 'NNS'), ('the', 'DT', 'det', 'passenger', 'NN'), ('the', 'DT', 'det', 'door', 'NN'), ('a', 'DT', 'det', 'pretence', 'NN'), ('no', 'DT', 'det', 'purpose', 'NN'), ('the', 'DT', 'det', 'hazard', 'NN'), ('any', 'DT', 'det', 'kind', 'NN'), ('The', 'DT', 'det', 'coach', 'NN'), ('the', 'DT', 'det', 'descent', 'NN'), ('The', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'rest', 'NN'), ('the', 'DT', 'det', 'pistols', 'NNS'), ('a', 'DT', 'det', 'chest', 'NN'), ('a', 'DT', 'det', 'smith', 'NNP'), ('a', 'DT', 'det', 'couple', 'NN'), ('a', 'DT', 'det', 'box', 'NN'), ('that', 'DT', 'det', 'completeness', 'NN'), ('the', 'DT', 'det', 'lamps', 'NNS'), ('the', 'DT', 'det', 'flint', 'NN'), ('the', 'DT', 'det', 'straw', 'NN'), ('a', 'DT', 'det', 'light', 'NN'), ('the', 'DT', 'det', 'roof', 'NN'), ('the', 'DT', 'det', 'message', 'NN'), ('a', 'DT', 'det', 'coincidence', 'NN'), ('the', 'DT', 'det', 'guard', 'NN'), ('the', 'DT', 'det', 'same', 'JJ'), ('the', 'DT', 'det', 'mist', 'NN'), ('the', 'DT', 'det', 'mud', 'NN'), ('the', 'DT', 'det', 'wet', 'NN'), ('a', 'DT', 'det', 'gallon', 'NN'), ('the', 'DT', 'det', 'bridle', 'NN'), ('the', 'DT', 'det', 'wheels', 'NNS'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'night', 'NN'), ('the', 'DT', 'det', 'hill', 'NN'), ('the', 'DT', 'det', 'level', 'NN'), ('this', 'DT', 'det', 'messenger', 'NN'), ('a', 'DT', 'det', 'message', 'NN'), ('a', 'DT', 'det', 'way', 'NN'), ('The', 'DT', 'det', 'Shadows', 'NNPS'), ('A', 'DT', 'det', 'fact', 'NN'), ('every', 'DT', 'det', 'creature', 'NN'), ('that', 'DT', 'det', 'secret', 'NN'), ('every', 'DT', 'det', 'other', 'JJ'), ('A', 'DT', 'det', 'consideration', 'NN'), ('a', 'DT', 'det', 'city', 'NN'), ('every', 'DT', 'det', 'one', 'CD'), ('those', 'DT', 'det', 'houses', 'NNS'), ('every', 'DT', 'det', 'room', 'NN'), ('every', 'DT', 'det', 'one', 'CD'), ('every', 'DT', 'det', 'heart', 'NN'), ('the', 'DT', 'det', 'hundreds', 'NNS'), ('a', 'DT', 'det', 'secret', 'NN'), ('the', 'DT', 'det', 'heart', 'NN'), ('the', 'DT', 'det', 'awfulness', 'NN'), ('the', 'DT', 'det', 'leaves', 'NNS'), ('this', 'DT', 'det', 'book', 'NN'), ('the', 'DT', 'det', 'depths', 'NNS'), ('this', 'DT', 'det', 'water', 'NN'), ('the', 'DT', 'det', 'book', 'NN'), ('a', 'DT', 'det', 'spring', 'NN'), ('a', 'DT', 'det', 'page', 'NN'), ('the', 'DT', 'det', 'water', 'NN'), ('an', 'DT', 'det', 'frost', 'NN'), ('the', 'DT', 'det', 'light', 'NN'), ('the', 'DT', 'det', 'shore', 'NN'), ('the', 'DT', 'det', 'darling', 'NN'), ('the', 'DT', 'det', 'consolidation', 'NN'), ('the', 'DT', 'det', 'secret', 'NN'), ('that', 'DT', 'det', 'individuality', 'NN'), ('the', 'DT', 'det', 'places', 'NNS'), ('this', 'DT', 'det', 'city', 'NN'), ('a', 'DT', 'det', 'sleeper', 'NN'), ('the', 'DT', 'det', 'messenger', 'NN'), ('the', 'DT', 'det', 'possessions', 'NNS'), ('the', 'DT', 'det', 'King', 'NNP'), ('the', 'DT', 'det', 'Minister', 'NNP'), ('the', 'DT', 'det', 'merchant', 'NN'), ('the', 'DT', 'det', 'passengers', 'NNS'), ('the', 'DT', 'det', 'compass', 'NN'), ('another', 'DT', 'det', 'one', 'CD'), ('the', 'DT', 'det', 'breadth', 'NN'), ('a', 'DT', 'det', 'county', 'NN'), ('the', 'DT', 'det', 'next', 'JJ'), ('The', 'DT', 'det', 'messenger', 'NN'), ('an', 'DT', 'det', 'trot', 'NN'), ('the', 'DT', 'det', 'way', 'NN'), ('a', 'DT', 'det', 'tendency', 'NN'), ('that', 'DT', 'det', 'decoration', 'NN'), ('a', 'DT', 'det', 'black', 'JJ'), ('no', 'DT', 'det', 'depth', 'NN'), ('the', 'DT', 'det', 'colour', 'NN'), ('a', 'DT', 'det', 'expression', 'NN'), ('an', 'DT', 'det', 'hat', 'NN'), ('a', 'DT', 'det', 'spittoon', 'NN'), ('a', 'DT', 'det', 'muffler', 'NN'), ('the', 'DT', 'det', 'chin', 'NN'), ('the', 'DT', 'det', 'wearer', 'NN'), ('this', 'DT', 'det', 'muffler', 'NN'), ('the', 'DT', 'det', 'messenger', 'NN'), ('a', 'DT', 'det', 'drinking', 'NN'), ('that', 'DT', 'det', 'degree', 'NN'), ('the', 'DT', 'det', 'crown', 'NN'), ('the', 'DT', 'det', 'top', 'NN'), ('a', 'DT', 'det', 'wall', 'NN'), ('a', 'DT', 'det', 'head', 'NN'), ('the', 'DT', 'det', 'best', 'JJS'), ('the', 'DT', 'det', 'man', 'NN'), ('the', 'DT', 'det', 'world', 'NN'), ('the', 'DT', 'det', 'message', 'NN'), ('the', 'DT', 'det', 'watchman', 'NN'), ('the', 'DT', 'det', 'door', 'NN'), ('the', 'DT', 'det', 'shadows', 'NNS'), ('the', 'DT', 'det', 'night', 'NN'), ('the', 'DT', 'det', 'message', 'NN'), ('the', 'DT', 'det', 'mare', 'NN'), ('every', 'DT', 'det', 'shadow', 'NN'), ('the', 'DT', 'det', 'road', 'NN'), ('What', 'WDT', 'det', 'time', 'NN'), ('the', 'DT', 'det', 'lumbered', 'VBN'), ('the', 'DT', 'det', 'shadows', 'NNS'), ('the', 'DT', 'det', 'night', 'NN'), ('the', 'DT', 'det', 'forms', 'NNS'), ('a', 'DT', 'det', 'run', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'passenger', 'NN'), ('an', 'DT', 'det', 'arm', 'NN'), ('the', 'DT', 'det', 'strap', 'NN'), ('the', 'DT', 'det', 'passenger', 'NN'), ('the', 'DT', 'det', 'coach', 'NN'), ('a', 'DT', 'det', 'jolt', 'NN'), ('the', 'DT', 'det', 'windows', 'NNS'), ('the', 'DT', 'det', 'lamp', 'NN'), ('the', 'DT', 'det', 'bundle', 'NN'), ('the', 'DT', 'det', 'bank', 'NN'), ('a', 'DT', 'det', 'stroke', 'NN'), ('The', 'DT', 'det', 'rattle', 'NN'), ('the', 'DT', 'det', 'harness', 'NN'), ('the', 'DT', 'det', 'chink', 'NN'), ('all', 'PDT', 'det', 'connection', 'NN'), ('the', 'DT', 'det', 'time', 'NN'), ('the', 'DT', 'det', 'underground', 'RB'), ('the', 'DT', 'det', 'passenger', 'NN'), ('a', 'DT', 'det', 'little', 'JJ'), ('the', 'DT', 'det', 'keys', 'NNS'), ('the', 'DT', 'det', 'candle', 'NN'), ('the', 'DT', 'det', 'bank', 'NN'), ('the', 'DT', 'det', 'coach', 'NN'), ('a', 'DT', 'det', 'way', 'NN'), ('the', 'DT', 'det', 'presence', 'NN'), ('an', 'DT', 'det', 'opiate', 'JJ'), ('another', 'DT', 'det', 'current', 'NN'), ('the', 'DT', 'det', 'night', 'NN'), ('some', 'DT', 'det', 'one', 'NN'), ('a', 'DT', 'det', 'grave', 'NN'), ('the', 'DT', 'det', 'multitude', 'NN'), ('the', 'DT', 'det', 'face', 'NN'), ('the', 'DT', 'det', 'person', 'NN'), ('the', 'DT', 'det', 'shadows', 'NNS'), ('the', 'DT', 'det', 'night', 'NN'), ('the', 'DT', 'det', 'faces', 'NNS'), ('a', 'DT', 'det', 'man', 'NN'), ('the', 'DT', 'det', 'passions', 'NNS'), ('the', 'DT', 'det', 'ghastliness', 'NN'), ('another', 'DT', 'det', 'one', 'CD'), ('the', 'DT', 'det', 'face', 'NN'), ('the', 'DT', 'det', 'face', 'NN'), ('every', 'DT', 'det', 'head', 'NN'), ('the', 'DT', 'det', 'passenger', 'NN'), ('this', 'DT', 'det', 'spectre', 'NN'), ('The', 'DT', 'det', 'answer', 'NN'), ('the', 'DT', 'det', 'same', 'JJ'), ('all', 'DT', 'det', 'hope', 'NN'), ('The', 'DT', 'det', 'answers', 'NNS'), ('this', 'DT', 'det', 'question', 'NN'), ('the', 'DT', 'det', 'reply', 'NN'), ('a', 'DT', 'det', 'rain', 'NN'), ('the', 'DT', 'det', 'passenger', 'NN'), ('a', 'DT', 'det', 'spade', 'NN'), ('a', 'DT', 'det', 'key', 'NN'), ('this', 'DT', 'det', 'creature', 'NN'), ('The', 'DT', 'det', 'passenger', 'NN'), ('the', 'DT', 'det', 'window', 'NN'), ('the', 'DT', 'det', 'reality', 'NN'), ('the', 'DT', 'det', 'mist', 'NN'), ('the', 'DT', 'det', 'patch', 'NN'), ('the', 'DT', 'det', 'lamps', 'NNS'), ('the', 'DT', 'det', 'hedge', 'NN'), ('the', 'DT', 'det', 'roadside', 'NN'), ('the', 'DT', 'det', 'shadows', 'NNS'), ('the', 'DT', 'det', 'coach', 'NN'), ('the', 'DT', 'det', 'train', 'NN'), ('the', 'DT', 'det', 'night', 'NN'), ('The', 'DT', 'det', 'house', 'NN'), ('the', 'DT', 'det', 'business', 'NN'), ('the', 'DT', 'det', 'day', 'NN'), ('the', 'DT', 'det', 'rooms', 'NNS'), ('the', 'DT', 'det', 'express', 'NN'), ('the', 'DT', 'det', 'message', 'NN'), ('the', 'DT', 'det', 'midst', 'NN'), ('the', 'DT', 'det', 'face', 'NN'), ('an', 'DT', 'det', 'movement', 'NN'), ('the', 'DT', 'det', 'passengers', 'NNS'), ('the', 'DT', 'det', 'window', 'NN'), ('the', 'DT', 'det', 'strap', 'NN'), ('the', 'DT', 'det', 'forms', 'NNS'), ('the', 'DT', 'det', 'bank', 'NN'), ('the', 'DT', 'det', 'grave', 'NN'), ('all', 'DT', 'det', 'hope', 'NN'), ('The', 'DT', 'det', 'words', 'NNS'), ('the', 'DT', 'det', 'passenger', 'NN'), ('the', 'DT', 'det', 'consciousness', 'NN'), ('the', 'DT', 'det', 'shadows', 'NNS'), ('the', 'DT', 'det', 'night', 'NN'), ('the', 'DT', 'det', 'window', 'NN'), ('the', 'DT', 'det', 'sun', 'NN'), ('a', 'DT', 'det', 'ridge', 'NN'), ('a', 'DT', 'det', 'plough', 'NN'), ('the', 'DT', 'det', 'horses', 'NNS'), ('a', 'DT', 'det', 'wood', 'NN'), ('the', 'DT', 'det', 'trees', 'NNS'), ('the', 'DT', 'det', 'earth', 'NN'), ('the', 'DT', 'det', 'sky', 'NN'), ('the', 'DT', 'det', 'sun', 'NN'), ('the', 'DT', 'det', 'passenger', 'NN'), ('the', 'DT', 'det', 'sun', 'NN'), ('The', 'DT', 'det', 'Preparation', 'NNP'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'course', 'NN'), ('the', 'DT', 'det', 'forenoon', 'NN'), ('the', 'DT', 'det', 'drawer', 'NN'), ('the', 'DT', 'det', 'Hotel', 'NNP'), ('the', 'DT', 'det', 'door', 'NN'), ('some', 'DT', 'det', 'flourish', 'NN'), ('a', 'DT', 'det', 'journey', 'NN'), ('an', 'DT', 'det', 'achievement', 'NN'), ('an', 'DT', 'det', 'traveller', 'NN'), ('that', 'DT', 'det', 'time', 'NN'), ('the', 'DT', 'det', 'others', 'NNS'), ('The', 'DT', 'det', 'mildewy', 'JJ'), ('the', 'DT', 'det', 'coach', 'NN'), ('a', 'DT', 'det', 'kennel', 'NNP'), ('the', 'DT', 'det', 'passenger', 'NN'), ('a', 'DT', 'det', 'tangle', 'NN'), ('a', 'DT', 'det', 'sort', 'NN'), ('a', 'DT', 'det', 'packet', 'NN'), ('the', 'DT', 'det', 'weather', 'NN'), ('the', 'DT', 'det', 'wind', 'NN'), ('The', 'DT', 'det', 'tide', 'NN'), ('the', 'DT', 'det', 'afternoon', 'NN'), ('a', 'DT', 'det', 'bedroom', 'NN'), ('a', 'DT', 'det', 'barber', 'NN'), ('That', 'DT', 'det', 'way', 'NN'), ('a', 'DT', 'det', 'fire', 'NN'), ('The', 'DT', 'det', 'chamber', 'NN'), ('a', 'DT', 'det', 'passenger', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'mail', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('the', 'DT', 'det', 'interest', 'NN'), ('the', 'DT', 'det', 'establishment', 'NN'), ('the', 'DT', 'det', 'George', 'NNP'), ('all', 'DT', 'det', 'kinds', 'NNS'), ('another', 'DT', 'det', 'drawer', 'NN'), ('the', 'DT', 'det', 'landlady', 'NN'), ('all', 'DT', 'det', 'loitering', 'NN'), ('the', 'DT', 'det', 'road', 'NN'), ('the', 'DT', 'det', 'Concord', 'NNP'), ('the', 'DT', 'det', 'room', 'NN'), ('a', 'DT', 'det', 'gentleman', 'NN'), ('a', 'DT', 'det', 'suit', 'NN'), ('the', 'DT', 'det', 'pockets', 'NNS'), ('The', 'DT', 'det', 'room', 'NN'), ('no', 'DT', 'det', 'occupant', 'NN'), ('the', 'DT', 'det', 'gentleman', 'NN'), ('the', 'DT', 'det', 'fire', 'NN'), ('the', 'DT', 'det', 'meal', 'NN'), ('a', 'DT', 'det', 'hand', 'NN'), ('each', 'DT', 'det', 'knee', 'NN'), ('a', 'DT', 'det', 'watch', 'NN'), ('a', 'DT', 'det', 'sermon', 'NN'), ('the', 'DT', 'det', 'levity', 'NN'), ('the', 'DT', 'det', 'fire', 'NN'), ('a', 'DT', 'det', 'leg', 'NN'), ('a', 'DT', 'det', 'little', 'JJ'), ('a', 'DT', 'det', 'texture', 'NN'), ('an', 'DT', 'det', 'wig', 'NNP'), ('which', 'WDT', 'det', 'wig', 'NN'), ('a', 'DT', 'det', 'fineness', 'NN'), ('the', 'DT', 'det', 'tops', 'NNS'), ('the', 'DT', 'det', 'waves', 'NNS'), ('the', 'DT', 'det', 'beach', 'NN'), ('the', 'DT', 'det', 'specks', 'NNS'), ('the', 'DT', 'det', 'sunlight', 'NN'), ('A', 'DT', 'det', 'face', 'NN'), ('the', 'DT', 'det', 'wig', 'NN'), ('a', 'DT', 'det', 'pair', 'NN'), ('some', 'DT', 'det', 'pains', 'NNS'), ('the', 'DT', 'det', 'expression', 'NN'), ('a', 'DT', 'det', 'colour', 'NN'), ('the', 'DT', 'det', 'clerks', 'NNS'), ('the', 'DT', 'det', 'cares', 'NNS'), ('a', 'DT', 'det', 'man', 'NN'), ('The', 'DT', 'det', 'arrival', 'NN'), ('the', 'DT', 'det', 'drawer', 'NN'), ('a', 'DT', 'det', 'lady', 'NN'), ('any', 'DT', 'det', 'time', 'NN'), ('a', 'DT', 'det', 'gentleman', 'NN'), ('the', 'DT', 'det', 'honour', 'NN'), ('A', 'DT', 'det', 'deal', 'NN'), ('a', 'DT', 'det', 'House', 'NNP'), ('an', 'DT', 'det', 'one', 'NN'), ('the', 'DT', 'det', 'habit', 'NN'), ('The', 'DT', 'det', 'George', 'NNP'), ('that', 'DT', 'det', 'time', 'NN'), ('a', 'DT', 'det', 'wager', 'NN'), ('a', 'DT', 'det', 'House', 'NNP'), ('a', 'DT', 'det', 'matter', 'NN'), ('the', 'DT', 'det', 'truth', 'NN'), ('both', 'CC', 'det', 'eyes', 'NNS'), ('the', 'DT', 'det', 'table', 'NN'), ('the', 'DT', 'det', 'waiter', 'NN'), ('a', 'DT', 'det', 'attitude', 'NN'), ('the', 'DT', 'det', 'guest', 'NN'), ('an', 'DT', 'det', 'observatory', 'NN'), ('the', 'DT', 'det', 'usage', 'NN'), ('all', 'DT', 'det', 'ages', 'NNS'), ('a', 'DT', 'det', 'stroll', 'NN'), ('the', 'DT', 'det', 'beach', 'NN'), ('The', 'DT', 'det', 'town', 'NN'), ('the', 'DT', 'det', 'beach', 'NN'), ('the', 'DT', 'det', 'cliffs', 'NNS'), ('a', 'DT', 'det', 'ostrich', 'NN'), ('The', 'DT', 'det', 'beach', 'NN'), ('a', 'DT', 'det', 'desert', 'NN'), ('the', 'DT', 'det', 'sea', 'NN'), ('the', 'DT', 'det', 'town', 'NN'), ('the', 'DT', 'det', 'cliffs', 'NNS'), ('the', 'DT', 'det', 'coast', 'NN'), ('The', 'DT', 'det', 'air', 'NN'), ('the', 'DT', 'det', 'houses', 'NNS'), ('a', 'DT', 'det', 'flavour', 'NN'), ('the', 'DT', 'det', 'sea', 'NN'), ('A', 'DT', 'det', 'fishing', 'NN'), ('the', 'DT', 'det', 'port', 'NN'), ('a', 'DT', 'det', 'quantity', 'NN'), ('those', 'DT', 'det', 'times', 'NNS'), ('the', 'DT', 'det', 'tide', 'NN'), ('no', 'DT', 'det', 'business', 'NN'), ('the', 'DT', 'det', 'neighbourhood', 'NN'), ('a', 'DT', 'det', 'lamplighter', 'NN'), ('the', 'DT', 'det', 'day', 'NN'), ('the', 'DT', 'det', 'afternoon', 'NN'), ('the', 'DT', 'det', 'air', 'NN'), ('the', 'DT', 'det', 'coast', 'NN'), ('the', 'DT', 'det', 'fire', 'NN'), ('the', 'DT', 'det', 'coals', 'NNS'), ('A', 'DT', 'det', 'bottle', 'NN'), ('a', 'DT', 'det', 'digger', 'NN'), ('the', 'DT', 'det', 'coals', 'NNS'), ('no', 'DT', 'det', 'harm', 'NN'), ('a', 'DT', 'det', 'tendency', 'NN'), ('a', 'DT', 'det', 'time', 'NN'), ('an', 'DT', 'det', 'appearance', 'NN'), ('an', 'DT', 'det', 'gentleman', 'NN'), ('a', 'DT', 'det', 'complexion', 'NN'), ('the', 'DT', 'det', 'end', 'NN'), ('a', 'DT', 'det', 'bottle', 'NN'), ('a', 'DT', 'det', 'rattling', 'NN'), ('the', 'DT', 'det', 'street', 'NN'), ('the', 'DT', 'det', 'yard', 'NN'), ('a', 'DT', 'det', 'minutes', 'NNS'), ('the', 'DT', 'det', 'waiter', 'NN'), ('the', 'DT', 'det', 'gentleman', 'NN'), ('some', 'DT', 'det', 'refreshment', 'NN'), ('the', 'DT', 'det', 'road', 'NN'), ('the', 'DT', 'det', 'gentleman', 'NN'), ('The', 'DT', 'det', 'gentleman', 'NN'), ('an', 'DT', 'det', 'air', 'NN'), ('the', 'DT', 'det', 'ears', 'NNS'), ('the', 'DT', 'det', 'waiter', 'NN'), ('a', 'DT', 'det', 'room', 'NN'), ('a', 'DT', 'det', 'manner', 'NN'), ('the', 'DT', 'det', 'candles', 'NNS'), ('the', 'DT', 'det', 'table', 'NN'), ('the', 'DT', 'det', 'middle', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('every', 'DT', 'det', 'leaf', 'NN'), ('no', 'DT', 'det', 'light', 'NN'), ('The', 'DT', 'det', 'obscurity', 'NN'), ('the', 'DT', 'det', 'carpet', 'NN'), ('the', 'DT', 'det', 'moment', 'NN'), ('some', 'DT', 'det', 'room', 'NN'), ('the', 'DT', 'det', 'candles', 'NNS'), ('the', 'DT', 'det', 'table', 'NN'), ('the', 'DT', 'det', 'fire', 'NN'), ('a', 'DT', 'det', 'lady', 'NN'), ('a', 'DT', 'det', 'cloak', 'NN'), ('a', 'DT', 'det', 'figure', 'NN'), ('a', 'DT', 'det', 'quantity', 'NN'), ('a', 'DT', 'det', 'pair', 'NN'), ('an', 'DT', 'det', 'look', 'NN'), ('a', 'DT', 'det', 'forehead', 'NN'), ('a', 'DT', 'det', 'capacity', 'NN'), ('an', 'DT', 'det', 'expression', 'NN'), ('a', 'DT', 'det', 'attention', 'NN'), ('the', 'DT', 'det', 'expressions', 'NNS'), ('these', 'DT', 'det', 'things', 'NNS'), ('a', 'DT', 'det', 'likeness', 'NN'), ('a', 'DT', 'det', 'child', 'NN'), ('the', 'DT', 'det', 'passage', 'NN'), ('that', 'DT', 'det', 'Channel', 'NNP'), ('the', 'DT', 'det', 'hail', 'NN'), ('the', 'DT', 'det', 'sea', 'NN'), ('The', 'DT', 'det', 'likeness', 'NN'), ('a', 'DT', 'det', 'breath', 'NN'), ('the', 'DT', 'det', 'surface', 'NN'), ('the', 'DT', 'det', 'glass', 'NN'), ('the', 'DT', 'det', 'frame', 'NN'), ('a', 'DT', 'det', 'procession', 'NN'), ('all', 'DT', 'det', 'cripples', 'NNS'), ('the', 'DT', 'det', 'gender', 'NN'), ('a', 'DT', 'det', 'seat', 'NN'), ('a', 'DT', 'det', 'voice', 'NN'), ('a', 'DT', 'det', 'foreign', 'JJ'), ('a', 'DT', 'det', 'little', 'JJ'), ('the', 'DT', 'det', 'manners', 'NNS'), ('an', 'DT', 'det', 'date', 'NN'), ('a', 'DT', 'det', 'letter', 'NN'), ('the', 'DT', 'det', 'Bank', 'NNP'), ('some', 'DT', 'det', 'intelligence', 'NN'), ('The', 'DT', 'det', 'word', 'NN'), ('either', 'DT', 'det', 'word', 'NN'), ('the', 'DT', 'det', 'property', 'NN'), ('a', 'DT', 'det', 'look', 'NN'), ('the', 'DT', 'det', 'procession', 'NN'), ('any', 'DT', 'det', 'help', 'NN'), ('a', 'DT', 'det', 'gentleman', 'NN'), ('the', 'DT', 'det', 'Bank', 'NNP'), ('the', 'DT', 'det', 'purpose', 'NN'), ('those', 'DT', 'det', 'days', 'NNS'), ('a', 'DT', 'det', 'desire', 'NN'), ('another', 'DT', 'det', 'bow', 'NN'), ('the', 'DT', 'det', 'Bank', 'NNP'), ('an', 'DT', 'det', 'orphan', 'NN'), ('no', 'DT', 'det', 'friend', 'NN'), ('the', 'DT', 'det', 'journey', 'NN'), ('that', 'DT', 'det', 'gentleman', 'NN'), ('The', 'DT', 'det', 'gentleman', 'NN'), ('a', 'DT', 'det', 'messenger', 'NN'), ('the', 'DT', 'det', 'favour', 'NN'), ('the', 'DT', 'det', 'charge', 'NN'), ('the', 'DT', 'det', 'Bank', 'NNP'), ('the', 'DT', 'det', 'gentleman', 'NN'), ('the', 'DT', 'det', 'details', 'NNS'), ('the', 'DT', 'det', 'business', 'NN'), ('a', 'DT', 'det', 'nature', 'NN'), ('a', 'DT', 'det', 'interest', 'NN'), ('a', 'DT', 'det', 'pause', 'NN'), ('the', 'DT', 'det', 'wig', 'NNP'), ('the', 'DT', 'det', 'ears', 'NNS'), ('The', 'DT', 'det', 'forehead', 'NN'), ('that', 'DT', 'det', 'expression', 'NN'), ('an', 'DT', 'det', 'action', 'NN'), ('some', 'DT', 'det', 'shadow', 'NN'), ('a', 'DT', 'det', 'stranger', 'NN'), ('an', 'DT', 'det', 'smile', 'NN'), ('the', 'DT', 'det', 'eyebrows', 'NNS'), ('the', 'DT', 'det', 'nose', 'NN'), ('the', 'DT', 'det', 'line', 'NN'), ('the', 'DT', 'det', 'expression', 'NN'), ('the', 'DT', 'det', 'chair', 'NN'), ('the', 'DT', 'det', 'moment', 'NN'), ('a', 'DT', 'det', 'lady', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('a', 'DT', 'det', 'charge', 'NN'), ('a', 'DT', 'det', 'machine', 'NN'), ('the', 'DT', 'det', 'story', 'NN'), ('the', 'DT', 'det', 'word', 'NN'), ('a', 'DT', 'det', 'hurry', 'NN'), ('the', 'DT', 'det', 'business', 'NN'), ('a', 'DT', 'det', 'gentleman', 'NN'), ('a', 'DT', 'det', 'gentleman', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('a', 'DT', 'det', 'Doctor', 'NN'), ('the', 'DT', 'det', 'gentleman', 'NN'), ('the', 'DT', 'det', 'gentleman', 'NN'), ('the', 'DT', 'det', 'honour', 'NN'), ('that', 'DT', 'det', 'time', 'NN'), ('that', 'DT', 'det', 'time', 'NN'), ('what', 'WDT', 'det', 'time', 'NN'), ('an', 'DT', 'det', 'lady', 'NN'), ('the', 'DT', 'det', 'trustees', 'NNS'), ('the', 'DT', 'det', 'affairs', 'NNS'), ('a', 'DT', 'det', 'way', 'NN'), ('no', 'DT', 'det', 'friendship', 'NN'), ('no', 'DT', 'det', 'interest', 'NN'), ('the', 'DT', 'det', 'course', 'NN'), ('the', 'DT', 'det', 'course', 'NN'), ('no', 'DT', 'det', 'feelings', 'NNS'), ('a', 'DT', 'det', 'machine', 'NN'), ('think”--the', 'NNP', 'det', 'forehead', 'NN'), ('an', 'DT', 'det', 'orphan', 'NN'), ('the', 'DT', 'det', 'hand', 'NN'), ('some', 'DT', 'det', 'ceremony', 'NN'), ('the', 'DT', 'det', 'straightway', 'NNP'), ('the', 'DT', 'det', 'chair', 'NN</t>
-  </si>
-  <si>
-    <t>[('It', 'PRP', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('we', 'PRP', 'nsubj', 'had', 'VBD'), ('we', 'PRP', 'nsubj', 'had', 'VBD'), ('we', 'PRP', 'nsubj', 'going', 'VBG'), ('we', 'PRP', 'nsubj', 'going', 'VBG'), ('period', 'NN', 'nsubj', 'was', 'VBD'), ('some', 'DT', 'nsubj', 'insisted', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('It', 'PRP', 'nsubj', 'was', 'VBD'), ('Southcott', 'NNP', 'nsubj', 'attained', 'VBN'), ('private', 'NN', 'nsubj', 'heralded', 'VBN'), ('spirits', 'NNS', 'nsubj', 'deficient', 'JJ'), ('messages', 'NNS', 'nsubj', 'come', 'VBN'), ('which', 'WDT', 'nsubj', 'proved', 'VBN'), ('France', 'NNP', 'nsubj', 'favoured', 'VBN'), ('she', 'PRP', 'nsubj', 'entertained', 'VBD'), ('hands', 'NNS', 'nsubj', 'cut', 'VBN'), ('tongue', 'NN', 'nsubj', 'torn', 'VBN'), ('body', 'NN', 'nsubj', 'burned', 'VBD'), ('he', 'PRP', 'nsubj', 'kneeled', 'VBN'), ('which', 'WDT', 'nsubj', 'passed', 'VBD'), ('It', 'PRP', 'nsubj', 'is', 'VBZ'), ('It', 'PRP', 'nsubj', 'is', 'VBZ'), ('which', 'WDT', 'nsubj', 'set', 'VBN'), ('Farmer', 'NNP', 'nsubj', 'set', 'VBN'), ('Woodman', 'NNP', 'nsubj', 'heard', 'VBD'), ('Farmer', 'NNP', 'nsubj', 'work', 'VBP'), ('they', 'PRP', 'nsubj', 'work', 'VBP'), ('one', 'NN', 'nsubj', 'heard', 'VBD'), ('they', 'PRP', 'nsubj', 'went', 'VBD'), ('they', 'PRP', 'nsubj', 'were', 'VBD'), ('highwayman', 'NN', 'nsubj', 'was', 'VBD'), ('he', 'PRP', 'nsubj', 'stopped', 'VBD'), ('guard', 'NN', 'nsubj', 'shot', 'VBD'), ('who', 'WP', 'nsubj', 'despoiled', 'VBD'), ('prisoners', 'NNS', 'nsubj', 'fought', 'VBD'), ('majesty', 'NN', 'nsubj', 'fired', 'VBN'), ('thieves', 'NNS', 'nsubj', 'snipped', 'VBD'), ('musketeers', 'NNS', 'nsubj', 'went', 'VBD'), ('mob', 'NN', 'nsubj', 'fired', 'VBD'), ('musketeers', 'NNS', 'nsubj', 'fired', 'VBD'), ('nobody', 'NN', 'nsubj', 'thought', 'VBD'), ('any', 'DT', 'nsubj', 'much', 'RB'), ('hangman', 'NN', 'nsubj', 'was', 'VBD'), ('who', 'WP', 'nsubj', 'robbed', 'VBN'), ('things', 'NNS', 'nsubj', 'came', 'VBD'), ('Woodman', 'NNP', 'nsubj', 'worked', 'VBD'), ('year', 'NN', 'nsubj', 'conduct', 'VBP'), ('that', 'WDT', 'nsubj', 'lay', 'VBD'), ('Mail', 'NNP', 'nsubj', 'was', 'VBD'), ('It', 'PRP', 'nsubj', 'was', 'VBD'), ('that', 'WDT', 'nsubj', 'lay', 'VBP'), ('history', 'NN', 'nsubj', 'has', 'VBZ'), ('road', 'NN', 'nsubj', 'lay', 'VBP'), ('it', 'PRP', 'nsubj', 'lumbered', 'VBD'), ('He', 'PRP', 'nsubj', 'walked', 'VBD'), ('rest', 'NN', 'nsubj', 'did', 'VBD'), ('they', 'PRP', 'nsubj', 'had', 'VBD'), ('hill', 'NN', 'nsubj', 'were', 'VBD'), ('horses', 'NNS', 'nsubj', 'had', 'VBD'), ('times', 'NNS', 'nsubj', 'come', 'VBN'), ('Reins', 'NNS', 'nsubj', 'read', 'VBN'), ('which', 'WDT', 'nsubj', 'forbade', 'VBD'), ('team', 'NN', 'nsubj', 'capitulated', 'VBN'), ('they', 'PRP', 'nsubj', 'mashed', 'VBD'), ('they', 'PRP', 'nsubj', 'falling', 'VBG'), ('driver', 'NN', 'nsubj', 'rested', 'VBD'), ('leader', 'NN', 'nsubj', 'shook', 'VBD'), ('leader', 'NN', 'nsubj', 'made', 'VBD'), ('passenger', 'NN', 'nsubj', 'started', 'VBD'), ('it', 'PRP', 'nsubj', 'roamed', 'VBN'), ('it', 'PRP', 'nsubj', 'made', 'VBD'), ('that', 'WDT', 'nsubj', 'followed', 'VBD'), ('waves', 'NNS', 'nsubj', 'do', 'VB'), ('It', 'PRP', 'nsubj', 'was', 'VBD'), ('workings', 'NNS', 'nsubj', 'steamed', 'VBD'), ('reek', 'NN', 'nsubj', 'steamed', 'VBD'), ('they', 'PRP', 'nsubj', 'made', 'VBN'), ('passengers', 'NNS', 'nsubj', 'plodding', 'VBG'), ('one', 'CD', 'nsubj', 'said', 'VBN'), ('he', 'PRP', 'nsubj', 'saw', 'VBD'), ('travellers', 'NNS', 'nsubj', 'were', 'VBD'), ('anybody', 'NN', 'nsubj', 'be', 'VB'), ('house', 'NNP', 'nsubj', 'produce', 'VB'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('guard', 'NN', 'nsubj', 'thought', 'VBD'), ('one', 'CD', 'nsubj', 'stood', 'VBD'), ('he', 'PRP', 'nsubj', 'stood', 'VBD'), ('blunderbuss', 'NN', 'nsubj', 'lay', 'VBD'), ('mail', 'NN', 'nsubj', 'was', 'VBD'), ('guard', 'NN', 'nsubj', 'suspected', 'VBD'), ('passengers', 'NNS', 'nsubj', 'suspected', 'VBD'), ('they', 'PRP', 'nsubj', 'suspected', 'VBD'), ('coachman', 'NN', 'nsubj', 'was', 'VBD'), ('cattle', 'NNS', 'nsubj', 'taken', 'VBN'), ('he', 'PRP', 'nsubj', 'could', 'MD'), ('they', 'PRP', 'nsubj', 'were', 'VBD'), ('ho', 'NN', 'nsubj', 'said', 'VBD'), ('coachman', 'NN', 'nsubj', 'said', 'VBD'), ('One', 'CD', 'nsubj', 'pull', 'VB'), ('you', 'PRP', 'nsubj', '’re', 'VBP'), ('I', 'PRP', 'nsubj', 'had', 'VBN'), ('guard', 'NN', 'nsubj', 'replied', 'VBD'), ('you', 'PRP', 'nsubj', 'make', 'VB'), ('blood', 'NN', 'nsubj', 'ejaculated', 'VBD'), ('!', '.', 'nsubj', 'Get', 'VB'), ('horse', 'NN', 'nsubj', 'made', 'VBD'), ('horses', 'NNS', 'nsubj', 'followed', 'VBD'), ('mail', 'NN', 'nsubj', 'struggled', 'VBD'), ('They', 'PRP', 'nsubj', 'stopped', 'VBN'), ('coach', 'NN', 'nsubj', 'stopped', 'VBD'), ('they', 'PRP', 'nsubj', 'kept', 'VBD'), ('one', 'CD', 'nsubj', 'had', 'VBN'), ('he', 'PRP', 'nsubj', 'put', 'VBN'), ('burst', 'NN', 'nsubj', 'carried', 'VBD'), ('horses', 'NNS', 'nsubj', 'stopped', 'VBD'), ('guard', 'NN', 'nsubj', 'got', 'VBD'), ('passengers', 'NNS', 'nsubj', 'in', 'RP'), ('Joe', 'NNP', 'nsubj', 'cried', 'VBD'), ('you', 'PRP', 'nsubj', 'say', 'VB'), ('They', 'PRP', 'nsubj', 'listened', 'VBD'), ('I', 'PRP', 'nsubj', 'say', 'VBP'), ('_', 'PRP', 'nsubj', 'say', 'VBP'), ('he', 'PRP', 'nsubj', 'cocked', 'VBD'), ('passenger', 'NN', 'nsubj', 'was', 'VBD'), ('passengers', 'NNS', 'nsubj', 'were', 'VBD'), ('He', 'PRP', 'nsubj', 'remained', 'VBD'), ('they', 'PRP', 'nsubj', 'remained', 'VBD'), ('They', 'PRP', 'nsubj', 'looked', 'VBD'), ('coachman', 'NN', 'nsubj', 'looked', 'VBD'), ('guard', 'NN', 'nsubj', 'looked', 'VBD'), ('leader', 'NN', 'nsubj', 'pricked', 'VBD'), ('consequent', 'NN', 'nsubj', 'added', 'VBD'), ('it', 'PRP', 'nsubj', 'quiet', 'JJ'), ('panting', 'NN', 'nsubj', 'communicated', 'VBD'), ('it', 'PRP', 'nsubj', 'were', 'VBD'), ('hearts', 'NNS', 'nsubj', 'beat', 'VBD'), ('pause', 'NN', 'nsubj', 'was', 'VBD'), ('sound', 'NN', 'nsubj', 'came', 'VBD'), ('guard', 'NN', 'nsubj', 'sang', 'VBD'), ('he', 'PRP', 'nsubj', 'roar', 'VB'), ('I', 'PRP', 'nsubj', 'fire', 'VB'), ('voice', 'NN', 'nsubj', 'called', 'VBN'), ('that', 'DT', 'nsubj', 'Is', 'VBZ'), ('you', 'PRP', 'nsubj', 'mind', 'VB'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('guard', 'NN', 'nsubj', 'retorted', 'VBD'), ('you', 'PRP', 'nsubj', 'are', 'VBP'), ('_', 'NNP', 'nsubj', 'Is', 'VBZ'), ('that', 'IN', 'nsubj', 'Is', 'VBZ'), ('you', 'PRP', 'nsubj', 'want', 'VB'), ('I', 'PRP', 'nsubj', 'want', 'VBP'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('passenger', 'NN', 'nsubj', 'showed', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('guard', 'NN', 'nsubj', 'eyed', 'VBD'), ('you', 'PRP', 'nsubj', 'are', 'VBP'), ('guard', 'NN', 'nsubj', 'called', 'VBD'), ('I', 'PRP', 'nsubj', 'make', 'VB'), ('Gentleman', 'NN', 'nsubj', 'straight', 'RB'), ('matter', 'NN', 'nsubj', 'is', 'VBZ'), ('Who', 'WP', 'nsubj', 'wants', 'VBZ'), ('it', 'PRP', 'nsubj', 'Is', 'VBZ'), ('I', 'PRP', 'nsubj', 'like', 'VB'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('He', 'PRP', 'nsubj', '’s', 'VBZ'), ('matter', 'NN', 'nsubj', 'is', 'VBZ'), ('T.', 'NNP', 'nsubj', 'know', 'VBP'), ('I', 'PRP', 'nsubj', 'know', 'VBP'), ('Lorry', 'NNP', 'nsubj', 'said', 'VBD'), ('who', 'WP', 'nsubj', 'scrambled', 'VBD'), ('He', 'PRP', 'nsubj', 'come', 'VB'), ('I', 'PRP', 'nsubj', 'hope', 'VBP'), ('I', 'PRP', 'nsubj', 'make', 'VB'), ('guard', 'NN', 'nsubj', 'said', 'VBD'), ('Jerry', 'NNP', 'nsubj', 'said', 'VBD'), ('d’ye', 'NN', 'nsubj', 'mind', 'VBP'), ('you', 'PRP', 'nsubj', 'got', 'VBN'), ('me', 'PRP', 'nsubj', 'see', 'VB'), ('hand', 'NN', 'nsubj', 'go', 'VB'), ('I', 'PRP', 'nsubj', '’m', 'VBP'), ('devil', 'NN', 'nsubj', '’m', 'VBP'), ('I', 'PRP', 'nsubj', 'make', 'VBP'), ('it', 'PRP', 'nsubj', 'takes', 'VBZ'), ('’s', 'PRP', 'nsubj', 'look', 'VB'), ('figures', 'NNS', 'nsubj', 'came', 'VBD'), ('passenger', 'NN', 'nsubj', 'stood', 'VBD'), ('rider', 'NN', 'nsubj', 'stooped', 'VBD'), ('Guard', 'NNP', 'nsubj', 'said', 'VBD'), ('passenger', 'NN', 'nsubj', 'said', 'VBD'), ('guard', 'NN', 'nsubj', 'answered', 'VBD'), ('I', 'PRP', 'nsubj', 'belong', 'VBP'), ('You', 'PRP', 'nsubj', 'know', 'VB'), ('I', 'PRP', 'nsubj', 'going', 'VBG'), ('I', 'PRP', 'nsubj', 'read', 'VB'), ('you', 'PRP', 'nsubj', '’re', 'VBP'), ('He', 'PRP', 'nsubj', 'opened', 'VBD'), ('It', 'PRP', 'nsubj', '’s', 'VBZ'), ('you', 'PRP', 'nsubj', 'see', 'VBP'), ('answer', 'NN', 'nsubj', 'was', 'VBD'), ('Jerry', 'NNP', 'nsubj', 'started', 'VBD'), ('That', 'DT', 'nsubj', '’s', 'VBZ'), ('he', 'PRP', 'nsubj', 'said', 'VBD'), ('they', 'PRP', 'nsubj', 'know', 'VB'), ('I', 'PRP', 'nsubj', 'received', 'VBD'), ('I', 'PRP', 'nsubj', 'wrote', 'VBD'), ('passenger', 'NN', 'nsubj', 'opened', 'VBD'), ('who', 'WP', 'nsubj', 'secreted', 'VBN'), ('it', 'PRP', 'nsubj', 'began', 'VBD'), ('guard', 'NN', 'nsubj', 'replaced', 'VBD'), ('he', 'PRP', 'nsubj', 'wore', 'VBD'), ('which', 'WDT', 'nsubj', 'happen', 'VB'), ('he', 'PRP', 'nsubj', 'had', 'VBD'), ('he', 'PRP', 'nsubj', 'were', 'VBD'), ('Hallo', 'NNP', 'nsubj', 'hear', 'VB'), ('you', 'PRP', 'nsubj', 'hear', 'VB'), ('I', 'PRP', 'nsubj', 'did', 'VBD'), ('you', 'PRP', 'nsubj', 'make', 'VB'), ('Tom', 'NNP', 'nsubj', '’s', 'VBZ'), ('Nothing', 'NN', 'nsubj', '’s', 'VBZ'), ('That', 'DT', 'nsubj', '’s', 'VBZ'), ('guard', 'NN', 'nsubj', 'mused', 'VBD'), ('I', 'PRP', 'nsubj', 'made', 'VBD'), ('Jerry', 'NNP', 'nsubj', 'dismounted', 'VBD'), ('which', 'WDT', 'nsubj', 'be', 'VB'), ('wheels', 'NNS', 'nsubj', 'were', 'VBD'), ('night', 'NN', 'nsubj', 'was', 'VBD'), ('he', 'PRP', 'nsubj', 'turned', 'VBD'), ('I', 'PRP', 'nsubj', 'trust', 'VB'), ('I', 'PRP', 'nsubj', 'get', 'VBP'), ('messenger', 'NN', 'nsubj', 'said', 'VBD'), ('That', 'DT', 'nsubj', '’s', 'VBZ'), ('Much', 'JJ', 'nsubj', 'do', 'VB'), ('I', 'PRP', 'nsubj', 'say', 'VBP'), ('You', 'PRP', 'nsubj', 'be', 'VB'), ('III', 'NNP', 'nsubj', 'was', 'VBD'), ('Shadows', 'NNPS', 'nsubj', 'fact', 'NN'), ('consideration', 'NN', 'nsubj', 'encloses', 'VBZ'), ('I', 'PRP', 'nsubj', 'enter', 'VBP'), ('one', 'CD', 'nsubj', 'encloses', 'VBZ'), ('room', 'NN', 'nsubj', 'encloses', 'VBZ'), ('heart', 'NN', 'nsubj', 'is', 'VBZ'), ('Something', 'NN', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'turn', 'VB'), ('I', 'PRP', 'nsubj', 'loved', 'VBD'), ('I', 'PRP', 'nsubj', 'look', 'VB'), ('lights', 'NNS', 'nsubj', 'glanced', 'VBD'), ('I', 'PRP', 'nsubj', 'had', 'VBN'), ('glimpses', 'NNS', 'nsubj', 'submerged', 'VBN'), ('book', 'NN', 'nsubj', 'shut', 'VB'), ('I', 'PRP', 'nsubj', 'read', 'VBN'), ('light', 'NN', 'nsubj', 'playing', 'VBG'), ('I', 'PRP', 'nsubj', 'stood', 'VBD'), ('friend', 'NN', 'nsubj', 'is', 'VBZ'), ('neighbour', 'NN', 'nsubj', 'is', 'VBZ'), ('love', 'NN', 'nsubj', 'is', 'VBZ'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('that', 'WDT', 'nsubj', 'was', 'VBD'), ('I', 'PRP', 'nsubj', 'carry', 'VB'), ('I', 'PRP', 'nsubj', 'pass', 'VBP'), ('inhabitants', 'NNS', 'nsubj', 'are', 'VBP'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('messenger', 'NN', 'nsubj', 'had', 'VBD'), ('passengers', 'NNS', 'nsubj', 'shut', 'VBD'), ('they', 'PRP', 'nsubj', 'were', 'VBD'), ('each', 'DT', 'nsubj', 'been', 'VBN'), ('messenger', 'NN', 'nsubj', 'rode', 'VBD'), ('He', 'PRP', 'nsubj', 'had', 'VBD'), ('that', 'WDT', 'nsubj', 'assorted', 'VBD'), ('they', 'PRP', 'nsubj', 'were', 'VBD'), ('they', 'PRP', 'nsubj', 'kept', 'VBD'), ('They', 'PRP', 'nsubj', 'had', 'VBD'), ('which', 'WDT', 'nsubj', 'descended', 'VBD'), ('he', 'PRP', 'nsubj', 'stopped', 'VBD'), ('he', 'PRP', 'nsubj', 'moved', 'VBD'), ('he', 'PRP', 'nsubj', 'poured', 'VBD'), ('he', 'PRP', 'nsubj', 'muffled', 'VBD'), ('No', 'NNP', 'nsubj', 'said', 'VBD'), ('messenger', 'NN', 'nsubj', 'said', 'VBD'), ('he', 'PRP', 'nsubj', 'rode', 'VBD'), ('It', 'PRP', 'nsubj', 'do', 'VB'), ('it', 'PRP', 'nsubj', 'suit', 'VB'), ('I', 'PRP', 'nsubj', 'think', 'VB'), ('he', 'PRP', 'nsubj', 'been', 'VBN'), ('message', 'NN', 'nsubj', 'perplexed', 'VBD'), ('he', 'PRP', 'nsubj', 'was', 'VBD'), ('which', 'WDT', 'nsubj', 'was', 'VBD'), ('he', 'PRP', 'nsubj', 'had', 'VBD'), ('It', 'PRP', 'nsubj', 'was', 'VBD'), ('best', 'JJS', 'nsubj', 'declined', 'VBN'), ('man', 'NN', 'nsubj', 'go', 'VB'), ('he', 'PRP', 'nsubj', 'trotted', 'VBD'), ('he', 'PRP', 'nsubj', 'was', 'VBD'), ('who', 'WP', 'nsubj', 'was', 'VBD'), ('shadows', 'NNS', 'nsubj', 'took', 'VBD'), ('They', 'PRP', 'nsubj', 'seemed', 'VBD'), ('she', 'PRP', 'nsubj', 'shied', 'VBD'), ('lumbered', 'VBN', 'nsubj', 'jolted', 'VBN'), ('inscrutables', 'NNS', 'nsubj', 'inside', 'RB'), ('shadows', 'NNS', 'nsubj', 'revealed', 'VBD'), ('thoughts', 'NNS', 'nsubj', 'suggested', 'VBD'), ('Bank', 'NNP', 'nsubj', 'had', 'VBD'), ('which', 'WDT', 'nsubj', 'did', 'VBD'), ('what', 'WP', 'nsubj', 'lay', 'VBD'), ('coach', 'NN', 'nsubj', 'got', 'VBD'), ('lamp', 'NN', 'nsubj', 'gleaming', 'VBG'), ('bundle', 'NN', 'nsubj', 'became', 'VBD'), ('rattle', 'NN', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('he', 'PRP', 'nsubj', 'knew', 'VBD'), ('he', 'PRP', 'nsubj', 'went', 'VBD'), ('them', 'PRP', 'nsubj', 'safe', 'JJ'), ('he', 'PRP', 'nsubj', 'seen', 'VBN'), ('bank', 'NN', 'nsubj', 'was', 'VBD'), ('coach', 'NN', 'nsubj', 'was', 'VBD'), ('He', 'PRP', 'nsubj', 'was', 'VBD'), ('which', 'WDT', 'nsubj', 'was', 'VBD'), ('that', 'WDT', 'nsubj', 'showed', 'VBD'), ('shadows', 'NNS', 'nsubj', 'indicate', 'VB'), ('they', 'PRP', 'nsubj', 'were', 'VBD'), ('they', 'PRP', 'nsubj', 'differed', 'VBD'), ('they', 'PRP', 'nsubj', 'expressed', 'VBD'), ('Pride', 'NN', 'nsubj', 'succeeded', 'VBD'), ('varieties', 'NNS', 'nsubj', 'did', 'VBD'), ('colour', 'NN', 'nsubj', 'did', 'VBD'), ('face', 'NN', 'nsubj', 'was', 'VBD'), ('head', 'NN', 'nsubj', 'was', 'VBD'), ('passenger', 'NN', 'nsubj', 'inquired', 'VBD'), ('answer', 'NN', 'nsubj', 'was', 'VBD'), ('You', 'PRP', 'nsubj', 'abandoned', 'VBN'), ('You', 'PRP', 'nsubj', 'know', 'VBP'), ('They', 'PRP', 'nsubj', 'tell', 'VBP'), ('I', 'PRP', 'nsubj', 'hope', 'VBP'), ('you', 'PRP', 'nsubj', 'care', 'VBP'), ('I', 'PRP', 'nsubj', 'say', 'VB'), ('I', 'PRP', 'nsubj', 'show', 'VB'), ('you', 'PRP', 'nsubj', 'come', 'VB'), ('answers', 'NNS', 'nsubj', 'were', 'VBD'), ('reply', 'NN', 'nsubj', 'was', 'VBD'), ('It', 'PRP', 'nsubj', 'kill', 'VB'), ('I', 'PRP', 'nsubj', 'saw', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'staring', 'VBG'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('I', 'PRP', 'nsubj', 'know', 'VB'), ('I', 'PRP', 'nsubj', 'understand', 'VB'), ('passenger', 'NN', 'nsubj', 'dig', 'VB'), ('earth', 'NN', 'nsubj', 'hanging', 'VBG'), ('he', 'PRP', 'nsubj', 'fan', 'VB'), ('passenger', 'NN', 'nsubj', 'start', 'VB'), ('hedge', 'NN', 'nsubj', 'retreating', 'VBG'), ('shadows', 'NNS', 'nsubj', 'fall', 'VB'), ('house', 'NN', 'nsubj', 'be', 'VB'), ('rooms', 'NNS', 'nsubj', 'be', 'VB'), ('express', 'NN', 'nsubj', 'returned', 'VBD'), ('message', 'NN', 'nsubj', 'returned', 'VBD'), ('face', 'NN', 'nsubj', 'rise', 'VB'), ('he', 'PRP', 'nsubj', 'accost', 'VB'), ('I', 'PRP', 'nsubj', 'hope', 'VBP'), ('you', 'PRP', 'nsubj', 'care', 'VBP'), ('I', 'PRP', 'nsubj', 'say', 'VB'), ('movement', 'NN', 'nsubj', 'admonish', 'VB'), ('mind', 'NN', 'nsubj', 'lost', 'VBD'), ('they', 'PRP', 'nsubj', 'slid', 'VBD'), ('You', 'PRP', 'nsubj', 'abandoned', 'VBN'), ('words', 'NNS', 'nsubj', 'were', 'VBD'), ('passenger', 'NN', 'nsubj', 'started', 'VBD'), ('He', 'PRP', 'nsubj', 'lowered', 'VBD'), ('horses', 'NNS', 'nsubj', 'were', 'VBD'), ('leaves', 'NNS', 'nsubj', 'remained', 'VBD'), ('earth', 'NN', 'nsubj', 'was', 'VBD'), ('sky', 'NN', 'nsubj', 'was', 'VBD'), ('sun', 'NN', 'nsubj', 'rose', 'VBD'), ('years', 'NNS', 'nsubj', 'said', 'VBD'), ('passenger', 'NN', 'nsubj', 'said', 'VBD'), ('Preparation', 'NNP', 'nsubj', 'opened', 'VBD'), ('mail', 'NN', 'nsubj', 'got', 'VBD'), ('drawer', 'NN', 'nsubj', 'opened', 'VBD'), ('custom', 'NN', 'nsubj', 'was', 'VBD'), ('He', 'PRP', 'nsubj', 'did', 'VBD'), ('mildewy', 'JJ', 'nsubj', 'was', 'VBD'), ('Lorry', 'NNP', 'nsubj', 'shaking', 'VBG'), ('weather', 'NN', 'nsubj', 'holds', 'VBZ'), ('wind', 'NN', 'nsubj', 'sets', 'VBZ'), ('tide', 'NN', 'nsubj', 'serve', 'VB'), ('I', 'PRP', 'nsubj', 'go', 'VB'), ('I', 'PRP', 'nsubj', 'want', 'VBP'), ('you', 'PRP', 'nsubj', 'please', 'VBP'), ('You', 'PRP', 'nsubj', 'find', 'VB'), ('room', 'NN', 'nsubj', 'had', 'VBD'), ('kinds', 'NNS', 'nsubj', 'came', 'VBD'), ('drawer', 'NN', 'nsubj', 'were', 'VBD'), ('gentleman', 'NN', 'nsubj', 'kept', 'VBN'), ('room', 'NN', 'nsubj', 'had', 'VBD'), ('he', 'PRP', 'nsubj', 'sat', 'VBD'), ('he', 'PRP', 'nsubj', 'sat', 'VBD'), ('he', 'PRP', 'nsubj', 'sitting', 'VBG'), ('he', 'PRP', 'nsubj', 'looked', 'VBD'), ('it', 'PRP', 'nsubj', 'pitted', 'VBD'), ('He', 'PRP', 'nsubj', 'had', 'VBD'), ('stockings', 'NNS', 'nsubj', 'fitted', 'VBN'), ('shoes', 'NNS', 'nsubj', 'were', 'VBD'), ('He', 'PRP', 'nsubj', 'wore', 'VBD'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('which', 'WDT', 'nsubj', 'looked', 'VBD'), ('linen', 'NN', 'nsubj', 'was', 'VBD'), ('that', 'WDT', 'nsubj', 'broke', 'VBD'), ('that', 'WDT', 'nsubj', 'glinted', 'VBN'), ('face', 'NN', 'nsubj', 'suppressed', 'VBN'), ('it', 'PRP', 'nsubj', 'have', 'VB'), ('He', 'PRP', 'nsubj', 'had', 'VBD'), ('face', 'NN', 'nsubj', 'bore', 'IN'), ('cares', 'NNS', 'nsubj', 'come', 'VB'), ('who', 'WP', 'nsubj', 'sitting', 'VBG'), ('Lorry', 'NNP', 'nsubj', 'dropped', 'VBD'), ('arrival', 'NN', 'nsubj', 'roused', 'VBD'), ('he', 'PRP', 'nsubj', 'said', 'VBD'), ('he', 'PRP', 'nsubj', 'moved', 'VBD'), ('I', 'PRP', 'nsubj', 'wish', 'VBP'), ('who', 'WP', 'nsubj', 'come', 'VB'), ('She', 'PRP', 'nsubj', 'ask', 'VB'), ('she', 'PRP', 'nsubj', 'ask', 'VB'), ('me', 'PRP', 'nsubj', 'know', 'VB'), ('We', 'PRP', 'nsubj', 'have', 'VBP'), ('We', 'PRP', 'nsubj', 'are', 'VBP'), ('such', 'JJ', 'nsubj', 'travelling', 'VBG'), ('I', 'PRP', 'nsubj', 'think', 'VBP'), ('It', 'PRP', 'nsubj', 'is', 'VBZ'), ('we', 'PRP', 'nsubj', 'came', 'VBD'), ('That', 'DT', 'nsubj', 'was', 'VBD'), ('George', 'NNP', 'nsubj', 'was', 'VBD'), ('I', 'PRP', 'nsubj', 'believe', 'VBP'), ('I', 'PRP', 'nsubj', 'hold', 'VB'), ('House', 'NNP', 'nsubj', 'flourishing', 'VBG'), ('You', 'PRP', 'nsubj', 'treble', 'VB'), ('he', 'PRP', 'nsubj', 'stepped', 'VBD'), ('waiter', 'NN', 'nsubj', 'shifted', 'VBD'), ('he', 'PRP', 'nsubj', 'ate', 'VBD'), ('Lorry', 'NNP', 'nsubj', 'finished', 'VBN'), ('he', 'PRP', 'nsubj', 'went', 'VBD'), ('town', 'NN', 'nsubj', 'hid', 'VBD'), ('beach', 'NN', 'nsubj', 'was', 'VBD'), ('sea', 'NN', 'nsubj', 'did', 'VBD'), ('it', 'PRP', 'nsubj', 'liked', 'VBD'), ('it', 'PRP', 'nsubj', 'liked', 'VBD'), ('It', 'PRP', 'nsubj', 'thundered', 'VBD'), ('air', 'NN', 'nsubj', 'was', 'VBD'), ('one', 'PRP', 'nsubj', 'supposed', 'VBN'), ('people', 'NNS', 'nsubj', 'went', 'VBD'), ('tide', 'NN', 'nsubj', 'made', 'VBN'), ('who', 'WP', 'nsubj', 'did', 'VBD'), ('whatever', 'WDT', 'nsubj', 'realised', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('nobody', 'NN', 'nsubj', 'endure', 'VB'), ('day', 'NN', 'nsubj', 'declined', 'VBD'), ('air', 'NN', 'nsubj', 'became', 'VBD'), ('which', 'WDT', 'nsubj', 'been', 'VBN'), ('thoughts', 'NNS', 'nsubj', 'seemed', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('he', 'PRP', 'nsubj', 'sat', 'VBD'), ('he', 'PRP', 'nsubj', 'awaited', 'VBN'), ('mind', 'NN', 'nsubj', 'digging', 'VBG'), ('bottle', 'NN', 'nsubj', 'does', 'VBZ'), ('it', 'PRP', 'nsubj', 'has', 'VBZ'), ('Lorry', 'NNP', 'nsubj', 'been', 'VBN'), ('who', 'WP', 'nsubj', 'got', 'VBN'), ('rattling', 'NN', 'nsubj', 'came', 'VBD'), ('He', 'PRP', 'nsubj', 'set', 'VBD'), ('This', 'DT', 'nsubj', 'is', 'VBZ'), ('he', 'PRP', 'nsubj', 'said', 'VBD'), ('waiter', 'NN', 'nsubj', 'came', 'VBD'), ('Manette', 'NNP', 'nsubj', 'arrived', 'VBN'), ('Manette', 'NNP', 'nsubj', 'taken', 'VBN'), ('it', 'PRP', 'nsubj', 'suited', 'VBD'), ('gentleman', 'NN', 'nsubj', 'had', 'VBD'), ('It', 'PRP', 'nsubj', 'was', 'VBD'), ('obscurity', 'NN', 'nsubj', 'was', 'VBD'), ('Manette', 'NNP', 'nsubj', 'be', 'VB'), ('he', 'PRP', 'nsubj', 'saw', 'VBD'), ('eyes', 'NNS', 'nsubj', 'rested', 'VBD'), ('that', 'WDT', 'nsubj', 'met', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('that', 'WDT', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'included', 'VBD'), ('eyes', 'NNS', 'nsubj', 'rested', 'VBD'), ('likeness', 'NN', 'nsubj', 'passed', 'VBN'), ('he', 'PRP', 'nsubj', 'held', 'VBN'), ('hail', 'NN', 'nsubj', 'drifted', 'VBD'), ('sea', 'NN', 'nsubj', 'ran', 'VBD'), ('likeness', 'NN', 'nsubj', 'passed', 'VBD'), ('procession', 'NN', 'nsubj', 'offering', 'VBG'), ('he', 'PRP', 'nsubj', 'made', 'VBD'), ('Pray', 'VB', 'nsubj', 'take', 'VB'), ('I', 'PRP', 'nsubj', 'kiss', 'VBP'), ('Lorry', 'NNP', 'nsubj', 'said', 'VBD'), ('he', 'PRP', 'nsubj', 'made', 'VBD'), ('I', 'PRP', 'nsubj', 'received', 'VBD'), ('intelligence', 'NN', 'nsubj', 'is', 'VBZ'), ('word', 'NN', 'nsubj', 'is', 'VBZ'), ('word', 'NN', 'nsubj', 'do', 'VB'), ('I', 'PRP', 'nsubj', 'saw', 'VBD'), ('Lorry', 'NNP', 'nsubj', 'moved', 'VBD'), ('_', 'NFP', 'nsubj', 'had', 'VBD'), ('it', 'PRP', 'nsubj', 'necessary', 'JJ'), ('I', 'PRP', 'nsubj', 'go', 'VB'), ('I', 'PRP', 'nsubj', 'was', 'VBD'), ('She', 'PRP', 'nsubj', 'curtseyed', 'VBD'), ('ladies', 'NNS', 'nsubj', 'made', 'VBD'), ('she', 'PRP', 'nsubj', 'felt', 'VBD'), ('he', 'PRP', 'nsubj', 'was', 'VBD'), ('He', 'PRP', 'nsubj', 'made', 'VBD'), ('her', 'PRP', 'nsubj', 'bow', 'NN'), ('I', 'PRP', 'nsubj', 'replied', 'VBD'), ('who', 'WP', 'nsubj', 'know', 'VBP'), ('who', 'WP', 'nsubj', 'are', 'VBP'), ('I', 'PRP', 'nsubj', 'go', 'VB'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('who', 'WP', 'nsubj', 'go', 'VB'), ('I', 'PRP', 'nsubj', 'esteem', 'VB'), ('gentleman', 'NN', 'nsubj', 'left', 'VBN'), ('I', 'PRP', 'nsubj', 'think', 'VBP'), ('him', 'PRP', 'nsubj', 'beg', 'VB'), ('his', 'PRP$', 'nsubj', 'waiting', 'VBG'), ('I', 'PRP', 'nsubj', 'was', 'VBD'), ('Lorry', 'NNP', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'be', 'VB'), ('I', 'PRP', 'nsubj', 'thank', 'VBP'), ('I', 'PRP', 'nsubj', 'thank', 'VBP'), ('gentleman', 'NN', 'nsubj', 'explain', 'VB'), ('I', 'PRP', 'nsubj', 'prepare', 'VB'), ('I', 'PRP', 'nsubj', 'done', 'VBN'), ('I', 'PRP', 'nsubj', 'have', 'VBP'), ('they', 'PRP', 'nsubj', 'are', 'VBP'), ('Lorry', 'NNP', 'nsubj', 'said', 'VBD'), ('he', 'PRP', 'nsubj', 'added', 'VBD'), ('It', 'PRP', 'nsubj', 'is', 'VBZ'), ('He', 'PRP', 'nsubj', 'begin', 'VB'), ('forehead', 'NN', 'nsubj', 'lifted', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('she', 'PRP', 'nsubj', 'raised', 'VBD'), ('she', 'PRP', 'nsubj', 'caught', 'VBD'), ('you', 'PRP', 'nsubj', 'Are', 'VBP'), ('Am', 'VBP', 'nsubj', 'Are', 'VBP'), ('I', 'PRP', 'nsubj', 'Am', 'VBP'), ('Lorry', 'NNP', 'nsubj', 'opened', 'VBD'), ('which', 'WDT', 'nsubj', 'was', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('expression', 'NN', 'nsubj', 'deepened', 'VBD'), ('she', 'PRP', 'nsubj', 'took', 'VBD'), ('she', 'PRP', 'nsubj', 'had', 'VBD'), ('hitherto', 'NNS', 'nsubj', 'remained', 'VBN'), ('He', 'PRP', 'nsubj', 'watched', 'VBD'), ('she', 'PRP', 'nsubj', 'mused', 'VBD'), ('moment', 'NN', 'nsubj', 'went', 'VBD'), ('she', 'PRP', 'nsubj', 'raised', 'VBD'), ('I', 'PRP', 'nsubj', 'presume', 'VBP'), ('I', 'PRP', 'nsubj', 'do', 'VB'), ('you', 'PRP', 'nsubj', 'please', 'VBP'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('I', 'PRP', 'nsubj', 'have', 'VBP'), ('I', 'PRP', 'nsubj', 'was', 'VBD'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('I', 'PRP', 'nsubj', 'relate', 'VBP'), ('He', 'PRP', 'nsubj', 'seemed', 'VBD'), ('she', 'PRP', 'nsubj', 'repeated', 'VBN'), ('he', 'PRP', 'nsubj', 'added', 'VBD'), ('we', 'PRP', 'nsubj', 'call', 'VBP'), ('He', 'PRP', 'nsubj', 'was', 'VBD'), ('gentleman', 'NN', 'nsubj', 'was', 'VBD'), ('gentleman', 'NN', 'nsubj', 'was', 'VBD'), ('I', 'PRP', 'nsubj', 'had', 'VBD'), ('relations', 'NNS', 'nsubj', 'were', 'VBD'), ('I', 'PRP', 'nsubj', 'was', 'VBD'), ('I', 'PRP', 'nsubj', 'ask', 'VB'), ('I', 'PRP', 'nsubj', 'speak', 'VBP'), ('He', 'PRP', 'nsubj', 'married', 'VBD'), ('I', 'PRP', 'nsubj', 'was', 'VBD'), ('affairs', 'NNS', 'nsubj', 'were', 'VBD'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('I', 'PRP', 'nsubj', 'been', 'VBN'), ('These', 'DT', 'nsubj', 'are', 'VBP'), ('I', 'PRP', 'nsubj', 'passed', 'VBN'), ('I', 'PRP', 'nsubj', 'pass', 'VBP'), ('I', 'PRP', 'nsubj', 'have', 'VBP'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('this', 'DT', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'begin', 'VBP'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('who', 'WP', 'nsubj', 'brought', 'VBD'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('Lorry', 'NNP', 'nsubj', 'took', 'VBD'), ('that', 'WDT', 'nsubj', 'advanced', 'VBD'), ('he', 'PRP', 'nsubj', 'put', 'VBD'), ('He', 'PRP', 'nsubj', 'conducted', 'VBD'), ('he', 'PRP', 'nsubj', 'said', 'VBD'), ('she', 'PRP', 'nsubj', 'sat', 'VBD'), ('_', 'DT', 'nsubj', 'was', 'VBD'), ('you', 'PRP', 'nsubj', 'see', 'VB'), ('I', 'PRP', 'nsubj', 'spoke', 'VBD'), ('I', 'PRP', 'nsubj', 'had', 'VBD'), ('relations', 'NNS', 'nsubj', 'are', 'VBP'), ('I', 'PRP', 'nsubj', 'hold', 'VBP'), ('you', 'PRP', 'nsubj', 'reflect', 'VBP'), ('I', 'PRP', 'nsubj', 'seen', 'VBN'), ('you', 'PRP', 'nsubj', 'been', 'VBN'), ('I', 'PRP', 'nsubj', 'been', 'VBN'), ('I', 'PRP', 'nsubj', 'have', 'VBP'), ('I', 'PRP', 'nsubj', 'pass', 'VBP'), ('Lorry', 'NNP', 'nsubj', 'flattened', 'VBD'), ('which', 'WDT', 'nsubj', 'was', 'VBD'), ('nothing', 'NN', 'nsubj', 'be', 'VB'), ('surface', 'NN', 'nsubj', 'was', 'VBD'), ('you', 'PRP', 'nsubj', 'remarked', 'VBN'), ('this', 'DT', 'nsubj', 'is', 'VBZ'), ('difference', 'NN', 'nsubj', 'comes', 'VBZ'), ('father', 'NN', 'nsubj', 'died', 'VBN'), ('he', 'PRP', 'nsubj', 'did', 'VBD'), ('Don’t', 'NN', 'nsubj', 'be', 'VB'), ('you', 'PRP', 'nsubj', 'start', 'VBP'), ('She', 'PRP', 'nsubj', 'did', 'VBD'), ('she', 'PRP', 'nsubj', 'caught', 'VBD'), ('Lorry', 'NNP', 'nsubj', 'said', 'VBD'), ('that', 'WDT', 'nsubj', 'clasped', 'VBD'), ('I', 'PRP', 'nsubj', 'was', 'VBD'), ('look', 'NN', 'nsubj', 'discomposed', 'VBD'), ('he', 'PRP', 'nsubj', 'stopped', 'VBD'), ('I', 'PRP', 'nsubj', 'saying', 'VBG'), ('Manette', 'NNP', 'nsubj', 'died', 'VBN'), ('he', 'PRP', 'nsubj', 'disappeared', 'VBN'), ('it', 'PRP', 'nsubj', 'been', 'VBN'), ('art', 'NN', 'nsubj', 'trace', 'VB'), ('he', 'PRP', 'nsubj', 'had', 'VBD'), ('who', 'WP', 'nsubj', 'exercise', 'VB'), ('I', 'PRP', 'nsubj', 'known', 'VBN'), ('privilege', 'NN', 'nsubj', 'been', 'VBN'), ('wife', 'NN', 'nsubj', 'implored', 'VBN'), ('history', 'NN', 'nsubj', 'been', 'VBN'), ('I', 'PRP', 'nsubj', 'entreat', 'VBP'), ('I', 'PRP', 'nsubj', 'will', 'MD'), ('I', 'PRP', 'nsubj', 'going', 'VBG'), ('You', 'PRP', 'nsubj', 'bear', 'VB'), ('I', 'PRP', 'nsubj', 'bear', 'VB'), ('you', 'PRP', 'nsubj', 'leave', 'VBP'), ('You', 'PRP', 'nsubj', 'speak', 'VBP'), ('_', 'NN', 'nsubj', 'collected', 'VBN'), ('That', 'DT', 'nsubj', '’s', 'VBZ'), ('manner', 'NN', 'nsubj', 'was', 'VBD'), ('wife', 'NN', 'nsubj', 'suffered', 'VBN'), ('lady', 'NN', 'nsubj', 'suffered', 'VBN'), ('child', 'NN', 'nsubj', 'was', 'VBD'), ('child', 'NN', 'nsubj', 'was', 'VBD'), ('Miss', 'NNP', 'nsubj', 'came', 'VBD'), ('lady', 'NN', 'nsubj', 'suffered', 'VBN'), ('she', 'PRP', 'nsubj', 'came', 'VBD'), ('she', 'PRP', 'nsubj', 'known', 'VBN'), ('father', 'NN', 'nsubj', 'was', 'VBD'), ('you', 'PRP', 'nsubj', 'kneel', 'VB'), ('You', 'PRP', 'nsubj', 'confuse', 'VBP'), ('I', 'PRP', 'nsubj', 'transact', 'VB'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('us', 'PRP', 'nsubj', 'be', 'VB'), ('you', 'PRP', 'nsubj', 'mention', 'VB'), ('ninepence', 'NN', 'nsubj', 'are', 'VBP'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('I', 'PRP', 'nsubj', 'be', 'VB'), ('she', 'PRP', 'nsubj', 'sat', 'VBD'), ('he', 'PRP', 'nsubj', 'raised', 'VBD'), ('hands', 'NNS', 'nsubj', 'were', 'VBD'), ('that', 'WDT', 'nsubj', 'ceased', 'VBN'), ('wrists', 'NNS', 'nsubj', 'were', 'VBD'), ('they', 'PRP', 'nsubj', 'been', 'VBN'), ('she', 'PRP', 'nsubj', 'communicated', 'VBD'), ('That', 'DT', 'nsubj', '’s', 'VBZ'), ('that', 'DT', 'nsubj', '’s', 'VBZ'), ('You', 'PRP', 'nsubj', 'have', 'VBP'), ('Manette', 'NNP', 'nsubj', 'took', 'VBD'), ('mother', 'NN', 'nsubj', 'took', 'VBD'), ('she', 'PRP', 'nsubj', 'died', 'VBD'), ('I', 'PRP', 'nsubj', 'believe', 'VBP'), ('she', 'PRP', 'nsubj', 'left', 'VBD'), ('father', 'NN', 'nsubj', 'wore', 'VBD'), ('he', 'PRP', 'nsubj', 'said', 'VBD'), ('he', 'PRP', 'nsubj', 'looked', 'VBD'), ('he', 'PRP', 'nsubj', 'pictured', 'VBD'), ('You', 'PRP', 'nsubj', 'know', 'VBP'), ('parents', 'NNS', 'nsubj', 'had', 'VBD'), ('they', 'PRP', 'nsubj', 'had', 'VBD'), ('He', 'PRP', 'nsubj', 'felt', 'VBD'), ('wrist', 'NN', 'nsubj', 'held', 'VBN'), ('he', 'PRP', 'nsubj', 'stopped', 'VBD'), ('expression', 'NN', 'nsubj', 'deepened', 'VBN'), ('which', 'WDT', 'nsubj', 'attracted', 'VBN'), ('which', 'WDT', 'nsubj', 'was', 'VBD'), ('He', 'PRP', 'nsubj', 'is', 'VBZ'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('we', 'PRP', 'nsubj', 'hope', 'VB'), ('we', 'PRP', 'nsubj', 'going', 'VBG'), ('I', 'PRP', 'nsubj', 'can', 'MD'), ('you', 'PRP', 'nsubj', 'restore', 'VB'), ('shiver', 'NN', 'nsubj', 'ran', 'VBD'), ('She', 'PRP', 'nsubj', 'said', 'VBD'), ('she', 'PRP', 'nsubj', 'saying', 'VBG'), ('I', 'PRP', 'nsubj', 'going', 'VBG'), ('It', 'PRP', 'nsubj', 'be', 'VB'), ('Lorry', 'NNP', 'nsubj', 'chafed', 'VBD'), ('that', 'WDT', 'nsubj', 'held', 'VBD'), ('You', 'PRP', 'nsubj', 'are', 'VBP'), ('you', 'PRP', 'nsubj', 'be', 'VB'), ('She', 'PRP', 'nsubj', 'repeated', 'VBD'), ('I', 'PRP', 'nsubj', 'been', 'VBN'), ('I', 'PRP', 'nsubj', 'been', 'VBN'), ('Ghost', 'NNP', 'nsubj', 'haunted', 'VBN'), ('Lorry', 'NNP', 'nsubj', 'said', 'VBD'), ('It', 'PRP', 'nsubj', 'be', 'VB'), ('he', 'PRP', 'nsubj', 'been', 'VBN'), ('It', 'PRP', 'nsubj', 'be', 'VB'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('I', 'PRP', 'nsubj', 'avoid', 'VB'), ('they', 'PRP', 'nsubj', 'are', 'VBP'), ('I', 'PRP', 'nsubj', 'carry', 'VBP'), ('This', 'DT', 'nsubj', 'is', 'VBZ'), ('which', 'WDT', 'nsubj', 'mean', 'VB'), ('matter', 'NN', 'nsubj', 'is', 'VBZ'), ('She', 'PRP', 'nsubj', 'notice', 'VB'), ('Manette', 'NNP', 'nsubj', 'sat', 'VBD'), ('she', 'PRP', 'nsubj', 'sat', 'VBD'), ('eyes', 'NNS', 'nsubj', 'open', 'JJ'), ('expression', 'NN', 'nsubj', 'looking', 'VBG'), ('he', 'PRP', 'nsubj', 'feared', 'VBD'), ('he', 'PRP', 'nsubj', 'hurt', 'VB'), ('he', 'PRP', 'nsubj', 'called', 'VBD'), ('woman', 'NN', 'nsubj', 'came', 'VBD'), ('whom', 'WP', 'nsubj', 'observed', 'VBD'), ('Lorry', 'NNP', 'nsubj', 'observed', 'VBD'), ('I', 'PRP', 'nsubj', 'think', 'VBP'), ('this', 'DT', 'nsubj', 'be', 'VB'), ('his', 'PRP$', 'nsubj', 'coming', 'VBG'), ('you', 'PRP', 'nsubj', 'go', 'VB'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('you', 'PRP', 'nsubj', 'go', 'VB'), ('I', 'PRP', 'nsubj', 'let', 'VB'), ('you', 'PRP', 'nsubj', 'know', 'VB'), ('you', 'PRP', 'nsubj', 'bring', 'VB'), ('I', 'PRP', 'nsubj', 'will', 'MD'), ('she', 'PRP', 'nsubj', 'laid', 'VBD'), ('she', 'PRP', 'nsubj', 'said', 'VBD'), ('you', 'PRP', 'nsubj', 'tell', 'VB'), ('you', 'PRP', 'nsubj', 'had', 'VBD'), ('you', 'PRP', 'nsubj', 'call', 'VBP'), ('_', 'DT', 'nsubj', 'being', 'VBG'), ('he', 'PRP', 'nsubj', 'look', 'VB'), ('woman', 'NN', 'nsubj', 'mentioned', 'VBN'), ('them', 'PRP', 'nsubj', 'know', 'VB'), ('something', 'NN', 'nsubj', 'mentioned', 'VBN'), ('they', 'PRP', 'nsubj', 'stayed', 'VBD'), ('I', 'PRP', 'nsubj', 'hope', 'VBP'), ('she', 'PRP', 'nsubj', 'do', 'VB'), ('Lorry', 'NNP', 'nsubj', 'said', 'VBD'), ('she', 'PRP', 'nsubj', 'does', 'VBZ'), ('darling', 'NN', 'nsubj', 'pretty', 'RB'), ('I', 'PRP', 'nsubj', 'hope', 'VBP'), ('Lorry', 'NNP', 'nsubj', 'said', 'VBD'), ('you', 'PRP', 'nsubj', 'accompany', 'VBP'), ('thing', 'NN', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'go', 'VB'), ('you', 'PRP', 'nsubj', 'suppose', 'VB'), ('Providence', 'NNP', 'nsubj', 'cast', 'VBN'), ('This', 'DT', 'nsubj', 'being', 'VBG'), ('Lorry', 'NNP', 'nsubj', 'withdrew', 'VBD'), ('accident', 'NN', 'nsubj', 'happened', 'VBN'), ('cask', 'NN', 'nsubj', 'tumbled', 'VBN'), ('hoops', 'NNS', 'nsubj', 'burst', 'VBN'), ('it', 'PRP', 'nsubj', 'lay', 'VBD'), ('people', 'NNS', 'nsubj', 'suspended', 'VBN'), ('stones', 'NNS', 'nsubj', 'dammed', 'VBN'), ('one', 'PRP', 'nsubj', 'thought', 'VBN'), ('that', 'WDT', 'nsubj', 'approached', 'VBD'), ('men', 'NNS', 'nsubj', 'kneeled', 'VBD'), ('scoops', 'NNS', 'nsubj', 'joined', 'VBD'), ('who', 'WP', 'nsubj', 'bent', 'VBD'), ('wine', 'NN', 'nsubj', 'run', 'VB'), ('Others', 'NNS', 'nsubj', 'made', 'VBD'), ('others', 'NNS', 'nsubj', 'made', 'VBD'), ('it', 'PRP', 'nsubj', 'ran', 'VBD'), ('others', 'NNS', 'nsubj', 'cut', 'VB'), ('that', 'WDT', 'nsubj', 'started', 'VBD'), ('others', 'NNS', 'nsubj', 'devoted', 'VBD'), ('anybody', 'NN', 'nsubj', 'ac</t>
-  </si>
-  <si>
-    <t>[('times', 'NNS', 'pobj', 'of', 'IN'), ('times', 'NNS', 'pobj', 'of', 'IN'), ('wisdom', 'NN', 'pobj', 'of', 'IN'), ('foolishness', 'NN', 'pobj', 'of', 'IN'), ('belief', 'NN', 'pobj', 'of', 'IN'), ('incredulity', 'NN', 'pobj', 'of', 'IN'), ('Light', 'NNP', 'pobj', 'of', 'IN'), ('Darkness', 'NN', 'pobj', 'of', 'IN'), ('hope', 'NN', 'pobj', 'of', 'IN'), ('despair', 'NN', 'pobj', 'of', 'IN'), ('us', 'PRP', 'pobj', 'before', 'IN'), ('us', 'PRP', 'pobj', 'before', 'IN'), ('Heaven', 'NNP', 'pobj', 'to', 'IN'), ('period', 'NN', 'pobj', 'like', 'IN'), ('authorities', 'NNS', 'pobj', 'of', 'IN'), ('good', 'JJ', 'pobj', 'for', 'IN'), ('evil', 'NN', 'pobj', 'for', 'IN'), ('degree', 'NN', 'pobj', 'in', 'IN'), ('comparison', 'NN', 'pobj', 'of', 'IN'), ('jaw', 'NN', 'pobj', 'with', 'IN'), ('face', 'NN', 'pobj', 'with', 'IN'), ('throne', 'NN', 'pobj', 'on', 'IN'), ('England', 'NNP', 'pobj', 'of', 'IN'), ('jaw', 'NN', 'pobj', 'with', 'IN'), ('face', 'NN', 'pobj', 'with', 'IN'), ('throne', 'NN', 'pobj', 'on', 'IN'), ('France', 'NNP', 'pobj', 'of', 'IN'), ('countries', 'NNS', 'pobj', 'In', 'IN'), ('crystal', 'NN', 'pobj', 'than', 'IN'), ('lords', 'NNS', 'pobj', 'to', 'IN'), ('State', 'NNP', 'pobj', 'of', 'IN'), ('loaves', 'NNS', 'pobj', 'of', 'IN'), ('Lord', 'NNP', 'pobj', 'of', 'IN'), ('England', 'NNP', 'pobj', 'to', 'IN'), ('period', 'NN', 'pobj', 'at', 'IN'), ('this', 'DT', 'pobj', 'at', 'IN'), ('whom', 'WP', 'pobj', 'of', 'IN'), ('Guards', 'NNPS', 'pobj', 'in', 'IN'), ('swallowing', 'NN', 'pobj', 'for', 'IN'), ('London', 'NNP', 'pobj', 'of', 'IN'), ('years', 'NNS', 'pobj', 'of', 'IN'), ('year', 'NN', 'pobj', 'of', 'IN'), ('originality', 'NN', 'pobj', 'in', 'IN'), ('order', 'NN', 'pobj', 'in', 'IN'), ('events', 'NNS', 'pobj', 'of', 'IN'), ('Crown', 'NNP', 'pobj', 'to', 'IN'), ('congress', 'NN', 'pobj', 'from', 'IN'), ('subjects', 'NNS', 'pobj', 'of', 'IN'), ('America', 'NNP', 'pobj', 'in', 'IN'), ('race', 'NN', 'pobj', 'to', 'IN'), ('communications', 'NNS', 'pobj', 'than', 'IN'), ('any', 'DT', 'pobj', 'through', 'IN'), ('chickens', 'NNS', 'pobj', 'of', 'IN'), ('brood', 'NN', 'pobj', 'of', 'IN'), ('whole', 'JJ', 'pobj', 'on', 'IN'), ('matters', 'NNS', 'pobj', 'to', 'IN'), ('sister', 'NN', 'pobj', 'than', 'IN'), ('shield', 'NN', 'pobj', 'of', 'IN'), ('hill', 'NN', 'pobj', 'down', 'IN'), ('guidance', 'NN', 'pobj', 'Under', 'IN'), ('pastors', 'NNS', 'pobj', 'of', 'IN'), ('achievements', 'NNS', 'pobj', 'with', 'IN'), ('pincers', 'NNS', 'pobj', 'with', 'IN'), ('rain', 'NN', 'pobj', 'in', 'IN'), ('procession', 'NN', 'pobj', 'to', 'IN'), ('monks', 'NNS', 'pobj', 'of', 'IN'), ('view', 'NN', 'pobj', 'within', 'IN'), ('distance', 'NN', 'pobj', 'at', 'IN'), ('yards', 'NNS', 'pobj', 'of', 'IN'), ('woods', 'NNS', 'pobj', 'in', 'IN'), ('France', 'NNP', 'pobj', 'of', 'IN'), ('death', 'NN', 'pobj', 'to', 'IN'), ('Woodman', 'NNP', 'pobj', 'by', 'IN'), ('boards', 'NNS', 'pobj', 'into', 'IN'), ('sack', 'NN', 'pobj', 'with', 'IN'), ('it', 'PRP', 'pobj', 'in', 'IN'), ('history', 'NN', 'pobj', 'in', 'IN'), ('outhouses', 'NNS', 'pobj', 'in', 'IN'), ('tillers', 'NNS', 'pobj', 'of', 'IN'), ('lands', 'NNS', 'pobj', 'of', 'IN'), ('Paris', 'NNP', 'pobj', 'to', 'IN'), ('weather', 'NN', 'pobj', 'from', 'IN'), ('mire', 'NN', 'pobj', 'with', 'IN'), ('pigs', 'NNS', 'pobj', 'by', 'IN'), ('poultry', 'NN', 'pobj', 'by', 'IN'), ('Revolution', 'NNP', 'pobj', 'of', 'IN'), ('tread', 'NN', 'pobj', 'with', 'IN'), ('England', 'NNP', 'pobj', 'In', 'IN'), ('order', 'NN', 'pobj', 'of', 'IN'), ('men', 'NNS', 'pobj', 'by', 'IN'), ('capital', 'NN', 'pobj', 'in', 'IN'), ('town', 'NN', 'pobj', 'of', 'IN'), ('warehouses', 'NNS', 'pobj', 'to', 'IN'), ('security', 'NN', 'pobj', 'for', 'IN'), ('dark', 'NN', 'pobj', 'in', 'IN'), ('light', 'NN', 'pobj', 'in', 'IN'), ('tradesman', 'NN', 'pobj', 'by', 'IN'), ('character', 'NN', 'pobj', 'in', 'IN'), ('Captain', 'NNP', 'pobj', 'of', 'IN'), ('head', 'NN', 'pobj', 'through', 'IN'), ('robbers', 'NNS', 'pobj', 'by', 'IN'), ('four', 'CD', 'pobj', 'by', 'IN'), ('consequence', 'NN', 'pobj', 'in', 'IN'), ('failure', 'NN', 'pobj', 'of', 'IN'), ('ammunition', 'NN', 'pobj', 'of', 'IN'), ('which', 'WDT', 'pobj', 'after', 'IN'), ('peace', 'NN', 'pobj', 'in', 'IN'), ('London', 'NNP', 'pobj', 'of', 'IN'), ('Green', 'NNP', 'pobj', 'on', 'IN'), ('highwayman', 'NN', 'pobj', 'by', 'IN'), ('sight', 'NN', 'pobj', 'in', 'IN'), ('retinue', 'NN', 'pobj', 'of', 'IN'), ('gaols', 'NNS', 'pobj', 'in', 'IN'), ('turnkeys', 'NNS', 'pobj', 'with', 'IN'), ('law', 'NN', 'pobj', 'of', 'IN'), ('them', 'PRP', 'pobj', 'among', 'IN'), ('rounds', 'NNS', 'pobj', 'with', 'IN'), ('shot', 'NN', 'pobj', 'of', 'IN'), ('necks', 'NNS', 'pobj', 'from', 'IN'), ('lords', 'NNS', 'pobj', 'of', 'IN'), ('rooms', 'NNS', 'pobj', 'at', 'IN'), ('Giles', 'NNP', 'pobj', 'into', 'IN'), ('goods', 'NNS', 'pobj', 'for', 'IN'), ('musketeers', 'NNS', 'pobj', 'on', 'IN'), ('mob', 'NN', 'pobj', 'on', 'IN'), ('occurrences', 'NNS', 'pobj', 'of', 'IN'), ('way', 'NN', 'pobj', 'of', 'IN'), ('midst', 'NN', 'pobj', 'In', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('requisition', 'NN', 'pobj', 'in', 'IN'), ('criminals', 'NNS', 'pobj', 'of', 'IN'), ('Saturday', 'NNP', 'pobj', 'on', 'IN'), ('Tuesday', 'NNP', 'pobj', 'on', 'IN'), ('hand', 'NN', 'pobj', 'in', 'IN'), ('Newgate', 'NNP', 'pobj', 'at', 'IN'), ('dozen', 'NN', 'pobj', 'by', 'IN'), ('door', 'NN', 'pobj', 'at', 'IN'), ('Hall', 'NNP', 'pobj', 'of', 'IN'), ('day', 'NN', 'pobj', 'to', 'IN'), ('murderer', 'NN', 'pobj', 'of', 'IN'), ('morrow', 'NN', 'pobj', 'to', 'IN'), ('pilferer', 'NN', 'pobj', 'of', 'IN'), ('sixpence', 'NN', 'pobj', 'of', 'IN'), ('them', 'PRP', 'pobj', 'like', 'IN'), ('year', 'NN', 'pobj', 'upon', 'IN'), ('them', 'PRP', 'pobj', 'by', 'IN'), ('jaws', 'NNS', 'pobj', 'of', 'IN'), ('plain', 'NN', 'pobj', 'of', 'IN'), ('stir', 'NN', 'pobj', 'with', 'IN'), ('hand', 'NN', 'pobj', 'with', 'IN'), ('creatures', 'NNS', 'pobj', 'of', 'IN'), ('chronicle', 'NN', 'pobj', 'of', 'IN'), ('rest', 'NN', 'pobj', 'among', 'IN'), ('roads', 'NNS', 'pobj', 'along', 'IN'), ('them', 'PRP', 'pobj', 'before', 'IN'), ('night', 'NN', 'pobj', 'on', 'IN'), ('November', 'NNP', 'pobj', 'in', 'IN'), ('first', 'JJ', 'pobj', 'before', 'IN'), ('persons', 'NNS', 'pobj', 'of', 'IN'), ('whom', 'WP', 'pobj', 'with', 'IN'), ('him', 'PRP', 'pobj', 'to', 'IN'), ('mail', 'NN', 'pobj', 'beyond', 'IN'), ('hill', 'NN', 'pobj', 'up', 'IN'), ('mire', 'NN', 'pobj', 'in', 'IN'), ('side', 'NN', 'pobj', 'by', 'IN'), ('mail', 'NN', 'pobj', 'of', 'IN'), ('passengers', 'NNS', 'pobj', 'of', 'IN'), ('exercise', 'NN', 'pobj', 'for', 'IN'), ('circumstances', 'NNS', 'pobj', 'under', 'IN'), ('stop', 'NN', 'pobj', 'to', 'IN'), ('road', 'NN', 'pobj', 'across', 'IN'), ('intent', 'NN', 'pobj', 'with', 'IN'), ('Blackheath', 'NNP', 'pobj', 'to', 'IN'), ('combination', 'NN', 'pobj', 'in', 'IN'), ('war', 'NN', 'pobj', 'of', 'IN'), ('favour', 'NN', 'pobj', 'in', 'IN'), ('argument', 'NN', 'pobj', 'of', 'IN'), ('Reason', 'NNP', 'pobj', 'with', 'IN'), ('duty', 'NN', 'pobj', 'to', 'IN'), ('mud', 'NN', 'pobj', 'through', 'IN'), ('whiles', 'NNS', 'pobj', 'between', 'IN'), ('pieces', 'NNS', 'pobj', 'to', 'IN'), ('joints', 'NNS', 'pobj', 'at', 'IN'), ('stand', 'NN', 'pobj', 'to', 'IN'), ('ho', 'NNP', 'pobj', 'with', 'IN'), ('it', 'PRP', 'pobj', 'upon', 'IN'), ('horse', 'NN', 'pobj', 'like', 'IN'), ('hill', 'NN', 'pobj', 'up', 'RP'), ('might', 'NN', 'pobj', 'as', 'IN'), ('mind', 'NN', 'pobj', 'in', 'IN'), ('hollows', 'NNS', 'pobj', 'in', 'IN'), ('forlornness', 'NN', 'pobj', 'in', 'IN'), ('hill', 'NN', 'pobj', 'up', 'IN'), ('spirit', 'NN', 'pobj', 'like', 'IN'), ('air', 'NN', 'pobj', 'through', 'IN'), ('ripples', 'NNS', 'pobj', 'in', 'IN'), ('sea', 'NN', 'pobj', 'of', 'IN'), ('light', 'NN', 'pobj', 'from', 'IN'), ('lamps', 'NNS', 'pobj', 'of', 'IN'), ('road', 'NN', 'pobj', 'of', 'IN'), ('horses', 'NNS', 'pobj', 'of', 'IN'), ('it', 'PRP', 'pobj', 'into', 'IN'), ('one', 'NN', 'pobj', 'besides', 'IN'), ('side', 'NN', 'pobj', 'by', 'IN'), ('mail', 'NN', 'pobj', 'of', 'IN'), ('cheekbones', 'NNS', 'pobj', 'to', 'IN'), ('ears', 'NNS', 'pobj', 'over', 'IN'), ('three', 'CD', 'pobj', 'of', 'IN'), ('anything', 'NN', 'pobj', 'from', 'IN'), ('two', 'CD', 'pobj', 'of', 'IN'), ('wrappers', 'NNS', 'pobj', 'under', 'IN'), ('eyes', 'NNS', 'pobj', 'from', 'IN'), ('mind', 'NN', 'pobj', 'of', 'IN'), ('eyes', 'NNS', 'pobj', 'from', 'IN'), ('body', 'NN', 'pobj', 'of', 'IN'), ('companions', 'NNS', 'pobj', 'of', 'IN'), ('days', 'NNS', 'pobj', 'In', 'IN'), ('notice', 'NN', 'pobj', 'on', 'IN'), ('road', 'NN', 'pobj', 'on', 'IN'), ('league', 'NN', 'pobj', 'in', 'IN'), ('robbers', 'NNS', 'pobj', 'with', 'IN'), ('latter', 'JJ', 'pobj', 'to', 'IN'), ('pay', 'NN', 'pobj', 'in', 'IN'), ('landlord', 'NN', 'pobj', 'from', 'IN'), ('non', 'JJ', 'pobj', 'to', 'IN'), ('-', 'JJ', 'pobj', 'to', 'IN'), ('descript', 'JJ', 'pobj', 'to', 'IN'), ('cards', 'NNS', 'pobj', 'upon', 'IN'), ('mail', 'NN', 'pobj', 'of', 'IN'), ('himself', 'PRP', 'pobj', 'to', 'IN'), ('November', 'NNP', 'pobj', 'in', 'IN'), ('perch', 'NN', 'pobj', 'on', 'IN'), ('mail', 'NN', 'pobj', 'behind', 'IN'), ('chest', 'NN', 'pobj', 'on', 'IN'), ('him', 'PRP', 'pobj', 'before', 'IN'), ('top', 'NN', 'pobj', 'at', 'IN'), ('pistols', 'NNS', 'pobj', 'of', 'IN'), ('substratum', 'NN', 'pobj', 'on', 'IN'), ('cutlass', 'NN', 'pobj', 'of', 'IN'), ('position', 'NN', 'pobj', 'in', 'IN'), ('nothing', 'NN', 'pobj', 'of', 'IN'), ('horses', 'NNS', 'pobj', 'but', 'IN'), ('which', 'WDT', 'pobj', 'to', 'TO'), ('conscience', 'NN', 'pobj', 'with', 'IN'), ('Testaments', 'NNPS', 'pobj', 'on', 'IN'), ('journey', 'NN', 'pobj', 'for', 'IN'), ('top', 'NN', 'pobj', 'at', 'IN'), ('you', 'PRP', 'pobj', 'to', 'IN'), ('it!--Joe', 'NNS', 'pobj', 'to', 'IN'), ('Shooter', 'NNP', 'pobj', 'of', 'IN'), ('you', 'PRP', 'pobj', 'with', 'IN'), ('whip', 'NN', 'pobj', 'by', 'IN'), ('negative', 'JJ', 'pobj', 'in', 'IN'), ('it', 'PRP', 'pobj', 'for', 'IN'), ('boots', 'NNS', 'pobj', 'with', 'IN'), ('passengers', 'NNS', 'pobj', 'of', 'IN'), ('side', 'NN', 'pobj', 'by', 'IN'), ('it', 'PRP', 'pobj', 'with', 'IN'), ('three', 'CD', 'pobj', 'of', 'IN'), ('another', 'DT', 'pobj', 'to', 'IN'), ('ahead', 'RB', 'pobj', 'on', 'IN'), ('mist', 'NN', 'pobj', 'into', 'IN'), ('way', 'NN', 'pobj', 'in', 'IN'), ('highwayman', 'NN', 'pobj', 'as', 'IN'), ('summit', 'NN', 'pobj', 'to', 'IN'), ('hill', 'NN', 'pobj', 'of', 'IN'), ('descent', 'NN', 'pobj', 'for', 'IN'), ('voice', 'NN', 'pobj', 'in', 'IN'), ('box', 'NN', 'pobj', 'from', 'IN'), ('canter', 'NN', 'pobj', 'at', 'IN'), ('gallop', 'NNP', 'pobj', 'at', 'IN'), ('door', 'NN', 'pobj', 'of', 'IN'), ('place', 'NN', 'pobj', 'to', 'IN'), ('name', 'NN', 'pobj', 'In', 'IN'), ('you', 'PRP', 'pobj', 'of', 'IN'), ('adjuration', 'NN', 'pobj', 'With', 'IN'), ('offensive', 'NN', 'pobj', 'on', 'IN'), ('history', 'NN', 'pobj', 'by', 'IN'), ('step', 'NN', 'pobj', 'on', 'IN'), ('him', 'PRP', 'pobj', 'behind', 'IN'), ('step', 'NN', 'pobj', 'on', 'IN'), ('coach', 'NN', 'pobj', 'in', 'IN'), ('road', 'NN', 'pobj', 'in', 'IN'), ('him', 'PRP', 'pobj', 'below', 'IN'), ('coachman', 'NN', 'pobj', 'from', 'IN'), ('guard', 'NN', 'pobj', 'to', 'IN'), ('guard', 'NN', 'pobj', 'from', 'IN'), ('coachman', 'NN', 'pobj', 'to', 'IN'), ('cessation', 'NN', 'pobj', 'on', 'IN'), ('rumbling', 'VBG', 'pobj', 'of', 'IN'), ('coach', 'NN', 'pobj', 'of', 'IN'), ('stillness', 'NN', 'pobj', 'to', 'IN'), ('night', 'NN', 'pobj', 'of', 'IN'), ('horses', 'NNS', 'pobj', 'of', 'IN'), ('coach', 'NN', 'pobj', 'to', 'IN'), ('state', 'NN', 'pobj', 'in', 'IN'), ('agitation', 'NN', 'pobj', 'of', 'IN'), ('passengers', 'NNS', 'pobj', 'of', 'IN'), ('rate', 'NN', 'pobj', 'at', 'IN'), ('people', 'NNS', 'pobj', 'of', 'IN'), ('breath', 'NN', 'pobj', 'of', 'IN'), ('expectation', 'NN', 'pobj', 'by', 'IN'), ('horse', 'NN', 'pobj', 'of', 'IN'), ('gallop', 'NN', 'pobj', 'at', 'IN'), ('hill', 'NN', 'pobj', 'up', 'IN'), ('splashing', 'NN', 'pobj', 'with', 'IN'), ('mist', 'NN', 'pobj', 'from', 'IN'), ('moment', 'NN', 'pobj', 'in', 'IN'), ('voice', 'NN', 'pobj', 'to', 'IN'), ('mist', 'NN', 'pobj', 'in', 'IN'), ('lifetime', 'NN', 'pobj', 'in', 'IN'), ('name', 'NN', 'pobj', 'of', 'IN'), ('answer', 'NN', 'pobj', 'of', 'IN'), ('speech', 'NN', 'pobj', 'with', 'IN'), ('himself', 'PRP', 'pobj', 'to', 'IN'), ('you', 'PRP', 'pobj', 'after', 'IN'), ('yonder', 'NN', 'pobj', 'over', 'IN'), ('road', 'NN', 'pobj', 'into', 'IN'), ('passengers', 'NNS', 'pobj', 'by', 'IN'), ('coach', 'NN', 'pobj', 'into', 'IN'), ('that', 'DT', 'pobj', 'of', 'IN'), ('soliloquy', 'NNP', 'pobj', 'in', 'IN'), ('footpace', 'NN', 'pobj', 'at', 'IN'), ('yourn', 'NN', 'pobj', 'to', 'IN'), ('mistake', 'NN', 'pobj', 'at', 'IN'), ('Lead', 'NNP', 'pobj', 'of', 'IN'), ('you', 'PRP', 'pobj', 'at', 'IN'), ('horse', 'NN', 'pobj', 'of', 'IN'), ('mist', 'NN', 'pobj', 'through', 'IN'), ('side', 'NN', 'pobj', 'to', 'IN'), ('mail', 'NN', 'pobj', 'of', 'IN'), ('guard', 'NN', 'pobj', 'at', 'IN'), ('mud', 'NN', 'pobj', 'with', 'IN'), ('hoofs', 'NN', 'pobj', 'from', 'IN'), ('horse', 'NN', 'pobj', 'of', 'IN'), ('hat', 'NN', 'pobj', 'to', 'IN'), ('man', 'NN', 'pobj', 'of', 'IN'), ('tone', 'NN', 'pobj', 'in', 'IN'), ('confidence', 'NN', 'pobj', 'of', 'IN'), ('hand', 'NN', 'pobj', 'with', 'IN'), ('stock', 'NN', 'pobj', 'at', 'IN'), ('blunderbuss', 'NN', 'pobj', 'of', 'IN'), ('barrel', 'NN', 'pobj', 'at', 'IN'), ('horseman', 'NN', 'pobj', 'on', 'IN'), ('Bank', 'NNP', 'pobj', 'to', 'IN'), ('London', 'NNP', 'pobj', 'in', 'IN'), ('Paris', 'NNP', 'pobj', 'to', 'IN'), ('business', 'NN', 'pobj', 'on', 'IN'), ('light', 'NN', 'pobj', 'in', 'IN'), ('lamp', 'NN', 'pobj', 'of', 'IN'), ('side', 'NN', 'pobj', 'on', 'IN'), ('himself', 'PRP', 'pobj', 'to', 'IN'), ('Dover', 'NNP', 'pobj', 'at', 'IN'), ('Mam’selle', 'NNP', 'pobj', 'for', 'IN'), ('LIFE', 'NNP', 'pobj', 'TO', 'IN'), ('saddle', 'NN', 'pobj', 'in', 'IN'), ('hoarsest', 'NN', 'pobj', 'at', 'IN'), ('way', 'NN', 'pobj', 'of', 'IN'), ('words', 'NNS', 'pobj', 'With', 'IN'), ('all', 'DT', 'pobj', 'at', 'IN'), ('passengers', 'NNS', 'pobj', 'by', 'IN'), ('boots', 'NNS', 'pobj', 'in', 'IN'), ('purpose', 'NN', 'pobj', 'With', 'IN'), ('action', 'NN', 'pobj', 'of', 'IN'), ('wreaths', 'NNS', 'pobj', 'with', 'IN'), ('round', 'NN', 'pobj', 'of', 'IN'), ('chest', 'NN', 'pobj', 'in', 'IN'), ('rest', 'NN', 'pobj', 'to', 'IN'), ('contents', 'NNS', 'pobj', 'of', 'IN'), ('pistols', 'NNS', 'pobj', 'to', 'IN'), ('belt', 'NN', 'pobj', 'in', 'IN'), ('chest', 'NN', 'pobj', 'to', 'IN'), ('seat', 'NN', 'pobj', 'beneath', 'IN'), ('which', 'WDT', 'pobj', 'in', 'IN'), ('torches', 'NNS', 'pobj', 'of', 'IN'), ('completeness', 'NN', 'pobj', 'with', 'IN'), ('straw', 'NN', 'pobj', 'off', 'IN'), ('safety', 'NN', 'pobj', 'with', 'IN'), ('minutes', 'NNS', 'pobj', 'in', 'IN'), ('roof', 'NN', 'pobj', 'over', 'IN'), ('it', 'PRP', 'pobj', 'of', 'IN'), ('it', 'PRP', 'pobj', 'of', 'IN'), ('mist', 'NN', 'pobj', 'in', 'IN'), ('face', 'NN', 'pobj', 'from', 'IN'), ('brim', 'NN', 'pobj', 'of', 'IN'), ('bridle', 'NN', 'pobj', 'with', 'IN'), ('arm', 'NN', 'pobj', 'over', 'IN'), ('mail', 'NN', 'pobj', 'of', 'IN'), ('hearing', 'NN', 'pobj', 'within', 'IN'), ('hill', 'NN', 'pobj', 'down', 'IN'), ('that', 'DT', 'pobj', 'After', 'IN'), ('Bar', 'NNP', 'pobj', 'from', 'IN'), ('level', 'NN', 'pobj', 'on', 'IN'), ('mare', 'NN', 'pobj', 'at', 'IN'), ('life', 'NN', 'pobj', 'to', 'IN'), ('that', 'DT', 'pobj', 'of', 'IN'), ('you', 'PRP', 'pobj', 'for', 'IN'), ('way', 'NN', 'pobj', 'in', 'IN'), ('life', 'NN', 'pobj', 'to', 'IN'), ('fashion', 'NN', 'pobj', 'into', 'IN'), ('other', 'JJ', 'pobj', 'to', 'IN'), ('night', 'NN', 'pobj', 'by', 'IN'), ('houses', 'NNS', 'pobj', 'of', 'IN'), ('one', 'CD', 'pobj', 'in', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('thousands', 'NNS', 'pobj', 'in', 'IN'), ('breasts', 'NNS', 'pobj', 'of', 'IN'), ('some', 'DT', 'pobj', 'in', 'IN'), ('imaginings', 'NNS', 'pobj', 'of', 'IN'), ('heart', 'NN', 'pobj', 'to', 'IN'), ('it', 'PRP', 'pobj', 'nearest', 'IN'), ('awfulness', 'NN', 'pobj', 'of', 'IN'), ('Death', 'NNP', 'pobj', 'of', 'IN'), ('this', 'DT', 'pobj', 'to', 'IN'), ('book', 'NN', 'pobj', 'of', 'IN'), ('time', 'NN', 'pobj', 'in', 'IN'), ('depths', 'NNS', 'pobj', 'into', 'IN'), ('water', 'NN', 'pobj', 'of', 'IN'), ('it', 'PRP', 'pobj', 'into', 'IN'), ('treasure', 'NN', 'pobj', 'of', 'IN'), ('spring', 'NN', 'pobj', 'with', 'IN'), ('frost', 'NN', 'pobj', 'in', 'IN'), ('surface', 'NN', 'pobj', 'on', 'IN'), ('ignorance', 'NN', 'pobj', 'in', 'IN'), ('shore', 'NN', 'pobj', 'on', 'IN'), ('soul', 'NN', 'pobj', 'of', 'IN'), ('secret', 'NN', 'pobj', 'of', 'IN'), ('individuality', 'NN', 'pobj', 'in', 'IN'), ('mine', 'PRP', 'pobj', 'in', 'IN'), ('end', 'NN', 'pobj', 'to', 'IN'), ('any', 'DT', 'pobj', 'In', 'IN'), ('places', 'NNS', 'pobj', 'of', 'IN'), ('city', 'NN', 'pobj', 'of', 'IN'), ('which', 'WDT', 'pobj', 'through', 'IN'), ('personality', 'NN', 'pobj', 'in', 'IN'), ('me', 'PRP', 'pobj', 'to', 'IN'), ('them', 'PRP', 'pobj', 'to', 'IN'), ('this', 'DT', 'pobj', 'to', 'IN'), ('horseback', 'NN', 'pobj', 'on', 'IN'), ('King', 'NNP', 'pobj', 'as', 'IN'), ('State', 'NNP', 'pobj', 'of', 'IN'), ('London', 'NNP', 'pobj', 'in', 'IN'), ('compass', 'NN', 'pobj', 'in', 'IN'), ('one', 'CD', 'pobj', 'of', 'IN'), ('one', 'CD', 'pobj', 'to', 'IN'), ('coach', 'NN', 'pobj', 'in', 'IN'), ('breadth', 'NN', 'pobj', 'with', 'IN'), ('county', 'NN', 'pobj', 'of', 'IN'), ('him', 'PRP', 'pobj', 'between', 'IN'), ('trot', 'NN', 'pobj', 'at', 'IN'), ('houses', 'NNS', 'pobj', 'at', 'IN'), ('way', 'NN', 'pobj', 'by', 'IN'), ('eyes', 'NNS', 'pobj', 'over', 'IN'), ('decoration', 'NN', 'pobj', 'with', 'IN'), ('black', 'JJ', 'pobj', 'of', 'IN'), ('depth', 'NN', 'pobj', 'with', 'IN'), ('colour', 'NN', 'pobj', 'in', 'IN'), ('something', 'NN', 'pobj', 'in', 'IN'), ('hat', 'NN', 'pobj', 'under', 'IN'), ('spittoon', 'NN', 'pobj', 'like', 'IN'), ('muffler', 'NN', 'pobj', 'over', 'IN'), ('chin', 'NN', 'pobj', 'for', 'IN'), ('knees', 'NNS', 'pobj', 'to', 'IN'), ('drink', 'NN', 'pobj', 'for', 'IN'), ('hand', 'NN', 'pobj', 'with', 'IN'), ('right', 'NN', 'pobj', 'with', 'IN'), ('theme', 'NN', 'pobj', 'on', 'IN'), ('you', 'PRP', 'pobj', 'for', 'IN'), ('business', 'NN', 'pobj', 'of', 'IN'), ('degree', 'NN', 'pobj', 'to', 'IN'), ('crown', 'NN', 'pobj', 'on', 'IN'), ('it', 'PRP', 'pobj', 'over', 'IN'), ('nose', 'NN', 'pobj', 'to', 'IN'), ('work', 'NN', 'pobj', 'like', 'IN'), ('top', 'NN', 'pobj', 'like', 'IN'), ('wall', 'NN', 'pobj', 'of', 'IN'), ('head', 'NN', 'pobj', 'than', 'IN'), ('hair', 'NN', 'pobj', 'of', 'IN'), ('players', 'NNS', 'pobj', 'of', 'IN'), ('frog', 'NN', 'pobj', 'at', 'IN'), ('world', 'NN', 'pobj', 'in', 'IN'), ('message', 'NN', 'pobj', 'with', 'IN'), ('watchman', 'NN', 'pobj', 'to', 'IN'), ('box', 'NN', 'pobj', 'in', 'IN'), ('door', 'NN', 'pobj', 'at', 'IN'), ('Bank', 'NNP', 'pobj', 'of', 'IN'), ('Bar', 'NNP', 'pobj', 'by', 'IN'), ('authorities', 'NNS', 'pobj', 'to', 'IN'), ('night', 'NN', 'pobj', 'of', 'IN'), ('him', 'PRP', 'pobj', 'to', 'IN'), ('message', 'NN', 'pobj', 'of', 'IN'), ('mare', 'NN', 'pobj', 'to', 'IN'), ('_', 'DT', 'pobj', 'of', 'IN'), ('her', 'PRP$', 'pobj', 'of', 'IN'), ('uneasiness', 'NN', 'pobj', 'of', 'IN'), ('shadow', 'NN', 'pobj', 'at', 'IN'), ('road', 'NN', 'pobj', 'on', 'IN'), ('way', 'NN', 'pobj', 'upon', 'IN'), ('whom', 'WP', 'pobj', 'To', 'IN'), ('night', 'NN', 'pobj', 'of', 'IN'), ('forms', 'NNS', 'pobj', 'in', 'IN'), ('it', 'PRP', 'pobj', 'upon', 'IN'), ('mail', 'NN', 'pobj', 'in', 'IN'), ('passenger', 'NN', 'pobj', 'As', 'IN'), ('arm', 'NN', 'pobj', 'with', 'IN'), ('strap', 'NN', 'pobj', 'through', 'IN'), ('it', 'PRP', 'pobj', 'in', 'IN'), ('passenger', 'NN', 'pobj', 'against', 'IN'), ('corner', 'NN', 'pobj', 'into', 'IN'), ('place', 'NN', 'pobj', 'in', 'IN'), ('eyes', 'NNS', 'pobj', 'with', 'IN'), ('them', 'PRP', 'pobj', 'through', 'IN'), ('passenger', 'NN', 'pobj', 'of', 'IN'), ('business', 'NN', 'pobj', 'of', 'IN'), ('harness', 'NN', 'pobj', 'of', 'IN'), ('money', 'NN', 'pobj', 'of', 'IN'), ('minutes', 'NNS', 'pobj', 'in', 'IN'), ('Tellson', 'NNP', 'pobj', 'than', 'IN'), ('connection', 'NN', 'pobj', 'with', 'IN'), ('thrice', 'NN', 'pobj', 'in', 'IN'), ('Tellson', 'NNP', 'pobj', 'at', 'IN'), ('’s', 'CD', 'pobj', 'at', 'IN'), ('stores', 'NNS', 'pobj', 'of', 'IN'), ('passenger', 'NN', 'pobj', 'to', 'IN'), ('them', 'PRP', 'pobj', 'about', 'IN'), ('him', 'PRP', 'pobj', 'before', 'IN'), ('them', 'PRP', 'pobj', 'among', 'IN'), ('keys', 'NNS', 'pobj', 'with', 'IN'), ('him', 'PRP', 'pobj', 'with', 'IN'), ('way', 'NN', 'pobj', 'in', 'IN'), ('presence', 'NN', 'pobj', 'like', 'IN'), ('pain', 'NN', 'pobj', 'of', 'IN'), ('opiate', 'JJ', 'pobj', 'under', 'IN'), ('him', 'PRP', 'pobj', 'with', 'IN'), ('impression', 'NN', 'pobj', 'of', 'IN'), ('night', 'NN', 'pobj', 'through', 'IN'), ('way', 'NN', 'pobj', 'on', 'IN'), ('grave', 'NN', 'pobj', 'of', 'IN'), ('multitude', 'NN', 'pobj', 'of', 'IN'), ('faces', 'NNS', 'pobj', 'of', 'IN'), ('him', 'PRP', 'pobj', 'before', 'IN'), ('person', 'NN', 'pobj', 'of', 'IN'), ('night', 'NN', 'pobj', 'of', 'IN'), ('man', 'NN', 'pobj', 'of', 'IN'), ('five', 'CD', 'pobj', 'of', 'IN'), ('years', 'NNS', 'pobj', 'by', 'IN'), ('passions', 'NNS', 'pobj', 'in', 'IN'), ('ghastliness', 'NN', 'pobj', 'in', 'IN'), ('state', 'NN', 'pobj', 'of', 'IN'), ('cheek', 'NN', 'pobj', 'of', 'IN'), ('face', 'NN', 'pobj', 'in', 'IN'), ('spectre', 'NN', 'pobj', 'of', 'IN'), ('life', 'NN', 'pobj', 'to', 'IN'), ('you', 'PRP', 'pobj', 'to', 'IN'), ('question', 'NN', 'pobj', 'to', 'IN'), ('rain', 'NN', 'pobj', 'in', 'IN'), ('tears', 'NNS', 'pobj', 'of', 'IN'), ('her', 'PRP', 'pobj', 'to', 'IN'), ('discourse', 'NN', 'pobj', 'After', 'IN'), ('fancy', 'NN', 'pobj', 'in', 'IN'), ('spade', 'NN', 'pobj', 'with', 'IN'), ('key', 'NN', 'pobj', 'with', 'IN'), ('hands', 'NNS', 'pobj', 'with', 'IN'), ('last', 'JJ', 'pobj', 'at', 'IN'), ('face', 'NN', 'pobj', 'about', 'IN'), ('dust', 'NN', 'pobj', 'to', 'IN'), ('himself', 'PRP', 'pobj', 'to', 'IN'), ('mist', 'NN', 'pobj', 'of', 'IN'), ('cheek', 'NN', 'pobj', 'on', 'IN'), ('mist', 'NN', 'pobj', 'on', 'IN'), ('patch', 'NN', 'pobj', 'on', 'IN'), ('light', 'NN', 'pobj', 'of', 'IN'), ('lamps', 'NNS', 'pobj', 'from', 'IN'), ('roadside', 'NN', 'pobj', 'at', 'IN'), ('jerks', 'NNS', 'pobj', 'by', 'IN'), ('coach', 'NN', 'pobj', 'outside', 'IN'), ('train', 'NN', 'pobj', 'into', 'IN'), ('shadows', 'NNS', 'pobj', 'of', 'IN'), ('Bar', 'NNP', 'pobj', 'by', 'IN'), ('day', 'NN', 'pobj', 'of', 'IN'), ('him', 'PRP', 'pobj', 'after', 'IN'), ('midst', 'NN', 'pobj', 'of', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('one', 'CD', 'pobj', 'from', 'IN'), ('passengers', 'NNS', 'pobj', 'of', 'IN'), ('strap', 'NN', 'pobj', 'through', 'IN'), ('forms', 'NNS', 'pobj', 'upon', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('bank', 'NN', 'pobj', 'into', 'IN'), ('hearing', 'NN', 'pobj', 'in', 'IN'), ('spoken', 'VBN', 'pobj', 'as', 'IN'), ('hearing', 'NN', 'pobj', 'in', 'IN'), ('words', 'NNS', 'pobj', 'as', 'IN'), ('life', 'NN', 'pobj', 'in', 'IN'), ('consciousness', 'NN', 'pobj', 'to', 'IN'), ('daylight', 'NN', 'pobj', 'of', 'IN'), ('night', 'NN', 'pobj', 'of', 'IN'), ('sun', 'NN', 'pobj', 'at', 'IN'), ('land', 'NN', 'pobj', 'of', 'IN'), ('plough', 'NN', 'pobj', 'with', 'IN'), ('it', 'PRP', 'pobj', 'upon', 'IN'), ('wood', 'NN', 'pobj', 'beyond', 'IN'), ('which', 'WDT', 'pobj', 'in', 'IN'), ('red', 'JJ', 'pobj', 'of', 'IN'), ('trees', 'NNS', 'pobj', 'upon', 'IN'), ('sun', 'NN', 'pobj', 'at', 'IN'), ('day', 'NN', 'pobj', 'of', 'IN'), ('years', 'NNS', 'pobj', 'for', 'IN'), ('Dover', 'NNP', 'pobj', 'to', 'IN'), ('course', 'NN', 'pobj', 'in', 'IN'), ('forenoon', 'NN', 'pobj', 'of', 'IN'), ('Hotel', 'NNP', 'pobj', 'at', 'IN'), ('flourish', 'NN', 'pobj', 'with', 'IN'), ('ceremony', 'NN', 'pobj', 'of', 'IN'), ('journey', 'NN', 'pobj', 'for', 'IN'), ('London', 'NNP', 'pobj', 'from', 'IN'), ('winter', 'NN', 'pobj', 'in', 'IN'), ('time', 'NN', 'pobj', 'By', 'IN'), ('destinations', 'NNS', 'pobj', 'at', 'IN'), ('coach', 'NN', 'pobj', 'of', 'IN'), ('damp', 'JJ', 'pobj', 'with', 'IN'), ('kennel', 'NNP', 'pobj', 'like', 'IN'), ('it', 'PRP', 'pobj', 'of', 'IN'), ('chains', 'NNS', 'pobj', 'in', 'IN'), ('straw', 'NN', 'pobj', 'of', 'IN'), ('wrapper', 'NN', 'pobj', 'of', 'IN'), ('dog', 'NN', 'pobj', 'of', 'IN'), ('Calais', 'NNP', 'pobj', 'to', 'IN'), ('two', 'CD', 'pobj', 'at', 'IN'), ('afternoon', 'NN', 'pobj', 'in', 'IN'), ('bed', 'NN', 'pobj', 'to', 'IN'), ('night', 'NN', 'pobj', 'till', 'IN'), ('Concord', 'NNP', 'pobj', 'to', 'IN'), ('Concord', 'NNP', 'pobj', 'in', 'IN'), ('Concord', 'NNP', 'pobj', 'to', 'IN'), ('Concord', 'NNP', 'pobj', 'for', 'IN'), ('passenger', 'NN', 'pobj', 'to', 'IN'), ('mail', 'NN', 'pobj', 'by', 'IN'), ('mail', 'NN', 'pobj', 'by', 'IN'), ('head', 'NN', 'pobj', 'from', 'IN'), ('foot', 'VB', 'pobj', 'to', 'IN'), ('establishment', 'NN', 'pobj', 'for', 'IN'), ('George', 'NNP', 'pobj', 'of', 'IN'), ('man', 'NN', 'pobj', 'of', 'IN'), ('it', 'PRP', 'pobj', 'into', 'IN'), ('men', 'NNS', 'pobj', 'of', 'IN'), ('it', 'PRP', 'pobj', 'of', 'IN'), ('accident', 'NN', 'pobj', 'by', 'IN'), ('points', 'NNS', 'pobj', 'at', 'IN'), ('road', 'NN', 'pobj', 'of', 'IN'), ('Concord', 'NNP', 'pobj', 'between', 'IN'), ('sixty', 'NN', 'pobj', 'of', 'IN'), ('suit', 'NN', 'pobj', 'in', 'IN'), ('clothes', 'NNS', 'pobj', 'of', 'IN'), ('cuffs', 'NNS', 'pobj', 'with', 'IN'), ('pockets', 'NNS', 'pobj', 'to', 'IN'), ('way', 'NN', 'pobj', 'on', 'IN'), ('breakfast', 'NN', 'pobj', 'to', 'IN'), ('gentleman', 'NN', 'pobj', 'than', 'IN'), ('brown', 'NN', 'pobj', 'in', 'IN'), ('fire', 'NN', 'pobj', 'before', 'IN'), ('light', 'NN', 'pobj', 'with', 'IN'), ('him', 'PRP', 'pobj', 'on', 'IN'), ('meal', 'NN', 'pobj', 'for', 'IN'), ('portrait', 'NN', 'pobj', 'for', 'IN'), ('hand', 'NN', 'pobj', 'with', 'IN'), ('knee', 'NN', 'pobj', 'on', 'IN'), ('coat', 'NN', 'pobj', 'under', 'IN'), ('levity', 'NN', 'pobj', 'against', 'IN'), ('fire', 'NN', 'pobj', 'of', 'IN'), ('it', 'PRP', 'pobj', 'of', 'IN'), ('texture', 'NN', 'pobj', 'of', 'IN'), ('head', 'NN', 'pobj', 'to', 'IN'), ('hair', 'NN', 'pobj', 'of', 'IN'), ('filaments', 'NNS', 'pobj', 'from', 'IN'), ('silk', 'NN', 'pobj', 'of', 'IN'), ('fineness', 'NN', 'pobj', 'of', 'IN'), ('accordance', 'NN', 'pobj', 'in', 'IN'), ('stockings', 'NNS', 'pobj', 'with', 'IN'), ('tops', 'NNS', 'pobj', 'as', 'IN'), ('waves', 'NNS', 'pobj', 'of', 'IN'), ('beach', 'NN', 'pobj', 'upon', 'IN'), ('sail', 'NN', 'pobj', 'of', 'IN'), ('sunlight', 'NN', 'pobj', 'in', 'IN'), ('sea', 'NN', 'pobj', 'at', 'IN'), ('wig', 'NN', 'pobj', 'under', 'IN'), ('pair', 'NN', 'pobj', 'by', 'IN'), ('eyes', 'NNS', 'pobj', 'of', 'IN'), ('years', 'NNS', 'pobj', 'in', 'IN'), ('expression', 'NN', 'pobj', 'to', 'IN'), ('Bank', 'NNP', 'pobj', 'of', 'IN'), ('cheeks', 'NNS', 'pobj', 'in', 'IN'), ('anxiety', 'NN', 'pobj', 'of', 'IN'), ('Bank', 'NNP', 'pobj', 'in', 'IN'), ('cares', 'NNS', 'pobj', 'with', 'IN'), ('people', 'NNS', 'pobj', 'of', 'IN'), ('clothes', 'NNS', 'pobj', 'like', 'IN'), ('man', 'NN', 'pobj', 'to', 'IN'), ('portrait', 'NN', 'pobj', 'for', 'IN'), ('breakfast', 'NN', 'pobj', 'of', 'IN'), ('drawer', 'NN', 'pobj', 'to', 'IN'), ('it', 'PRP', 'pobj', 'to', 'IN'), ('lady', 'NN', 'pobj', 'for', 'IN'), ('time', 'NN', 'pobj', 'at', 'IN'), ('day', 'NN', 'pobj', 'to', 'IN'), ('Lorry', 'NNP', 'pobj', 'for', 'IN'), ('gentleman', 'NN', 'pobj', 'for', 'IN'), ('Bank', 'NNP', 'pobj', 'from', 'IN'), ('London', 'NNP', 'pobj', 'in', 'IN'), ('travelling', 'VBG', 'pobj', 'in', 'IN'), ('travelling', 'NN', 'pobj', 'of', 'IN'), ('Tellson', 'NNP', 'pobj', 'in', 'IN'), ('habit', 'NN', 'pobj', 'in', 'IN'), ('years', 'NNS', 'pobj', 'of', 'IN'), ('I', 'PRP', 'pobj', 'since', 'IN'), ('France', 'NNP', 'pobj', 'from', 'IN'), ('time', 'NN', 'pobj', 'before', 'IN'), ('time', 'NN', 'pobj', 'Before', 'IN'), ('sir', 'NNP', 'pobj', 'Before', 'IN'), ('hands', 'NNS', 'pobj', 'in', 'IN'), ('time', 'NN', 'pobj', 'at', 'IN'), ('Tellson', 'NNP', 'pobj', 'like', 'IN'), ('fifty', 'CD', 'pobj', 'of', 'IN'), ('truth', 'NN', 'pobj', 'from', 'IN'), ('table', 'NN', 'pobj', 'from', 'IN'), ('arm', 'NN', 'pobj', 'from', 'IN'), ('left', 'NN', 'pobj', 'to', 'IN'), ('attitude', 'NN', 'pobj', 'into', 'IN'), ('observatory', 'NN', 'pobj', 'from', 'IN'), ('usage', 'NN', 'pobj', 'to', 'IN'), ('waiters', 'NNS', 'pobj', 'of', 'IN'), ('ages', 'NNS', 'pobj', 'in', 'IN'), ('stroll', 'NN', 'pobj', 'for', 'IN'), ('beach', 'NN', 'pobj', 'on', 'IN'), ('Dover', 'NNP', 'pobj', 'of', 'IN'), ('beach', 'NN', 'pobj', 'from', 'IN'), ('cliffs', 'NNS', 'pobj', 'into', 'IN'), ('ostrich', 'NN', 'pobj', 'like', 'IN'), ('heaps', 'NNS', 'pobj', 'of', 'IN'), ('sea', 'NN', 'pobj', 'of', 'IN'), ('town', 'NN', 'pobj', 'at', 'IN'), ('cliffs', 'NNS', 'pobj', 'at', 'IN'), ('houses', 'NNS', 'pobj', 'among', 'IN'), ('flavour', 'NN', 'pobj', 'of', 'IN'), ('it', 'PRP', 'pobj', 'in', 'IN'), ('sea', 'NN', 'pobj', 'in', 'IN'), ('port', 'NN', 'pobj', 'in', 'IN'), ('night', 'NN', 'pobj', 'by', 'IN'), ('times', 'NNS', 'pobj', 'at', 'IN'), ('flood', 'NN', 'pobj', 'near', 'IN'), ('neighbourhood', 'NN', 'pobj', 'in', 'IN'), ('afternoon', 'NN', 'pobj', 'into', 'IN'), ('intervals', 'NNS', 'pobj', 'at', 'IN'), ('mist', 'NN', 'pobj', 'with', 'IN'), ('fire', 'NN', 'pobj', 'before', 'IN'), ('coals', 'NNS', 'pobj', 'in', 'IN'), ('claret', 'NN', 'pobj', 'of', 'IN'), ('dinner', 'NN', 'pobj', 'after', 'IN'), ('coals', 'NNS', 'pobj', 'in', 'IN'), ('work', 'NN', 'pobj', 'of', 'IN'), ('wine', 'NN', 'pobj', 'of', 'IN'), ('appearance', 'NN', 'pobj', 'with', 'IN'), ('satisfaction', 'NN', 'pobj', 'of', 'IN'), ('gentleman', 'NN', 'pobj', 'in', 'IN'), ('complexion', 'NN', 'pobj', 'of', 'IN'), ('end', 'NN', 'pobj', 'to', 'IN'), ('bottle', 'NN', 'pobj', 'of', 'IN'), ('wheels', 'NNS', 'pobj', 'of', 'IN'), ('street', 'NN', 'pobj', 'up', 'IN'), ('yard', 'NN', 'pobj', 'into', 'IN'), ('minutes', 'NNS', 'pobj', 'In', 'IN'), ('London', 'NNP', 'pobj', 'from', 'IN'), ('Tellson', 'NNP', 'pobj', 'from', 'IN'), ('road', 'NN', 'pobj', 'on', 'IN'), ('Tellson', 'NNP', 'pobj', 'from', 'IN'), ('Tellson', 'NNP', 'pobj', 'from', 'IN'), ('it', 'PRP', 'pobj', 'for', 'IN'), ('air', 'NN', 'pobj', 'with', 'IN'), ('desperation', 'NN', 'pobj', 'of', 'IN'), ('ears', 'NNS', 'pobj', 'at', 'IN'), ('apartment', 'NN', 'pobj', 'to', 'IN'), ('manner', 'NN', 'pobj', 'in', 'IN'), ('horsehair', 'NN', 'pobj', 'with', 'IN'), ('tables', 'NNS', 'pobj', 'with', 'IN'), ('table', 'NN', 'pobj', 'on', 'IN'), ('middle', 'NN', 'pobj', 'in', 'IN'), ('room', 'NN', 'pobj', 'of', 'IN'), ('leaf', 'NN', 'pobj', 'on', 'IN'), ('_', 'NNS', 'pobj', 'if', 'IN'), ('they', 'PRP', 'pobj', 'as', 'IN'), ('graves', 'NNS', 'pobj', 'in', 'IN'), ('mahogany', 'NN', 'pobj', 'of', 'IN'), ('them', 'PRP', 'pobj', 'from', 'IN'), ('carpet', 'NN', 'pobj', 'over', 'IN'), ('moment', 'NN', 'pobj', 'for', 'IN'), ('room', 'NN', 'pobj', 'in', 'IN'), ('candles', 'NNS', 'pobj', 'past', 'IN'), ('table', 'NN', 'pobj', 'by', 'IN'), ('them', 'PRP', 'pobj', 'between', 'IN'), ('seventeen', 'JJ', 'pobj', 'of', 'IN'), ('cloak', 'NN', 'pobj', 'in', 'IN'), ('ribbon', 'NN', 'pobj', 'by', 'IN'), ('hand', 'NN', 'pobj', 'in', 'IN'), ('figure', 'NN', 'pobj', 'on', 'IN'), ('hair', 'NN', 'pobj', 'of', 'IN'), ('eyes', 'NNS', 'pobj', 'of', 'IN'), ('look', 'NN', 'pobj', 'with', 'IN'), ('capacity', 'NN', 'pobj', 'with', 'IN'), ('expression', 'NN', 'pobj', 'into', 'IN'), ('perplexity', 'NN', 'pobj', 'of', 'IN'), ('attention', 'NN', 'pobj', 'of', 'IN'), ('things', 'NNS', 'pobj', 'on', 'IN'), ('him', 'PRP', 'pobj', 'before', 'IN'), ('child', 'NN', 'pobj', 'of', 'IN'), ('arms', 'NNS', 'pobj', 'in', 'IN'), ('passage', 'NN', 'pobj', 'on', 'IN'), ('Channel', 'NNP', 'pobj', 'across', 'IN'), ('breath', 'NN', 'pobj', 'like', 'IN'), ('surface', 'NN', 'pobj', 'along', 'IN'), ('glass', 'NN', 'pobj', 'of', 'IN'), ('her', 'PRP', 'pobj', 'behind', 'IN'), ('frame', 'NN', 'pobj', 'on', 'IN'), ('which', 'WDT', 'pobj', 'of', 'IN'), ('cupids', 'NNS', 'pobj', 'of', 'IN'), ('fruit', 'NN', 'pobj', 'of', 'IN'), ('divinities', 'NNS', 'pobj', 'to', 'IN'), ('gender', 'NN', 'pobj', 'of', 'IN'), ('Manette', 'NNP', 'pobj', 'to', 'IN'), ('voice', 'NN', 'pobj', 'In', 'IN'), ('accent', 'NN', 'pobj', 'in', 'IN'), ('manners', 'NNS', 'pobj', 'with', 'IN'), ('date', 'NN', 'pobj', 'of', 'IN'), ('Bank', 'NNP', 'pobj', 'from', 'IN'), ('father', 'NN', 'pobj', 'of', 'IN'), ('chair', 'NN', 'pobj', 'in', 'IN'), ('procession', 'NN', 'pobj', 'towards', 'IN'), ('cupids', 'NNS', 'pobj', 'of', 'IN'), ('if', 'IN', 'pobj', 'As', 'IN'), ('_', 'NFP', 'pobj', 'if', 'IN'), ('they', 'PRP', 'pobj', 'As', 'IN'), ('anybody', 'NN', 'pobj', 'for', 'IN'), ('baskets', 'NNS', 'pobj', 'in', 'IN'), ('Paris', 'NNP', 'pobj', 'to', 'IN'), ('gentleman', 'NN', 'pobj', 'with', 'IN'), ('Bank', 'NNP', 'pobj', 'of', 'IN'), ('Paris', 'NNP', 'pobj', 'to', 'IN'), ('purpose', 'NN', 'pobj', 'for', 'IN'), ('him', 'PRP',</t>
-  </si>
-  <si>
     <t>Pride and Prejudice.txt</t>
-  </si>
-  <si>
-    <t>[('Chapter', 'NNP', 'compound', 'I.', 'NNP'), ('I.', 'NNP', 'ROOT', 'I.', 'NNP'), (']', '-RRB-', 'punct', 'I.', 'NNP'), ('\n\n\n', '_SP', 'dep', ']', '-RRB-'), ('It', 'PRP', 'nsubj', 'is', 'VBZ'), ('is', 'VBZ', 'ROOT', 'is', 'VBZ'), ('a', 'DT', 'det', 'truth', 'NN'), ('truth', 'NN', 'attr', 'is', 'VBZ'), ('universally', 'RB', 'advmod', 'acknowledged', 'VBN'), ('acknowledged', 'VBN', 'acl', 'truth', 'NN'), (',', ',', 'punct', 'truth', 'NN'), ('that', 'IN', 'mark', 'be', 'VB'), ('a', 'DT', 'det', 'man', 'NN'), ('single', 'JJ', 'amod', 'man', 'NN'), ('man', 'NN', 'nsubj', 'be', 'VB'), ('in', 'IN', 'prep', 'man', 'NN'), ('possession', 'NN', 'pobj', 'in', 'IN'), ('\n', '_SP', 'dep', 'possession', 'NN'), ('of', 'IN', 'prep', 'possession', 'NN'), ('a', 'DT', 'det', 'fortune', 'NN'), ('good', 'JJ', 'amod', 'fortune', 'NN'), ('fortune', 'NN', 'pobj', 'of', 'IN'), ('must', 'MD', 'aux', 'be', 'VB'), ('be', 'VB', 'ccomp', 'is', 'VBZ'), ('in', 'IN', 'prep', 'be', 'VB'), ('want', 'NN', 'pobj', 'in', 'IN'), ('of', 'IN', 'prep', 'want', 'NN'), ('a', 'DT', 'det', 'wife', 'NN'), ('wife', 'NN', 'pobj', 'of', 'IN'), ('.', '.', 'punct', 'is', 'VBZ'), ('\n\n', '_SP', 'dep', '.', '.'), ('However', 'RB', 'advmod', 'little', 'JJ'), ('little', 'JJ', 'advmod', 'known', 'VBN'), ('known', 'VBN', 'advcl', 'fixed', 'VBN'), ('the', 'DT', 'det', 'feelings', 'NNS'), ('feelings', 'NNS', 'nsubj', 'be', 'VB'), ('or', 'CC', 'cc', 'feelings', 'NNS'), ('views', 'NNS', 'conj', 'feelings', 'NNS'), ('of', 'IN', 'prep', 'feelings', 'NNS'), ('such', 'PDT', 'predet', 'man', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('man', 'NN', 'pobj', 'of', 'IN'), ('may', 'MD', 'aux', 'be', 'VB'), ('be', 'VB', 'ccomp', 'known', 'VBN'), ('on', 'IN', 'prep', 'be', 'VB'), ('his', 'PRP$', 'nsubj', 'entering', 'VBG'), ('\n', '_SP', 'dep', 'his', 'PRP$'), ('first', 'RB', 'advmod', 'entering', 'VBG'), ('entering', 'VBG', 'pcomp', 'on', 'IN'), ('a', 'DT', 'det', 'neighborhood', 'NN'), ('neighborhood', 'NN', 'dobj', 'entering', 'VBG'), (',', ',', 'punct', 'fixed', 'VBN'), ('this', 'DT', 'det', 'truth', 'NN'), ('truth', 'NN', 'nsubjpass', 'fixed', 'VBN'), ('is', 'VBZ', 'auxpass', 'fixed', 'VBN'), ('so', 'RB', 'advmod', 'well', 'RB'), ('well', 'RB', 'advmod', 'fixed', 'VBN'), ('fixed', 'VBN', 'ccomp', 'considered', 'VBN'), ('in', 'IN', 'prep', 'fixed', 'VBN'), ('the', 'DT', 'det', 'minds', 'NNS'), ('minds', 'NNS', 'pobj', 'in', 'IN'), ('\n', '_SP', 'dep', 'minds', 'NNS'), ('of', 'IN', 'prep', 'minds', 'NNS'), ('the', 'DT', 'det', 'families', 'NNS'), ('surrounding', 'VBG', 'amod', 'families', 'NNS'), ('families', 'NNS', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'considered', 'VBN'), ('that', 'IN', 'mark', 'considered', 'VBN'), ('he', 'PRP', 'nsubjpass', 'considered', 'VBN'), ('is', 'VBZ', 'auxpass', 'considered', 'VBN'), ('considered', 'VBN', 'ROOT', 'considered', 'VBN'), ('as', 'IN', 'prep', 'considered', 'VBN'), ('the', 'DT', 'det', 'property', 'NN'), ('rightful', 'JJ', 'amod', 'property', 'NN'), ('\n', '_SP', 'dep', 'rightful', 'JJ'), ('property', 'NN', 'pobj', 'as', 'IN'), ('of', 'IN', 'prep', 'property', 'NN'), ('some', 'DT', 'det', 'one', 'CD'), ('one', 'CD', 'pobj', 'of', 'IN'), ('or', 'CC', 'cc', 'one', 'CD'), ('other', 'JJ', 'conj', 'one', 'CD'), ('of', 'IN', 'prep', 'one', 'CD'), ('their', 'PRP$', 'poss', 'daughters', 'NNS'), ('daughters', 'NNS', 'pobj', 'of', 'IN'), ('.', '.', 'punct', 'considered', 'VBN'), ('\n\n', '_SP', 'dep', '.', '.'), ('“', '``', 'punct', 'Bennet', 'NNP'), ('My', 'PRP$', 'poss', 'Bennet', 'NNP'), ('dear', 'JJ', 'amod', 'Bennet', 'NNP'), ('Mr.', 'NNP', 'compound', 'Bennet', 'NNP'), ('Bennet', 'NNP', 'nsubj', 'said', 'VBD'), (',', ',', 'punct', 'said', 'VBD'), ('”', "''", 'punct', 'said', 'VBD'), ('said', 'VBD', 'ROOT', 'said', 'VBD'), ('his', 'PRP$', 'poss', 'lady', 'NN'), ('lady', 'NN', 'nsubj', 'said', 'VBD'), ('to', 'IN', 'prep', 'said', 'VBD'), ('him', 'PRP', 'pobj', 'to', 'IN'), ('one', 'CD', 'nummod', 'day', 'NN'), ('day', 'NN', 'npadvmod', 'said', 'VBD'), (',', ',', 'punct', 'said', 'VBD'), ('“', '``', 'punct', 'heard', 'VBN'), ('have', 'VBP', 'aux', 'heard', 'VBN'), ('you', 'PRP', 'nsubj', 'heard', 'VBN'), ('heard', 'VBN', 'ccomp', 'said', 'VBD'), ('that', 'IN', 'mark', 'let', 'VBN'), ('\n', '_SP', 'dep', 'that', 'IN'), ('Netherfield', 'NNP', 'compound', 'Park', 'NNP'), ('Park', 'NNP', 'nsubjpass', 'let', 'VBN'), ('is', 'VBZ', 'auxpass', 'let', 'VBN'), ('let', 'VBN', 'ccomp', 'heard', 'VBN'), ('at', 'RB', 'advmod', 'last', 'JJ'), ('last', 'JJ', 'advmod', 'let', 'VBN'), ('?', '.', 'punct', 'said', 'VBD'), ('”', "''", 'punct', 'replied', 'VBD'), ('\n\n', '_SP', 'dep', '”', "''"), ('Mr.', 'NNP', 'compound', 'Bennet', 'NNP'), ('Bennet', 'NNP', 'nsubj', 'replied', 'VBD'), ('replied', 'VBD', 'ccomp', 'said', 'VBD'), ('that', 'IN', 'mark', 'had', 'VBD'), ('he', 'PRP', 'nsubj', 'had', 'VBD'), ('had', 'VBD', 'ccomp', 'replied', 'VBD'), ('not', 'RB', 'neg', 'had', 'VBD'), ('.', '.', 'punct', 'replied', 'VBD'), ('\n\n', '_SP', 'dep', '.', '.'), ('“', '``', 'punct', 'is', 'VBZ'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('is', 'VBZ', 'ROOT', 'is', 'VBZ'), (',', ',', 'punct', 'returned', 'VBD'), ('”', "''", 'punct', 'returned', 'VBD'), ('returned', 'VBD', 'ccomp', 'been', 'VBN'), ('she', 'PRP', 'dobj', 'returned', 'VBD'), (';', ':', 'punct', 'been', 'VBN'), ('“', '``', 'punct', 'been', 'VBN'), ('for', 'IN', 'mark', 'been', 'VBN'), ('Mrs.', 'NNP', 'compound', 'Long', 'NNP'), ('Long', 'NNP', 'nsubj', 'been', 'VBN'), ('has', 'VBZ', 'aux', 'been', 'VBN'), ('just', 'RB', 'advmod', 'been', 'VBN'), ('been', 'VBN', 'ccomp', 'is', 'VBZ'), ('here', 'RB', 'advmod', 'been', 'VBN'), (',', ',', 'punct', 'been', 'VBN'), ('and', 'CC', 'cc', 'been', 'VBN'), ('she', 'PRP', 'nsubj', 'told', 'VBD'), ('\n', '_SP', 'dep', 'she', 'PRP'), ('told', 'VBD', 'conj', 'been', 'VBN'), ('me', 'PRP', 'dobj', 'told', 'VBD'), ('all', 'DT', 'dobj', 'told', 'VBD'), ('about', 'IN', 'prep', 'told', 'VBD'), ('it', 'PRP', 'pobj', 'about', 'IN'), ('.', '.', 'punct', 'told', 'VBD'), ('”', "''", 'punct', 'is', 'VBZ'), ('\n\n', '_SP', 'dep', '”', "''"), ('Mr.', 'NNP', 'compound', 'Bennet', 'NNP'), ('Bennet', 'NNP', 'nsubj', 'made', 'VBD'), ('made', 'VBD', 'ROOT', 'made', 'VBD'), ('no', 'DT', 'det', 'answer', 'NN'), ('answer', 'NN', 'dobj', 'made', 'VBD'), ('.', '.', 'punct', 'made', 'VBD'), ('\n\n', '_SP', 'dep', '.', '.'), ('“', '``', 'punct', 'want', 'VB'), ('Do', 'VBP', 'aux', 'want', 'VB'), ('not', 'RB', 'neg', 'want', 'VB'), ('you', 'PRP', 'nsubj', 'want', 'VB'), ('want', 'VB', 'ROOT', 'want', 'VB'), ('to', 'TO', 'aux', 'know', 'VB'), ('know', 'VB', 'xcomp', 'want', 'VB'), ('who', 'WP', 'nsubj', 'taken', 'VBN'), ('has', 'VBZ', 'aux', 'taken', 'VBN'), ('taken', 'VBN', 'ccomp', 'know', 'VB'), ('it', 'PRP', 'dobj', 'taken', 'VBN'), ('?', '.', 'punct', 'want', 'VB'), ('”', "''", 'punct', 'want', 'VB'), ('cried', 'VBD', 'ccomp', 'want', 'VB'), ('his', 'PRP$', 'poss', 'wife', 'NN'), ('wife', 'NN', 'nsubj', 'cried', 'VBD'), (',', ',', 'punct', 'cried', 'VBD'), ('impatiently', 'RB', 'advmod', 'cried', 'VBD'), ('.', '.', 'punct', 'cried', 'VBD'), ('\n\n', '_SP', 'dep', '.', '.'), ('“', '``', 'punct', 'want', 'VBP'), ('_', 'NFP', 'nsubj', 'want', 'VBP'), ('You', 'PRP', 'nsubj', 'want', 'VBP'), ('_', 'NN', 'appos', 'You', 'PRP'), ('want', 'VBP', 'ROOT', 'want', 'VBP'), ('to', 'TO', 'aux', 'tell', 'VB'), ('tell', 'VB', 'xcomp', 'want', 'VBP'), ('me', 'PRP', 'dobj', 'tell', 'VB'), (',', ',', 'punct', 'want', 'VBP'), ('and', 'CC', 'cc', 'want', 'VBP'), ('I', 'PRP', 'nsubj', 'have', 'VBP'), ('have', 'VBP', 'conj', 'want', 'VBP'), ('no', 'DT', 'det', 'objection', 'NN'), ('objection', 'NN', 'dobj', 'have', 'VBP'), ('to', 'TO', 'aux', 'hearing', 'VBG'), ('hearing', 'VBG', 'acl', 'objection', 'NN'), ('it', 'PRP', 'dobj', 'hearing', 'VBG'), ('.', '.', 'punct', 'have', 'VBP'), ('”', "''", 'punct', 'have', 'VBP'), ('\n\n', '_SP', 'dep', '”', "''"), ('[', 'XX', 'nmod', 'Illustration', 'NN'), ('Illustration', 'NN', 'nsubj', 'came', 'VBD'), (':', ':', 'punct', 'came', 'VBD'), ('\n\n', '_SP', 'dep', ':', ':'), ('“', '``', 'punct', 'came', 'VBD'), ('He', 'PRP', 'nsubj', 'came', 'VBD'), ('came', 'VBD', 'ccomp', 'was', 'VBD'), ('down', 'RP', 'prt', 'came', 'VBD'), ('to', 'TO', 'aux', 'see', 'VB'), ('see', 'VB', 'advcl', 'came', 'VBD'), ('the', 'DT', 'det', 'place', 'NN'), ('place', 'NN', 'dobj', 'see', 'VB'), ('”', "''", 'punct', 'place', 'NN'), ('\n\n', '_SP', 'dep', '”', "''"), ('[', 'XX', 'dep', 'came', 'VBD'), ('_', 'NNP', 'npadvmod', 'came', 'VBD'), ('Copyright', 'NN', 'dobj', 'came', 'VBD'), ('1894', 'CD', 'nummod', 'Copyright', 'NN'), ('by', 'IN', 'agent', 'came', 'VBD'), ('George', 'NNP', 'compound', 'Allen', 'NNP'), ('Allen', 'NNP', 'pobj', 'by', 'IN'), ('.', '.', 'punct', 'came', 'VBD'), ('_', 'NFP', 'npadvmod', 'came', 'VBD'), (']', '-RRB-', 'punct', 'came', 'VBD'), (']', '-RRB-', 'dep', 'was', 'VBD'), ('\n\n', '_SP', 'dep', ']', '-RRB-'), ('This', 'DT', 'nsubj', 'was', 'VBD'), ('was', 'VBD', 'ROOT', 'was', 'VBD'), ('invitation', 'NN', 'attr', 'was', 'VBD'), ('enough', 'RB', 'advmod', 'invitation', 'NN'), ('.', '.', 'punct', 'was', 'VBD'), ('\n\n', '_SP', 'dep', '.', '.'), ('“', '``', 'punct', 'says', 'VBZ'), ('Why', 'WRB', 'advmod', 'know', 'VB'), (',', ',', 'punct', 'know', 'VB'), ('my', 'PRP$', 'poss', 'dear', 'NN'), ('dear', 'NN', 'npadvmod', 'know', 'VB'), (',', ',', 'punct', 'know', 'VB'), ('you', 'PRP', 'nsubj', 'know', 'VB'), ('must', 'MD', 'aux', 'know', 'VB'), ('know', 'VB', 'ccomp', 'says', 'VBZ'), (',', ',', 'punct', 'says', 'VBZ'), ('Mrs.', 'NNP', 'compound', 'Long', 'NNP'), ('Long', 'NNP', 'nsubj', 'says', 'VBZ'), ('says', 'VBZ', 'ROOT', 'says', 'VBZ'), ('that', 'IN', 'mark', 'taken', 'VBN'), ('Netherfield', 'NNP', 'nsubjpass', 'taken', 'VBN'), ('is', 'VBZ', 'auxpass', 'taken', 'VBN'), ('taken', 'VBN', 'ccomp', 'says', 'VBZ'), ('\n', '_SP', 'dep', 'taken', 'VBN'), ('by', 'IN', 'agent', 'taken', 'VBN'), ('a', 'DT', 'det', 'man', 'NN'), ('young', 'JJ', 'amod', 'man', 'NN'), ('man', 'NN', 'pobj', 'by', 'IN'), ('of', 'IN', 'prep', 'man', 'NN'), ('large', 'JJ', 'amod', 'fortune', 'NN'), ('fortune', 'NN', 'pobj', 'of', 'IN'), ('from', 'IN', 'prep', 'man', 'NN'), ('the', 'DT', 'det', 'north', 'NN'), ('north', 'NN', 'pobj', 'from', 'IN'), ('of', 'IN', 'prep', 'north', 'NN'), ('England', 'NNP', 'pobj', 'of', 'IN'), (';', ':', 'punct', 'came', 'VBD'), ('that', 'IN', 'mark', 'came', 'VBD'), ('he', 'PRP', 'nsubj', 'came', 'VBD'), ('came', 'VBD', 'ccomp', 'is', 'VBZ'), ('\n', '_SP', 'dep', 'came', 'VBD'), ('down', 'RP', 'prt', 'came', 'VBD'), ('on', 'IN', 'prep', 'came', 'VBD'), ('Monday', 'NNP', 'pobj', 'on', 'IN'), ('in', 'IN', 'prep', 'came', 'VBD'), ('a', 'DT', 'det', 'chaise', 'NN'), ('chaise', 'NN', 'pobj', 'in', 'IN'), ('and', 'CC', 'cc', 'chaise', 'NN'), ('four', 'CD', 'conj', 'chaise', 'NN'), ('to', 'TO', 'aux', 'see', 'VB'), ('see', 'VB', 'advcl', 'came', 'VBD'), ('the', 'DT', 'det', 'place', 'NN'), ('place', 'NN', 'dobj', 'see', 'VB'), (',', ',', 'punct', 'came', 'VBD'), ('and', 'CC', 'cc', 'came', 'VBD'), ('was', 'VBD', 'conj', 'came', 'VBD'), ('so', 'RB', 'advmod', 'much', 'JJ'), ('much', 'JJ', 'advmod', 'delighted', 'VBD'), ('\n', '_SP', 'dep', 'much', 'JJ'), ('delighted', 'VBD', 'acomp', 'was', 'VBD'), ('with', 'IN', 'prep', 'delighted', 'VBD'), ('it', 'PRP', 'pobj', 'with', 'IN'), ('that', 'IN', 'mark', 'agreed', 'VBD'), ('he', 'PRP', 'nsubj', 'agreed', 'VBD'), ('agreed', 'VBD', 'ccomp', 'delighted', 'VBD'), ('with', 'IN', 'prep', 'agreed', 'VBD'), ('Mr.', 'NNP', 'compound', 'Morris', 'NNP'), ('Morris', 'NNP', 'pobj', 'with', 'IN'), ('immediately', 'RB', 'advmod', 'agreed', 'VBD'), (';', ':', 'punct', 'is', 'VBZ'), ('that', 'IN', 'mark', 'is', 'VBZ'), ('he', 'PRP', 'nsubj', 'is', 'VBZ'), ('is', 'VBZ', 'advcl', 'taken', 'VBN'), ('\n', '_SP', 'dep', 'is', 'VBZ'), ('to', 'TO', 'aux', 'take', 'VB'), ('take', 'VB', 'xcomp', 'is', 'VBZ'), ('possession', 'NN', 'dobj', 'take', 'VB'), ('before', 'IN', 'prep', 'take', 'VB'), ('Michaelmas', 'NNP', 'pobj', 'before', 'IN'), (',', ',', 'punct', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('some', 'DT', 'nsubj', 'are', 'VBP'), ('of', 'IN', 'prep', 'some', 'DT'), ('his', 'PRP$', 'poss', 'servants', 'NNS'), ('servants', 'NNS', 'pobj', 'of', 'IN'), ('are', 'VBP', 'conj', 'is', 'VBZ'), ('to', 'TO', 'aux', 'be', 'VB'), ('be', 'VB', 'xcomp', 'are', 'VBP'), ('\n', '_SP', 'dep', 'be', 'VB'), ('in', 'IN', 'prep', 'be', 'VB'), ('the', 'DT', 'det', 'house', 'NN'), ('house', 'NN', 'pobj', 'in', 'IN'), ('by', 'IN', 'prep', 'be', 'VB'), ('the', 'DT', 'det', 'end', 'NN'), ('end', 'NN', 'pobj', 'by', 'IN'), ('of', 'IN', 'prep', 'end', 'NN'), ('next', 'JJ', 'amod', 'week', 'NN'), ('week', 'NN', 'pobj', 'of', 'IN'), ('.', '.', 'punct', 'are', 'VBP'), ('”', "''", 'punct', 'says', 'VBZ'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'is', 'VBZ'), ('What', 'WP', 'attr', 'is', 'VBZ'), ('is', 'VBZ', 'ROOT', 'is', 'VBZ'), ('his', 'PRP$', 'poss', 'name', 'NN'), ('name', 'NN', 'nsubj', 'is', 'VBZ'), ('?', '.', 'punct', 'is', 'VBZ'), ('”', "''", 'punct', 'Bingley', 'NNP'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'Bingley', 'NNP'), ('Bingley', 'NNP', 'nsubj', 'is', 'VBZ'), ('.', '.', 'punct', 'is', 'VBZ'), ('”', "''", 'punct', 'is', 'VBZ'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'Is', 'VBZ'), ('Is', 'VBZ', 'ROOT', 'Is', 'VBZ'), ('he', 'PRP', 'nsubj', 'Is', 'VBZ'), ('married', 'JJ', 'acomp', 'Is', 'VBZ'), ('or', 'CC', 'cc', 'married', 'JJ'), ('single', 'JJ', 'conj', 'married', 'JJ'), ('?', '.', 'punct', 'Is', 'VBZ'), ('”', "''", 'punct', 'Is', 'VBZ'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'single', 'JJ'), ('Oh', 'UH', 'intj', 'single', 'JJ'), (',', ',', 'punct', 'single', 'JJ'), ('single', 'JJ', 'meta', '”', "''"), (',', ',', 'punct', 'single', 'JJ'), ('my', 'PRP$', 'poss', 'dear', 'NN'), ('dear', 'NN', 'npadvmod', 'single', 'JJ'), (',', ',', 'punct', 'single', 'JJ'), ('to', 'TO', 'aux', 'be', 'VB'), ('be', 'VB', 'xcomp', 'Is', 'VBZ'), ('sure', 'JJ', 'acomp', 'be', 'VB'), ('!', '.', 'punct', 'Is', 'VBZ'), ('A', 'DT', 'det', 'man', 'NN'), ('single', 'JJ', 'amod', 'man', 'NN'), ('man', 'NN', 'ROOT', 'man', 'NN'), ('of', 'IN', 'prep', 'man', 'NN'), ('large', 'JJ', 'amod', 'fortune', 'NN'), ('fortune', 'NN', 'pobj', 'of', 'IN'), (';', ':', 'punct', 'man', 'NN'), ('four', 'CD', 'nummod', 'year', 'NN'), ('or', 'CC', 'cc', 'four', 'CD'), ('\n', '_SP', 'dep', 'or', 'CC'), ('five', 'CD', 'compound', 'thousand', 'CD'), ('thousand', 'CD', 'conj', 'four', 'CD'), ('a', 'DT', 'prep', 'four', 'CD'), ('year', 'NN', 'appos', 'man', 'NN'), ('.', '.', 'punct', 'man', 'NN'), ('What', 'WP', 'det', 'thing', 'NN'), ('a', 'DT', 'det', 'thing', 'NN'), ('fine', 'JJ', 'amod', 'thing', 'NN'), ('thing', 'NN', 'ROOT', 'thing', 'NN'), ('for', 'IN', 'prep', 'thing', 'NN'), ('our', 'PRP$', 'poss', 'girls', 'NNS'), ('girls', 'NNS', 'pobj', 'for', 'IN'), ('!', '.', 'punct', 'thing', 'NN'), ('”', "''", 'punct', 'thing', 'NN'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'so', 'RB'), ('How', 'WRB', 'advmod', 'so', 'RB'), ('so', 'RB', 'advmod', 'thing', 'NN'), ('?', '.', 'punct', 'so', 'RB'), ('how', 'WRB', 'advmod', 'affect', 'VB'), ('can', 'MD', 'aux', 'affect', 'VB'), ('it', 'PRP', 'nsubj', 'affect', 'VB'), ('affect', 'VB', 'ccomp', 'replied', 'VBD'), ('them', 'PRP', 'dobj', 'affect', 'VB'), ('?', '.', 'punct', 'affect', 'VB'), ('”', "''", 'punct', 'Bennet', 'NNP'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'Bennet', 'NNP'), ('My', 'PRP$', 'poss', 'Bennet', 'NNP'), ('dear', 'JJ', 'amod', 'Bennet', 'NNP'), ('Mr.', 'NNP', 'compound', 'Bennet', 'NNP'), ('Bennet', 'NNP', 'dobj', 'affect', 'VB'), (',', ',', 'punct', 'replied', 'VBD'), ('”', "''", 'punct', 'replied', 'VBD'), ('replied', 'VBD', 'ROOT', 'replied', 'VBD'), ('his', 'PRP$', 'poss', 'wife', 'NN'), ('wife', 'NN', 'nsubj', 'replied', 'VBD'), (',', ',', 'punct', 'replied', 'VBD'), ('“', '``', 'punct', 'be', 'VB'), ('how', 'WRB', 'advmod', 'be', 'VB'), ('can', 'MD', 'aux', 'be', 'VB'), ('you', 'PRP', 'nsubj', 'be', 'VB'), ('be', 'VB', 'ccomp', 'replied', 'VBD'), ('so', 'RB', 'advmod', 'tiresome', 'JJ'), ('tiresome', 'JJ', 'acomp', 'be', 'VB'), ('?', '.', 'punct', 'replied', 'VBD'), ('You', 'PRP', 'nsubj', 'know', 'VB'), ('\n', '_SP', 'dep', 'You', 'PRP'), ('must', 'MD', 'aux', 'know', 'VB'), ('know', 'VB', 'ROOT', 'know', 'VB'), ('that', 'IN', 'mark', 'thinking', 'VBG'), ('I', 'PRP', 'nsubj', 'thinking', 'VBG'), ('am', 'VBP', 'aux', 'thinking', 'VBG'), ('thinking', 'VBG', 'ccomp', 'know', 'VB'), ('of', 'IN', 'prep', 'thinking', 'VBG'), ('his', 'PRP$', 'poss', 'one', 'CD'), ('marrying', 'VBG', 'amod', 'one', 'CD'), ('one', 'CD', 'pobj', 'of', 'IN'), ('of', 'IN', 'prep', 'one', 'CD'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('.', '.', 'punct', 'know', 'VB'), ('”', "''", 'punct', 'know', 'VB'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'Is', 'VBZ'), ('Is', 'VBZ', 'ROOT', 'Is', 'VBZ'), ('that', 'DT', 'nsubj', 'Is', 'VBZ'), ('his', 'PRP$', 'poss', 'design', 'NN'), ('design', 'NN', 'attr', 'Is', 'VBZ'), ('in', 'IN', 'prep', 'design', 'NN'), ('settling', 'VBG', 'pcomp', 'in', 'IN'), ('here', 'RB', 'advmod', 'settling', 'VBG'), ('?', '.', 'punct', 'Is', 'VBZ'), ('”', "''", 'punct', 'Design', 'NNP'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'Design', 'NNP'), ('Design', 'NNP', 'nsubj', 'Is', 'VBZ'), ('?', '.', 'punct', 'Is', 'VBZ'), ('Nonsense', 'NNP', 'npadvmod', 'talk', 'VB'), (',', ',', 'punct', 'talk', 'VB'), ('how', 'WRB', 'advmod', 'talk', 'VB'), ('can', 'MD', 'aux', 'talk', 'VB'), ('you', 'PRP', 'nsubj', 'talk', 'VB'), ('talk', 'VB', 'ROOT', 'talk', 'VB'), ('so', 'RB', 'advmod', 'talk', 'VB'), ('!', '.', 'punct', 'talk', 'VB'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('is', 'VBZ', 'ROOT', 'is', 'VBZ'), ('very', 'RB', 'advmod', 'likely', 'JJ'), ('likely', 'JJ', 'acomp', 'is', 'VBZ'), ('that', 'IN', 'mark', 'fall', 'VB'), ('he', 'PRP', 'nsubj', 'fall', 'VB'), ('\n', '_SP', 'dep', 'he', 'PRP'), ('_', 'NNP', 'appos', 'he', 'PRP'), ('may', 'MD', 'appos', 'he', 'PRP'), ('_', 'NNP', 'appos', 'he', 'PRP'), ('fall', 'VB', 'ccomp', 'likely', 'JJ'), ('in', 'IN', 'prep', 'fall', 'VB'), ('love', 'NN', 'pobj', 'in', 'IN'), ('with', 'IN', 'prep', 'fall', 'VB'), ('one', 'CD', 'pobj', 'with', 'IN'), ('of', 'IN', 'prep', 'one', 'CD'), ('them', 'PRP', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('therefore', 'RB', 'advmod', 'visit', 'VB'), ('you', 'PRP', 'nsubj', 'visit', 'VB'), ('must', 'MD', 'aux', 'visit', 'VB'), ('visit', 'VB', 'conj', 'is', 'VBZ'), ('him', 'PRP', 'dobj', 'visit', 'VB'), ('as', 'RB', 'advmod', 'soon', 'RB'), ('\n', '_SP', 'dep', 'as', 'RB'), ('soon', 'RB', 'advmod', 'visit', 'VB'), ('as', 'IN', 'mark', 'comes', 'VBZ'), ('he', 'PRP', 'nsubj', 'comes', 'VBZ'), ('comes', 'VBZ', 'advcl', 'soon', 'RB'), ('.', '.', 'punct', 'visit', 'VB'), ('”', "''", 'punct', 'visit', 'VB'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'see', 'VBP'), ('I', 'PRP', 'nsubj', 'see', 'VBP'), ('see', 'VBP', 'ROOT', 'see', 'VBP'), ('no', 'DT', 'det', 'occasion', 'NN'), ('occasion', 'NN', 'dobj', 'see', 'VBP'), ('for', 'IN', 'prep', 'occasion', 'NN'), ('that', 'DT', 'pobj', 'for', 'IN'), ('.', '.', 'punct', 'see', 'VBP'), ('You', 'PRP', 'nsubj', 'go', 'VB'), ('and', 'CC', 'cc', 'You', 'PRP'), ('the', 'DT', 'det', 'girls', 'NNS'), ('girls', 'NNS', 'conj', 'You', 'PRP'), ('may', 'MD', 'aux', 'go', 'VB'), ('go', 'VB', 'ccomp', 'like', 'VB'), ('--', ':', 'punct', 'go', 'VB'), ('or', 'CC', 'cc', 'go', 'VB'), ('you', 'PRP', 'nsubj', 'send', 'VB'), ('may', 'MD', 'aux', 'send', 'VB'), ('send', 'VB', 'conj', 'go', 'VB'), ('\n', '_SP', 'dep', 'send', 'VB'), ('them', 'PRP', 'dobj', 'send', 'VB'), ('by', 'IN', 'prep', 'send', 'VB'), ('themselves', 'PRP', 'pobj', 'by', 'IN'), (',', ',', 'punct', 'send', 'VB'), ('which', 'WDT', 'nsubj', 'be', 'VB'), ('perhaps', 'RB', 'advmod', 'be', 'VB'), ('will', 'MD', 'aux', 'be', 'VB'), ('be', 'VB', 'advcl', 'send', 'VB'), ('still', 'RB', 'advmod', 'be', 'VB'), ('better', 'JJR', 'acomp', 'be', 'VB'), (';', ':', 'punct', 'like', 'VB'), ('for', 'IN', 'mark', 'like', 'VB'), ('as', 'IN', 'mark', 'are', 'VBP'), ('you', 'PRP', 'nsubj', 'are', 'VBP'), ('are', 'VBP', 'advcl', 'like', 'VB'), ('\n', '_SP', 'dep', 'are', 'VBP'), ('as', 'RB', 'advmod', 'handsome', 'JJ'), ('handsome', 'JJ', 'acomp', 'are', 'VBP'), ('as', 'IN', 'prep', 'handsome', 'JJ'), ('any', 'DT', 'pobj', 'as', 'IN'), ('of', 'IN', 'prep', 'any', 'DT'), ('them', 'PRP', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'like', 'VB'), ('Mr.', 'NNP', 'compound', 'Bingley', 'NNP'), ('Bingley', 'NNP', 'nsubj', 'like', 'VB'), ('might', 'MD', 'aux', 'like', 'VB'), ('like', 'VB', 'ROOT', 'like', 'VB'), ('you', 'PRP', 'dative', 'like', 'VB'), ('the', 'DT', 'det', 'best', 'JJS'), ('best', 'JJS', 'dobj', 'like', 'VB'), ('of', 'IN', 'prep', 'best', 'JJS'), ('the', 'DT', 'det', 'party', 'NN'), ('\n', '_SP', 'dep', 'the', 'DT'), ('party', 'NN', 'pobj', 'of', 'IN'), ('.', '.', 'punct', 'like', 'VB'), ('”', "''", 'punct', 'like', 'VB'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'flatter', 'VBP'), ('My', 'PRP$', 'poss', 'dear', 'NN'), ('dear', 'NN', 'npadvmod', 'flatter', 'VBP'), (',', ',', 'punct', 'flatter', 'VBP'), ('you', 'PRP', 'nsubj', 'flatter', 'VBP'), ('flatter', 'VBP', 'ROOT', 'flatter', 'VBP'), ('me', 'PRP', 'dobj', 'flatter', 'VBP'), ('.', '.', 'punct', 'flatter', 'VBP'), ('I', 'PRP', 'nsubj', 'have', 'VBP'), ('certainly', 'RB', 'advmod', 'I', 'PRP'), ('_', 'VBP', 'appos', 'I', 'PRP'), ('have', 'VBP', 'ROOT', 'have', 'VBP'), ('_', 'NFP', 'nsubj', 'had', 'VBD'), ('had', 'VBD', 'ccomp', 'have', 'VBP'), ('my', 'PRP$', 'poss', 'share', 'NN'), ('share', 'NN', 'dobj', 'had', 'VBD'), ('of', 'IN', 'prep', 'share', 'NN'), ('beauty', 'NN', 'pobj', 'of', 'IN'), (',', ',', 'punct', 'have', 'VBP'), ('but', 'CC', 'cc', 'have', 'VBP'), ('\n', '_SP', 'dep', 'but', 'CC'), ('I', 'PRP', 'nsubj', 'pretend', 'VB'), ('do', 'VBP', 'aux', 'pretend', 'VB'), ('not', 'RB', 'neg', 'pretend', 'VB'), ('pretend', 'VB', 'conj', 'have', 'VBP'), ('to', 'TO', 'aux', 'be', 'VB'), ('be', 'VB', 'xcomp', 'pretend', 'VB'), ('anything', 'NN', 'attr', 'be', 'VB'), ('extraordinary', 'JJ', 'amod', 'anything', 'NN'), ('now', 'RB', 'advmod', 'be', 'VB'), ('.', '.', 'punct', 'pretend', 'VB'), ('When', 'WRB', 'advmod', 'has', 'VBZ'), ('a', 'DT', 'det', 'woman', 'NN'), ('woman', 'NN', 'nsubj', 'has', 'VBZ'), ('has', 'VBZ', 'advcl', 'ought', 'MD'), ('five', 'CD', 'nummod', 'daughters', 'NNS'), ('\n', '_SP', 'dep', 'five', 'CD'), ('grown', 'NN', 'amod', 'daughters', 'NNS'), ('-', 'HYPH', 'punct', 'grown', 'NN'), ('up', 'RP', 'prt', 'grown', 'NN'), ('daughters', 'NNS', 'dobj', 'has', 'VBZ'), (',', ',', 'punct', 'ought', 'MD'), ('she', 'PRP', 'nsubj', 'ought', 'MD'), ('ought', 'MD', 'ROOT', 'ought', 'MD'), ('to', 'TO', 'aux', 'give', 'VB'), ('give', 'VB', 'xcomp', 'ought', 'MD'), ('over', 'RP', 'prt', 'give', 'VB'), ('thinking', 'NN', 'dobj', 'give', 'VB'), ('of', 'IN', 'prep', 'thinking', 'NN'), ('her', 'PRP$', 'poss', 'beauty', 'NN'), ('own', 'JJ', 'amod', 'beauty', 'NN'), ('beauty', 'NN', 'pobj', 'of', 'IN'), ('.', '.', 'punct', 'ought', 'MD'), ('”', "''", 'punct', 'ought', 'MD'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'beauty', 'NN'), ('In', 'IN', 'prep', 'beauty', 'NN'), ('such', 'JJ', 'amod', 'cases', 'NNS'), ('cases', 'NNS', 'pobj', 'In', 'IN'), (',', ',', 'punct', 'beauty', 'NN'), ('a', 'DT', 'det', 'woman', 'NN'), ('woman', 'NN', 'nsubj', 'beauty', 'NN'), ('has', 'VBZ', 'aux', 'beauty', 'NN'), ('not', 'RB', 'neg', 'has', 'VBZ'), ('often', 'RB', 'advmod', 'much', 'JJ'), ('much', 'JJ', 'amod', 'beauty', 'NN'), ('beauty', 'NN', 'ROOT', 'beauty', 'NN'), ('to', 'TO', 'aux', 'think', 'VB'), ('think', 'VB', 'relcl', 'beauty', 'NN'), ('of', 'IN', 'prep', 'think', 'VB'), ('.', '.', 'punct', 'beauty', 'NN'), ('”', "''", 'punct', 'beauty', 'NN'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'go', 'VB'), ('But', 'CC', 'cc', 'go', 'VB'), (',', ',', 'punct', 'go', 'VB'), ('my', 'PRP$', 'poss', 'dear', 'NN'), ('dear', 'NN', 'npadvmod', 'go', 'VB'), (',', ',', 'punct', 'go', 'VB'), ('you', 'PRP', 'nsubj', 'go', 'VB'), ('must', 'MD', 'aux', 'go', 'VB'), ('indeed', 'RB', 'advmod', 'go', 'VB'), ('go', 'VB', 'ROOT', 'go', 'VB'), ('and', 'CC', 'cc', 'go', 'VB'), ('see', 'VB', 'conj', 'go', 'VB'), ('Mr.', 'NNP', 'compound', 'Bingley', 'NNP'), ('Bingley', 'NNP', 'dobj', 'see', 'VB'), ('when', 'WRB', 'advmod', 'comes', 'VBZ'), ('he', 'PRP', 'nsubj', 'comes', 'VBZ'), ('comes', 'VBZ', 'advcl', 'see', 'VB'), ('into', 'IN', 'prep', 'comes', 'VBZ'), ('\n', '_SP', 'dep', 'into', 'IN'), ('the', 'DT', 'det', 'neighbourhood', 'NN'), ('neighbourhood', 'NN', 'pobj', 'into', 'IN'), ('.', '.', 'punct', 'go', 'VB'), ('”', "''", 'punct', 'go', 'VB'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'assure', 'VBP'), ('It', 'PRP', 'nsubj', 'is', 'VBZ'), ('is', 'VBZ', 'ccomp', 'assure', 'VBP'), ('more', 'JJR', 'acomp', 'is', 'VBZ'), ('than', 'IN', 'mark', 'engage', 'VBP'), ('I', 'PRP', 'nsubj', 'engage', 'VBP'), ('engage', 'VBP', 'advcl', 'more', 'JJR'), ('for', 'IN', 'prep', 'engage', 'VBP'), (',', ',', 'punct', 'assure', 'VBP'), ('I', 'PRP', 'nsubj', 'assure', 'VBP'), ('assure', 'VBP', 'ROOT', 'assure', 'VBP'), ('you', 'PRP', 'dobj', 'assure', 'VBP'), ('.', '.', 'punct', 'assure', 'VBP'), ('”', "''", 'punct', 'assure', 'VBP'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'consider', 'VB'), ('But', 'CC', 'cc', 'consider', 'VB'), ('consider', 'VB', 'ROOT', 'consider', 'VB'), ('your', 'PRP$', 'poss', 'daughters', 'NNS'), ('daughters', 'NNS', 'dobj', 'consider', 'VB'), ('.', '.', 'punct', 'consider', 'VB'), ('Only', 'RB', 'advmod', 'think', 'VB'), ('think', 'VB', 'ROOT', 'think', 'VB'), ('what', 'WP', 'det', 'establishment', 'NN'), ('an', 'DT', 'det', 'establishment', 'NN'), ('establishment', 'NN', 'npadvmod', 'be', 'VB'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('would', 'MD', 'aux', 'be', 'VB'), ('\n', '_SP', 'dep', 'would', 'MD'), ('be', 'VB', 'ccomp', 'think', 'VB'), ('for', 'IN', 'prep', 'be', 'VB'), ('one', 'CD', 'pobj', 'for', 'IN'), ('of', 'IN', 'prep', 'one', 'CD'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('.', '.', 'punct', 'think', 'VB'), ('Sir', 'NNP', 'compound', 'William', 'NNP'), ('William', 'NNP', 'nsubj', 'are', 'VBP'), ('and', 'CC', 'cc', 'William', 'NNP'), ('Lady', 'NNP', 'compound', 'Lucas', 'NNP'), ('Lucas', 'NNP', 'conj', 'William', 'NNP'), ('are', 'VBP', 'ROOT', 'are', 'VBP'), ('determined', 'JJ', 'acomp', 'are', 'VBP'), ('to', 'TO', 'aux', 'go', 'VB'), ('go', 'VB', 'xcomp', 'determined', 'JJ'), (',', ',', 'punct', 'are', 'VBP'), ('\n', '_SP', 'dep', ',', ','), ('merely', 'RB', 'advmod', 'on', 'IN'), ('on', 'IN', 'prep', 'visit', 'VBP'), ('that', 'DT', 'det', 'account', 'NN'), ('account', 'NN', 'pobj', 'on', 'IN'), (';', ':', 'punct', 'visit', 'VBP'), ('for', 'IN', 'prep', 'visit', 'VBP'), ('in', 'IN', 'pcomp', 'for', 'IN'), ('general', 'JJ', 'amod', 'in', 'IN'), (',', ',', 'punct', 'visit', 'VBP'), ('you', 'PRP', 'nsubj', 'know', 'VBP'), ('know', 'VBP', 'parataxis', 'visit', 'VBP'), (',', ',', 'punct', 'visit', 'VBP'), ('they', 'PRP', 'nsubj', 'visit', 'VBP'), ('visit', 'VBP', 'advcl', 'are', 'VBP'), ('no', 'DT', 'det', 'comers', 'NNS'), ('new', 'JJ', 'amod', 'comers', 'NNS'), ('\n', '_SP', 'dep', 'new', 'JJ'), ('comers', 'NNS', 'dobj', 'visit', 'VBP'), ('.', '.', 'punct', 'visit', 'VBP'), ('Indeed', 'RB', 'advmod', 'go', 'VB'), ('you', 'PRP', 'nsubj', 'go', 'VB'), ('must', 'MD', 'aux', 'go', 'VB'), ('go', 'VB', 'ROOT', 'go', 'VB'), (',', ',', 'punct', 'go', 'VB'), ('for', 'IN', 'mark', 'be', 'VB'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('will', 'MD', 'aux', 'be', 'VB'), ('be', 'VB', 'advcl', 'go', 'VB'), ('impossible', 'JJ', 'acomp', 'be', 'VB'), ('for', 'IN', 'prep', 'be', 'VB'), ('_', 'DT', 'pobj', 'for', 'IN'), ('us', 'PRP', 'pobj', 'for', 'IN'), ('_', 'NN', 'punct', 'go', 'VB'), ('to', 'TO', 'aux', 'visit', 'VB'), ('visit', 'VB', 'advcl', 'go', 'VB'), ('\n', '_SP', 'dep', 'visit', 'VB'), ('him', 'PRP', 'dobj', 'visit', 'VB'), (',', ',', 'punct', 'go', 'VB'), ('if', 'IN', 'mark', 'do', 'VBP'), ('you', 'PRP', 'nsubj', 'do', 'VBP'), ('do', 'VBP', 'advcl', 'go', 'VB'), ('not', 'RB', 'neg', 'do', 'VBP'), ('.', '.', 'punct', 'go', 'VB'), ('”', "''", 'punct', 'go', 'VB'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'are', 'VBP'), ('You', 'PRP', 'nsubj', 'are', 'VBP'), ('are', 'VBP', 'ROOT', 'are', 'VBP'), ('over', 'IN', 'advmod', 'scrupulous', 'JJ'), ('scrupulous', 'JJ', 'acomp', 'are', 'VBP'), (',', ',', 'punct', 'are', 'VBP'), ('surely', 'RB', 'advmod', 'are', 'VBP'), ('.', '.', 'punct', 'are', 'VBP'), ('I', 'PRP', 'nsubj', 'dare', 'VBP'), ('dare', 'VBP', 'ROOT', 'dare', 'VBP'), ('say', 'VB', 'xcomp', 'dare', 'VBP'), ('Mr.', 'NNP', 'compound', 'Bingley', 'NNP'), ('Bingley', 'NNP', 'nsubj', 'be', 'VB'), ('will', 'MD', 'aux', 'be', 'VB'), ('be', 'VB', 'ccomp', 'say', 'VB'), ('very', 'RB', 'advmod', 'glad', 'JJ'), ('\n', '_SP', 'dep', 'very', 'RB'), ('glad', 'JJ', 'acomp', 'be', 'VB'), ('to', 'TO', 'aux', 'see', 'VB'), ('see', 'VB', 'xcomp', 'glad', 'JJ'), ('you', 'PRP', 'dobj', 'see', 'VB'), (';', ':', 'punct', 'dare', 'VBP'), ('and', 'CC', 'cc', 'dare', 'VBP'), ('I', 'PRP', 'nsubj', 'send', 'VB'), ('will', 'MD', 'aux', 'send', 'VB'), ('send', 'VB', 'conj', 'dare', 'VBP'), ('a', 'DT', 'quantmod', 'few', 'JJ'), ('few', 'JJ', 'amod', 'lines', 'NNS'), ('lines', 'NNS', 'dobj', 'send', 'VB'), ('by', 'IN', 'prep', 'send', 'VB'), ('you', 'PRP', 'pobj', 'by', 'IN'), ('to', 'TO', 'aux', 'assure', 'VB'), ('assure', 'VB', 'advcl', 'send', 'VB'), ('him', 'PRP', 'dobj', 'assure', 'VB'), ('of', 'IN', 'prep', 'assure', 'VB'), ('my', 'PRP$', 'poss', 'consent', 'NN'), ('\n', '_SP', 'dep', 'my', 'PRP$'), ('hearty', 'JJ', 'amod', 'consent', 'NN'), ('consent', 'NN', 'pobj', 'of', 'IN'), ('to', 'IN', 'prep', 'assure', 'VB'), ('his', 'PRP$', 'poss', 'marrying', 'NN'), ('marrying', 'NN', 'pobj', 'to', 'IN'), ('whichever', 'WDT', 'dobj', 'chooses', 'VBZ'), ('he', 'PRP', 'nsubj', 'chooses', 'VBZ'), ('chooses', 'VBZ', 'ccomp', 'assure', 'VB'), ('of', 'IN', 'prep', 'chooses', 'VBZ'), ('the', 'DT', 'det', 'girls', 'NNS'), ('girls', 'NNS', 'pobj', 'of', 'IN'), ('--', ':', 'punct', 'dare', 'VBP'), ('though', 'IN', 'mark', 'throw', 'VB'), ('\n', '_SP', 'dep', 'though', 'IN'), ('I', 'PRP', 'nsubj', 'throw', 'VB'), ('must', 'MD', 'aux', 'throw', 'VB'), ('throw', 'VB', 'advcl', 'dare', 'VBP'), ('in', 'RP', 'prt', 'throw', 'VB'), ('a', 'DT', 'det', 'word', 'NN'), ('good', 'JJ', 'amod', 'word', 'NN'), ('word', 'NN', 'dobj', 'throw', 'VB'), ('for', 'IN', 'prep', 'word', 'NN'), ('my', 'PRP$', 'poss', 'Lizzy', 'NNP'), ('little', 'JJ', 'amod', 'Lizzy', 'NNP'), ('Lizzy', 'NNP', 'pobj', 'for', 'IN'), ('.', '.', 'punct', 'dare', 'VBP'), ('”', "''", 'punct', 'dare', 'VBP'), ('\n\n', '_SP', 'dep', '”', "''"), ('“', '``', 'punct', 'desire', 'VBP'), ('I', 'PRP', 'nsubj', 'desire', 'VBP'), ('desire', 'VBP', 'ccomp', 'dare', 'VBP'), ('you', 'PRP', 'nsubj', 'do', 'VB'), ('will', 'MD', 'aux', 'do', 'VB'), ('do', 'VB', 'ccomp', 'desire', 'VBP'), ('no', 'DT', 'det', 'thing', 'NN'), ('such', 'JJ', 'amod', 'thing', 'NN'), ('thing', 'NN', 'dobj', 'do', 'VB'), ('.', '.', 'punct', 'dare', 'VBP'), ('Lizzy', 'NNP', 'nsubj', 'is', 'VBZ'), ('is', 'VBZ', 'ROOT', 'is', 'VBZ'), ('not', 'RB', 'neg', 'is', 'VBZ'), ('a', 'DT', 'det', 'bit', 'NN'), ('bit', 'NN', 'npadvmod', 'better', 'JJR'), ('better', 'JJR', 'acomp', 'is', 'VBZ'), ('than', 'IN', 'prep', 'better', 'JJR'), ('the', 'DT', 'det', 'others', 'NNS'), ('\n', '_SP', 'dep', 'the', 'DT'), ('others', 'NNS', 'pobj', 'than', 'IN'), (':', ':', 'punct', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('am', 'VBP', 'conj', 'is', 'VBZ'), ('sure', 'JJ', 'acomp', 'am', 'VBP'), ('she', 'PRP', 'nsubj', 'is', 'VBZ'), ('is', 'VBZ', 'ccomp', 'sure', 'JJ'), ('not', 'RB', 'neg', 'is', 'VBZ'), ('half', 'RB', 'advmod', 'handsome', 'JJ'), ('so', 'RB', 'advmod', 'handsome', 'JJ'), ('handsome', 'JJ', 'acomp', 'is', 'VBZ'), ('as', 'IN', 'prep', 'handsome', 'JJ'), ('Jane', 'NNP', 'pobj', 'as', 'IN'), (',', ',', 'punct', 'is', 'VBZ'), ('nor', 'CC', 'cc', 'is', 'VBZ'), ('half', 'RB', 'advmod', 'humoured', 'VBN'), ('so', 'RB', 'advmod', 'humoured', 'VBN'), ('\n', '_SP', 'dep', 'so', 'RB'), ('good', 'RB', 'advmod', 'humoured', 'VBN'), ('-', 'HYPH', 'punct', 'humoured', 'VBN'), ('humoured', 'VBN', 'conj', 'is', 'VBZ'), ('as', 'IN', 'prep', 'humoured', 'VBN'), ('Lydia', 'NNP', 'pobj', 'as', 'IN'), ('.', '.', 'punct', 'am', 'VBP'), ('But', 'CC', 'cc', 'giving', 'VBG'), ('you', 'PRP', 'nsubj', 'giving', 'VBG'), ('are', 'VBP', 'aux', 'gi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[('However', 'RB', 'advmod', 'little', 'JJ'), ('or', 'CC', 'cc', 'feelings', 'NNS'), ('so', 'RB', 'advmod', 'well', 'RB'), ('or', 'CC', 'cc', 'one', 'CD'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'want', 'VBP'), ('and', 'CC', 'cc', 'chaise', 'NN'), ('and', 'CC', 'cc', 'came', 'VBD'), ('so', 'RB', 'advmod', 'much', 'JJ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('or', 'CC', 'cc', 'married', 'JJ'), ('or', 'CC', 'cc', 'four', 'CD'), ('so', 'RB', 'advmod', 'thing', 'NN'), ('so', 'RB', 'advmod', 'tiresome', 'JJ'), ('so', 'RB', 'advmod', 'talk', 'VB'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'You', 'PRP'), ('or', 'CC', 'cc', 'go', 'VB'), ('but', 'CC', 'cc', 'have', 'VBP'), ('But', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'go', 'VB'), ('But', 'CC', 'cc', 'consider', 'VB'), ('and', 'CC', 'cc', 'William', 'NNP'), ('and', 'CC', 'cc', 'dare', 'VBP'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('so', 'RB', 'advmod', 'handsome', 'JJ'), ('so', 'RB', 'advmod', 'humoured', 'VBN'), ('But', 'CC', 'cc', 'giving', 'VBG'), ('and', 'CC', 'cc', 'silly', 'JJ'), ('but', 'CC', 'cc', 'replied', 'VBD'), ('But', 'CC', 'cc', 'hope', 'VBP'), ('and', 'CC', 'cc', 'get', 'VB'), ('so', 'RB', 'advmod', 'odd', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'three', 'CD'), ('and', 'CC', 'cc', 'information', 'NN'), ('and', 'CC', 'cc', 'visiting', 'VBG'), ('and', 'CC', 'cc', 'intended', 'VBN'), ('But', 'CC', 'cc', 'forget', 'VBP'), ('and', 'CC', 'cc', 'meet', 'VB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'am', 'VBP'), ('but', 'CC', 'cc', 'deigned', 'VBD'), ('so', 'RB', 'advmod', 'coughing', 'VBG'), ('so', 'CC', 'advmod', 'is', 'VBZ'), ('and', 'CC', 'cc', 'cried', 'VBD'), ('so', 'RB', 'advmod', 'be', 'VB'), ('and', 'CC', 'cc', 'have', 'VB'), ('so', 'RB', 'advmod', 'teasing', 'VBG'), ('But', 'CC', 'cc', 'will', 'MD'), ('and', 'CC', 'cc', 'will', 'MD'), ('and', 'CC', 'cc', 'Long', 'NNP'), ('and', 'CC', 'cc', 'stand', 'VB'), ('and', 'CC', 'cc', 'consider', 'VBP'), ('and', 'CC', 'cc', 'know', 'VBP'), ('and', 'CC', 'cc', 'read', 'VB'), ('but', 'CC', 'cc', 'wished', 'VBD'), ('but', 'CC', 'cc', 'am', 'VBP'), ('so', 'RB', 'advmod', 'before', 'RB'), ('but', 'CC', 'cc', 'is', 'VBZ'), ('But', 'CC', 'cc', 'knew', 'VBD'), ('And', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'gone', 'VBN'), ('and', 'CC', 'cc', 'said', 'VBD'), ('or', 'CC', 'cc', 'know', 'VB'), ('so', 'RB', 'advmod', 'pleasant', 'JJ'), ('but', 'CC', 'cc', 'tell', 'VB'), ('and', 'CC', 'cc', 'return', 'VB'), ('however', 'RB', 'advmod', 'ask', 'VB'), ('and', 'CC', 'cc', 'suppositions', 'NNS'), ('but', 'CC', 'cc', 'attacked', 'VBD'), ('and', 'CC', 'cc', 'eluded', 'VBD'), ('and', 'CC', 'cc', 'agreeable', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'see', 'VB'), ('and', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'returned', 'VBD'), ('but', 'CC', 'cc', 'entertained', 'VBN'), ('and', 'CC', 'cc', 'wore', 'VBD'), ('and', 'CC', 'cc', 'despatched', 'VBN'), ('and', 'CC', 'cc', 'obliged', 'VBN'), ('so', 'RB', 'advmod', 'soon', 'RB'), ('and', 'CC', 'cc', 'imagine', 'VB'), ('and', 'CC', 'cc', 'flying', 'VBG'), ('and', 'CC', 'cc', 'gone', 'VBN'), ('and', 'CC', 'cc', 'ladies', 'NNS'), ('but', 'CC', 'cc', 'grieved', 'VBD'), ('and', 'CC', 'cc', 'sisters', 'NNS'), ('And', 'CC', 'cc', 'consisted', 'VBD'), ('and', 'CC', 'cc', 'husband', 'NN'), ('and', 'CC', 'cc', 'looking', 'VBG'), ('and', 'CC', 'cc', 'countenance', 'NN'), ('but', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'mien', 'NN'), ('and', 'CC', 'cc', 'declared', 'VBD'), ('and', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'above', 'IN'), ('and', 'CC', 'cc', 'having', 'VBG'), ('and', 'CC', 'cc', 'lively', 'JJ'), ('so', 'RB', 'advmod', 'early', 'RB'), ('and', 'CC', 'cc', 'closed', 'VBD'), ('and', 'CC', 'cc', 'him', 'PRP'), ('and', 'CC', 'cc', 'with', 'IN'), ('and', 'CC', 'cc', 'declined', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'obliged', 'VBN'), ('and', 'CC', 'cc', 'him', 'PRP'), ('and', 'CC', 'cc', 'engaged', 'VBN'), ('so', 'RB', 'advmod', 'fastidious', 'JJ'), ('so', 'RB', 'advmod', 'many', 'JJ'), ('and', 'CC', 'cc', 'met', 'VBD'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'mean', 'VB'), ('and', 'CC', 'cc', 'withdrew', 'VBD'), ('but', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'withdrew', 'VBD'), ('and', 'CC', 'cc', 'return', 'VB'), ('and', 'CC', 'cc', 'walked', 'VBD'), ('however', 'RB', 'advmod', 'told', 'VBD'), ('and', 'CC', 'cc', 'danced', 'VBN'), ('and', 'CC', 'cc', 'heard', 'VBN'), ('and', 'CC', 'cc', 'Catherine', 'NNP'), ('and', 'CC', 'cc', 'to', 'IN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'hoped', 'VBN'), ('so', 'RB', 'advmod', 'admired', 'VBN'), ('and', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('and', 'CC', 'cc', 'danced', 'VBD'), ('so', 'RB', 'advmod', 'vexed', 'VBN'), ('but', 'CC', 'cc', 'was', 'VBD'), ('however', 'RB', 'advmod', 'admire', 'VB'), ('and', 'CC', 'cc', 'seemed', 'VBD'), ('So', 'RB', 'advmod', 'inquired', 'VBD'), ('and', 'CC', 'cc', 'inquired', 'VBD'), ('and', 'CC', 'cc', 'inquired', 'VBD'), ('and', 'CC', 'cc', 'third', 'JJ'), ('and', 'CC', 'cc', 'fourth', 'JJ'), ('and', 'CC', 'cc', 'fourth', 'JJ'), ('and', 'CC', 'cc', 'sixth', 'JJ'), ('so', 'RB', 'advmod', 'much', 'RB'), ('so', 'RB', 'advmod', 'excessively', 'RB'), ('and', 'CC', 'cc', 'are', 'VBP'), ('and', 'CC', 'cc', 'obliged', 'VBN'), ('and', 'CC', 'cc', 'obliged', 'VBN'), ('But', 'CC', 'cc', 'assure', 'VB'), ('So', 'RB', 'advmod', 'high', 'JJ'), ('and', 'CC', 'cc', 'high', 'JJ'), ('so', 'RB', 'advmod', 'conceited', 'JJ'), ('and', 'CC', 'cc', 'walked', 'VBD'), ('so', 'RB', 'advmod', 'very', 'RB'), ('and', 'CC', 'cc', 'Jane', 'NNP'), ('and', 'CC', 'cc', 'said', 'VBD'), ('so', 'RB', 'advmod', 'much', 'JJ'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'take', 'VBP'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'good', 'JJ'), ('but', 'CC', 'cc', 'wish', 'VB'), ('and', 'CC', 'cc', 'know', 'VBP'), ('so', 'RB', 'advmod', 'honestly', 'RB'), ('and', 'CC', 'cc', 'follies', 'NNS'), ('But', 'CC', 'cc', 'take', 'VB'), ('or', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'take', 'VB'), ('and', 'CC', 'cc', 'take', 'VB'), ('And', 'CC', 'cc', 'like', 'VBP'), ('so', 'RB', 'advmod', 'like', 'VBP'), ('but', 'CC', 'cc', 'are', 'VBP'), ('and', 'CC', 'cc', 'live', 'VB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('but', 'CC', 'cc', 'listened', 'VBD'), ('and', 'CC', 'cc', 'calculated', 'VBN'), ('and', 'CC', 'cc', 'observation', 'NN'), ('and', 'CC', 'cc', 'quickness', 'NN'), ('but', 'CC', 'cc', 'deficient', 'JJ'), ('and', 'CC', 'cc', 'proud', 'JJ'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'think', 'VB'), ('and', 'CC', 'cc', 'fortune', 'NN'), ('but', 'CC', 'cc', 'inherited', 'VBD'), ('and', 'CC', 'cc', 'intended', 'VBD'), ('but', 'CC', 'cc', 'intended', 'VBD'), ('and', 'CC', 'cc', 'house', 'NN'), ('and', 'CC', 'cc', 'spend', 'VB'), ('but', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'look', 'VB'), ('and', 'CC', 'cc', 'situation', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'him', 'PRP'), ('and', 'CC', 'cc', 'openness', 'NN'), ('and', 'CC', 'cc', 'offer', 'VB'), ('and', 'CC', 'cc', 'had', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'reserved', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('or', 'CC', 'cc', 'people', 'NNS'), ('and', 'CC', 'cc', 'kind', 'JJ'), ('and', 'CC', 'cc', 'felt', 'VBN'), ('and', 'CC', 'cc', 'beauty', 'NN'), ('and', 'CC', 'cc', 'seen', 'VBN'), ('or', 'CC', 'cc', 'attention', 'NN'), ('but', 'CC', 'cc', 'acknowledged', 'VBD'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('so', 'RB', 'acomp', 'be', 'VB'), ('but', 'CC', 'cc', 'allowed', 'VBD'), ('and', 'CC', 'cc', 'admired', 'VBD'), ('and', 'CC', 'cc', 'admired', 'VBD'), ('and', 'CC', 'cc', 'admired', 'VBD'), ('and', 'CC', 'cc', 'established', 'VBN'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'to', 'IN'), ('and', 'CC', 'cc', 'given', 'VBN'), ('and', 'CC', 'cc', 'think', 'VB'), ('and', 'CC', 'cc', 'friendly', 'JJ'), ('and', 'CC', 'cc', 'Lucases', 'NNPS'), ('and', 'CC', 'cc', 'meet', 'VB'), ('and', 'CC', 'cc', 'hear', 'VB'), ('but', 'CC', 'cc', 'seemed', 'VBD'), ('because', 'IN', 'mark', 'danced', 'VBD'), ('but', 'CC', 'cc', 'believe', 'VBP'), ('and', 'CC', 'cc', 'him', 'PRP'), ('and', 'CC', 'cc', 'liked', 'VBD'), ('and', 'CC', 'cc', 'women', 'NNS'), ('and', 'CC', 'cc', 'answering', 'VBG'), ('but', 'CC', 'cc', 'decided', 'VBN'), ('however', 'RB', 'advmod', 'come', 'VB'), ('so', 'RB', 'advmod', 'well', 'RB'), ('because', 'IN', 'mark', 'asked', 'VBD'), ('and', 'CC', 'cc', 'asked', 'VBD'), ('but', 'CC', 'cc', 'Ay', 'UH'), ('so', 'RB', 'advmod', 'agreeable', 'JJ'), ('But', 'CC', 'cc', 'guess', 'VB'), ('and', 'CC', 'cc', 'says', 'VBZ'), ('and', 'CC', 'cc', 'keep', 'VB'), ('but', 'CC', 'cc', 'said', 'VBD'), ('so', 'RB', 'advmod', 'much', 'RB'), ('because', 'IN', 'mark', 'is', 'VBZ'), ('so', 'RB', 'advmod', 'fine', 'JJ'), ('so', 'RB', 'advmod', 'express', 'VB'), ('and', 'CC', 'cc', 'replied', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('or', 'CC', 'cc', 'quality', 'NN'), ('or', 'CC', 'cc', 'real', 'JJ'), ('and', 'CC', 'cc', 'Vanity', 'NN'), ('and', 'CC', 'cc', 'keep', 'VB'), ('and', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'continued', 'VBD'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('and', 'CC', 'cc', 'grew', 'VBD'), ('and', 'CC', 'cc', 'grew', 'VBD'), ('but', 'CC', 'cc', 'received', 'VBN'), ('and', 'CC', 'cc', 'excepting', 'VBG'), ('and', 'CC', 'cc', 'admire', 'VB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'composure', 'NN'), ('but', 'CC', 'cc', 'replied', 'VBD'), ('so', 'RB', 'advmod', 'guarded', 'VBN'), ('and', 'CC', 'cc', 'lose', 'VB'), ('but', 'CC', 'cc', 'be', 'VB'), ('so', 'RB', 'advmod', 'much', 'JJ'), ('or', 'CC', 'cc', 'gratitude', 'NN'), ('but', 'CC', 'cc', 'is', 'VBZ'), ('but', 'CC', 'cc', 'likes', 'VBZ'), ('But', 'CC', 'cc', 'help', 'VB'), ('But', 'CC', 'cc', 'find', 'VB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'Bingley', 'NNP'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('but', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'replied', 'VBD'), ('or', 'CC', 'cc', 'husband', 'NN'), ('But', 'CC', 'cc', 'are', 'VBP'), ('and', 'CC', 'cc', 'saw', 'VBD'), ('but', 'CC', 'cc', 'discovered', 'VBN'), ('and', 'CC', 'cc', 'spent', 'VBN'), ('but', 'CC', 'cc', 'like', 'IN'), ('and', 'CC', 'cc', 'wish', 'VBP'), ('so', 'RB', 'advmod', 'well', 'RB'), ('or', 'CC', 'cc', 'known', 'VBN'), ('so', 'RB', 'advmod', 'similar', 'JJ'), ('and', 'CC', 'cc', 'continue', 'VBP'), ('but', 'CC', 'cc', 'make', 'VBP'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'looked', 'VBN'), ('But', 'CC', 'cc', 'made', 'VBN'), ('and', 'CC', 'cc', 'himself', 'PRP'), ('and', 'CC', 'cc', 'light', 'JJ'), ('and', 'CC', 'cc', 'forced', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'began', 'VBD'), ('so', 'RB', 'advmod', 'drew', 'VBD'), ('But', 'CC', 'cc', 'let', 'VB'), ('and', 'CC', 'cc', 'has', 'VBZ'), ('and', 'CC', 'cc', 'turned', 'VBD'), ('but', 'CC', 'cc', 'turned', 'VBD'), ('and', 'CC', 'cc', 'going', 'VBG'), ('and', 'CC', 'cc', 'play', 'VB'), ('and', 'CC', 'cc', 'anybody', 'NN'), ('but', 'CC', 'cc', 'been', 'VBN'), ('however', 'RB', 'advmod', 'added', 'VBD'), ('so', 'RB', 'advmod', 'be', 'VB'), ('And', 'CC', 'cc', 'glancing', 'VBG'), ('or', 'CC', 'cc', 'song', 'NN'), ('and', 'CC', 'cc', 'After', 'IN'), ('and', 'CC', 'cc', 'knowledge', 'NN'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'air', 'NN'), ('and', 'CC', 'cc', 'easy', 'JJ'), ('so', 'RB', 'advmod', 'well', 'RB'), ('and', 'CC', 'cc', 'listened', 'VBN'), ('and', 'CC', 'cc', 'praise', 'NN'), ('and', 'CC', 'cc', 'Scotch', 'NNP'), ('and', 'CC', 'cc', 'some', 'DT'), ('or', 'CC', 'cc', 'two', 'CD'), ('and', 'CC', 'cc', 'stood', 'VBD'), ('and', 'CC', 'cc', 'Certainly', 'RB'), ('and', 'CC', 'cc', 'doubt', 'VBP'), ('and', 'CC', 'cc', 'Yes', 'UH'), ('but', 'CC', 'cc', 'had', 'VBD'), ('but', 'CC', 'cc', 'paused', 'VBD'), ('and', 'CC', 'cc', 'paused', 'VBD'), ('and', 'CC', 'cc', 'struck', 'VBN'), ('so', 'RB', 'advmod', 'much', 'JJ'), ('And', 'CC', 'cc', 'given', 'VBN'), ('and', 'CC', 'cc', 'given', 'VBN'), ('but', 'CC', 'cc', 'entreat', 'VBP'), ('so', 'RB', 'advmod', 'much', 'RB'), ('and', 'CC', 'cc', 'excel', 'VBP'), ('but', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'injured', 'VBN'), ('and', 'CC', 'cc', 'considering', 'VBG'), ('and', 'CC', 'cc', 'insipidity', 'NN'), ('and', 'CC', 'cc', 'nothingness', 'NN'), ('and', 'CC', 'cc', 'fixed', 'VBD'), ('and', 'CC', 'cc', 'pray', 'VB'), ('so', 'RB', 'advmod', 'serious', 'JJ'), ('and', 'CC', 'cc', 'have', 'VB'), ('and', 'CC', 'cc', 'listened', 'VBD'), ('and', 'CC', 'cc', 'consisted', 'VBD'), ('but', 'CC', 'cc', 'could', 'MD'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'had', 'VBD'), ('or', 'CC', 'cc', 'three', 'CD'), ('and', 'CC', 'cc', 'pay', 'VB'), ('and', 'CC', 'cc', 'Catherine', 'NNP'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'amuse', 'VB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('however', 'RB', 'advmod', 'bare', 'JJ'), ('and', 'CC', 'cc', 'news', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'names', 'NNS'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'visited', 'VBD'), ('but', 'IN', 'prep', 'nothing', 'NN'), ('and', 'CC', 'cc', 'talk', 'VB'), ('but', 'CC', 'cc', 'suspected', 'VBN'), ('and', 'CC', 'cc', 'disconcerted', 'VBN'), ('but', 'CC', 'cc', 'disconcerted', 'VBN'), ('and', 'CC', 'cc', 'continued', 'VBD'), ('so', 'RB', 'advmod', 'ready', 'JJ'), ('however', 'RB', 'advmod', 'be', 'VB'), ('but', 'CC', 'cc', 'are', 'VBP'), ('but', 'CC', 'cc', 'hoped', 'VBN'), ('so', 'RB', 'advmod', 'far', 'RB'), ('and', 'CC', 'cc', 'father', 'NN'), ('and', 'CC', 'cc', 'remember', 'VBP'), ('so', 'RB', 'advmod', 'do', 'VBP'), ('and', 'CC', 'cc', 'do', 'VBP'), ('or', 'CC', 'cc', 'five', 'CD'), ('and', 'CC', 'cc', 'remember', 'VBP'), ('and', 'CC', 'cc', 'Forster', 'NNP'), ('so', 'RB', 'advmod', 'often', 'RB'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'sparkled', 'VBN'), ('and', 'CC', 'cc', 'make', 'VBP'), ('and', 'CC', 'cc', 'said', 'VBD'), ('so', 'RB', 'advmod', 'compassionate', 'JJ'), ('and', 'CC', 'cc', 'Louisa', 'NNP'), ('and', 'CC', 'cc', 'brother', 'NN'), ('because', 'IN', 'mark', 'seems', 'VBZ'), ('and', 'CC', 'cc', 'go', 'VB'), ('but', 'CC', 'cc', 'have', 'VB'), ('and', 'CC', 'cc', 'have', 'VB'), ('But', 'CC', 'cc', 'spare', 'VB'), ('But', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'obliged', 'VBN'), ('but', 'CC', 'cc', 'were', 'VBD'), ('however', 'RB', 'advmod', 'was', 'VBD'), ('and', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'throat', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'determined', 'JJ'), ('so', 'RB', 'advmod', 'silly', 'JJ'), ('but', 'CC', 'cc', 'observed', 'VBD'), ('and', 'CC', 'cc', 'guided', 'VBN'), ('and', 'CC', 'cc', 'Catherine', 'NNP'), ('and', 'CC', 'cc', 'accepted', 'VBD'), ('and', 'CC', 'cc', 'repaired', 'VBN'), ('and', 'CC', 'cc', 'jumping', 'VBG'), ('and', 'CC', 'cc', 'jumping', 'VBG'), ('and', 'CC', 'cc', 'stockings', 'NNS'), ('but', 'CC', 'cc', 'all', 'DT'), ('and', 'CC', 'cc', 'assembled', 'VBN'), ('so', 'RB', 'advmod', 'early', 'RB'), ('and', 'CC', 'cc', 'walked', 'VBN'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('and', 'CC', 'cc', 'was', 'VBD'), ('however', 'RB', 'advmod', 'received', 'VBN'), ('and', 'CC', 'cc', 'received', 'VBN'), ('and', 'CC', 'cc', 'humour', 'NN'), ('and', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'given', 'VBN'), ('so', 'RB', 'advmod', 'far', 'RB'), ('and', 'CC', 'cc', 'slept', 'VBN'), ('and', 'CC', 'cc', 'feverish', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('or', 'CC', 'cc', 'alarm', 'NN'), ('however', 'RB', 'advmod', 'was', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'joined', 'VBN'), ('and', 'CC', 'cc', 'affection', 'NN'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'caught', 'VBN'), ('and', 'CC', 'cc', 'advised', 'VBD'), ('and', 'CC', 'cc', 'followed', 'VBN'), ('and', 'CC', 'cc', 'go', 'VB'), ('so', 'RB', 'advmod', 'said', 'VBD'), ('and', 'CC', 'cc', 'offered', 'VBD'), ('and', 'CC', 'cc', 'consented', 'JJ'), ('and', 'CC', 'cc', 'acquaint', 'VB'), ('and', 'CC', 'cc', 'retired', 'VBN'), ('and', 'CC', 'cc', 'poured', 'VBD'), ('or', 'CC', 'cc', 'three', 'CD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'repeated', 'VBD'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('so', 'RB', 'advmod', 'much', 'RB'), ('but', 'CC', 'cc', 'any', 'DT'), ('so', 'RB', 'advmod', 'engrossed', 'VBN'), ('and', 'CC', 'cc', 'engrossed', 'VBN'), ('and', 'CC', 'cc', 'drink', 'VB'), ('and', 'CC', 'cc', 'returned', 'VBD'), ('and', 'CC', 'cc', 'pride', 'NN'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('but', 'CC', 'cc', 'has', 'VBZ'), ('because', 'IN', 'mark', 'had', 'VBD'), ('so', 'RB', 'advmod', 'untidy', 'JJ'), ('so', 'RB', 'advmod', 'blowzy', 'NNS'), ('and', 'CC', 'cc', 'Yes', 'UH'), ('and', 'CC', 'cc', 'am', 'VBP'), ('but', 'CC', 'cc', 'lost', 'VBN'), ('and', 'CC', 'cc', 'am', 'VBP'), ('or', 'CC', 'cc', 'miles', 'NNS'), ('or', 'CC', 'cc', 'miles', 'NNS'), ('or', 'CC', 'cc', 'miles', 'NNS'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'followed', 'VBD'), ('But', 'CC', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'father', 'NN'), ('and', 'CC', 'cc', 'father', 'NN'), ('and', 'CC', 'cc', 'Yes', 'UH'), ('and', 'CC', 'cc', 'added', 'VBD'), ('But', 'CC', 'cc', 'lessen', 'VB'), ('but', 'CC', 'cc', 'made', 'VBD'), ('and', 'CC', 'cc', 'gave', 'VBD'), ('however', 'RB', 'advmod', 'repaired', 'VBD'), ('and', 'CC', 'cc', 'repaired', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'found', 'VBD'), ('but', 'CC', 'cc', 'found', 'VBD'), ('and', 'CC', 'cc', 'declined', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'hope', 'VBP'), ('and', 'CC', 'cc', 'thanked', 'VBD'), ('And', 'CC', 'cc', 'wish', 'VBP'), ('and', 'CC', 'cc', 'benefit', 'NN'), ('but', 'CC', 'cc', 'wish', 'VBP'), ('and', 'CC', 'cc', 'am', 'VBP'), ('so', 'RB', 'advmod', 'small', 'JJ'), ('And', 'CC', 'cc', 'added', 'VBN'), ('so', 'RB', 'advmod', 'much', 'RB'), ('But', 'CC', 'cc', 'advise', 'VB'), ('and', 'CC', 'cc', 'advise', 'VB'), ('so', 'RB', 'advmod', 'much', 'RB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'drew', 'VBD'), ('and', 'CC', 'cc', 'Bingley', 'NNP'), ('or', 'CC', 'cc', 'height', 'NN'), ('so', 'RB', 'advmod', 'much', 'RB'), ('and', 'CC', 'cc', 'manners', 'NNS'), ('so', 'RB', 'advmod', 'extremely', 'RB'), ('so', 'RB', 'advmod', 'accomplished', 'JJ'), ('and', 'CC', 'cc', 'screens', 'NNS'), ('and', 'CC', 'cc', 'know', 'VBP'), ('or', 'CC', 'cc', 'netting', 'VBG'), ('but', 'CC', 'cc', 'applied', 'VBN'), ('and', 'CC', 'cc', 'dancing', 'NN'), ('and', 'CC', 'cc', 'have', 'VB'), ('and', 'CC', 'cc', 'air', 'NN'), ('and', 'CC', 'cc', 'address', 'NN'), ('or', 'CC', 'cc', 'address', 'NN'), ('but', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'added', 'VBD'), ('so', 'RB', 'advmod', 'severe', 'JJ'), ('and', 'CC', 'cc', 'capacity', 'NN'), ('and', 'CC', 'cc', 'taste', 'NN'), ('and', 'CC', 'cc', 'application', 'NN'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('and', 'CC', 'cc', 'cried', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('but', 'CC', 'cc', 'succeeds', 'VBZ'), ('so', 'RB', 'advmod', 'satisfied', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'hear', 'VB'), ('so', 'RB', 'advmod', 'unwilling', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('however', 'RB', 'advmod', 'solaced', 'VBD'), ('and', 'CC', 'cc', 'lady', 'NN'), ('and', 'CC', 'cc', 'Bennet', 'NNP'), ('and', 'CC', 'cc', 'passed', 'VBD'), ('and', 'CC', 'cc', 'had', 'VBD'), ('however', 'RB', 'advmod', 'requested', 'VBD'), ('and', 'CC', 'cc', 'requested', 'VBD'), ('and', 'CC', 'cc', 'despatched', 'VBN'), ('but', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'appearance', 'NN'), ('and', 'CC', 'cc', 'mother', 'NN'), ('and', 'CC', 'cc', 'know', 'VB'), ('and', 'CC', 'cc', 'Bingley', 'NNP'), ('but', 'CC', 'cc', 'have', 'VBP'), ('and', 'CC', 'cc', 'replied', 'VBD'), ('however', 'RB', 'advmod', 'consider', 'VBP'), ('but', 'CC', 'cc', 'wish', 'VBP'), ('so', 'RB', 'advmod', 'easily', 'RB'), ('or', 'CC', 'cc', 'more', 'RBR'), ('and', 'CC', 'cc', 'remember', 'VB'), ('but', 'CC', 'cc', 'are', 'VBP'), ('but', 'CC', 'cc', 'supply', 'NN'), ('and', 'CC', 'cc', 'confined', 'VBN'), ('But', 'CC', 'cc', 'alter', 'VBP'), ('so', 'RB', 'advmod', 'much', 'RB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'shops', 'NNS'), ('and', 'CC', 'cc', 'wish', 'VBP'), ('and', 'CC', 'cc', 'have', 'VBP'), ('because', 'IN', 'mark', 'have', 'VBP'), ('But', 'CC', 'cc', 'seemed', 'VBD'), ('but', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'four', 'CD'), ('but', 'IN', 'prep', 'Nothing', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('so', 'RB', 'advmod', 'much', 'RB'), ('so', 'RB', 'advmod', 'genteel', 'JJ'), ('and', 'CC', 'cc', 'genteel', 'JJ'), ('so', 'RB', 'advmod', 'easy', 'JJ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'fancy', 'VBP'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('so', 'RB', 'advmod', 'think', 'VBP'), ('but', 'CC', 'cc', 'think', 'VBP'), ('but', 'CC', 'cc', 'dear', 'JJ'), ('so', 'RB', 'advmod', 'said', 'VBN'), ('and', 'CC', 'cc', 'said', 'VBN'), ('but', 'CC', 'cc', 'like', 'VB'), ('so', 'RB', 'advmod', 'much', 'RB'), ('But', 'CC', 'cc', 'did', 'VBD'), ('however', 'RB', 'advmod', 'did', 'VBD'), ('However', 'RB', 'advmod', 'wrote', 'VBD'), ('and', 'CC', 'cc', 'wrote', 'VBD'), ('And', 'CC', 'cc', 'ended', 'VBD'), ('so', 'RB', 'advmod', 'ended', 'VBD'), ('But', 'CC', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'smiled', 'VBD'), ('but', 'CC', 'cc', 'longed', 'VBD'), ('and', 'CC', 'cc', 'longed', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'forced', 'VBD'), ('but', 'CC', 'cc', 'performed', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'whispering', 'VBG'), ('and', 'CC', 'cc', 'complexion', 'NN'), ('and', 'CC', 'cc', 'spirits', 'NNS'), ('and', 'CC', 'cc', 'dinners', 'NNS'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'assure', 'VBP'), ('But', 'CC', 'cc', 'wish', 'VB'), ('and', 'CC', 'cc', 'be', 'VB'), ('And', 'CC', 'cc', 'added', 'VBD'), ('and', 'CC', 'cc', 'Bennet', 'NNP'), ('and', 'CC', 'cc', 'tell', 'VB'), ('and', 'CC', 'cc', 'own', 'JJ'), ('and', 'CC', 'cc', 'remarks', 'NNS'), ('however', 'RB', 'advmod', 'prevailed', 'VBN'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('and', 'CC', 'cc', 'spent', 'VBN'), ('however', 'RB', 'advmod', 'appear', 'VB'), ('and', 'CC', 'cc', 'writing', 'VBG'), ('and', 'CC', 'cc', 'watching', 'VBG'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'Darcy', 'NNP'), ('or', 'CC', 'cc', 'on', 'IN'), ('or', 'CC', 'cc', 'on', 'IN'), ('and', 'CC', 'cc', 'formed', 'VBD'), ('so', 'RB', 'advmod', 'once', 'RB'), ('but', 'CC', 'cc', 'Thank', 'VBP'), ('so', 'RB', 'advmod', 'even', 'RB'), ('and', 'CC', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'Tell', 'VB'), ('But', 'CC', 'cc', 'write', 'VB'), ('but', 'CC', 'cc', 'write', 'VB'), ('because', 'IN', 'mark', 'does', 'VBZ'), ('and', 'CC', 'cc', 'leaves', 'VBZ'), ('so', 'RB', 'advmod', 'rapidly', 'RB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('And', 'CC', 'cc', 'call', 'VB'), ('because', 'IN', 'mark', 'consider', 'VBP'), ('and', 'CC', 'cc', 'thought', 'NN'), ('and', 'CC', 'cc', 'prized', 'VBN'), ('and', 'CC', 'cc', 'meant', 'VBD'), ('so', 'RB', 'advmod', 'laudable', 'JJ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('or', 'CC', 'cc', 'yourself', 'PRP'), ('And', 'CC', 'cc', 'believed', 'VBD'), ('and', 'CC', 'cc', 'believed', 'VBD'), ('but', 'CC', 'cc', 'daresay', 'VBP'), ('and', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'go', 'VB'), ('But', 'CC', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'give', 'VB'), ('but', 'CC', 'cc', 'expect', 'VBP'), ('however', 'RB', 'advmod', 'stand', 'VB'), ('and', 'CC', 'cc', 'friend', 'NN'), ('and', 'CC', 'cc', 'friendship', 'NN'), ('But', 'CC', 'cc', 'think', 'VB'), ('and', 'CC', 'cc', 'general', 'JJ'), ('and', 'CC', 'cc', 'friend', 'NN'), ('and', 'CC', 'cc', 'height', 'NN'), ('so', 'RB', 'advmod', 'much', 'JJ'), ('and', 'CC', 'cc', 'know', 'VB'), ('and', 'CC', 'cc', 'at', 'IN'), ('but', 'CC', 'cc', 'declare', 'VBP'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('and', 'CC', 'cc', 'dislike', 'VBP'), ('and', 'CC', 'cc', 'you', 'PRP'), ('and', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'Bingley', 'NNP'), ('and', 'CC', 'cc', 'moved', 'VBD'), ('and', 'CC', 'cc', 'politely', 'RB'), ('and', 'CC', 'cc', 'sang', 'VBD'), ('so', 'RB', 'advmod', 'great', 'JJ'), ('and', 'CC', 'cc', 'be', 'VB'), ('because', 'IN', 'mark', 'disliked', 'VBD'), ('however', 'RB', 'advmod', 'imagine', 'VB'), ('because', 'IN', 'mark', 'was', 'VBD'), ('and', 'CC', 'cc', 'wrong', 'JJ'), ('and', 'CC', 'cc', 'varied', 'VBD'), ('but', 'CC', 'cc', 'smiled', 'VBD'), ('but', 'CC', 'cc', 'said', 'VBD'), ('but', 'CC', 'cc', 'wanted', 'VBD'), ('and', 'CC', 'cc', 'delight', 'JJ'), ('and', 'CC', 'cc', 'made', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'mixture', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('so', 'RB', 'advmod', 'bewitched', 'VBN'), ('or', 'CC', 'cc', 'saw', 'VBD'), ('and', 'CC', 'cc', 'saw', 'VBD'), ('and', 'CC', 'cc', 'tried', 'VBD'), ('and', 'CC', 'cc', 'give', 'VB'), ('And', 'CC', 'cc', 'endeavour', 'VB'), ('so', 'RB', 'advmod', 'delicate', 'JJ'), ('and', 'CC', 'cc', 'conceit', 'NN'), ('and', 'CC', 'cc', 'uncle', 'NN'), ('but', 'CC', 'cc', 'attempt', 'VB'), ('and', 'CC', 'cc', 'colour', 'NN'), ('and', 'CC', 'cc', 'colour', 'NN'), ('so', 'RB', 'advmod', 'fine', 'JJ'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('and', 'CC', 'cc', 'felt', 'VBD'), ('But', 'CC', 'cc', 'stay', 'VB'), ('and', 'CC', 'cc', 'grouped', 'VBN'), ('or', 'CC', 'cc', 'two', 'CD'), ('so', 'RB', 'advmod', 'much', 'RB'), ('and', 'CC', 'cc', 'ran', 'VBD'), ('and', 'CC', 'cc', 'attended', 'VBD'), ('so', 'RB', 'advmod', 'agreeable', 'JJ'), ('and', 'CC', 'cc', 'relate', 'VB'), ('But', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'turned', 'VBN'), ('and', 'CC', 'cc', 'made', 'VBD'), ('but', 'CC', 'cc', 'made', 'VBD'), ('and', 'CC', 'cc', 'diffuseness', 'NN'), ('and', 'CC', 'cc', 'joy', 'NN'), ('and', 'CC', 'cc', 'spent', 'VBN'), ('and', 'CC', 'cc', 'sat', 'VBD'), ('but', 'CC', 'cc', 'reminded', 'VBD'), ('and', 'CC', 'cc', 'obtained', 'VBN'), ('and', 'CC', 'cc', 'one', 'NN'), ('but', 'CC', 'prep', 'nothing', 'NN'), ('and', 'CC', 'cc', 'stretch', 'VB'), ('and', 'CC', 'cc', 'did', 'VBD'), ('and', 'CC', 'cc', 'bracelets', 'NNS'), ('and', 'CC', 'cc', 'joined', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('or', 'CC', 'cc', 'making', 'VBG'), ('however', 'RB', 'advmod', 'win', 'VB'), ('and', 'CC', 'cc', 'answered', 'VBD'), ('because', 'IN', 'mark', 'was', 'VBD'), ('and', 'CC', 'cc', 'gave', 'VBD'), ('and', 'CC', 'cc', 'threw', 'VBD'), ('and', 'CC', 'cc', 'him', 'PRP'), ('but', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('but', 'CC', 'cc', 'replied', 'VBD'), ('but', 'CC', 'cc', 'dare', 'VBP'), ('so', 'RB', 'advmod', 'much', 'RB'), ('and', 'CC', 'cc', 'made', 'VBD'), ('and', 'CC', 'cc', 'got', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'walked', 'VBD'), ('and', 'CC', 'cc', 'resolved', 'VBD'), ('and', 'CC', 'cc', 'let', 'VBD'), ('so', 'RB', 'advmod', 'long', 'RB'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'be', 'VB'), ('but', 'CC', 'cc', 'invited', 'VBN'), ('but', 'CC', 'cc', 'declined', 'VBD'), ('and', 'CC', 'cc', 'up', 'RB'), ('and', 'CC', 'cc', 'dying', 'VBG'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'means', 'VBZ'), ('however', 'RB', 'advmod', 'was', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('because', 'IN', 'mark', 'are', 'VBP'), ('and', 'CC', 'cc', 'are', 'VBP'), ('or', 'CC', 'cc', 'are', 'VBP'), ('because', 'IN', 'mark', 'are', 'VBP'), ('and', 'CC', 'cc', 'be', 'VB'), ('so', 'RB', 'advmod', 'abominable', 'JJ'), ('so', 'RB', 'advmod', 'easy', 'JJ'), ('but', 'CC', 'cc', 'have', 'VBP'), ('and', 'CC', 'cc', 'plague', 'VB'), ('But', 'CC', 'cc', 'do', 'VBP'), ('and', 'CC', 'cc', 'temper', 'NN'), ('And', 'CC', 'cc', 'expose', 'VB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'wisest', 'JJS'), ('and', 'CC', 'cc', 'wisest', 'JJS'), ('but', 'CC', 'cc', 'are', 'VBP'), ('or', 'CC', 'cc', 'wise', 'JJ'), ('and', 'CC', 'cc', 'Follies', 'NNS'), ('and', 'CC', 'cc', 'whims', 'NNS'), ('and', 'CC', 'cc', 'own', 'VBP'), ('But', 'CC', 'cc', 'are', 'VBP'), ('But', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'vanity', 'NN'), ('But', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'said', 'VBD'), ('but', 'CC', 'cc', 'have', 'VBP'), ('and', 'CC', 'cc', 'follies', 'NNS'), ('so', 'RB', 'advmod', 'soon', 'RB'), ('But', 'CC', 'cc', 'chosen', 'VBN'), ('And', 'CC', 'cc', 'is', 'VBZ'), ('And', 'CC', 'cc', 'yours', 'NNS'), ('and', 'CC', 'cc', 'made', 'VBD'), ('and', 'CC', 'cc', 'opened', 'VBN'), ('But', 'CC', 'cc', 'bring', 'VB'), ('and', 'CC', 'cc', 'sent', 'VBD'), ('and', 'CC', 'cc', 'Bingley', 'NNP'), ('however', 'RB', 'advmod', 'resolved', 'VBN'), ('and', 'CC', 'cc', 'expect', 'VB'), ('and', 'CC', 'cc', 'urged', 'VBD'), ('and', 'CC', 'cc', 'settled', 'VBN'), ('and', 'CC', 'cc', 'excited', 'VBD'), ('and', 'CC', 'cc', 'said', 'VBN'), ('and', 'CC', 'cc', 'jealousy', 'NN'), ('so', 'RB', 'advmod', 'soon', 'RB'), ('and', 'CC', 'cc', 'heard', 'VBD'), ('but', 'CC', 'cc', 'heard', 'VBD'), ('and', 'CC', 'cc', 'attracted', 'VBD'), ('and', 'CC', 'cc', '_', 'NN'), ('or', 'CC', 'cc', 'confirming', 'VBG'), ('and', 'CC', 'cc', 'spoke', 'VBD'), ('and', 'CC', 'cc', 'adhered', 'VBD'), ('so', 'RB', 'advmod', 'agreeable', 'JJ'), ('and', 'CC', 'cc', 'increased', 'VBD'), ('or', 'CC', 'cc', 'Longbourn', 'NNP'), ('and', 'CC', 'cc', 'give', 'VB'), ('and', 'CC', 'cc', 'wondered', 'VBD'), ('so', 'RB', 'advmod', 'much', 'JJ'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('But', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'lost', 'VBN'), ('and', 'CC', 'cc', 'Jane', 'NNP'), ('and', 'CC', 'cc', 'bass', 'NN'), ('and', 'CC', 'cc', 'found', 'VBD'), ('and', 'CC', 'cc', 'extracts', 'NNS'), ('and', 'CC', 'cc', 'Catherine', 'NNP'), ('and', 'CC', 'cc', 'done', 'VBN'), ('and', 'CC', 'cc', 'flogged', 'VBN'), ('because', 'IN', 'mark', 'have', 'VBP'), ('and', 'CC', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'gentleman', 'NN'), ('and', 'CC', 'cc', 'gentleman', 'NN'), ('But', 'CC', 'cc', 'Lord', 'NNP'), ('and', 'CC', 'cc', 'roused', 'VBD'), ('and', 'CC', 'cc', 'wife', 'NN'), ('and', 'CC', 'cc', 'received', 'VBD'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('and', 'CC', 'cc', 'think', 'VB'), ('or', 'CC', 'cc', 'something', 'NN'), ('and', 'CC', 'cc', 'Jane', 'NNP'), ('but', 'CC', 'cc', 'attempted', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'said', 'VBD'), ('But', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'think', 'VBP'), ('and', 'CC', 'cc', 'write', 'VB'), ('and', 'CC', 'cc', 'yourself', 'PRP'), ('and', 'CC', 'cc', 'gave', 'VBD'), ('but', 'CC', 'cc', 'wished', 'VBN'), ('however', 'RB', 'advmod', 'made', 'VBN'), ('so', 'RB', 'advmod', 'fortunate', 'JJ'), ('and', 'CC', 'cc', 'bounty', 'NN'), ('and', 'CC', 'cc', 'preferred', 'VBN'), ('and', 'CC', 'cc', 'rites', 'NNS'), ('and', 'CC', 'cc', 'promote', 'VB'), ('and', 'CC', 'cc', 'feel', 'VBP'), ('and', 'CC', 'cc', 'are', 'VBP'), ('and', 'CC', 'cc', 'overlooked', 'VBN'), ('and', 'CC', 'cc', 'be', 'VB'), ('but', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'you', 'PRP'), ('and', 'CC', 'cc', 'propose', 'VBP'), ('and', 'CC', 'cc', 'lady', 'NN'), ('and', 'CC', 'cc', 'wisher', 'NN'), ('and', 'CC', 'cc', 'conscientious', 'JJ'), ('and', 'CC', 'cc', 'seems', 'VBZ'), ('so', 'RB', 'advmod', 'indulgent', 'JJ'), ('however', 'RB', 'advmod', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'struck', 'VBN'), ('and', 'CC', 'cc', 'marrying', 'NN'), ('And', 'CC', 'cc', 'mean', 'VB'), ('and', 'CC', 'cc', 'servility', 'NN'), ('and', 'CC', 'cc', 'Catherine', 'NNP'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'done', 'VBN'), ('and', 'CC', 'cc', 'husband', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'five', 'CD'), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[('or', 'CC', 'cc', 'feelings', 'NNS'), ('or', 'CC', 'cc', 'one', 'CD'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'want', 'VBP'), ('and', 'CC', 'cc', 'chaise', 'NN'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('or', 'CC', 'cc', 'married', 'JJ'), ('or', 'CC', 'cc', 'four', 'CD'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'You', 'PRP'), ('or', 'CC', 'cc', 'go', 'VB'), ('but', 'CC', 'cc', 'have', 'VBP'), ('But', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'go', 'VB'), ('But', 'CC', 'cc', 'consider', 'VB'), ('and', 'CC', 'cc', 'William', 'NNP'), ('and', 'CC', 'cc', 'dare', 'VBP'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('nor', 'CC', 'cc', 'is', 'VBZ'), ('But', 'CC', 'cc', 'giving', 'VBG'), ('and', 'CC', 'cc', 'silly', 'JJ'), ('but', 'CC', 'cc', 'replied', 'VBD'), ('But', 'CC', 'cc', 'hope', 'VBP'), ('and', 'CC', 'cc', 'get', 'VB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'three', 'CD'), ('and', 'CC', 'cc', 'information', 'NN'), ('and', 'CC', 'cc', 'visiting', 'VBG'), ('&amp;', 'CC', 'cc', 'Illustration', 'NN'), ('and', 'CC', 'cc', 'intended', 'VBN'), ('But', 'CC', 'cc', 'forget', 'VBP'), ('and', 'CC', 'cc', 'meet', 'VB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'am', 'VBP'), ('but', 'CC', 'cc', 'deigned', 'VBD'), ('and', 'CC', 'cc', 'cried', 'VBD'), ('and', 'CC', 'cc', 'have', 'VB'), ('But', 'CC', 'cc', 'will', 'MD'), ('and', 'CC', 'cc', 'will', 'MD'), ('and', 'CC', 'cc', 'Long', 'NNP'), ('and', 'CC', 'cc', 'stand', 'VB'), ('and', 'CC', 'cc', 'consider', 'VBP'), ('and', 'CC', 'cc', 'know', 'VBP'), ('and', 'CC', 'cc', 'read', 'VB'), ('but', 'CC', 'cc', 'wished', 'VBD'), ('but', 'CC', 'cc', 'am', 'VBP'), ('but', 'CC', 'cc', 'is', 'VBZ'), ('But', 'CC', 'cc', 'knew', 'VBD'), ('And', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'gone', 'VBN'), ('and', 'CC', 'cc', 'said', 'VBD'), ('or', 'CC', 'cc', 'know', 'VB'), ('but', 'CC', 'cc', 'tell', 'VB'), ('and', 'CC', 'cc', 'return', 'VB'), ('and', 'CC', 'cc', 'suppositions', 'NNS'), ('but', 'CC', 'cc', 'attacked', 'VBD'), ('and', 'CC', 'cc', 'eluded', 'VBD'), ('and', 'CC', 'cc', 'agreeable', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'see', 'VB'), ('and', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'returned', 'VBD'), ('but', 'CC', 'cc', 'entertained', 'VBN'), ('and', 'CC', 'cc', 'wore', 'VBD'), ('and', 'CC', 'cc', 'despatched', 'VBN'), ('and', 'CC', 'cc', 'obliged', 'VBN'), ('and', 'CC', 'cc', 'imagine', 'VB'), ('and', 'CC', 'cc', 'flying', 'VBG'), ('and', 'CC', 'cc', 'gone', 'VBN'), ('and', 'CC', 'cc', 'ladies', 'NNS'), ('but', 'CC', 'cc', 'grieved', 'VBD'), ('and', 'CC', 'cc', 'sisters', 'NNS'), ('And', 'CC', 'cc', 'consisted', 'VBD'), ('and', 'CC', 'cc', 'husband', 'NN'), ('and', 'CC', 'cc', 'looking', 'VBG'), ('and', 'CC', 'cc', 'countenance', 'NN'), ('but', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'mien', 'NN'), ('and', 'CC', 'cc', 'declared', 'VBD'), ('and', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'above', 'IN'), ('and', 'CC', 'cc', 'having', 'VBG'), ('and', 'CC', 'cc', 'lively', 'JJ'), ('and', 'CC', 'cc', 'closed', 'VBD'), ('and', 'CC', 'cc', 'him', 'PRP'), ('and', 'CC', 'cc', 'with', 'IN'), ('and', 'CC', 'cc', 'declined', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'obliged', 'VBN'), ('and', 'CC', 'cc', 'him', 'PRP'), ('and', 'CC', 'cc', 'engaged', 'VBN'), ('and', 'CC', 'cc', 'met', 'VBD'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'mean', 'VB'), ('and', 'CC', 'cc', 'withdrew', 'VBD'), ('but', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'withdrew', 'VBD'), ('and', 'CC', 'cc', 'return', 'VB'), ('and', 'CC', 'cc', 'walked', 'VBD'), ('and', 'CC', 'cc', 'danced', 'VBN'), ('and', 'CC', 'cc', 'heard', 'VBN'), ('and', 'CC', 'cc', 'Catherine', 'NNP'), ('and', 'CC', 'cc', 'to', 'IN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'hoped', 'VBN'), ('and', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('and', 'CC', 'cc', 'danced', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'seemed', 'VBD'), ('and', 'CC', 'cc', 'inquired', 'VBD'), ('and', 'CC', 'cc', 'inquired', 'VBD'), ('and', 'CC', 'cc', 'third', 'JJ'), ('and', 'CC', 'cc', 'fourth', 'JJ'), ('and', 'CC', 'cc', 'fourth', 'JJ'), ('and', 'CC', 'cc', 'sixth', 'JJ'), ('and', 'CC', 'cc', 'are', 'VBP'), ('and', 'CC', 'cc', 'obliged', 'VBN'), ('and', 'CC', 'cc', 'obliged', 'VBN'), ('But', 'CC', 'cc', 'assure', 'VB'), ('and', 'CC', 'cc', 'high', 'JJ'), ('and', 'CC', 'cc', 'walked', 'VBD'), ('and', 'CC', 'cc', 'Jane', 'NNP'), ('and', 'CC', 'cc', 'said', 'VBD'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'take', 'VBP'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'good', 'JJ'), ('but', 'CC', 'cc', 'wish', 'VB'), ('and', 'CC', 'cc', 'know', 'VBP'), ('and', 'CC', 'cc', 'follies', 'NNS'), ('But', 'CC', 'cc', 'take', 'VB'), ('or', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'take', 'VB'), ('and', 'CC', 'cc', 'take', 'VB'), ('And', 'CC', 'cc', 'like', 'VBP'), ('but', 'CC', 'cc', 'are', 'VBP'), ('and', 'CC', 'cc', 'live', 'VB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('but', 'CC', 'cc', 'listened', 'VBD'), ('and', 'CC', 'cc', 'calculated', 'VBN'), ('and', 'CC', 'cc', 'observation', 'NN'), ('and', 'CC', 'cc', 'quickness', 'NN'), ('nor', 'CC', 'cc', 'deficient', 'JJ'), ('but', 'CC', 'cc', 'deficient', 'JJ'), ('and', 'CC', 'cc', 'proud', 'JJ'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'think', 'VB'), ('and', 'CC', 'cc', 'fortune', 'NN'), ('but', 'CC', 'cc', 'inherited', 'VBD'), ('and', 'CC', 'cc', 'intended', 'VBD'), ('but', 'CC', 'cc', 'intended', 'VBD'), ('and', 'CC', 'cc', 'house', 'NN'), ('and', 'CC', 'cc', 'spend', 'VB'), ('but', 'CC', 'cc', 'were', 'VBD'), ('nor', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'look', 'VB'), ('and', 'CC', 'cc', 'situation', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'him', 'PRP'), ('and', 'CC', 'cc', 'openness', 'NN'), ('and', 'CC', 'cc', 'offer', 'VB'), ('and', 'CC', 'cc', 'had', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'reserved', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('or', 'CC', 'cc', 'people', 'NNS'), ('and', 'CC', 'cc', 'kind', 'JJ'), ('and', 'CC', 'cc', 'felt', 'VBN'), ('and', 'CC', 'cc', 'beauty', 'NN'), ('and', 'CC', 'cc', 'seen', 'VBN'), ('or', 'CC', 'cc', 'attention', 'NN'), ('but', 'CC', 'cc', 'acknowledged', 'VBD'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('but', 'CC', 'cc', 'allowed', 'VBD'), ('and', 'CC', 'cc', 'admired', 'VBD'), ('and', 'CC', 'cc', 'admired', 'VBD'), ('and', 'CC', 'cc', 'admired', 'VBD'), ('and', 'CC', 'cc', 'established', 'VBN'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'to', 'IN'), ('and', 'CC', 'cc', 'given', 'VBN'), ('and', 'CC', 'cc', 'think', 'VB'), ('and', 'CC', 'cc', 'friendly', 'JJ'), ('and', 'CC', 'cc', 'Lucases', 'NNPS'), ('and', 'CC', 'cc', 'meet', 'VB'), ('and', 'CC', 'cc', 'hear', 'VB'), ('but', 'CC', 'cc', 'seemed', 'VBD'), ('but', 'CC', 'cc', 'believe', 'VBP'), ('and', 'CC', 'cc', 'him', 'PRP'), ('and', 'CC', 'cc', 'liked', 'VBD'), ('and', 'CC', 'cc', 'women', 'NNS'), ('and', 'CC', 'cc', 'answering', 'VBG'), ('but', 'CC', 'cc', 'decided', 'VBN'), ('and', 'CC', 'cc', 'asked', 'VBD'), ('but', 'CC', 'cc', 'Ay', 'UH'), ('But', 'CC', 'cc', 'guess', 'VB'), ('and', 'CC', 'cc', 'says', 'VBZ'), ('and', 'CC', 'cc', 'keep', 'VB'), ('but', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'replied', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('or', 'CC', 'cc', 'quality', 'NN'), ('or', 'CC', 'cc', 'real', 'JJ'), ('and', 'CC', 'cc', 'Vanity', 'NN'), ('and', 'CC', 'cc', 'keep', 'VB'), ('and', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'continued', 'VBD'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('and', 'CC', 'cc', 'grew', 'VBD'), ('and', 'CC', 'cc', 'grew', 'VBD'), ('but', 'CC', 'cc', 'received', 'VBN'), ('and', 'CC', 'cc', 'excepting', 'VBG'), ('and', 'CC', 'cc', 'admire', 'VB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'composure', 'NN'), ('but', 'CC', 'cc', 'replied', 'VBD'), ('and', 'CC', 'cc', 'lose', 'VB'), ('but', 'CC', 'cc', 'be', 'VB'), ('or', 'CC', 'cc', 'gratitude', 'NN'), ('but', 'CC', 'cc', 'is', 'VBZ'), ('but', 'CC', 'cc', 'likes', 'VBZ'), ('But', 'CC', 'cc', 'help', 'VB'), ('But', 'CC', 'cc', 'find', 'VB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'Bingley', 'NNP'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('but', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'replied', 'VBD'), ('or', 'CC', 'cc', 'husband', 'NN'), ('But', 'CC', 'cc', 'are', 'VBP'), ('nor', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'saw', 'VBD'), ('but', 'CC', 'cc', 'discovered', 'VBN'), ('and', 'CC', 'cc', 'spent', 'VBN'), ('but', 'CC', 'cc', 'like', 'IN'), ('and', 'CC', 'cc', 'wish', 'VBP'), ('or', 'CC', 'cc', 'known', 'VBN'), ('and', 'CC', 'cc', 'continue', 'VBP'), ('but', 'CC', 'cc', 'make', 'VBP'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'looked', 'VBN'), ('But', 'CC', 'cc', 'made', 'VBN'), ('and', 'CC', 'cc', 'himself', 'PRP'), ('and', 'CC', 'cc', 'light', 'JJ'), ('and', 'CC', 'cc', 'forced', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'began', 'VBD'), ('But', 'CC', 'cc', 'let', 'VB'), ('and', 'CC', 'cc', 'has', 'VBZ'), ('and', 'CC', 'cc', 'turned', 'VBD'), ('but', 'CC', 'cc', 'turned', 'VBD'), ('and', 'CC', 'cc', 'going', 'VBG'), ('and', 'CC', 'cc', 'play', 'VB'), ('and', 'CC', 'cc', 'anybody', 'NN'), ('but', 'CC', 'cc', 'been', 'VBN'), ('And', 'CC', 'cc', 'glancing', 'VBG'), ('or', 'CC', 'cc', 'song', 'NN'), ('and', 'CC', 'cc', 'After', 'IN'), ('and', 'CC', 'cc', 'knowledge', 'NN'), ('nor', 'CC', 'cc', 'genius', 'NN'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'air', 'NN'), ('and', 'CC', 'cc', 'easy', 'JJ'), ('and', 'CC', 'cc', 'listened', 'VBN'), ('and', 'CC', 'cc', 'praise', 'NN'), ('and', 'CC', 'cc', 'Scotch', 'NNP'), ('and', 'CC', 'cc', 'some', 'DT'), ('or', 'CC', 'cc', 'two', 'CD'), ('and', 'CC', 'cc', 'stood', 'VBD'), ('and', 'CC', 'cc', 'Certainly', 'RB'), ('and', 'CC', 'cc', 'doubt', 'VBP'), ('and', 'CC', 'cc', 'Yes', 'UH'), ('but', 'CC', 'cc', 'had', 'VBD'), ('but', 'CC', 'cc', 'paused', 'VBD'), ('and', 'CC', 'cc', 'paused', 'VBD'), ('and', 'CC', 'cc', 'struck', 'VBN'), ('And', 'CC', 'cc', 'given', 'VBN'), ('and', 'CC', 'cc', 'given', 'VBN'), ('but', 'CC', 'cc', 'entreat', 'VBP'), ('nor', 'CC', 'cc', 'determined', 'VBN'), ('and', 'CC', 'cc', 'excel', 'VBP'), ('but', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'looked', 'VBD'), ('and', 'CC', 'cc', 'injured', 'VBN'), ('and', 'CC', 'cc', 'considering', 'VBG'), ('and', 'CC', 'cc', 'insipidity', 'NN'), ('and', 'CC', 'cc', 'nothingness', 'NN'), ('and', 'CC', 'cc', 'fixed', 'VBD'), ('and', 'CC', 'cc', 'pray', 'VB'), ('and', 'CC', 'cc', 'have', 'VB'), ('and', 'CC', 'cc', 'listened', 'VBD'), ('and', 'CC', 'cc', 'consisted', 'VBD'), ('but', 'CC', 'cc', 'could', 'MD'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'had', 'VBD'), ('or', 'CC', 'cc', 'three', 'CD'), ('and', 'CC', 'cc', 'pay', 'VB'), ('and', 'CC', 'cc', 'Catherine', 'NNP'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'amuse', 'VB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'news', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'names', 'NNS'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'visited', 'VBD'), ('and', 'CC', 'cc', 'talk', 'VB'), ('but', 'CC', 'cc', 'suspected', 'VBN'), ('and', 'CC', 'cc', 'disconcerted', 'VBN'), ('but', 'CC', 'cc', 'disconcerted', 'VBN'), ('and', 'CC', 'cc', 'continued', 'VBD'), ('but', 'CC', 'cc', 'are', 'VBP'), ('but', 'CC', 'cc', 'hoped', 'VBN'), ('and', 'CC', 'cc', 'father', 'NN'), ('and', 'CC', 'cc', 'remember', 'VBP'), ('and', 'CC', 'cc', 'do', 'VBP'), ('or', 'CC', 'cc', 'five', 'CD'), ('and', 'CC', 'cc', 'remember', 'VBP'), ('and', 'CC', 'cc', 'Forster', 'NNP'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'sparkled', 'VBN'), ('and', 'CC', 'cc', 'make', 'VBP'), ('and', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'Louisa', 'NNP'), ('and', 'CC', 'cc', 'brother', 'NN'), ('and', 'CC', 'cc', 'go', 'VB'), ('but', 'CC', 'cc', 'have', 'VB'), ('and', 'CC', 'cc', 'have', 'VB'), ('But', 'CC', 'cc', 'spare', 'VB'), ('But', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'obliged', 'VBN'), ('but', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'throat', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'determined', 'JJ'), ('but', 'CC', 'cc', 'observed', 'VBD'), ('and', 'CC', 'cc', 'guided', 'VBN'), ('and', 'CC', 'cc', 'Catherine', 'NNP'), ('and', 'CC', 'cc', 'accepted', 'VBD'), ('and', 'CC', 'cc', 'repaired', 'VBN'), ('and', 'CC', 'cc', 'jumping', 'VBG'), ('and', 'CC', 'cc', 'jumping', 'VBG'), ('and', 'CC', 'cc', 'stockings', 'NNS'), ('but', 'CC', 'cc', 'all', 'DT'), ('and', 'CC', 'cc', 'assembled', 'VBN'), ('and', 'CC', 'cc', 'walked', 'VBN'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'received', 'VBN'), ('and', 'CC', 'cc', 'humour', 'NN'), ('and', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'given', 'VBN'), ('and', 'CC', 'cc', 'slept', 'VBN'), ('and', 'CC', 'cc', 'feverish', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('or', 'CC', 'cc', 'alarm', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'joined', 'VBN'), ('and', 'CC', 'cc', 'affection', 'NN'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'caught', 'VBN'), ('and', 'CC', 'cc', 'advised', 'VBD'), ('and', 'CC', 'cc', 'followed', 'VBN'), ('nor', 'CC', 'cc', 'quit', 'VB'), ('and', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'offered', 'VBD'), ('and', 'CC', 'cc', 'consented', 'JJ'), ('and', 'CC', 'cc', 'acquaint', 'VB'), ('and', 'CC', 'cc', 'retired', 'VBN'), ('and', 'CC', 'cc', 'poured', 'VBD'), ('or', 'CC', 'cc', 'three', 'CD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'repeated', 'VBD'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'any', 'DT'), ('and', 'CC', 'cc', 'engrossed', 'VBN'), ('and', 'CC', 'cc', 'drink', 'VB'), ('and', 'CC', 'cc', 'returned', 'VBD'), ('and', 'CC', 'cc', 'pride', 'NN'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('but', 'CC', 'cc', 'has', 'VBZ'), ('and', 'CC', 'cc', 'Yes', 'UH'), ('and', 'CC', 'cc', 'am', 'VBP'), ('but', 'CC', 'cc', 'lost', 'VBN'), ('and', 'CC', 'cc', 'am', 'VBP'), ('or', 'CC', 'cc', 'miles', 'NNS'), ('or', 'CC', 'cc', 'miles', 'NNS'), ('or', 'CC', 'cc', 'miles', 'NNS'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'followed', 'VBD'), ('But', 'CC', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'father', 'NN'), ('and', 'CC', 'cc', 'father', 'NN'), ('and', 'CC', 'cc', 'Yes', 'UH'), ('and', 'CC', 'cc', 'added', 'VBD'), ('But', 'CC', 'cc', 'lessen', 'VB'), ('but', 'CC', 'cc', 'made', 'VBD'), ('and', 'CC', 'cc', 'gave', 'VBD'), ('and', 'CC', 'cc', 'repaired', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'found', 'VBD'), ('but', 'CC', 'cc', 'found', 'VBD'), ('and', 'CC', 'cc', 'declined', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('nor', 'CC', 'cc', 'praise', 'NN'), ('and', 'CC', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'hope', 'VBP'), ('and', 'CC', 'cc', 'thanked', 'VBD'), ('And', 'CC', 'cc', 'wish', 'VBP'), ('and', 'CC', 'cc', 'benefit', 'NN'), ('but', 'CC', 'cc', 'wish', 'VBP'), ('and', 'CC', 'cc', 'am', 'VBP'), ('And', 'CC', 'cc', 'added', 'VBN'), ('But', 'CC', 'cc', 'advise', 'VB'), ('and', 'CC', 'cc', 'advise', 'VB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'drew', 'VBD'), ('and', 'CC', 'cc', 'Bingley', 'NNP'), ('or', 'CC', 'cc', 'height', 'NN'), ('and', 'CC', 'cc', 'manners', 'NNS'), ('and', 'CC', 'cc', 'screens', 'NNS'), ('and', 'CC', 'cc', 'know', 'VBP'), ('or', 'CC', 'cc', 'netting', 'VBG'), ('but', 'CC', 'cc', 'applied', 'VBN'), ('and', 'CC', 'cc', 'dancing', 'NN'), ('and', 'CC', 'cc', 'have', 'VB'), ('and', 'CC', 'cc', 'air', 'NN'), ('and', 'CC', 'cc', 'address', 'NN'), ('or', 'CC', 'cc', 'address', 'NN'), ('but', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'added', 'VBD'), ('_', 'NNP', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'capacity', 'NN'), ('and', 'CC', 'cc', 'taste', 'NN'), ('and', 'CC', 'cc', 'application', 'NN'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('and', 'CC', 'cc', 'cried', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('but', 'CC', 'cc', 'succeeds', 'VBZ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'hear', 'VB'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'lady', 'NN'), ('and', 'CC', 'cc', 'Bennet', 'NNP'), ('and', 'CC', 'cc', 'passed', 'VBD'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'requested', 'VBD'), ('and', 'CC', 'cc', 'despatched', 'VBN'), ('but', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'appearance', 'NN'), ('and', 'CC', 'cc', 'mother', 'NN'), ('and', 'CC', 'cc', 'know', 'VB'), ('and', 'CC', 'cc', 'Bingley', 'NNP'), ('but', 'CC', 'cc', 'have', 'VBP'), ('and', 'CC', 'cc', 'replied', 'VBD'), ('but', 'CC', 'cc', 'wish', 'VBP'), ('or', 'CC', 'cc', 'more', 'RBR'), ('and', 'CC', 'cc', 'remember', 'VB'), ('but', 'CC', 'cc', 'are', 'VBP'), ('but', 'CC', 'cc', 'supply', 'NN'), ('and', 'CC', 'cc', 'confined', 'VBN'), ('But', 'CC', 'cc', 'alter', 'VBP'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'shops', 'NNS'), ('and', 'CC', 'cc', 'wish', 'VBP'), ('and', 'CC', 'cc', 'have', 'VBP'), ('But', 'CC', 'cc', 'seemed', 'VBD'), ('but', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'four', 'CD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'genteel', 'JJ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'fancy', 'VBP'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('but', 'CC', 'cc', 'think', 'VBP'), ('but', 'CC', 'cc', 'dear', 'JJ'), ('and', 'CC', 'cc', 'said', 'VBN'), ('but', 'CC', 'cc', 'like', 'VB'), ('But', 'CC', 'cc', 'did', 'VBD'), ('and', 'CC', 'cc', 'wrote', 'VBD'), ('And', 'CC', 'cc', 'ended', 'VBD'), ('But', 'CC', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'smiled', 'VBD'), ('but', 'CC', 'cc', 'longed', 'VBD'), ('and', 'CC', 'cc', 'longed', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'forced', 'VBD'), ('but', 'CC', 'cc', 'performed', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'whispering', 'VBG'), ('and', 'CC', 'cc', 'complexion', 'NN'), ('and', 'CC', 'cc', 'spirits', 'NNS'), ('and', 'CC', 'cc', 'dinners', 'NNS'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'assure', 'VBP'), ('But', 'CC', 'cc', 'wish', 'VB'), ('and', 'CC', 'cc', 'be', 'VB'), ('And', 'CC', 'cc', 'added', 'VBD'), ('and', 'CC', 'cc', 'Bennet', 'NNP'), ('and', 'CC', 'cc', 'tell', 'VB'), ('and', 'CC', 'cc', 'own', 'JJ'), ('and', 'CC', 'cc', 'remarks', 'NNS'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('and', 'CC', 'cc', 'spent', 'VBN'), ('and', 'CC', 'cc', 'writing', 'VBG'), ('and', 'CC', 'cc', 'watching', 'VBG'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('and', 'CC', 'cc', 'were', 'VBD'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'Darcy', 'NNP'), ('or', 'CC', 'cc', 'on', 'IN'), ('or', 'CC', 'cc', 'on', 'IN'), ('and', 'CC', 'cc', 'formed', 'VBD'), ('but', 'CC', 'cc', 'Thank', 'VBP'), ('and', 'CC', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'Tell', 'VB'), ('But', 'CC', 'cc', 'write', 'VB'), ('but', 'CC', 'cc', 'write', 'VB'), ('and', 'CC', 'cc', 'leaves', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('And', 'CC', 'cc', 'call', 'VB'), ('and', 'CC', 'cc', 'thought', 'NN'), ('and', 'CC', 'cc', 'prized', 'VBN'), ('and', 'CC', 'cc', 'meant', 'VBD'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('or', 'CC', 'cc', 'yourself', 'PRP'), ('And', 'CC', 'cc', 'believed', 'VBD'), ('and', 'CC', 'cc', 'believed', 'VBD'), ('but', 'CC', 'cc', 'daresay', 'VBP'), ('and', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'go', 'VB'), ('But', 'CC', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'give', 'VB'), ('but', 'CC', 'cc', 'expect', 'VBP'), ('and', 'CC', 'cc', 'friend', 'NN'), ('and', 'CC', 'cc', 'friendship', 'NN'), ('But', 'CC', 'cc', 'think', 'VB'), ('and', 'CC', 'cc', 'general', 'JJ'), ('and', 'CC', 'cc', 'friend', 'NN'), ('as', 'IN', 'cc', 'appertain', 'VB'), ('and', 'CC', 'cc', 'height', 'NN'), ('and', 'CC', 'cc', 'know', 'VB'), ('and', 'CC', 'cc', 'at', 'IN'), ('but', 'CC', 'cc', 'declare', 'VBP'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('and', 'CC', 'cc', 'dislike', 'VBP'), ('and', 'CC', 'cc', 'you', 'PRP'), ('and', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'Bingley', 'NNP'), ('and', 'CC', 'cc', 'moved', 'VBD'), ('and', 'CC', 'cc', 'politely', 'RB'), ('and', 'CC', 'cc', 'sang', 'VBD'), ('and', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'wrong', 'JJ'), ('and', 'CC', 'cc', 'varied', 'VBD'), ('but', 'CC', 'cc', 'smiled', 'VBD'), ('but', 'CC', 'cc', 'said', 'VBD'), ('but', 'CC', 'cc', 'wanted', 'VBD'), ('and', 'CC', 'cc', 'delight', 'JJ'), ('and', 'CC', 'cc', 'made', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'mixture', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('or', 'CC', 'cc', 'saw', 'VBD'), ('and', 'CC', 'cc', 'saw', 'VBD'), ('and', 'CC', 'cc', 'tried', 'VBD'), ('and', 'CC', 'cc', 'give', 'VB'), ('And', 'CC', 'cc', 'endeavour', 'VB'), ('and', 'CC', 'cc', 'conceit', 'NN'), ('and', 'CC', 'cc', 'uncle', 'NN'), ('but', 'CC', 'cc', 'attempt', 'VB'), ('and', 'CC', 'cc', 'colour', 'NN'), ('and', 'CC', 'cc', 'colour', 'NN'), ('and', 'CC', 'cc', 'Hurst', 'NNP'), ('and', 'CC', 'cc', 'felt', 'VBD'), ('But', 'CC', 'cc', 'stay', 'VB'), ('and', 'CC', 'cc', 'grouped', 'VBN'), ('or', 'CC', 'cc', 'two', 'CD'), ('and', 'CC', 'cc', 'ran', 'VBD'), ('and', 'CC', 'cc', 'attended', 'VBD'), ('and', 'CC', 'cc', 'relate', 'VB'), ('But', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'turned', 'VBN'), ('and', 'CC', 'cc', 'made', 'VBD'), ('but', 'CC', 'cc', 'made', 'VBD'), ('and', 'CC', 'cc', 'diffuseness', 'NN'), ('and', 'CC', 'cc', 'joy', 'NN'), ('and', 'CC', 'cc', 'spent', 'VBN'), ('and', 'CC', 'cc', 'sat', 'VBD'), ('but', 'CC', 'cc', 'reminded', 'VBD'), ('and', 'CC', 'cc', 'obtained', 'VBN'), ('and', 'CC', 'cc', 'one', 'NN'), ('and', 'CC', 'cc', 'stretch', 'VB'), ('and', 'CC', 'cc', 'did', 'VBD'), ('and', 'CC', 'cc', 'bracelets', 'NNS'), ('and', 'CC', 'cc', 'joined', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('or', 'CC', 'cc', 'making', 'VBG'), ('and', 'CC', 'cc', 'answered', 'VBD'), ('and', 'CC', 'cc', 'gave', 'VBD'), ('and', 'CC', 'cc', 'threw', 'VBD'), ('and', 'CC', 'cc', 'him', 'PRP'), ('but', 'CC', 'cc', 'go', 'VB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('but', 'CC', 'cc', 'replied', 'VBD'), ('of', 'IN', 'cc', 'conversation', 'NN'), ('but', 'CC', 'cc', 'dare', 'VBP'), ('and', 'CC', 'cc', 'made', 'VBD'), ('and', 'CC', 'cc', 'got', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'walked', 'VBD'), ('and', 'CC', 'cc', 'resolved', 'VBD'), ('and', 'CC', 'cc', 'let', 'VBD'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'be', 'VB'), ('but', 'CC', 'cc', 'invited', 'VBN'), ('but', 'CC', 'cc', 'declined', 'VBD'), ('and', 'CC', 'cc', 'up', 'RB'), ('and', 'CC', 'cc', 'dying', 'VBG'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'means', 'VBZ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'are', 'VBP'), ('or', 'CC', 'cc', 'are', 'VBP'), ('and', 'CC', 'cc', 'be', 'VB'), ('but', 'CC', 'cc', 'have', 'VBP'), ('and', 'CC', 'cc', 'plague', 'VB'), ('But', 'CC', 'cc', 'do', 'VBP'), ('and', 'CC', 'cc', 'temper', 'NN'), ('And', 'CC', 'cc', 'expose', 'VB'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'wisest', 'JJS'), ('and', 'CC', 'cc', 'wisest', 'JJS'), ('but', 'CC', 'cc', 'are', 'VBP'), ('or', 'CC', 'cc', 'wise', 'JJ'), ('and', 'CC', 'cc', 'Follies', 'NNS'), ('and', 'CC', 'cc', 'whims', 'NNS'), ('and', 'CC', 'cc', 'own', 'VBP'), ('But', 'CC', 'cc', 'are', 'VBP'), ('But', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'vanity', 'NN'), ('But', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'said', 'VBD'), ('but', 'CC', 'cc', 'have', 'VBP'), ('and', 'CC', 'cc', 'follies', 'NNS'), ('nor', 'CC', 'cc', 'forget', 'VB'), ('But', 'CC', 'cc', 'chosen', 'VBN'), ('And', 'CC', 'cc', 'is', 'VBZ'), ('And', 'CC', 'cc', 'yours', 'NNS'), ('and', 'CC', 'cc', 'made', 'VBD'), ('and', 'CC', 'cc', 'opened', 'VBN'), ('But', 'CC', 'cc', 'bring', 'VB'), ('and', 'CC', 'cc', 'sent', 'VBD'), ('and', 'CC', 'cc', 'Bingley', 'NNP'), ('nor', 'CC', 'cc', 'resolved', 'VBN'), ('and', 'CC', 'cc', 'expect', 'VB'), ('and', 'CC', 'cc', 'urged', 'VBD'), ('and', 'CC', 'cc', 'settled', 'VBN'), ('and', 'CC', 'cc', 'excited', 'VBD'), ('and', 'CC', 'cc', 'said', 'VBN'), ('and', 'CC', 'cc', 'jealousy', 'NN'), ('and', 'CC', 'cc', 'heard', 'VBD'), ('but', 'CC', 'cc', 'heard', 'VBD'), ('and', 'CC', 'cc', 'attracted', 'VBD'), ('and', 'CC', 'cc', '_', 'NN'), ('or', 'CC', 'cc', 'confirming', 'VBG'), ('and', 'CC', 'cc', 'spoke', 'VBD'), ('and', 'CC', 'cc', 'adhered', 'VBD'), ('as', 'IN', 'cc', 'increased', 'VBD'), ('and', 'CC', 'cc', 'increased', 'VBD'), ('or', 'CC', 'cc', 'Longbourn', 'NNP'), ('and', 'CC', 'cc', 'give', 'VB'), ('and', 'CC', 'cc', 'wondered', 'VBD'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('But', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'lost', 'VBN'), ('and', 'CC', 'cc', 'Jane', 'NNP'), ('and', 'CC', 'cc', 'bass', 'NN'), ('and', 'CC', 'cc', 'found', 'VBD'), ('and', 'CC', 'cc', 'extracts', 'NNS'), ('and', 'CC', 'cc', 'Catherine', 'NNP'), ('and', 'CC', 'cc', 'done', 'VBN'), ('and', 'CC', 'cc', 'flogged', 'VBN'), ('and', 'CC', 'cc', 'am', 'VBP'), ('and', 'CC', 'cc', 'gentleman', 'NN'), ('and', 'CC', 'cc', 'gentleman', 'NN'), ('But', 'CC', 'cc', 'Lord', 'NNP'), ('and', 'CC', 'cc', 'roused', 'VBD'), ('and', 'CC', 'cc', 'wife', 'NN'), ('and', 'CC', 'cc', 'received', 'VBD'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('and', 'CC', 'cc', 'think', 'VB'), ('or', 'CC', 'cc', 'something', 'NN'), ('and', 'CC', 'cc', 'Jane', 'NNP'), ('but', 'CC', 'cc', 'attempted', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'said', 'VBD'), ('But', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'think', 'VBP'), ('and', 'CC', 'cc', 'write', 'VB'), ('and', 'CC', 'cc', 'yourself', 'PRP'), ('and', 'CC', 'cc', 'gave', 'VBD'), ('but', 'CC', 'cc', 'wished', 'VBN'), ('and', 'CC', 'cc', 'bounty', 'NN'), ('and', 'CC', 'cc', 'preferred', 'VBN'), ('and', 'CC', 'cc', 'rites', 'NNS'), ('and', 'CC', 'cc', 'promote', 'VB'), ('and', 'CC', 'cc', 'feel', 'VBP'), ('and', 'CC', 'cc', 'are', 'VBP'), ('and', 'CC', 'cc', 'overlooked', 'VBN'), ('and', 'CC', 'cc', 'be', 'VB'), ('as', 'IN', 'cc', 'apologize', 'VB'), ('but', 'CC', 'cc', 'be', 'VB'), ('and', 'CC', 'cc', 'you', 'PRP'), ('and', 'CC', 'cc', 'propose', 'VBP'), ('and', 'CC', 'cc', 'lady', 'NN'), ('and', 'CC', 'cc', 'wisher', 'NN'), ('and', 'CC', 'cc', 'conscientious', 'JJ'), ('and', 'CC', 'cc', 'seems', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'struck', 'VBN'), ('and', 'CC', 'cc', 'marrying', 'NN'), ('And', 'CC', 'cc', 'mean', 'VB'), ('and', 'CC', 'cc', 'servility', 'NN'), ('yet', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'Catherine', 'NNP'), ('nor', 'CC', 'cc', 'letter', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'done', 'VBN'), ('and', 'CC', 'cc', 'husband', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'said', 'VBD'), ('nor', 'CC', 'cc', 'seemed', 'VBD'), ('and', 'CC', 'cc', 'five', 'CD'), ('and', 'CC', 'cc', 'grave', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'heard', 'VBN'), ('and', 'CC', 'cc', 'fallen', 'VBN'), ('but', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'answered', 'VBD'), ('and', 'CC', 'cc', 'am', 'VBP'), ('but', 'CC', 'cc', 'say', 'VB'), ('and', 'CC', 'cc', 'appearing', 'VBG'), ('But', 'CC', 'cc', 'assure', 'VB'), ('but', 'CC', 'cc', 'say', 'VB'), ('and', 'CC', 'cc', 'say', 'VB'), ('and', 'CC', 'cc', 'room', 'NN'), ('and', 'CC', 'cc', 'examined', 'VBN'), ('and', 'CC', 'cc', 'examined', 'VBN'), ('but', 'CC', 'cc', 'touched', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('But', 'CC', 'cc', 'set', 'VBN'), ('and', 'CC', 'cc', 'were', 'VBD'), ('but', 'CC', 'cc', 'declared', 'VBD'), ('but', 'CC', 'cc', 'spoke', 'VBD'), ('and', 'CC', 'cc', 'thought', 'VBD'), ('and', 'CC', 'cc', 'attention', 'NN'), ('and', 'CC', 'cc', 'elevated', 'VBD'), ('and', 'CC', 'cc', 'affability', 'NN'), ('and', 'CC', 'cc', 'asked', 'VBN'), ('but', 'CC', 'cc', 'knew', 'VBD'), ('nor', 'CC', 'cc', 'made', 'VBD'), ('or', 'CC', 'cc', 'two', 'CD'), ('and', 'CC', 'cc', 'condescended', 'VBN'), ('and', 'CC', 'cc', 'paid', 'VBN'), ('and', 'CC', 'cc', 'proper', 'JJ'), ('and', 'CC', 'cc', 'said', 'VBD'), ('and', 'CC', 'cc', 'daughter', 'NN'), ('And', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'superintended', 'VBD'), ('But', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('and', 'CC', 'cc', 'phaeton', 'NN'), ('and', 'CC', 'cc', 'prevents', 'VBZ'), ('and', 'CC', 'cc', 'seemed', 'VBD'), ('and', 'CC', 'cc', 'seemed', 'VBD'), ('and', 'CC', 'cc', 'are', 'VBP'), ('and', 'CC', 'cc', 'is', 'VBZ'), ('or', 'CC', 'cc', 'proceed', 'VBP'), ('and', 'CC', 'cc', 'arise', 'VBP'), ('and', 'CC', 'cc', 'suggesting', 'VBG'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'maintaining', 'VBG'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'assented', 'VBD'), ('but', 'CC', 'cc', 'assented', 'VBD'), ('and', 'CC', 'cc', 'started', 'VBD'), ('and', 'CC', 'cc', 'stared', 'VBD'), ('and', 'CC', 'cc', 'produced', 'VBN'), ('and', 'CC', 'cc', 'gaped', 'VBD'), ('and', 'CC', 'cc', 'hire', 'VB'), ('and', 'CC', 'cc', 'walk', 'VB'), ('but', 'CC', 'cc', 'bid', 'VBN'), ('and', 'CC', 'cc', 'offended', 'VBN'), ('But', 'CC', 'cc', 'importune', 'VB'), ('and', 'CC', 'cc', 'Bennet', 'NNP'), ('and', 'CC', 'cc', 'apologized', 'VBD'), ('but', 'CC', 'cc', 'apologized', 'VBD'), ('and', 'CC', 'cc', 'after', 'IN'), ('and', 'CC', 'cc', 'seated', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'been', 'VBN'), ('or', 'CC', 'cc', 'education', 'NN'), ('and', 'CC', 'cc', 'illiterate', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('but', 'CC', 'cc', 'given', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'early', 'JJ'), ('and', 'CC', 'cc', 'recommended', 'VBN'), ('and', 'CC', 'cc', 'respect', 'NN'), ('and', 'CC', 'cc', 'veneration', 'NN'), ('and', 'CC', 'cc', 'pride', 'NN'), ('and', 'CC', 'cc', 'importance', 'NN'), ('and', 'CC', 'cc', 'house', 'NN'), ('and', 'CC', 'cc', 'intended', 'VBD'), ('and', 'CC', 'cc', 'handsome', 'JJ'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'eligibility', 'NN'), ('and', 'CC', 'cc', 'suitableness', 'NN'), ('and', 'CC', 'cc', 'generous', 'JJ'), ('and', 'CC', 'cc', 'confirmed', 'VBD'), ('and', 'CC', 'cc', 'confirmed', 'VBD'), ('and', 'CC', 'cc', 'conversation', 'NN'), ('and', 'CC', 'cc', 'smiles', 'NNS'), ('but', 'CC', 'cc', 'answer', 'VB'), ('and', 'CC', 'cc', 'had', 'VBD'), ('and', 'CC', 'cc', 'birth', 'NN'), ('and', 'CC', 'cc', 'treasured', 'VBD'), ('and', 'CC', 'cc', 'treasured', 'VBD'), ('and', 'CC', 'cc', 'agreed', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'followed', 'VBN'), ('but', 'CC', 'cc', 'continue', 'VB'), ('and', 'CC', 'cc', 'house', 'NN'), ('and', 'CC', 'cc', 'leisure', 'NN'), ('and', 'CC', 'cc', 'been', 'VBN'), ('and', 'CC', 'cc', 'folly', 'NN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'In', 'IN'), ('and', 'CC', 'cc', 'wandering', 'VBG'), ('or', 'CC', 'cc', 'less', 'JJR'), ('But', 'CC', 'cc', 'caught', 'VBN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'wondered', 'VBD'), ('and', 'CC', 'cc', 'Kitty', 'NNP'), ('and', 'CC', 'cc', 'led', 'VBD'), ('and', 'CC', 'cc', 'addressed', 'VBD'), ('and', 'CC', 'cc', 'addressed', 'VBD'), ('and', 'CC', 'cc', 'figure', 'NN'), ('and', 'CC', 'cc', 'correct', 'JJ'), ('and', 'CC', 'cc', 'followed', 'VBN'), ('and', 'CC', 'cc', 'standing', 'VBG'), ('and', 'CC', 'cc', 'drew', 'VBD'), ('and', 'CC', 'cc', 'Darcy', 'NNP'), ('and', 'CC', 'cc', 'came', 'VBD'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', 'cc', 'corroborated', 'VBD'), ('and', 'CC', 'cc', 'corroborated', 'VBD'), ('but', 'CC', 'cc', 'In', 'IN'), ('and', 'CC', 'cc', 'took', 'VBD'), ('and', 'CC', 'cc', 'Denny', 'NNP'), ('and', 'CC', 'cc', 'walked', 'VBD'), ('and', 'CC', 'cc', 'in', 'IN'), ('and', 'CC', 'cc', 'in', 'IN'), ('and', 'CC', 'cc', 'was', 'VBD'), ('and', 'CC', </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[('a', 'DT', 'det', 'truth', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('a', 'DT', 'det', 'fortune', 'NN'), ('a', 'DT', 'det', 'wife', 'NN'), ('the', 'DT', 'det', 'feelings', 'NNS'), ('a', 'DT', 'det', 'man', 'NN'), ('a', 'DT', 'det', 'neighborhood', 'NN'), ('this', 'DT', 'det', 'truth', 'NN'), ('the', 'DT', 'det', 'minds', 'NNS'), ('the', 'DT', 'det', 'families', 'NNS'), ('the', 'DT', 'det', 'property', 'NN'), ('some', 'DT', 'det', 'one', 'CD'), ('no', 'DT', 'det', 'answer', 'NN'), ('no', 'DT', 'det', 'objection', 'NN'), ('the', 'DT', 'det', 'place', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('the', 'DT', 'det', 'north', 'NN'), ('a', 'DT', 'det', 'chaise', 'NN'), ('the', 'DT', 'det', 'place', 'NN'), ('the', 'DT', 'det', 'house', 'NN'), ('the', 'DT', 'det', 'end', 'NN'), ('A', 'DT', 'det', 'man', 'NN'), ('What', 'WP', 'det', 'thing', 'NN'), ('a', 'DT', 'det', 'thing', 'NN'), ('no', 'DT', 'det', 'occasion', 'NN'), ('the', 'DT', 'det', 'girls', 'NNS'), ('the', 'DT', 'det', 'best', 'JJS'), ('the', 'DT', 'det', 'party', 'NN'), ('a', 'DT', 'det', 'woman', 'NN'), ('a', 'DT', 'det', 'woman', 'NN'), ('the', 'DT', 'det', 'neighbourhood', 'NN'), ('what', 'WP', 'det', 'establishment', 'NN'), ('an', 'DT', 'det', 'establishment', 'NN'), ('that', 'DT', 'det', 'account', 'NN'), ('no', 'DT', 'det', 'comers', 'NNS'), ('the', 'DT', 'det', 'girls', 'NNS'), ('a', 'DT', 'det', 'word', 'NN'), ('no', 'DT', 'det', 'thing', 'NN'), ('a', 'DT', 'det', 'bit', 'NN'), ('the', 'DT', 'det', 'others', 'NNS'), ('the', 'DT', 'det', 'preference', 'NN'), ('a', 'DT', 'det', 'way', 'NN'), ('no', 'DT', 'det', 'compassion', 'NN'), ('a', 'DT', 'det', 'respect', 'NN'), ('these', 'DT', 'det', 'years', 'NNS'), ('a', 'DT', 'det', 'year', 'NN'), ('the', 'DT', 'det', 'neighbourhood', 'NN'), ('no', 'DT', 'det', 'use', 'NN'), ('a', 'DT', 'det', 'mixture', 'NN'), ('the', 'DT', 'det', 'experience', 'NN'), ('a', 'DT', 'det', 'woman', 'NN'), ('The', 'DT', 'det', 'business', 'NN'), ('the', 'DT', 'det', 'earliest', 'JJS'), ('the', 'DT', 'det', 'last', 'JJ'), ('the', 'DT', 'det', 'evening', 'NN'), ('the', 'DT', 'det', 'visit', 'NN'), ('no', 'DT', 'det', 'knowledge', 'NN'), ('the', 'DT', 'det', 'manner', 'NN'), ('a', 'DT', 'det', 'hat', 'NN'), ('a', 'DT', 'det', 'way', 'NN'), ('the', 'DT', 'det', 'assemblies', 'NNS'), ('any', 'DT', 'det', 'thing', 'NN'), ('a', 'DT', 'det', 'woman', 'NN'), ('no', 'DT', 'det', 'opinion', 'NN'), ('any', 'DT', 'det', 'reply', 'NN'), ('a', 'DT', 'det', 'compassion', 'NN'), ('no', 'DT', 'det', 'discretion', 'NN'), ('the', 'DT', 'det', 'day', 'NN'), ('the', 'DT', 'det', 'advantage', 'NN'), ('A', 'DT', 'det', 'fortnight', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('the', 'DT', 'det', 'end', 'NN'), ('a', 'DT', 'det', 'fortnight', 'NN'), ('an', 'DT', 'det', 'act', 'NN'), ('the', 'DT', 'det', 'office', 'NN'), ('The', 'DT', 'det', 'girls', 'NNS'), ('the', 'DT', 'det', 'meaning', 'NN'), ('that', 'DT', 'det', 'exclamation', 'NN'), ('the', 'DT', 'det', 'forms', 'NNS'), ('the', 'DT', 'det', 'stress', 'NN'), ('a', 'DT', 'det', 'lady', 'NN'), ('that', 'DT', 'det', '_', 'DT'), ('this', 'DT', 'det', 'morning', 'NN'), ('the', 'DT', 'det', 'visit', 'NN'), ('the', 'DT', 'det', 'acquaintance', 'NN'), ('The', 'DT', 'det', 'astonishment', 'NN'), ('the', 'DT', 'det', 'ladies', 'NNS'), ('the', 'DT', 'det', 'rest', 'NN'), ('the', 'DT', 'det', 'tumult', 'NN'), ('the', 'DT', 'det', 'while', 'NN'), ('an', 'DT', 'det', 'acquaintance', 'NN'), ('a', 'DT', 'det', 'joke', 'NN'), ('this', 'DT', 'det', 'morning', 'NN'), ('a', 'DT', 'det', 'word', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('the', 'DT', 'det', 'raptures', 'NNS'), ('What', 'WP', 'det', 'father', 'NN'), ('an', 'DT', 'det', 'father', 'NN'), ('the', 'DT', 'det', 'door', 'NN'), ('that', 'DT', 'det', 'matter', 'NN'), ('every', 'DT', 'det', 'day', 'NN'), ('the', 'DT', 'det', 'youngest', 'JJS'), ('the', 'DT', 'det', 'ball', 'NN'), ('the', 'DT', 'det', 'youngest', 'JJS'), ('the', 'DT', 'det', 'tallest', 'JJS'), ('The', 'DT', 'det', 'rest', 'NN'), ('the', 'DT', 'det', 'evening', 'NN'), ('the', 'DT', 'det', 'tallest', 'JJS'), ('a', 'DT', 'det', 'horse', 'NN'), ('the', 'DT', 'det', 'assistance', 'NN'), ('the', 'DT', 'det', 'subject', 'NN'), ('any', 'DT', 'det', 'description', 'NN'), ('the', 'DT', 'det', 'skill', 'NN'), ('the', 'DT', 'det', 'intelligence', 'NN'), ('the', 'DT', 'det', 'whole', 'NN'), ('the', 'DT', 'det', 'assembly', 'NN'), ('a', 'DT', 'det', 'party', 'NN'), ('a', 'DT', 'det', 'step', 'NN'), ('the', 'DT', 'det', 'others', 'NNS'), ('a', 'DT', 'det', 'days', 'NNS'), ('a', 'DT', 'det', 'sight', 'NN'), ('the', 'DT', 'det', 'ladies', 'NNS'), ('the', 'DT', 'det', 'father', 'NN'), ('The', 'DT', 'det', 'ladies', 'NNS'), ('the', 'DT', 'det', 'advantage', 'NN'), ('an', 'DT', 'det', 'window', 'NN'), ('a', 'DT', 'det', 'coat', 'NN'), ('a', 'DT', 'det', 'horse', 'NN'), ('An', 'DT', 'det', 'invitation', 'NN'), ('the', 'DT', 'det', 'courses', 'NNS'), ('an', 'DT', 'det', 'answer', 'NN'), ('the', 'DT', 'det', 'day', 'NN'), ('the', 'DT', 'det', 'honour', 'NN'), ('what', 'WP', 'det', 'business', 'NN'), ('a', 'DT', 'det', 'little', 'JJ'), ('the', 'DT', 'det', 'idea', 'NN'), ('the', 'DT', 'det', 'Party', 'NNP'), ('a', 'DT', 'det', 'party', 'NN'), ('the', 'DT', 'det', 'ball', 'NN'), ('a', 'DT', 'det', 'report', 'NN'), ('the', 'DT', 'det', 'assembly', 'NN'), ('The', 'DT', 'det', 'girls', 'NNS'), ('a', 'DT', 'det', 'number', 'NN'), ('the', 'DT', 'det', 'day', 'NN'), ('the', 'DT', 'det', 'ball', 'NN'), ('a', 'DT', 'det', 'cousin', 'NN'), ('the', 'DT', 'det', 'party', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('the', 'DT', 'det', 'husband', 'NN'), ('the', 'DT', 'det', 'eldest', 'JJS'), ('another', 'DT', 'det', 'man', 'NN'), ('a', 'DT', 'det', 'countenance', 'NN'), ('an', 'DT', 'det', 'air', 'NN'), ('the', 'DT', 'det', 'gentleman', 'NN'), ('the', 'DT', 'det', 'attention', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('the', 'DT', 'det', 'report', 'NN'), ('a', 'DT', 'det', 'year', 'NN'), ('The', 'DT', 'det', 'gentlemen', 'NNS'), ('a', 'DT', 'det', 'figure', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('the', 'DT', 'det', 'ladies', 'NNS'), ('the', 'DT', 'det', 'evening', 'NN'), ('a', 'DT', 'det', 'disgust', 'NN'), ('the', 'DT', 'det', 'tide', 'NN'), ('a', 'DT', 'det', 'countenance', 'NN'), ('the', 'DT', 'det', 'people', 'NNS'), ('the', 'DT', 'det', 'room', 'NN'), ('every', 'DT', 'det', 'dance', 'NN'), ('the', 'DT', 'det', 'ball', 'NN'), ('What', 'WP', 'det', 'contrast', 'NN'), ('a', 'DT', 'det', 'contrast', 'NN'), ('any', 'DT', 'det', 'lady', 'NN'), ('the', 'DT', 'det', 'rest', 'NN'), ('the', 'DT', 'det', 'evening', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('the', 'DT', 'det', 'man', 'NN'), ('the', 'DT', 'det', 'world', 'NN'), ('the', 'DT', 'det', 'violent', 'JJ'), ('the', 'DT', 'det', 'scarcity', 'NN'), ('that', 'DT', 'det', 'time', 'NN'), ('a', 'DT', 'det', 'conversation', 'NN'), ('the', 'DT', 'det', 'dance', 'NN'), ('this', 'DT', 'det', 'manner', 'NN'), ('an', 'DT', 'det', 'assembly', 'NN'), ('another', 'DT', 'det', 'woman', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('a', 'DT', 'det', 'punishment', 'NN'), ('a', 'DT', 'det', 'kingdom', 'NN'), ('this', 'DT', 'det', 'evening', 'NN'), ('the', 'DT', 'det', 'girl', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('the', 'DT', 'det', 'Bennet', 'NNP'), ('the', 'DT', 'det', 'creature', 'NN'), ('a', 'DT', 'det', 'moment', 'NN'), ('no', 'DT', 'det', 'humour', 'NN'), ('no', 'DT', 'det', 'feelings', 'NNS'), ('the', 'DT', 'det', 'story', 'NN'), ('a', 'DT', 'det', 'disposition', 'NN'), ('The', 'DT', 'det', 'evening', 'NN'), ('the', 'DT', 'det', 'family', 'NN'), ('the', 'DT', 'det', 'party', 'NN'), ('a', 'DT', 'det', 'way', 'NN'), ('the', 'DT', 'det', 'girl', 'NN'), ('the', 'DT', 'det', 'neighbourhood', 'NN'), ('a', 'DT', 'det', 'ball', 'NN'), ('the', 'DT', 'det', 'village', 'NN'), ('the', 'DT', 'det', 'inhabitants', 'NNS'), ('a', 'DT', 'det', 'book', 'NN'), ('the', 'DT', 'det', 'occasion', 'NN'), ('a', 'DT', 'det', 'deal', 'NN'), ('the', 'DT', 'det', 'event', 'NN'), ('an', 'DT', 'det', 'evening', 'NN'), ('the', 'DT', 'det', 'stranger', 'NN'), ('a', 'DT', 'det', 'story', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('a', 'DT', 'det', 'evening', 'NN'), ('a', 'DT', 'det', 'ball', 'NN'), ('that', 'DT', 'det', '_', 'DT'), ('the', 'DT', 'det', 'creature', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('a', 'DT', 'det', 'time', 'NN'), ('the', 'DT', 'det', 'dance', 'NN'), ('the', 'DT', 'det', 'two', 'CD'), ('the', 'DT', 'det', 'third', 'JJ'), ('the', 'DT', 'det', 'two', 'CD'), ('the', 'DT', 'det', 'fifth', 'JJ'), ('the', 'DT', 'det', 'two', 'CD'), ('the', 'DT', 'det', '_', 'NN'), ('any', 'DT', 'det', 'compassion', 'NN'), ('the', 'DT', 'det', 'dance', 'NN'), ('the', 'DT', 'det', 'lace', 'NN'), ('any', 'DT', 'det', 'description', 'NN'), ('another', 'DT', 'det', 'branch', 'NN'), ('the', 'DT', 'det', 'subject', 'NN'), ('some', 'DT', 'det', 'exaggeration', 'NN'), ('the', 'DT', 'det', 'rudeness', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('no', 'DT', 'det', 'him', 'PRP'), ('the', 'DT', 'det', 'man', 'NN'), ('the', 'DT', 'det', 'former', 'JJ'), ('a', 'DT', 'det', 'man', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('a', 'DT', 'det', 'time', 'NN'), ('a', 'DT', 'det', 'compliment', 'NN'), ('every', 'DT', 'det', 'woman', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('No', 'DT', 'det', 'thanks', 'NNS'), ('a', 'DT', 'det', 'person', 'NN'), ('a', 'DT', 'det', 'deal', 'NN'), ('a', 'DT', 'det', 'fault', 'NN'), ('the', 'DT', 'det', 'world', 'NN'), ('a', 'DT', 'det', 'being', 'NN'), ('that', 'DT', 'det', '_', 'NN'), ('the', 'DT', 'det', 'wonder', 'NN'), ('the', 'DT', 'det', 'follies', 'NNS'), ('the', 'DT', 'det', 'good', 'NN'), ('the', 'DT', 'det', 'bad,--belongs', 'NNS'), ('this', 'DT', 'det', 'man', 'NN'), ('a', 'DT', 'det', 'neighbour', 'NN'), ('the', 'DT', 'det', 'assembly', 'NN'), ('a', 'DT', 'det', 'judgment', 'NN'), ('any', 'DT', 'det', 'attention', 'NN'), ('the', 'DT', 'det', 'power', 'NN'), ('the', 'DT', 'det', 'seminaries', 'NNS'), ('a', 'DT', 'det', 'fortune', 'NN'), ('the', 'DT', 'det', 'habit', 'NN'), ('every', 'DT', 'det', 'respect', 'NN'), ('a', 'DT', 'det', 'family', 'NN'), ('the', 'DT', 'det', 'north', 'NN'), ('a', 'DT', 'det', 'circumstance', 'NN'), ('the', 'DT', 'det', 'amount', 'NN'), ('an', 'DT', 'det', 'estate', 'NN'), ('a', 'DT', 'det', 'house', 'NN'), ('the', 'DT', 'det', 'liberty', 'NN'), ('a', 'DT', 'det', 'manor', 'NN'), ('the', 'DT', 'det', 'easiness', 'NN'), ('the', 'DT', 'det', 'remainder', 'NN'), ('the', 'DT', 'det', 'generation', 'NN'), ('an', 'DT', 'det', 'estate', 'NN'), ('a', 'DT', 'det', 'tenant', 'NN'), ('no', 'NN', 'det', 'means', 'VBZ'), ('a', 'DT', 'det', 'man', 'NN'), ('an', 'DT', 'det', 'recommendation', 'NN'), ('an', 'DT', 'det', 'hour', 'NN'), ('the', 'DT', 'det', 'situation', 'NN'), ('the', 'DT', 'det', 'rooms', 'NNS'), ('the', 'DT', 'det', 'owner', 'NN'), ('a', 'DT', 'det', 'friendship', 'NN'), ('a', 'DT', 'det', 'opposition', 'NN'), ('the', 'DT', 'det', 'easiness', 'NN'), ('no', 'DT', 'det', 'disposition', 'NN'), ('a', 'DT', 'det', 'contrast', 'NN'), ('the', 'DT', 'det', 'strength', 'NN'), ('the', 'DT', 'det', 'reliance', 'NN'), ('the', 'DT', 'det', 'opinion', 'NN'), ('the', 'DT', 'det', 'superior', 'JJ'), ('no', 'DT', 'det', 'means', 'NNS'), ('the', 'DT', 'det', 'time', 'NN'), ('that', 'DT', 'det', 'respect', 'NN'), ('the', 'DT', 'det', 'advantage', 'NN'), ('The', 'DT', 'det', 'manner', 'NN'), ('the', 'DT', 'det', 'assembly', 'NN'), ('no', 'DT', 'det', 'formality', 'NN'), ('no', 'DT', 'det', 'stiffness', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('an', 'DT', 'det', 'angel', 'NN'), ('the', 'DT', 'det', 'contrary', 'NN'), ('a', 'DT', 'det', 'collection', 'NN'), ('no', 'DT', 'det', 'fashion', 'NN'), ('the', 'DT', 'det', 'interest', 'NN'), ('a', 'DT', 'det', 'girl', 'NN'), ('a', 'DT', 'det', 'girl', 'NN'), ('a', 'DT', 'det', 'walk', 'NN'), ('a', 'DT', 'det', 'family', 'NN'), ('the', 'DT', 'det', 'Bennets', 'NNS'), ('a', 'DT', 'det', 'fortune', 'NN'), ('the', 'DT', 'det', 'honour', 'NN'), ('an', 'DT', 'det', 'address', 'NN'), ('the', 'DT', 'det', 'king', 'NN'), ('The', 'DT', 'det', 'distinction', 'NN'), ('a', 'DT', 'det', 'disgust', 'NN'), ('a', 'DT', 'det', 'town', 'NN'), ('a', 'DT', 'det', 'house', 'NN'), ('a', 'DT', 'det', 'mile', 'NN'), ('that', 'DT', 'det', 'period', 'NN'), ('the', 'DT', 'det', 'world', 'NN'), ('the', 'DT', 'det', 'contrary', 'NN'), ('a', 'DT', 'det', 'kind', 'NN'), ('a', 'DT', 'det', 'neighbour', 'NN'), ('The', 'DT', 'det', 'eldest', 'JJS'), ('a', 'DT', 'det', 'woman', 'NN'), ('the', 'DT', 'det', 'Lucases', 'NNPS'), ('the', 'DT', 'det', 'Bennets', 'NNPS'), ('a', 'DT', 'det', 'ball', 'NN'), ('the', 'DT', 'det', 'morning', 'NN'), ('the', 'DT', 'det', 'assembly', 'NN'), ('the', 'DT', 'det', 'former', 'JJ'), ('the', 'DT', 'det', 'evening', 'NN'), ('a', 'DT', 'det', 'women', 'NNS'), ('the', 'DT', 'det', 'room', 'NN'), ('the', 'DT', 'det', 'prettiest', 'NN'), ('the', 'DT', 'det', 'question', 'NN'), ('the', 'DT', 'det', 'Bennet', 'NNP'), ('a', 'DT', 'det', 'doubt', 'NN'), ('that', 'DT', 'det', 'point', 'NN'), ('the', 'DT', 'det', 'purpose', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('a', 'DT', 'det', 'misfortune', 'NN'), ('an', 'DT', 'det', 'hour', 'NN'), ('a', 'DT', 'det', 'mistake', 'NN'), ('a', 'DT', 'det', 'word', 'NN'), ('a', 'DT', 'det', 'carriage', 'NN'), ('the', 'DT', 'det', 'ball', 'NN'), ('a', 'DT', 'det', 'chaise', 'NN'), ('Another', 'DT', 'det', 'time', 'NN'), ('an', 'DT', 'det', 'excuse', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('a', 'DT', 'det', '_', 'NN'), ('the', 'DT', 'det', 'solidity', 'NN'), ('a', 'DT', 'det', 'failing', 'NN'), ('a', 'DT', 'det', 'feeling', 'NN'), ('the', 'DT', 'det', 'score', 'NN'), ('some', 'DT', 'det', 'quality', 'NN'), ('the', 'DT', 'det', 'words', 'NNS'), ('A', 'DT', 'det', 'person', 'NN'), ('a', 'DT', 'det', 'Lucas', 'NNP'), ('a', 'DT', 'det', 'pack', 'NN'), ('a', 'DT', 'det', 'bottle', 'NN'), ('every', 'DT', 'det', 'day', 'NN'), ('a', 'DT', 'det', 'deal', 'NN'), ('The', 'DT', 'det', 'boy', 'NN'), ('the', 'DT', 'det', 'argument', 'NN'), ('the', 'DT', 'det', 'visit', 'NN'), ('The', 'DT', 'det', 'ladies', 'NNS'), ('The', 'DT', 'det', 'visit', 'NN'), ('the', 'DT', 'det', 'good', 'NN'), ('the', 'DT', 'det', 'mother', 'NN'), ('the', 'DT', 'det', 'sisters', 'NNS'), ('a', 'DT', 'det', 'wish', 'NN'), ('the', 'DT', 'det', 'two', 'CD'), ('this', 'DT', 'det', 'attention', 'NN'), ('the', 'DT', 'det', 'pleasure', 'NN'), ('a', 'DT', 'det', 'value', 'NN'), ('all', 'DT', 'det', 'probability', 'NN'), ('the', 'DT', 'det', 'influence', 'NN'), ('the', 'DT', 'det', 'preference', 'NN'), ('the', 'DT', 'det', 'first', 'JJ'), ('a', 'DT', 'det', 'way', 'NN'), ('the', 'DT', 'det', 'world', 'NN'), ('a', 'DT', 'det', 'composure', 'NN'), ('an', 'DT', 'det', 'cheerfulness', 'NN'), ('the', 'DT', 'det', 'suspicions', 'NNS'), ('the', 'DT', 'det', 'impertinent', 'NN'), ('the', 'DT', 'det', 'public', 'NN'), ('a', 'DT', 'det', 'case', 'NN'), ('a', 'DT', 'det', 'disadvantage', 'NN'), ('a', 'DT', 'det', 'woman', 'NN'), ('the', 'DT', 'det', 'skill', 'NN'), ('the', 'DT', 'det', 'object', 'NN'), ('the', 'DT', 'det', 'opportunity', 'NN'), ('the', 'DT', 'det', 'world', 'NN'), ('the', 'DT', 'det', 'dark', 'NN'), ('a', 'DT', 'det', 'preference', 'NN'), ('a', 'DT', 'det', 'woman', 'NN'), ('_', 'DT', 'det', 'affection', 'NN'), ('a', 'DT', 'det', 'simpleton', 'NN'), ('a', 'DT', 'det', 'woman', 'NN'), ('a', 'DT', 'det', 'man', 'NN'), ('each', 'DT', 'det', 'other', 'JJ'), ('every', 'DT', 'det', 'moment', 'NN'), ('the', 'DT', 'det', 'most', 'JJS'), ('every', 'DT', 'det', 'hour', 'NN'), ('a', 'DT', 'det', 'one', 'NN'), ('the', 'DT', 'det', 'desire', 'NN'), ('a', 'DT', 'det', 'husband', 'NN'), ('any', 'DT', 'det', 'husband', 'NN'), ('the', 'DT', 'det', 'degree', 'NN'), ('a', 'DT', 'det', 'fortnight', 'NN'), ('a', 'DT', 'det', 'appetite', 'NN'), ('a', 'DT', 'det', 'deal', 'NN'), ('these', 'DT', 'det', 'evenings', 'NNS'), ('any', 'DT', 'det', 'characteristic', 'NN'), ('a', 'DT', 'det', 'chance', 'NN'), ('a', 'DT', 'det', 'twelvemonth', 'NN'), ('a', 'DT', 'det', 'matter', 'NN'), ('the', 'DT', 'det', 'dispositions', 'NNS'), ('the', 'DT', 'det', 'parties', 'NNS'), ('each', 'DT', 'det', 'other', 'JJ'), ('the', 'DT', 'det', 'least', 'JJS'), ('the', 'DT', 'det', 'defects', 'NNS'), ('the', 'DT', 'det', 'person', 'NN'), ('this', 'DT', 'det', 'way', 'NN'), ('an', 'DT', 'det', 'object', 'NN'), ('some', 'DT', 'det', 'interest', 'NN'), ('the', 'DT', 'det', 'eyes', 'NNS'), ('the', 'DT', 'det', 'ball', 'NN'), ('no', 'DT', 'det', 'sooner', 'RB'), ('a', 'DT', 'det', 'feature', 'NN'), ('the', 'DT', 'det', 'expression', 'NN'), ('this', 'DT', 'det', 'discovery', 'NN'), ('some', 'DT', 'det', 'others', 'NNS'), ('a', 'DT', 'det', 'eye', 'NN'), ('the', 'DT', 'det', 'world', 'NN'), ('the', 'DT', 'det', 'man', 'NN'), ('a', 'DT', 'det', 'step', 'NN'), ('a', 'DT', 'det', 'party', 'NN'), ('a', 'DT', 'det', 'question', 'NN'), ('a', 'DT', 'det', 'eye', 'NN'), ('The', 'DT', 'det', 'entreaties', 'NNS'), ('any', 'DT', 'det', 'intention', 'NN'), ('a', 'DT', 'det', 'subject', 'NN'), ('a', 'DT', 'det', 'ball', 'NN'), ('a', 'DT', 'det', 'subject', 'NN'), ('a', 'DT', 'det', 'energetic', 'JJ'), ('the', 'DT', 'det', 'instrument', 'NN'), ('a', 'DT', 'det', 'creature', 'NN'), ('a', 'DT', 'det', 'friend!--always', 'NNS'), ('a', 'DT', 'det', 'turn', 'NN'), ('the', 'DT', 'det', 'habit', 'NN'), ('the', 'DT', 'det', 'performers', 'NNS'), ('a', 'DT', 'det', 'saying', 'NN'), ('no', 'DT', 'det', 'capital', 'NN'), ('a', 'DT', 'det', 'song', 'NN'), ('the', 'DT', 'det', 'entreaties', 'NNS'), ('the', 'DT', 'det', 'instrument', 'NN'), ('the', 'DT', 'det', 'one', 'CD'), ('the', 'DT', 'det', 'family', 'NN'), ('neither', 'CC', 'det', 'genius', 'NN'), ('a', 'DT', 'det', 'air', 'NN'), ('a', 'DT', 'det', 'degree', 'NN'), ('the', 'DT', 'det', 'end', 'NN'), ('a', 'DT', 'det', 'concerto', 'NN'), ('the', 'DT', 'det', 'request', 'NN'), ('the', 'DT', 'det', 'Lucases', 'NNPS'), ('the', 'DT', 'det', 'room', 'NN'), ('a', 'DT', 'det', 'mode', 'NN'), ('the', 'DT', 'det', 'evening', 'NN'), ('the', 'DT', 'det', 'exclusion', 'NN'), ('all', 'DT', 'det', 'conversation', 'NN'), ('What', 'WP', 'det', 'amusement', 'NN'), ('a', 'DT', 'det', 'amusement', 'NN'), ('the', 'DT', 'det', 'refinements', 'NNS'), ('the', 'DT', 'det', 'advantage', 'NN'), ('the', 'DT', 'det', 'societies', 'NNS'), ('the', 'DT', 'det', 'world', 'NN'), ('every', 'DT', 'det', 'savage', 'NN'), ('a', 'DT', 'det', 'pause', 'NN'), ('the', 'DT', 'det', 'group', 'NN'), ('an', 'DT', 'det', 'adept', 'NN'), ('the', 'DT', 'det', 'science', 'NN'), ('no', 'DT', 'det', 'pleasure', 'NN'), ('the', 'DT', 'det', 'sight', 'NN'), ('a', 'DT', 'det', 'compliment', 'NN'), ('the', 'DT', 'det', 'place', 'NN'), ('a', 'DT', 'det', 'compliment', 'NN'), ('any', 'DT', 'det', 'place', 'NN'), ('a', 'DT', 'det', 'house', 'NN'), ('some', 'DT', 'det', 'thoughts', 'NNS'), ('the', 'DT', 'det', 'air', 'NN'), ('an', 'DT', 'det', 'answer', 'NN'), ('that', 'DT', 'det', 'moving', 'VBG'), ('the', 'DT', 'det', 'notion', 'NN'), ('a', 'DT', 'det', 'thing', 'NN'), ('this', 'DT', 'det', 'lady', 'NN'), ('a', 'DT', 'det', 'partner', 'NN'), ('some', 'DT', 'det', 'discomposure', 'NN'), ('the', 'DT', 'det', 'intention', 'NN'), ('this', 'DT', 'det', 'way', 'NN'), ('a', 'DT', 'det', 'partner', 'NN'), ('the', 'DT', 'det', 'honour', 'NN'), ('the', 'DT', 'det', 'dance', 'NN'), ('the', 'DT', 'det', 'happiness', 'NN'), ('this', 'DT', 'det', 'gentleman', 'NN'), ('the', 'DT', 'det', 'amusement', 'NN'), ('no', 'DT', 'det', 'objection', 'NN'), ('the', 'DT', 'det', 'inducement', 'NN'), ('a', 'DT', 'det', 'partner', 'NN'), ('the', 'DT', 'det', 'gentleman', 'NN'), ('some', 'DT', 'det', 'complacency', 'NN'), ('the', 'DT', 'det', 'subject', 'NN'), ('this', 'DT', 'det', 'society', 'NN'), ('The', 'DT', 'det', 'insipidity', 'NN'), ('the', 'DT', 'det', 'noise', 'NN'), ('the', 'DT', 'det', 'nothingness', 'NN'), ('the', 'DT', 'det', 'importance', 'NN'), ('these', 'DT', 'det', 'people', 'NNS'), ('the', 'DT', 'det', 'pleasure', 'NN'), ('a', 'DT', 'det', 'pair', 'NN'), ('the', 'DT', 'det', 'face', 'NN'), ('a', 'DT', 'det', 'woman', 'NN'), ('what', 'WDT', 'det', 'lady', 'NN'), ('the', 'DT', 'det', 'credit', 'NN'), ('a', 'DT', 'det', 'favourite', 'NN'), ('the', 'DT', 'det', 'question', 'NN'), ('A', 'DT', 'det', 'imagination', 'NN'), ('a', 'DT', 'det', 'moment', 'NN'), ('the', 'DT', 'det', 'matter', 'NN'), ('a', 'DT', 'det', 'mother', 'NN'), ('this', 'DT', 'det', 'manner', 'NN'), ('A', 'DT', 'det', 'note', 'NN'), ('an', 'DT', 'det', 'estate', 'NN'), ('a', 'DT', 'det', 'year', 'NN'), ('a', 'DT', 'det', 'relation', 'NN'), ('the', 'DT', 'det', 'deficiency', 'NN'), ('an', 'DT', 'det', 'attorney', 'NN'), ('a', 'DT', 'det', 'sister', 'NN'), ('a', 'DT', 'det', 'Philips', 'NNP'), ('a', 'DT', 'det', 'clerk', 'NN'), ('the', 'DT', 'det', 'business', 'NN'), ('a', 'DT', 'det', 'brother', 'NN'), ('a', 'DT', 'det', 'line', 'NN'), ('The', 'DT', 'det', 'village', 'NN'), ('a', 'DT', 'det', 'distance', 'NN'), ('the', 'DT', 'det', 'ladies', 'NNS'), ('a', 'DT', 'det', 'week', 'NN'), ('a', 'DT', 'det', 'milliner', 'NNP'), ('the', 'DT', 'det', 'way', 'NN'), ('The', 'DT', 'det', 'youngest', 'JJS'), ('the', 'DT', 'det', 'family', 'NN'), ('these', 'DT', 'det', 'attentions', 'NNS'), ('a', 'DT', 'det', 'walk', 'NN'), ('the', 'DT', 'det', 'evening', 'NN'), ('the', 'DT', 'det', 'country', 'NN'), ('the', 'DT', 'det', 'arrival', 'NN'), ('a', 'DT', 'det', 'regiment', 'NN'), ('the', 'DT', 'det', 'neighbourhood', 'NN'), ('the', 'DT', 'det', 'winter', 'NN'), ('the', 'DT', 'det', 'quarters', 'NNS'), ('the', 'DT', 'det', 'intelligence', 'NN'), ('Every', 'DT', 'det', 'day', 'NN'), ('the', 'DT', 'det', 'officers', 'NNS'), ('a', 'DT', 'det', 'secret', 'NN'), ('the', 'DT', 'det', 'officers', 'NNS'), ('a', 'DT', 'det', 'source', 'NN'), ('the', 'DT', 'det', 'mention', 'NN'), ('the', 'DT', 'det', 'regimentals', 'NNS'), ('an', 'DT', 'det', 'ensign', 'NN'), ('this', 'DT', 'det', 'subject', 'NN'), ('the', 'DT', 'det', 'girls', 'NNS'), ('the', 'DT', 'det', 'country', 'NN'), ('some', 'DT', 'det', 'time', 'NN'), ('no', 'DT', 'det', 'answer', 'NN'), ('the', 'DT', 'det', 'course', 'NN'), ('the', 'DT', 'det', 'day', 'NN'), ('the', 'DT', 'det', 'morning', 'NN'), ('the', 'DT', 'det', 'point', 'NN'), ('every', 'DT', 'det', 'particular', 'NN'), ('the', 'DT', 'det', 'sense', 'NN'), ('the', 'DT', 'det', 'time', 'NN'), ('a', 'DT', 'det', 'coat', 'NN'), ('a', 'DT', 'det', 'colonel', 'NN'), ('a', 'DT', 'det', 'year', 'NN'), ('the', 'DT', 'det', 'night', 'NN'), ('the', 'DT', 'det', 'entrance', 'NN'), ('the', 'DT', 'det', 'footman', 'NN'), ('a', 'DT', 'det', 'note', 'NN'), ('the', 'DT', 'det', 'servant', 'NN'), ('an', 'DT', 'det', 'answer', 'NN'), ('each', 'DT', 'det', 'other', 'JJ'), ('the', 'DT', 'det', 'rest', 'NN'), ('a', 'DT', 'det', 'day', 'NN'), ('a', 'DT', 'det', 'quarrel', 'NN'), ('the', 'DT', 'det', 'receipt', 'NN'), ('the', 'DT', 'det', 'gentlemen', 'NNS'), ('the', 'DT', 'det', 'officers', 'NNS'), ('the', 'DT', 'det', 'officers', 'NNS'), ('the', 'DT', 'det', 'carriage', 'NN'), ('all', 'DT', 'det', 'night', 'NN'), ('a', 'DT', 'det', 'scheme', 'NN'), ('the', 'DT', 'det', 'gentlemen', 'NNS'), ('the', 'DT', 'det', 'Hursts', 'NNPS'), ('no', 'DT', 'det', 'horses', 'NNS'), ('the', 'DT', 'det', 'coach', 'NN'), ('the', 'DT', 'det', 'horses', 'NNS'), ('the', 'DT', 'det', 'farm', 'NN'), ('the', 'DT', 'det', 'farm', 'NN'), ('an', 'DT', 'det', 'acknowledgment', 'NN'), ('the', 'DT', 'det', 'horses', 'NNS'), ('the', 'DT', 'det', 'door', 'NN'), ('a', 'DT', 'det', 'day', 'NN'), ('The', 'DT', 'det', 'rain', 'NN'), ('the', 'DT', 'det', 'evening', 'NN'), ('a', 'DT', 'det', 'idea', 'NN'), ('the', 'DT', 'det', 'credit', 'NN'), ('the', 'DT', 'det', 'morning', 'NN'), ('the', 'DT', 'det', 'felicity', 'NN'), ('a', 'DT', 'det', 'servant', 'NN'), ('the', 'DT', 'det', 'note', 'NN'), ('this', 'DT', 'det', 'morning', 'NN'), ('a', 'DT', 'det', 'throat', 'NN'), ('a', 'DT', 'det', 'headache', 'NN'), ('the', 'DT', 'det', 'matter', 'NN'), ('the', 'DT', 'det', 'note', 'NN'), ('a', 'DT', 'det', 'fit', 'NN'), ('a', 'DT', 'det', 'comfort', 'NN'), ('the', 'DT', 'det', 'carriage', 'NN'), ('the', 'DT', 'det', 'carriage', 'NN'), ('no', 'DT', 'det', 'horsewoman', 'NN'), ('a', 'DT', 'det', 'thing', 'NN'), ('this', 'DT', 'det', 'dirt', 'NN'), ('a', 'DT', 'det', 'hint', 'NN'), ('the', 'DT', 'det', 'horses', 'NNS'), ('the', 'DT', 'det', 'walk', 'NN'), ('The', 'DT', 'det', 'distance', 'NN'), ('a', 'DT', 'det', 'motive', 'NN'), ('the', 'DT', 'det', 'activity', 'NN'), ('every', 'DT', 'det', 'impulse', 'NN'), ('the', 'DT', 'det', 'ladies', 'NNS'), ('the', 'DT', 'det', 'two', 'CD'), ('the', 'DT', 'det', 'lodgings', 'NNS'), ('the', 'DT', 'det', 'officers', 'NNS'), ('a', 'DT', 'det', 'pace', 'NN'), ('the', 'DT', 'det', 'house', 'NN'), ('a', 'DT', 'det', 'face', 'NN'), ('the', 'DT', 'det', 'warmth', 'NN'), ('the', 'DT', 'det', 'parlour', 'NN'), ('a', 'DT', 'det', 'deal', 'NN'), ('the', 'DT', 'det', 'day', 'NN'), ('The', 'DT', 'det', 'former', 'JJ'), ('the', 'DT', 'det', 'brilliancy', 'NN'), ('which', 'WDT', 'det', 'exercise', 'NN'), ('the', 'DT', 'det', 'occasion', 'NN'), ('The', 'DT', 'det', 'latter', 'JJ'), ('the', 'DT', 'det', 'fear', 'NN'), ('a', 'DT', 'det', 'visit', 'NN'), ('the', 'DT', 'det', 'kindness', 'NN'), ('the', 'DT', 'det', 'sisters', 'NNS'), ('The', 'DT', 'det', 'apothecary', 'NN'), ('a', 'DT', 'det', 'cold', 'NN'), ('the', 'DT', 'det', 'better', 'JJR'), ('some', 'DT', 'det', 'draughts', 'NNS'), ('The', 'DT', 'det', 'advice', 'NN'), ('the', 'DT', 'det', 'symptoms', 'NNS'), ('a', 'DT', 'det', 'moment', 'NN'), ('the', 'DT', 'det', 'ladies', 'NNS'), ('the', 'DT', 'det', 'gentlemen', 'NNS'), ('the', 'DT', 'det', 'clock', 'NN'), ('the', 'DT', 'det', 'carriage', 'NN'), ('a', 'DT', 'det', 'little', 'JJ'), ('the', 'DT', 'det', 'offer', 'NN'), ('the', 'DT', 'det', 'chaise', 'NN'), ('an', 'DT', 'det', 'invitation', 'NN'), ('the', 'DT', 'det', 'present', 'NN'), ('a', 'DT', 'det', 'servant', 'NN'), ('the', 'DT', 'det', 'family', 'NN'), ('a', 'DT', 'det', 'supply', 'NN'), ('The', 'DT', 'det', 'Apothecary', 'NNP'), ('a', 'DT', 'det', 'screen', 'NN'), ('the', 'DT', 'det', 'ladies', 'NNS'), ('the', 'DT', 'det', 'inquiries', 'NNS'), ('the', 'DT', 'det', 'pleasure', 'NN'), ('the', 'DT', 'det', 'solicitude', 'NN'), ('a', 'DT', 'det', 'answer', 'NN'), ('no', 'DT', 'det', 'means', 'NN'), ('The', 'DT', 'det', 'sisters', 'NNS'), ('a', 'DT', 'det', 'cold', 'NN'), ('the', 'DT', 'det', 'matter', 'NN'), ('the', 'DT', 'det', 'enjoyment', 'NN'), ('all', 'DT', 'det', 'dislike', 'NN'), ('the', 'DT', 'det', 'one', 'CD'), ('the', 'DT', 'det', 'party', 'NN'), ('any', 'DT', 'det', 'complacency', 'NN'), ('an', 'DT', 'det', 'intruder', 'NN'), ('the', 'DT', 'det', 'others', 'NNS'), ('an', 'DT', 'det', 'man', 'NN'), ('a', 'DT', 'det', 'dish', 'NN'), ('a', 'DT', 'det', 'ragout', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('no', 'DT', 'det', 'conversation', 'NN'), ('no', 'DT', 'det', 'style', 'NN'), ('no', 'DT', 'det', 'taste', 'NN'), ('no', 'DT', 'det', 'beauty', 'NN'), ('the', 'DT', 'det', 'same', 'JJ'), ('an', 'DT', 'det', 'walker', 'NN'), ('this', 'DT', 'det', 'morning', 'NN'), ('the', 'DT', 'det', 'country', 'NN'), ('a', 'DT', 'det', 'cold', 'NN'), ('the', 'DT', 'det', 'gown', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('this', 'DT', 'det', 'morning', 'NN'), ('an', 'DT', 'det', 'exhibition', 'NN'), ('an', 'DT', 'det', 'sort', 'NN'), ('a', 'DT', 'det', 'indifference', 'NN'), ('an', 'DT', 'det', 'affection', 'NN'), ('this', 'DT', 'det', 'adventure', 'NN'), ('the', 'DT', 'det', 'exercise', 'NN'), ('A', 'DT', 'det', 'pause', 'NN'), ('this', 'DT', 'det', 'speech', 'NN'), ('an', 'DT', 'det', 'regard', 'NN'), ('a', 'DT', 'det', 'sweet', 'JJ'), ('all', 'PDT', 'det', 'heart', 'NN'), ('a', 'DT', 'det', 'father', 'NN'), ('no', 'DT', 'det', 'chance', 'NN'), ('an', 'DT', 'det', 'attorney', 'NN'), ('any', 'DT', 'det', 'consideration', 'NN'), ('the', 'DT', 'det', 'world', 'NN'), ('this', 'DT', 'det', 'speech', 'NN'), ('no', 'DT', 'det', 'answer', 'NN'), ('some', 'DT', 'det', 'time', 'NN'), ('the', 'DT', 'det', 'expense', 'NN'), ('a', 'DT', 'det', 'renewal', 'NN'), ('the', 'DT', 'det', 'parlour', 'NN'), ('the', 'DT', 'det', 'evening', 'NN'), ('the', 'DT', 'det', 'comfort', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('the', 'DT', 'det', 'party', 'NN'), ('the', 'DT', 'det', 'excuse', 'NN'), ('the', 'DT', 'det', 'time', 'NN'), ('a', 'DT', 'det', 'book', 'NN'), ('a', 'DT', 'det', 'reader', 'NN'), ('no', 'DT', 'det', 'pleasure', 'NN'), ('a', 'DT', 'det', 'reader', 'NN'), ('a', 'DT', 'det', 'table', 'NN'), ('a', 'DT', 'det', 'books', 'NNS'), ('an', 'DT', 'det', 'fellow', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('a', 'DT', 'det', 'collection', 'NN'), ('What', 'WP', 'det', 'library', 'NN'), ('a', 'DT', 'det', 'library', 'NN'), ('the', 'DT', 'det', 'work', 'NN'), ('the', 'DT', 'det', 'neglect', 'NN'), ('a', 'DT', 'det', 'library', 'NN'), ('the', 'DT', 'det', 'beauties', 'NNS'), ('that', 'DT', 'det', 'place', 'NN'), ('that', 'DT', 'det', 'neighbourhood', 'NN'), ('a', 'DT', 'det', 'kind', 'NN'), ('a', 'DT', 'det', 'county', 'NN'), ('the', 'DT', 'det', 'table', 'NN'), ('the', 'DT', 'det', 'game', 'NN'), ('the', 'DT', 'det', 'spring', 'NN'), ('a', 'DT', 'det', 'countenance', 'NN'), ('the', 'DT', 'det', 'pianoforte', 'NN'), ('All', 'DT', 'det', 'ladies', 'NNS'), ('any', 'DT', 'det', 'one', 'NN'), ('a', 'DT', 'det', 'lady', 'NN'), ('the', 'DT', 'det', 'time', 'NN'), ('the', 'DT', 'det', 'extent', 'NN'), ('The', 'DT', 'det', 'word', 'NN'), ('a', 'DT', 'det', 'woman', 'NN'), ('a', 'DT', 'det', 'purse', 'NN'), ('a', 'DT', 'det', 'screen', 'NN'), ('a', 'DT', 'det', 'dozen', 'NN'), ('the', 'DT', 'det', 'range', 'NN'), ('a', 'DT', 'det', 'deal', 'NN'), ('an', 'DT', 'det', 'woman', 'NN'), ('a', 'DT', 'det', 'deal', 'NN'), ('no', 'DT', 'det', 'one', 'NN'), ('A', 'DT', 'det', 'woman', 'NN'), ('a', 'DT', 'det', 'knowledge', 'NN'), ('the', 'DT', 'det', 'languages', 'NNS'), ('the', 'DT', 'det', 'word', 'NN'), ('a', 'DT', 'det', 'something', 'NN'), ('the', 'DT', 'det', 'tone', 'NN'), ('the', 'DT', 'det', 'word', 'NN'), ('the', 'DT', 'det', 'improvement', 'NN'), ('any', 'DT', 'det', '_', 'NN'), ('the', 'DT', 'det', 'possibility', 'NN'), ('a', 'DT', 'det', 'woman', 'NN'), ('the', 'DT', 'det', 'injustice', 'NN'), ('this', 'DT', 'det', 'description', 'NN'), ('all', 'DT', 'det', 'conversation', 'NN'), ('an', 'DT', 'det', 'end', 'NN'), ('the', 'DT', 'det', 'room', 'NN'), ('the', 'DT', 'det', 'door', 'NN'), ('those', 'DT', 'det', 'ladies', 'NNS'), ('the', 'DT', 'det', 'sex', 'NN'), ('a', 'DT', 'det', 'device', 'NN'), ('a', 'DT', 'det', 'art', 'NN'), ('this', 'DT', 'det', 'remark', 'NN'), ('the', 'DT', 'det', 'arts', 'NNS'), ('which', 'WDT', 'det', 'ladies', 'NNS'), ('this', 'DT', 'det', 'reply', 'NN'), ('the', 'DT', 'det', 'subject', 'NN'), ('no', 'DT', 'det', 'advice', 'NN'), ('any', 'DT', 'det', 'service', 'NN'), ('an', 'DT', 'det', 'express', 'NN'), ('the', 'DT', 'det', 'physicians', 'NNS'), ('the', 'DT', 'det', 'morning', 'NN'), ('no', 'DT', 'det', 'relief', 'NN'), ('every', 'DT', 'det', 'attention', 'NN'), ('the', 'DT', 'det', 'lady', 'NN'), ('the', 'DT', 'det', 'chief', 'NN'), ('the', 'DT', 'det', 'night', 'NN'), ('the', 'DT', 'det', 'morning', 'NN'), ('the', 'DT', 'det', 'pleasure', 'NN'), ('a', 'DT', 'det', 'answer', 'NN'), ('the', 'DT', 'det', 'inquiries', 'NNS'), ('a', 'DT', 'det', 'housemaid', 'NNP'), ('some', 'DT', 'det', 'time', 'NN'), ('the', 'DT', 'det', 'ladies', 'NNS'), ('this', 'DT', 'det', 'amendment', 'NN'), ('a', 'DT', 'det', 'note', 'NN'), ('The', 'DT', 'det', 'note', 'NN'), ('the', 'DT', 'det', 'breakfast', 'NN'), ('any', 'DT', 'det', 'danger', 'NN'), ('no', 'DT', 'det', 'wish', 'NN'), ('the', 'DT', 'det', 'apothecary', 'NN'), ('the', 'DT', 'det', 'time', 'NN'), ('a', 'DT', 'det', 'while', 'NN'), ('the', 'DT', 'det', 'mother', 'NN'), ('the', 'DT', 'det', 'parlour', 'NN'), ('a', 'DT', 'det', 'deal', 'NN'), ('a', 'DT', 'det', 'little', 'JJ'), ('every', 'DT', 'det', 'attention', 'NN'), ('a', 'DT', 'det', 'deal', 'NN'), ('the', 'DT', 'det', 'patience', 'NN'), ('the', 'DT', 'det', 'world', 'NN'), ('the', 'DT', 'det', 'way', 'NN'), ('the', 'DT', 'det', 'temper', 'NN'), ('a', 'DT', 'det', 'room', 'NN'), ('a', 'DT', 'det', 'prospect', 'NN'), ('that', 'DT', 'det', 'walk', 'NN'), ('a', 'DT', 'det', 'place', 'NN'), ('the', 'DT', 'det', 'country', 'NN'), ('a', 'DT', 'det', 'hurry', 'NN'), ('a', 'DT', 'det', 'lease', 'NN'), ('a', 'DT', 'det', 'hurry', 'NN'), ('a', 'DT', 'det', 'compliment', 'NN'), ('a', 'DT', 'det', 'character', 'NN'), ('a', 'DT', 'det', 'one', 'NN'), ('the', 'DT', 'det', 'manner', 'NN'), ('a', 'DT', 'det', 'studier', 'NN'), ('an', 'DT', 'det', 'study', 'NN'), </t>
-  </si>
-  <si>
-    <t>[('It', 'PRP', 'nsubj', 'is', 'VBZ'), ('man', 'NN', 'nsubj', 'be', 'VB'), ('feelings', 'NNS', 'nsubj', 'be', 'VB'), ('his', 'PRP$', 'nsubj', 'entering', 'VBG'), ('Bennet', 'NNP', 'nsubj', 'said', 'VBD'), ('lady', 'NN', 'nsubj', 'said', 'VBD'), ('you', 'PRP', 'nsubj', 'heard', 'VBN'), ('Bennet', 'NNP', 'nsubj', 'replied', 'VBD'), ('he', 'PRP', 'nsubj', 'had', 'VBD'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('Long', 'NNP', 'nsubj', 'been', 'VBN'), ('she', 'PRP', 'nsubj', 'told', 'VBD'), ('Bennet', 'NNP', 'nsubj', 'made', 'VBD'), ('you', 'PRP', 'nsubj', 'want', 'VB'), ('who', 'WP', 'nsubj', 'taken', 'VBN'), ('wife', 'NN', 'nsubj', 'cried', 'VBD'), ('_', 'NFP', 'nsubj', 'want', 'VBP'), ('You', 'PRP', 'nsubj', 'want', 'VBP'), ('I', 'PRP', 'nsubj', 'have', 'VBP'), ('Illustration', 'NN', 'nsubj', 'came', 'VBD'), ('He', 'PRP', 'nsubj', 'came', 'VBD'), ('This', 'DT', 'nsubj', 'was', 'VBD'), ('you', 'PRP', 'nsubj', 'know', 'VB'), ('Long', 'NNP', 'nsubj', 'says', 'VBZ'), ('he', 'PRP', 'nsubj', 'came', 'VBD'), ('he', 'PRP', 'nsubj', 'agreed', 'VBD'), ('he', 'PRP', 'nsubj', 'is', 'VBZ'), ('some', 'DT', 'nsubj', 'are', 'VBP'), ('name', 'NN', 'nsubj', 'is', 'VBZ'), ('Bingley', 'NNP', 'nsubj', 'is', 'VBZ'), ('he', 'PRP', 'nsubj', 'Is', 'VBZ'), ('it', 'PRP', 'nsubj', 'affect', 'VB'), ('wife', 'NN', 'nsubj', 'replied', 'VBD'), ('you', 'PRP', 'nsubj', 'be', 'VB'), ('You', 'PRP', 'nsubj', 'know', 'VB'), ('I', 'PRP', 'nsubj', 'thinking', 'VBG'), ('that', 'DT', 'nsubj', 'Is', 'VBZ'), ('Design', 'NNP', 'nsubj', 'Is', 'VBZ'), ('you', 'PRP', 'nsubj', 'talk', 'VB'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('he', 'PRP', 'nsubj', 'fall', 'VB'), ('you', 'PRP', 'nsubj', 'visit', 'VB'), ('he', 'PRP', 'nsubj', 'comes', 'VBZ'), ('I', 'PRP', 'nsubj', 'see', 'VBP'), ('You', 'PRP', 'nsubj', 'go', 'VB'), ('you', 'PRP', 'nsubj', 'send', 'VB'), ('which', 'WDT', 'nsubj', 'be', 'VB'), ('you', 'PRP', 'nsubj', 'are', 'VBP'), ('Bingley', 'NNP', 'nsubj', 'like', 'VB'), ('you', 'PRP', 'nsubj', 'flatter', 'VBP'), ('I', 'PRP', 'nsubj', 'have', 'VBP'), ('_', 'NFP', 'nsubj', 'had', 'VBD'), ('I', 'PRP', 'nsubj', 'pretend', 'VB'), ('woman', 'NN', 'nsubj', 'has', 'VBZ'), ('she', 'PRP', 'nsubj', 'ought', 'MD'), ('woman', 'NN', 'nsubj', 'beauty', 'NN'), ('you', 'PRP', 'nsubj', 'go', 'VB'), ('he', 'PRP', 'nsubj', 'comes', 'VBZ'), ('It', 'PRP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'engage', 'VBP'), ('I', 'PRP', 'nsubj', 'assure', 'VBP'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('William', 'NNP', 'nsubj', 'are', 'VBP'), ('you', 'PRP', 'nsubj', 'know', 'VBP'), ('they', 'PRP', 'nsubj', 'visit', 'VBP'), ('you', 'PRP', 'nsubj', 'go', 'VB'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('you', 'PRP', 'nsubj', 'do', 'VBP'), ('You', 'PRP', 'nsubj', 'are', 'VBP'), ('I', 'PRP', 'nsubj', 'dare', 'VBP'), ('Bingley', 'NNP', 'nsubj', 'be', 'VB'), ('I', 'PRP', 'nsubj', 'send', 'VB'), ('he', 'PRP', 'nsubj', 'chooses', 'VBZ'), ('I', 'PRP', 'nsubj', 'throw', 'VB'), ('I', 'PRP', 'nsubj', 'desire', 'VBP'), ('you', 'PRP', 'nsubj', 'do', 'VB'), ('Lizzy', 'NNP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('she', 'PRP', 'nsubj', 'is', 'VBZ'), ('you', 'PRP', 'nsubj', 'giving', 'VBG'), ('They', 'PRP', 'nsubj', 'have', 'VBP'), ('he', 'PRP', 'nsubj', 'replied', 'VBD'), ('they', 'PRP', 'nsubj', 'are', 'VBP'), ('Lizzy', 'NNP', 'nsubj', 'has', 'VBZ'), ('you', 'PRP', 'nsubj', 'abuse', 'VB'), ('You', 'PRP', 'nsubj', 'take', 'VBP'), ('You', 'PRP', 'nsubj', 'have', 'VBP'), ('You', 'PRP', 'nsubj', 'mistake', 'VBP'), ('I', 'PRP', 'nsubj', 'have', 'VBP'), ('They', 'PRP', 'nsubj', 'are', 'VBP'), ('I', 'PRP', 'nsubj', 'heard', 'VBN'), ('you', 'PRP', 'nsubj', 'mention', 'VB'), ('you', 'PRP', 'nsubj', 'know', 'VB'), ('I', 'PRP', 'nsubj', 'suffer', 'VBP'), ('I', 'PRP', 'nsubj', 'hope', 'VBP'), ('you', 'PRP', 'nsubj', 'get', 'VB'), ('men', 'NNS', 'nsubj', 'come', 'VBN'), ('It', 'PRP', 'nsubj', 'be', 'VB'), ('twenty', 'CD', 'nsubj', 'come', 'VB'), ('you', 'PRP', 'nsubj', 'visit', 'VB'), ('I', 'PRP', 'nsubj', 'visit', 'VB'), ('Bennet', 'NNP', 'nsubj', 'was', 'VBD'), ('experience', 'NN', 'nsubj', 'been', 'VBN'), ('wife', 'NN', 'nsubj', 'understand', 'VB'), ('mind', 'NN', 'nsubj', 'was', 'VBD'), ('She', 'PRP', 'nsubj', 'was', 'VBD'), ('she', 'PRP', 'nsubj', 'fancied', 'VBD'), ('business', 'NN', 'nsubj', 'was', 'VBD'), ('daughters', 'NNS', 'nsubj', 'married', 'VBD'), ('solace', 'NN', 'nsubj', 'visiting', 'VBG'), ('I', 'PRP', 'nsubj', 'hope', 'VBP'), ('Bingley', 'NNP', 'nsubj', 'like', 'VB'), ('Bennet', 'NNP', 'nsubj', 'was', 'VBD'), ('who', 'WP', 'nsubj', 'waited', 'VBD'), ('He', 'PRP', 'nsubj', 'intended', 'VBN'), ('last', 'JJ', 'nsubj', 'assuring', 'VBG'), ('he', 'PRP', 'nsubj', 'go', 'VB'), ('she', 'PRP', 'nsubj', 'had', 'VBD'), ('he', 'PRP', 'nsubj', 'addressed', 'VBD'), ('I', 'PRP', 'nsubj', 'hope', 'VBP'), ('Bingley', 'NNP', 'nsubj', 'like', 'VB'), ('We', 'PRP', 'nsubj', 'are', 'VBP'), ('Bingley', 'NNP', 'nsubj', 'likes', 'VBZ'), ('mother', 'NN', 'nsubj', 'said', 'VBD'), ('we', 'PRP', 'nsubj', 'are', 'VBP'), ('you', 'PRP', 'nsubj', 'forget', 'VBP'), ('Elizabeth', 'NNP', 'nsubj', 'said', 'VBD'), ('we', 'PRP', 'nsubj', 'meet', 'VB'), ('Long', 'NNP', 'nsubj', 'promised', 'VBN'), ('I', 'PRP', 'nsubj', 'believe', 'VB'), ('Long', 'NNP', 'nsubj', 'do', 'VB'), ('She', 'PRP', 'nsubj', 'has', 'VBZ'), ('She', 'PRP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'have', 'VBP'), ('Bennet', 'NNP', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('you', 'PRP', 'nsubj', 'depend', 'VB'), ('her', 'PRP', 'nsubj', 'serving', 'VBG'), ('Bennet', 'NNP', 'nsubj', 'deigned', 'VBD'), ('You', 'PRP', 'nsubj', 'tear', 'VBP'), ('Kitty', 'NNP', 'nsubj', 'has', 'VBZ'), ('father', 'NN', 'nsubj', 'said', 'VBD'), ('she', 'PRP', 'nsubj', 'times', 'VBZ'), ('I', 'PRP', 'nsubj', 'cough', 'VB'), ('Kitty', 'NNP', 'nsubj', 'replied', 'VBD'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('mother', 'NN', 'nsubj', 'cried', 'VBD'), ('Long', 'NNP', 'nsubj', 'come', 'VB'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('her', 'PRP', 'nsubj', 'introduce', 'VB'), ('she', 'PRP', 'nsubj', 'know', 'VB'), ('you', 'PRP', 'nsubj', 'have', 'VB'), ('you', 'PRP', 'nsubj', 'be', 'VB'), ('I', 'PRP', 'nsubj', 'honour', 'VBP'), ('acquaintance', 'NN', 'nsubj', 'is', 'VBZ'), ('One', 'PRP', 'nsubj', 'know', 'VB'), ('man', 'NN', 'nsubj', 'is', 'VBZ'), ('we', 'PRP', 'nsubj', 'venture', 'VB'), ('somebody', 'NN', 'nsubj', 'will', 'MD'), ('Long', 'NNP', 'nsubj', 'stand', 'VB'), ('she', 'PRP', 'nsubj', 'think', 'VB'), ('it', 'PRP', 'nsubj', 'act', 'NN'), ('you', 'PRP', 'nsubj', 'decline', 'VBP'), ('I', 'PRP', 'nsubj', 'take', 'VB'), ('girls', 'NNS', 'nsubj', 'stared', 'VBD'), ('Bennet', 'NNP', 'nsubj', 'said', 'VBD'), ('What', 'WP', 'nsubj', 'be', 'VB'), ('you', 'PRP', 'nsubj', 'consider', 'VBP'), ('I', 'PRP', 'nsubj', 'agree', 'VB'), ('What', 'WP', 'nsubj', 'say', 'VBP'), ('I', 'PRP', 'nsubj', 'know', 'VBP'), ('Mary', 'NNP', 'nsubj', 'wished', 'VBD'), ('Mary', 'NNP', 'nsubj', 'adjusting', 'VBG'), ('he', 'PRP', 'nsubj', 'continued', 'VBD'), ('us', 'PRP', 'nsubj', 'return', 'VB'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('wife', 'NN', 'nsubj', 'cried', 'VBD'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('you', 'PRP', 'nsubj', 'tell', 'VB'), ('I', 'PRP', 'nsubj', 'known', 'VBN'), ('I', 'PRP', 'nsubj', 'called', 'VBN'), ('It', 'PRP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'paid', 'VBN'), ('we', 'PRP', 'nsubj', 'escape', 'VB'), ('astonishment', 'NN', 'nsubj', 'was', 'VBD'), ('he', 'PRP', 'nsubj', 'wished', 'VBD'), ('that', 'DT', 'nsubj', 'surpassing', 'VBG'), ('tumult', 'NN', 'nsubj', 'was', 'VBD'), ('she', 'PRP', 'nsubj', 'began', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('she', 'PRP', 'nsubj', 'expected', 'VBN'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('I', 'PRP', 'nsubj', 'knew', 'VBD'), ('I', 'PRP', 'nsubj', 'persuade', 'VB'), ('I', 'PRP', 'nsubj', 'was', 'VBD'), ('you', 'PRP', 'nsubj', 'loved', 'VBD'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('you', 'PRP', 'nsubj', 'gone', 'VBN'), ('you', 'PRP', 'nsubj', 'cough', 'VB'), ('you', 'PRP', 'nsubj', 'choose', 'VBP'), ('Bennet', 'NNP', 'nsubj', 'said', 'VBD'), ('he', 'PRP', 'nsubj', 'spoke', 'VBD'), ('he', 'PRP', 'nsubj', 'left', 'VBD'), ('you', 'PRP', 'nsubj', 'have', 'VBP'), ('she', 'PRP', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'know', 'VB'), ('you', 'PRP', 'nsubj', 'make', 'VB'), ('him', 'PRP', 'nsubj', 'amends', 'VBZ'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'tell', 'VB'), ('we', 'PRP', 'nsubj', 'do', 'VB'), ('you', 'PRP', 'nsubj', 'are', 'VBP'), ('I', 'PRP', 'nsubj', 'dare', 'VBP'), ('Bingley', 'NNP', 'nsubj', 'dance', 'VB'), ('Lydia', 'NNP', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('am', 'VBP', 'nsubj', 'said', 'VBD'), ('_', 'NFP', 'nsubj', 'said', 'VBD'), ('youngest', 'JJS', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', '’m', 'VBP'), ('he', 'PRP', 'nsubj', 'return', 'VB'), ('they', 'PRP', 'nsubj', 'ask', 'VB'), ('I', 'PRP', 'nsubj', '’m', 'VBP'), ('He', 'PRP', 'nsubj', 'rode', 'VBD'), ('Illustration', 'NN', 'nsubj', 'was', 'VBD'), ('Bennet', 'NNP', 'nsubj', 'ask', 'VB'), ('They', 'PRP', 'nsubj', 'attacked', 'VBD'), ('he', 'PRP', 'nsubj', 'eluded', 'VBD'), ('they', 'PRP', 'nsubj', 'were', 'VBD'), ('report', 'NN', 'nsubj', 'was', 'VBD'), ('William', 'NNP', 'nsubj', 'been', 'VBN'), ('He', 'PRP', 'nsubj', 'was', 'VBD'), ('he', 'PRP', 'nsubj', 'meant', 'VBD'), ('Nothing', 'NN', 'nsubj', 'be', 'VB'), ('I', 'PRP', 'nsubj', 'see', 'VB'), ('one', 'CD', 'nsubj', 'settled', 'VBN'), ('Bennet', 'NNP', 'nsubj', 'said', 'VBD'), ('others', 'NNS', 'nsubj', 'married', 'VBN'), ('I', 'PRP', 'nsubj', 'have', 'VB'), ('Bingley', 'NNP', 'nsubj', 'returned', 'VBD'), ('He', 'PRP', 'nsubj', 'entertained', 'VBN'), ('he', 'PRP', 'nsubj', 'heard', 'VBN'), ('he', 'PRP', 'nsubj', 'saw', 'VBD'), ('ladies', 'NNS', 'nsubj', 'were', 'VBD'), ('they', 'PRP', 'nsubj', 'had', 'VBD'), ('he', 'PRP', 'nsubj', 'wore', 'VBD'), ('Bennet', 'NNP', 'nsubj', 'planned', 'VBD'), ('that', 'WDT', 'nsubj', 'were', 'VBD'), ('answer', 'NN', 'nsubj', 'arrived', 'VBD'), ('which', 'WDT', 'nsubj', 'deferred', 'VBD'), ('She', 'PRP', 'nsubj', 'imagine', 'VB'), ('he', 'PRP', 'nsubj', 'have', 'VB'), ('she', 'PRP', 'nsubj', 'began', 'VBD'), ('he', 'PRP', 'nsubj', 'flying', 'VBG'), ('he', 'PRP', 'nsubj', 'ought', 'MD'), ('Lucas', 'NNP', 'nsubj', 'quieted', 'VBD'), ('Party', 'NNP', 'nsubj', 'entered', 'VBD'), ('report', 'NN', 'nsubj', 'followed', 'VBD'), ('Bingley', 'NNP', 'nsubj', 'was', 'VBD'), ('girls', 'NNS', 'nsubj', 'grieved', 'VBD'), ('he', 'PRP', 'nsubj', 'brought', 'VBN'), ('party', 'NN', 'nsubj', 'entered', 'VBD'), ('it', 'PRP', 'nsubj', 'consisted', 'VBD'), ('Bingley', 'NNP', 'nsubj', 'was', 'VBD'), ('he', 'PRP', 'nsubj', 'had', 'VBD'), ('sisters', 'NNS', 'nsubj', 'were', 'VBD'), ('Hurst', 'NNP', 'nsubj', 'looked', 'VBD'), ('friend', 'NN', 'nsubj', 'drew', 'VBD'), ('which', 'WDT', 'nsubj', 'was', 'VBD'), ('his', 'PRP$', 'nsubj', 'having', 'VBG'), ('gentlemen', 'NNS', 'nsubj', 'pronounced', 'VBD'), ('ladies', 'NNS', 'nsubj', 'declared', 'VBD'), ('he', 'PRP', 'nsubj', 'was', 'VBD'), ('manners', 'NNS', 'nsubj', 'gave', 'VBD'), ('which', 'WDT', 'nsubj', 'turned', 'VBD'), ('estate', 'NN', 'nsubj', 'save', 'VB'), ('Bingley', 'NNP', 'nsubj', 'made', 'VBN'), ('himself', 'PRP', 'nsubj', 'acquainted', 'VBN'), ('he', 'PRP', 'nsubj', 'was', 'VBD'), ('ball', 'NN', 'nsubj', 'closed', 'VBD'), ('qualities', 'NNS', 'nsubj', 'speak', 'VB'), ('Darcy', 'NNP', 'nsubj', 'danced', 'VBD'), ('He', 'PRP', 'nsubj', 'was', 'VBD'), ('everybody', 'NN', 'nsubj', 'hoped', 'VBD'), ('he', 'PRP', 'nsubj', 'come', 'VB'), ('Bennet', 'NNP', 'nsubj', 'was', 'VBD'), ('Darcy', 'NNP', 'nsubj', 'standing', 'VBG'), ('her', 'PRP', 'nsubj', 'overhear', 'VB'), ('who', 'WP', 'nsubj', 'came', 'VBD'), ('Come', 'VB', 'nsubj', 'said', 'VBD'), ('he', 'PRP', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'have', 'VB'), ('you', 'PRP', 'nsubj', 'dance', 'VB'), ('I', 'PRP', 'nsubj', 'hate', 'VBP'), ('you', 'PRP', 'nsubj', 'standing', 'VBG'), ('You', 'PRP', 'nsubj', 'had', 'VBD'), ('I', 'PRP', 'nsubj', 'shall', 'MD'), ('You', 'PRP', 'nsubj', 'know', 'VBP'), ('I', 'PRP', 'nsubj', 'detest', 'VBP'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('I', 'PRP', 'nsubj', 'be', 'VB'), ('you', 'PRP', 'nsubj', 'are', 'VBP'), ('Bingley', 'NNP', 'nsubj', 'cried', 'VBD'), ('I', 'PRP', 'nsubj', 'met', 'VBD'), ('I', 'PRP', 'nsubj', 'have', 'VBP'), ('you', 'PRP', 'nsubj', 'see', 'VBP'), ('_', 'NNP', 'nsubj', 'dancing', 'VBG'), ('You', 'PRP', 'nsubj', 'dancing', 'VBG'), ('Darcy', 'NNP', 'nsubj', 'said', 'VBD'), ('she', 'PRP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'beheld', 'VBD'), ('who', 'WP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'dare', 'VBP'), ('me', 'PRP', 'nsubj', 'ask', 'VB'), ('She', 'PRP', 'nsubj', 'is', 'VBZ'), ('you', 'PRP', 'nsubj', 'mean', 'VB'), ('he', 'PRP', 'nsubj', 'looked', 'VBD'), ('he', 'PRP', 'nsubj', 'withdrew', 'VBD'), ('She', 'PRP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('You', 'PRP', 'nsubj', 'had', 'VBD'), ('you', 'PRP', 'nsubj', 'wasting', 'VBG'), ('Bingley', 'NNP', 'nsubj', 'followed', 'VBD'), ('Darcy', 'NNP', 'nsubj', 'walked', 'VBD'), ('Elizabeth', 'NNP', 'nsubj', 'remained', 'VBD'), ('She', 'PRP', 'nsubj', 'told', 'VBD'), ('she', 'PRP', 'nsubj', 'had', 'VBD'), ('which', 'WDT', 'nsubj', 'delighted', 'VBD'), ('evening', 'NN', 'nsubj', 'passed', 'VBD'), ('Bennet', 'NNP', 'nsubj', 'seen', 'VBN'), ('daughter', 'NN', 'nsubj', 'admired', 'VBN'), ('Bingley', 'NNP', 'nsubj', 'danced', 'VBN'), ('Jane', 'NNP', 'nsubj', 'was', 'VBD'), ('mother', 'NN', 'nsubj', 'be', 'VB'), ('Elizabeth', 'NNP', 'nsubj', 'felt', 'VBD'), ('Mary', 'NNP', 'nsubj', 'heard', 'VBN'), ('herself', 'PRP', 'nsubj', 'mentioned', 'VBN'), ('Catherine', 'NNP', 'nsubj', 'been', 'VBN'), ('which', 'WDT', 'nsubj', 'was', 'VBD'), ('they', 'PRP', 'nsubj', 'learnt', 'VBN'), ('They', 'PRP', 'nsubj', 'returned', 'VBD'), ('they', 'PRP', 'nsubj', 'lived', 'VBD'), ('they', 'PRP', 'nsubj', 'were', 'VBD'), ('They', 'PRP', 'nsubj', 'found', 'VBD'), ('he', 'PRP', 'nsubj', 'was', 'VBD'), ('he', 'PRP', 'nsubj', 'had', 'VBD'), ('which', 'WDT', 'nsubj', 'raised', 'VBN'), ('He', 'PRP', 'nsubj', 'hoped', 'VBN'), ('he', 'PRP', 'nsubj', 'found', 'VBD'), ('he', 'PRP', 'nsubj', 'had', 'VBD'), ('Bennet', 'NNP', 'nsubj', 'had', 'VBN'), ('she', 'PRP', 'nsubj', 'entered', 'VBD'), ('we', 'PRP', 'nsubj', 'had', 'VBN'), ('I', 'PRP', 'nsubj', 'wish', 'VBP'), ('you', 'PRP', 'nsubj', 'been', 'VBN'), ('Jane', 'NNP', 'nsubj', 'was', 'VBD'), ('nothing', 'NN', 'nsubj', 'be', 'VB'), ('Everybody', 'NN', 'nsubj', 'said', 'VBD'), ('she', 'PRP', 'nsubj', 'looked', 'VBD'), ('Bingley', 'NNP', 'nsubj', 'thought', 'VBD'), ('her', 'PRP', 'nsubj', 'beautiful', 'JJ'), ('he', 'PRP', 'nsubj', 'danced', 'VBD'), ('she', 'PRP', 'nsubj', 'was', 'VBD'), ('he', 'PRP', 'nsubj', 'asked', 'VBD'), ('he', 'PRP', 'nsubj', 'asked', 'VBD'), ('I', 'PRP', 'nsubj', 'was', 'VBD'), ('him', 'PRP', 'nsubj', 'stand', 'VB'), ('he', 'PRP', 'nsubj', 'admire', 'VB'), ('nobody', 'NN', 'nsubj', 'can', 'MD'), ('you', 'PRP', 'nsubj', 'know', 'VBP'), ('he', 'PRP', 'nsubj', 'seemed', 'VBD'), ('she', 'PRP', 'nsubj', 'going', 'VBG'), ('he', 'PRP', 'nsubj', 'inquired', 'VBD'), ('she', 'PRP', 'nsubj', 'was', 'VBD'), ('third', 'JJ', 'nsubj', 'cried', 'VBD'), ('he', 'PRP', 'nsubj', 'danced', 'VBD'), ('he', 'PRP', 'nsubj', 'had', 'VBN'), ('he', 'PRP', 'nsubj', 'danced', 'VBN'), ('he', 'PRP', 'nsubj', 'sprained', 'VBN'), ('Bennet', 'NNP', 'nsubj', 'continued', 'VBD'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('He', 'PRP', 'nsubj', 'is', 'VBZ'), ('sisters', 'NNS', 'nsubj', 'are', 'VBP'), ('I', 'PRP', 'nsubj', 'saw', 'VBD'), ('I', 'PRP', 'nsubj', 'dare', 'VBP'), ('Bennet', 'NNP', 'nsubj', 'protested', 'VBD'), ('I', 'PRP', 'nsubj', 'assure', 'VB'), ('she', 'PRP', 'nsubj', 'added', 'VBD'), ('Lizzy', 'NNP', 'nsubj', 'lose', 'VB'), ('he', 'PRP', 'nsubj', 'is', 'VBZ'), ('He', 'PRP', 'nsubj', 'walked', 'VBD'), ('he', 'PRP', 'nsubj', 'walked', 'VBD'), ('I', 'PRP', 'nsubj', 'wish', 'VBP'), ('you', 'PRP', 'nsubj', 'been', 'VBN'), ('I', 'PRP', 'nsubj', 'detest', 'VBP'), ('Illustration', 'NN', 'nsubj', 'expressed', 'VBD'), ('Jane', 'NNP', 'nsubj', 'were', 'VBD'), ('former', 'JJ', 'nsubj', 'expressed', 'VBD'), ('who', 'WP', 'nsubj', 'been', 'VBN'), ('she', 'PRP', 'nsubj', 'admired', 'VBD'), ('He', 'PRP', 'nsubj', 'is', 'VBZ'), ('man', 'NN', 'nsubj', 'ought', 'MD'), ('she', 'PRP', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'saw', 'VBD'), ('ease', 'NN', 'nsubj', 'replied', 'VBD'), ('He', 'PRP', 'nsubj', 'is', 'VBZ'), ('Elizabeth', 'NNP', 'nsubj', 'replied', 'VBD'), ('man', 'NN', 'nsubj', 'ought', 'MD'), ('he', 'PRP', 'nsubj', 'can', 'MD'), ('character', 'NN', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'was', 'VBD'), ('his', 'PRP$', 'nsubj', 'asking', 'VBG'), ('I', 'PRP', 'nsubj', 'expect', 'VB'), ('you', 'PRP', 'nsubj', 'Did', 'VBD'), ('I', 'PRP', 'nsubj', 'did', 'VBD'), ('that', 'DT', 'nsubj', 'is', 'VBZ'), ('Compliments', 'NNS', 'nsubj', 'take', 'VBP'), ('What', 'WP', 'nsubj', 'be', 'VB'), ('his', 'PRP$', 'nsubj', 'asking', 'VBG'), ('He', 'PRP', 'nsubj', 'help', 'VB'), ('you', 'PRP', 'nsubj', 'were', 'VBD'), ('he', 'PRP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'give', 'VBP'), ('you', 'PRP', 'nsubj', 'leave', 'VB'), ('You', 'PRP', 'nsubj', 'liked', 'VBN'), ('Lizzy', 'NNP', 'nsubj', 'are', 'VBP'), ('you', 'PRP', 'nsubj', 'are', 'VBP'), ('you', 'PRP', 'nsubj', 'know', 'VBP'), ('You', 'PRP', 'nsubj', 'see', 'VBP'), ('world', 'NN', 'nsubj', 'are', 'VBP'), ('I', 'PRP', 'nsubj', 'heard', 'VBD'), ('you', 'PRP', 'nsubj', 'speak', 'VB'), ('I', 'PRP', 'nsubj', 'wish', 'VB'), ('I', 'PRP', 'nsubj', 'speak', 'VBP'), ('I', 'PRP', 'nsubj', 'think', 'VBP'), ('I', 'PRP', 'nsubj', 'know', 'VBP'), ('you', 'PRP', 'nsubj', 'do', 'VBP'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('which', 'WDT', 'nsubj', 'makes', 'VBZ'), ('Affectation', 'NN', 'nsubj', 'is', 'VBZ'), ('one', 'CD', 'nsubj', 'meets', 'VBZ'), ('it', 'PRP', 'nsubj', 'better', 'RBR'), ('you', 'PRP', 'nsubj', 'like', 'VBP'), ('you', 'PRP', 'nsubj', 'do', 'VBP'), ('manners', 'NNS', 'nsubj', 'are', 'VBP'), ('they', 'PRP', 'nsubj', 'are', 'VBP'), ('you', 'PRP', 'nsubj', 'converse', 'VBP'), ('Bingley', 'NNP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('we', 'PRP', 'nsubj', 'find', 'VB'), ('Elizabeth', 'NNP', 'nsubj', 'listened', 'VBD'), ('she', 'PRP', 'nsubj', 'was', 'VBD'), ('They', 'PRP', 'nsubj', 'were', 'VBD'), ('they', 'PRP', 'nsubj', 'were', 'VBD'), ('they', 'PRP', 'nsubj', 'chose', 'VBD'), ('They', 'PRP', 'nsubj', 'were', 'VBD'), ('they', 'PRP', 'nsubj', 'ought', 'MD'), ('They', 'PRP', 'nsubj', 'were', 'VBD'), ('circumstance', 'NN', 'nsubj', 'impressed', 'JJ'), ('Bingley', 'NNP', 'nsubj', 'inherited', 'VBD'), ('who', 'WP', 'nsubj', 'intended', 'VBN'), ('Bingley', 'NNP', 'nsubj', 'intended', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('who', 'WP', 'nsubj', 'knew', 'VBD'), ('he', 'PRP', 'nsubj', 'spend', 'VB'), ('sisters', 'NNS', 'nsubj', 'were', 'VBD'), ('his', 'PRP$', 'nsubj', 'having', 'VBG'), ('Bingley', 'NNP', 'nsubj', 'was', 'VBD'), ('Hurst', 'NNP', 'nsubj', 'was', 'VBD'), ('who', 'WP', 'nsubj', 'married', 'VBN'), ('it', 'PRP', 'nsubj', 'suited', 'VBD'), ('Bingley', 'NNP', 'nsubj', 'been', 'VBN'), ('He', 'PRP', 'nsubj', 'look', 'VB'), ('owner', 'NN', 'nsubj', 'said', 'VBD'), ('disposition', 'NN', 'nsubj', 'offer', 'VB'), ('he', 'PRP', 'nsubj', 'appeared', 'VBD'), ('Bingley', 'NNP', 'nsubj', 'had', 'VBD'), ('Darcy', 'NNP', 'nsubj', 'was', 'VBD'), ('Bingley', 'NNP', 'nsubj', 'was', 'VBD'), ('Darcy', 'NNP', 'nsubj', 'was', 'VBD'), ('He', 'PRP', 'nsubj', 'was', 'VBD'), ('manners', 'NNS', 'nsubj', 'inviting', 'VBG'), ('friend', 'NN', 'nsubj', 'had', 'VBD'), ('Bingley', 'NNP', 'nsubj', 'was', 'VBD'), ('he', 'PRP', 'nsubj', 'appeared', 'VBD'), ('Darcy', 'NNP', 'nsubj', 'was', 'VBD'), ('manner', 'NN', 'nsubj', 'was', 'VBD'), ('they', 'PRP', 'nsubj', 'spoke', 'VBD'), ('Bingley', 'NNP', 'nsubj', 'met', 'VBN'), ('everybody', 'NN', 'nsubj', 'been', 'VBN'), ('he', 'PRP', 'nsubj', 'felt', 'VBN'), ('he', 'PRP', 'nsubj', 'conceive', 'VB'), ('Darcy', 'NNP', 'nsubj', 'seen', 'VBN'), ('he', 'PRP', 'nsubj', 'felt', 'VBN'), ('he', 'PRP', 'nsubj', 'acknowledged', 'VBD'), ('she', 'PRP', 'nsubj', 'smiled', 'VBD'), ('Hurst', 'NNP', 'nsubj', 'allowed', 'VBD'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('they', 'PRP', 'nsubj', 'admired', 'VBD'), ('they', 'PRP', 'nsubj', 'object', 'VB'), ('brother', 'NN', 'nsubj', 'felt', 'VBD'), ('he', 'PRP', 'nsubj', 'chose', 'VBD'), ('Illustration', 'NN', 'nsubj', 'lived', 'VBD'), ('Bennets', 'NNS', 'nsubj', 'were', 'VBD'), ('Lucas', 'NNP', 'nsubj', 'been', 'VBN'), ('he', 'PRP', 'nsubj', 'made', 'VBN'), ('distinction', 'NN', 'nsubj', 'had', 'VBD'), ('It', 'PRP', 'nsubj', 'given', 'VBN'), ('he', 'PRP', 'nsubj', 'removed', 'VBN'), ('he', 'PRP', 'nsubj', 'think', 'VB'), ('it', 'PRP', 'nsubj', 'render', 'VB'), ('him', 'PRP', 'nsubj', 'supercilious', 'JJ'), ('he', 'PRP', 'nsubj', 'was', 'VBD'), ('presentation', 'NN', 'nsubj', 'made', 'VBN'), ('him', 'PRP', 'nsubj', 'courteous', 'JJ'), ('Lucas', 'NNP', 'nsubj', 'was', 'VBD'), ('They', 'PRP', 'nsubj', 'had', 'VBD'), ('eldest', 'JJS', 'nsubj', 'was', 'VBD'), ('Lucases', 'NNPS', 'nsubj', 'meet', 'VB'), ('assembly', 'NN', 'nsubj', 'brought', 'VBD'), ('_', 'NFP', 'nsubj', 'began', 'VBD'), ('You', 'PRP', 'nsubj', 'began', 'VBD'), ('Bennet', 'NNP', 'nsubj', 'said', 'VBD'), ('_', 'NFP', 'nsubj', 'were', 'VBD'), ('You', 'PRP', 'nsubj', 'were', 'VBD'), ('he', 'PRP', 'nsubj', 'seemed', 'VBD'), ('you', 'PRP', 'nsubj', 'mean', 'VBP'), ('I', 'PRP', 'nsubj', 'suppose', 'VBP'), ('he', 'PRP', 'nsubj', 'danced', 'VBD'), ('_', 'NNP', 'nsubj', 'did', 'VBD'), ('_', 'NNP', 'nsubj', 'seem', 'VB'), ('he', 'PRP', 'nsubj', 'admired', 'VBD'), ('I', 'PRP', 'nsubj', 'believe', 'VBP'), ('did_--I', 'NNP', 'nsubj', 'heard', 'VBD'), ('I', 'PRP', 'nsubj', 'know', 'VBP'), ('what', 'WP', 'nsubj', 'something', 'NN'), ('you', 'PRP', 'nsubj', 'mean', 'VBP'), ('I', 'PRP', 'nsubj', 'overheard', 'VBP'), ('I', 'PRP', 'nsubj', 'mention', 'VBP'), ('Robinson', 'NNP', 'nsubj', 'asking', 'VBG'), ('he', 'PRP', 'nsubj', 'liked', 'VBD'), ('he', 'PRP', 'nsubj', 'think', 'VB'), ('which', 'WDT', 'nsubj', '_', 'NN'), ('he', 'PRP', 'nsubj', 'thought', 'VBD'), ('that', 'WDT', 'nsubj', 'seem', 'VB'), ('it', 'PRP', 'nsubj', 'come', 'VB'), ('you', 'PRP', 'nsubj', 'know', 'VBP'), ('overhearings', 'NNS', 'nsubj', 'were', 'VBD'), ('Charlotte', 'NNP', 'nsubj', 'said', 'VBD'), ('Darcy', 'NNP', 'nsubj', 'is', 'VBZ'), ('he', 'PRP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'beg', 'VBP'), ('he', 'PRP', 'nsubj', 'is', 'VBZ'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('Long', 'NNP', 'nsubj', 'told', 'VBD'), ('he', 'PRP', 'nsubj', 'sat', 'VBD'), ('you', 'PRP', 'nsubj', 'Are', 'VBP'), ('ma’am', 'NN', 'nsubj', 'Are', 'VBP'), ('Jane', 'NNP', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'saw', 'VBD'), ('Darcy', 'NNP', 'nsubj', 'speaking', 'VBG'), ('she', 'PRP', 'nsubj', 'asked', 'VBD'), ('he', 'PRP', 'nsubj', 'liked', 'VBD'), ('he', 'PRP', 'nsubj', 'help', 'VB'), ('she', 'PRP', 'nsubj', 'said', 'VBD'), ('he', 'PRP', 'nsubj', 'seemed', 'VBD'), ('Bingley', 'NNP', 'nsubj', 'told', 'VBD'), ('Jane', 'NNP', 'nsubj', 'said', 'VBD'), ('he', 'PRP', 'nsubj', 'speaks', 'VBZ'), ('he', 'PRP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'believe', 'VB'), ('he', 'PRP', 'nsubj', 'been', 'VBN'), ('he', 'PRP', 'nsubj', 'talked', 'VBN'), ('I', 'PRP', 'nsubj', 'guess', 'VB'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('everybody', 'NN', 'nsubj', 'says', 'VBZ'), ('I', 'PRP', 'nsubj', 'dare', 'VBP'), ('he', 'PRP', 'nsubj', 'heard', 'VBN'), ('Long', 'NNP', 'nsubj', 'keep', 'VB'), ('I', 'PRP', 'nsubj', 'mind', 'VB'), ('his', 'PRP', 'nsubj', 'talking', 'VBG'), ('Lucas', 'NNP', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'wish', 'VBP'), ('he', 'PRP', 'nsubj', 'danced', 'VBN'), ('mother', 'NN', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'dance', 'VB'), ('I', 'PRP', 'nsubj', 'were', 'VBD'), ('I', 'PRP', 'nsubj', 'believe', 'VBP'), ('I', 'PRP', 'nsubj', 'promise', 'VB'), ('Lucas', 'NNP', 'nsubj', 'said', 'VBD'), ('pride', 'NN', 'nsubj', 'does', 'VBZ'), ('One', 'PRP', 'nsubj', 'wonder', 'VB'), ('man', 'NN', 'nsubj', 'think', 'VB'), ('I', 'PRP', 'nsubj', 'express', 'VB'), ('he', 'PRP', 'nsubj', 'has', 'VBZ'), ('That', 'DT', 'nsubj', 'is', 'VBZ'), ('Elizabeth', 'NNP', 'nsubj', 'replied', 'VBD'), ('I', 'PRP', 'nsubj', 'forgive', 'VB'), ('he', 'PRP', 'nsubj', 'mortified', 'VBN'), ('Pride', 'NNP', 'nsubj', 'observed', 'VBD'), ('Mary', 'NNP', 'nsubj', 'observed', 'VBD'), ('who', 'WP', 'nsubj', 'piqued', 'VBD'), ('I', 'PRP', 'nsubj', 'believe', 'VBP'), ('I', 'PRP', 'nsubj', 'read', 'VBN'), ('I', 'PRP', 'nsubj', 'am', 'VBP'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('nature', 'NN', 'nsubj', 'is', 'VBZ'), ('who', 'WP', 'nsubj', 'cherish', 'VB'), ('Vanity', 'NN', 'nsubj', 'are', 'VBP'), ('person', 'NN', 'nsubj', 'be', 'VB'), ('Pride', 'NN', 'nsubj', 'relates', 'VBZ'), ('we', 'PRP', 'nsubj', 'have', 'VB'), ('others', 'NNS', 'nsubj', 'think', 'VB'), ('I', 'PRP', 'nsubj', 'were', 'VBD'), ('Lucas', 'NNP', 'nsubj', 'cried', 'VBD'), ('who', 'WP', 'nsubj', 'came', 'VBD'), ('I', 'PRP', 'nsubj', 'care', 'VB'), ('I', 'PRP', 'nsubj', 'was', 'VBD'), ('I', 'PRP', 'nsubj', 'keep', 'VB'), ('you', 'PRP', 'nsubj', 'drink', 'VB'), ('you', 'PRP', 'nsubj', 'ought', 'MD'), ('Bennet', 'NNP', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'were', 'VBD'), ('I', 'PRP', 'nsubj', 'take', 'VB'), ('boy', 'NN', 'nsubj', 'protested', 'VBD'), ('she', 'PRP', 'nsubj', 'should', 'MD'), ('she', 'PRP', 'nsubj', 'continued', 'VBD'), ('she', 'PRP', 'nsubj', 'would', 'MD'), ('argument', 'NN', 'nsubj', 'ended', 'VBD'), ('ladies', 'NNS', 'nsubj', 'waited', 'VBD'), ('manners', 'NNS', 'nsubj', 'grew', 'VBD'), ('sisters', 'NNS', 'nsubj', 'worth', 'JJ'), ('Elizabeth', 'NNP', 'nsubj', 'saw', 'VBD'), ('kindness', 'NN', 'nsubj', 'had', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('It', 'PRP', 'nsubj', 'was', 'VBD'), ('they', 'PRP', 'nsubj', 'met', 'VBD'), ('he', 'PRP', 'nsubj', 'that', 'IN'), ('_', 'NNP', 'nsubj', 'admire', 'VB'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('Jane', 'NNP', 'nsubj', 'yielding', 'VBG'), ('she', 'PRP', 'nsubj', 'begun', 'VBN'), ('she', 'PRP', 'nsubj', 'considered', 'VBD'), ('it', 'PRP', 'nsubj', 'was', 'VBD'), ('Jane', 'NNP', 'nsubj', 'united', 'VBD'), ('which', 'WDT', 'nsubj', 'guard', 'VB'), ('She', 'PRP', 'nsubj', 'mentioned', 'VBD'), ('It', 'PRP', 'nsubj', 'be', 'VB'), ('Charlotte', 'NNP', 'nsubj', 'replied', 'VBD'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('woman', 'NN', 'nsubj', 'conceals', 'VBZ'), ('she', 'PRP', 'nsubj', 'lose', 'VB'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('We', 'PRP', 'nsubj', 'begin', 'VBP'), ('_', 'VB', 'nsubj', 'begin', 'VBP'), ('preference', 'NN', 'nsubj', 'is', 'VBZ'), ('who', 'WP', 'nsubj', 'have', 'VBP'), ('woman', 'NN', 'nsubj', 'show', 'VB'), ('she', 'PRP', 'nsubj', 'feels', 'VBZ'), ('Bingley', 'NNP', 'nsubj', 'likes', 'VBZ'), ('he', 'PRP', 'nsubj', 'do', 'VB'), ('she', 'PRP', 'nsubj', 'help', 'VB'), ('she', 'PRP', 'nsubj', 'help', 'VB'), ('nature', 'NN', 'nsubj', 'allow', 'VB'), ('_', 'RB', 'nsubj', 'perceive', 'VB'), ('I', 'PRP', 'nsubj', '_', 'RB'), ('he', 'PRP', 'nsubj', 'be', 'VB'), ('he', 'PRP', 'nsubj', 'know', 'VB'), ('you', 'PRP', 'nsubj', 'do', 'VBP'), ('woman', 'NN', 'nsubj', 'is', 'VBZ'), ('he', 'PRP', 'nsubj', 'find', 'VB'), ('he', 'PRP', 'nsubj', 'must', 'MD'), ('he', 'PRP', 'nsubj', 'sees', 'VBZ'), ('Bingley', 'NNP', 'nsubj', 'meet', 'VBP'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('they', 'PRP', 'nsubj', 'see', 'VBP'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('Jane', 'NNP', 'nsubj', 'make', 'VB'), ('she', 'PRP', 'nsubj', 'command', 'VB'), ('she', 'PRP', 'nsubj', 'is', 'VBZ'), ('she', 'PRP', 'nsubj', 'chooses', 'VBZ'), ('plan', 'NN', 'nsubj', 'is', 'VBZ'), ('Elizabeth', 'NNP', 'nsubj', 'replied', 'VBD'), ('nothing', 'NN', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'dare', 'VBP'), ('I', 'PRP', 'nsubj', 'adopt', 'VB'), ('these', 'DT', 'nsubj', 'are', 'VBP'), ('she', 'PRP', 'nsubj', 'acting', 'VBG'), ('she', 'PRP', 'nsubj', 'be', 'VB'), ('She', 'PRP', 'nsubj', 'known', 'VBN'), ('She', 'PRP', 'nsubj', 'danced', 'VBD'), ('she', 'PRP', 'nsubj', 'saw', 'VBD'), ('This', 'DT', 'nsubj', 'is', 'VBZ'), ('her', 'PRP', 'nsubj', 'understand', 'VB'), ('you', 'PRP', 'nsubj', 'represent', 'VBP'), ('she', 'PRP', 'nsubj', 'dined', 'VBD'), ('she', 'PRP', 'nsubj', 'discovered', 'VBN'), ('he', 'PRP', 'nsubj', 'had', 'VBD'), ('you', 'PRP', 'nsubj', 'remember', 'VB'), ('evenings', 'NNS', 'nsubj', 'do', 'VB'), ('evenings', 'NNS', 'nsubj', 'enabled', 'VBN'), ('they', 'PRP', 'nsubj', 'imagine', 'VB'), ('I', 'PRP', 'nsubj', 'imagine', 'VB'), ('Charlotte', 'NNP', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'wish', 'VBP'), ('she', 'PRP', 'nsubj', 'were', 'VBD'), ('I', 'PRP', 'nsubj', 'think', 'VB'), ('she', 'PRP', 'nsubj', 'had', 'VBD'), ('she', 'PRP', 'nsubj', 'were', 'VBD'), ('Happiness', 'NN', 'nsubj', 'is', 'VBZ'), ('dispositions', 'NNS', 'nsubj', 'are', 'VBP'), ('it', 'PRP', 'nsubj', 'advance', 'VB'), ('They', 'PRP', 'nsubj', 'continue', 'VBP'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('you', 'PRP', 'nsubj', 'are', 'VBP'), ('You', 'PRP', 'nsubj', 'make', 'VBP'), ('me', 'PRP', 'nsubj', 'laugh', 'VB'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('You', 'PRP', 'nsubj', 'know', 'VBP'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('you', 'PRP', 'nsubj', 'act', 'VB'), ('she', 'PRP', 'nsubj', 'becoming', 'VBG'), ('herself', 'PRP', 'nsubj', 'becoming', 'VBG'), ('Darcy', 'NNP', 'nsubj', 'had', 'VBD'), ('her', 'PRP', 'nsubj', 'be', 'VB'), ('he', 'PRP', 'nsubj', 'looked', 'VBN'), ('they', 'PRP', 'nsubj', 'met', 'VBD'), ('he', 'PRP', 'nsubj', 'looked', 'VBD'), ('he', 'PRP', 'nsubj', 'made', 'VBN'), ('it', 'PRP', 'nsubj', 'clear', 'JJ'), ('she', 'PRP', 'nsubj', 'had', 'VBD'), ('he', 'PRP', 'nsubj', 'began', 'VBD'), ('discovery', 'NN', 'nsubj', 'succeeded', 'VBD'), ('he', 'PRP', 'nsubj', 'detected', 'VBN'), ('figure', 'NN', 'nsubj', 'be', 'VB'), ('manners', 'NNS', 'nsubj', 'were', 'VBD'), ('she', 'PRP', 'nsubj', 'was', 'VBD'), ('he', 'PRP', 'nsubj', 'was', 'VBD'), ('who', 'WP', 'nsubj', 'made', 'VBD'), ('who', 'WP', 'nsubj', 'thought', 'VBN'), ('her', 'PRP', 'nsubj', 'handsome', 'JJ'), ('He', 'PRP', 'nsubj', 'began', 'VBD'), ('His', 'PRP$', 'nsubj', 'drew', 'VBD'), ('It', 'PRP', 'nsubj', 'was', 'VBD'), ('Darcy', 'NNP', 'nsubj', 'mean', 'VB'), ('she', 'PRP', 'nsubj', 'said', 'VBD'), ('That', 'DT', 'nsubj', 'is', 'VBZ'), ('Darcy', 'NNP', 'nsubj', 'answer', 'VB'), ('he', 'PRP', 'nsubj', 'does', 'VBZ'), ('I', 'PRP', 'nsubj', 'let', 'VB'), ('him', 'PRP', 'nsubj', 'know', 'VB'), ('I', 'PRP', 'nsubj', 'see', 'VBP'), ('he', 'PRP', 'nsubj', 'is', 'VBZ'), ('He', 'PRP', 'nsubj', 'has', 'VBZ'), ('I', 'PRP', 'nsubj', 'begin', 'VB'), ('I', 'PRP', 'nsubj', 'grow', 'VB'), ('his', 'PRP$', 'nsubj', 'approaching', 'VBG'), ('Lucas', 'NNP', 'nsubj', 'defied', 'VBD'), ('which', 'WDT', 'nsubj', 'provoking', 'VBG'), ('she', 'PRP', 'nsubj', 'turned', 'VBD'), ('you', 'PRP', 'nsubj', 'think', 'VB'), ('I', 'PRP', 'nsubj', 'expressed', 'VBD'), ('I', 'PRP', 'nsubj', 'teasing', 'VBG'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('which', 'WDT', 'nsubj', 'makes', 'VBZ'), ('You', 'PRP', 'nsubj', 'are', 'VBP'), ('It', 'PRP', 'nsubj', 'be', 'VB'), ('_', 'WDT', 'nsubj', 'turn', 'VBP'), ('Lucas', 'NNP', 'nsubj', 'said', 'VBD'), ('I', 'PRP', 'nsubj', 'going', 'VBG'), ('you', 'PRP', 'nsubj', 'know', 'VBP'), ('what', 'WP', 'nsubj', 'follows', 'VBZ'), ('You', 'PRP', 'nsubj', 'are', 'VBP'), ('me', 'PRP', 'nsubj', 'play', 'VB'), ('vanity', 'NN', 'nsubj', 'taken', 'VBN'), ('you', 'PRP', 'nsubj', 'been', 'VBN'), ('it', 'PRP', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'sit', 'VB'), ('who', 'WP', 'nsubj', 'be', 'VB'), ('she', 'PRP', 'nsubj', 'added', 'VBD'), ('it', 'PRP', 'nsubj', 'be', 'VB'), ('it', 'PRP', 'nsubj', 'must', 'MD'), ('everybody', 'NN', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'keep', 'VB'), ('performance', 'NN', 'nsubj', 'was', 'VBD'), ('she', 'PRP', 'nsubj', 'reply', 'VB'), ('she', 'PRP', 'nsubj', 'sing', 'VB'), ('who', 'WP', 'nsubj', 'having', 'VBG'), ('Mary', 'NNP', 'nsubj', 'had', 'VBD'), ('vanity', 'NN', 'nsubj', 'given', 'VBN'), ('it', 'PRP', 'nsubj', 'given', 'VBN'), ('which', 'WDT', 'nsubj', 'injured', 'VBN'), ('she', 'PRP', 'nsubj', 'reached', 'VBN'), ('Mary', 'NNP', 'nsubj', 'was', 'VBD'), ('who', 'WP', 'nsubj', 'joined', 'VBD'), ('Darcy', 'NNP', 'nsubj', 'stood', 'VBD'), ('Lucas', 'NNP', 'nsubj', 'was', 'VBD'), ('this', 'DT', 'nsubj', 'is', 'VBZ'), ('I', 'PRP', 'nsubj', 'consider', 'VBP'), ('it', 'PRP', 'nsubj', 'has', 'VBZ'), ('savage', '</t>
-  </si>
-  <si>
-    <t>[('possession', 'NN', 'pobj', 'in', 'IN'), ('fortune', 'NN', 'pobj', 'of', 'IN'), ('want', 'NN', 'pobj', 'in', 'IN'), ('wife', 'NN', 'pobj', 'of', 'IN'), ('man', 'NN', 'pobj', 'of', 'IN'), ('minds', 'NNS', 'pobj', 'in', 'IN'), ('families', 'NNS', 'pobj', 'of', 'IN'), ('property', 'NN', 'pobj', 'as', 'IN'), ('one', 'CD', 'pobj', 'of', 'IN'), ('daughters', 'NNS', 'pobj', 'of', 'IN'), ('him', 'PRP', 'pobj', 'to', 'IN'), ('it', 'PRP', 'pobj', 'about', 'IN'), ('Allen', 'NNP', 'pobj', 'by', 'IN'), ('man', 'NN', 'pobj', 'by', 'IN'), ('fortune', 'NN', 'pobj', 'of', 'IN'), ('north', 'NN', 'pobj', 'from', 'IN'), ('England', 'NNP', 'pobj', 'of', 'IN'), ('Monday', 'NNP', 'pobj', 'on', 'IN'), ('chaise', 'NN', 'pobj', 'in', 'IN'), ('it', 'PRP', 'pobj', 'with', 'IN'), ('Morris', 'NNP', 'pobj', 'with', 'IN'), ('Michaelmas', 'NNP', 'pobj', 'before', 'IN'), ('servants', 'NNS', 'pobj', 'of', 'IN'), ('house', 'NN', 'pobj', 'in', 'IN'), ('end', 'NN', 'pobj', 'by', 'IN'), ('week', 'NN', 'pobj', 'of', 'IN'), ('fortune', 'NN', 'pobj', 'of', 'IN'), ('girls', 'NNS', 'pobj', 'for', 'IN'), ('one', 'CD', 'pobj', 'of', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('love', 'NN', 'pobj', 'in', 'IN'), ('one', 'CD', 'pobj', 'with', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('that', 'DT', 'pobj', 'for', 'IN'), ('themselves', 'PRP', 'pobj', 'by', 'IN'), ('any', 'DT', 'pobj', 'as', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('party', 'NN', 'pobj', 'of', 'IN'), ('beauty', 'NN', 'pobj', 'of', 'IN'), ('beauty', 'NN', 'pobj', 'of', 'IN'), ('cases', 'NNS', 'pobj', 'In', 'IN'), ('neighbourhood', 'NN', 'pobj', 'into', 'IN'), ('one', 'CD', 'pobj', 'for', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('account', 'NN', 'pobj', 'on', 'IN'), ('_', 'DT', 'pobj', 'for', 'IN'), ('us', 'PRP', 'pobj', 'for', 'IN'), ('you', 'PRP', 'pobj', 'by', 'IN'), ('consent', 'NN', 'pobj', 'of', 'IN'), ('marrying', 'NN', 'pobj', 'to', 'IN'), ('girls', 'NNS', 'pobj', 'of', 'IN'), ('Lizzy', 'NNP', 'pobj', 'for', 'IN'), ('others', 'NNS', 'pobj', 'than', 'IN'), ('Jane', 'NNP', 'pobj', 'as', 'IN'), ('Lydia', 'NNP', 'pobj', 'as', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('girls', 'NNS', 'pobj', 'like', 'IN'), ('quickness', 'JJ', 'pobj', 'of', 'IN'), ('sisters', 'NNS', 'pobj', 'than', 'IN'), ('way', 'NN', 'pobj', 'in', 'IN'), ('nerves', 'NNS', 'pobj', 'on', 'IN'), ('nerves', 'NNS', 'pobj', 'for', 'IN'), ('consideration', 'NN', 'pobj', 'with', 'IN'), ('it', 'PRP', 'pobj', 'over', 'IN'), ('thousand', 'CD', 'pobj', 'of', 'IN'), ('neighbourhood', 'NN', 'pobj', 'into', 'IN'), ('us', 'PRP', 'pobj', 'to', 'IN'), ('it', 'PRP', 'pobj', 'upon', 'IN'), ('parts', 'NNS', 'pobj', 'of', 'IN'), ('years', 'NNS', 'pobj', 'of', 'IN'), ('understanding', 'NN', 'pobj', 'of', 'IN'), ('life', 'NN', 'pobj', 'of', 'IN'), ('Allen', 'NNP', 'pobj', 'by', 'IN'), ('Allen', 'NNP', 'pobj', 'by', 'IN'), ('earliest', 'JJS', 'pobj', 'among', 'IN'), ('those', 'DT', 'pobj', 'of', 'IN'), ('Bingley', 'NNP', 'pobj', 'on', 'IN'), ('evening', 'NN', 'pobj', 'till', 'IN'), ('it', 'PRP', 'pobj', 'of', 'IN'), ('manner', 'NN', 'pobj', 'in', 'IN'), ('way', 'NN', 'pobj', 'in', 'IN'), ('assemblies', 'NNS', 'pobj', 'at', 'IN'), ('own', 'JJ', 'pobj', 'of', 'IN'), ('her', 'PRP', 'pobj', 'of', 'IN'), ('daughters', 'NNS', 'pobj', 'of', 'IN'), ('sake', 'NN', 'pobj', 'for', 'IN'), ('nerves', 'NNS', 'pobj', 'on', 'IN'), ('pieces', 'NNS', 'pobj', 'to', 'IN'), ('coughs', 'NNS', 'pobj', 'in', 'IN'), ('amusement', 'NN', 'pobj', 'for', 'IN'), ('day', 'NN', 'pobj', 'till', 'IN'), ('friend', 'NN', 'pobj', 'of', 'IN'), ('_', 'NNP', 'pobj', 'to', 'IN'), ('him', 'PRP', 'pobj', 'with', 'IN'), ('end', 'NN', 'pobj', 'by', 'IN'), ('fortnight', 'NN', 'pobj', 'of', 'IN'), ('_', 'DT', 'pobj', 'if', 'IN'), ('all', 'DT', 'pobj', 'after', 'IN'), ('kindness', 'NN', 'pobj', 'of', 'IN'), ('myself', 'PRP', 'pobj', 'on', 'IN'), ('father', 'NN', 'pobj', 'at', 'IN'), ('exclamation', 'NN', 'pobj', 'of', 'IN'), ('introduction', 'NN', 'pobj', 'of', 'IN'), ('them', 'PRP', 'pobj', 'on', 'IN'), ('nonsense', 'NN', 'pobj', 'as', 'IN'), ('you', 'PRP', 'pobj', 'with', 'IN'), ('you', 'PRP', 'pobj', 'For', 'IN'), ('reflection', 'NN', 'pobj', 'of', 'IN'), ('Bingley', 'NNP', 'pobj', 'to', 'IN'), ('Bingley', 'NNP', 'pobj', 'of', 'IN'), ('him', 'PRP', 'pobj', 'on', 'IN'), ('ladies', 'NNS', 'pobj', 'of', 'IN'), ('Bennet', 'NNP', 'pobj', 'of', 'IN'), ('joy', 'NN', 'pobj', 'of', 'IN'), ('you', 'PRP', 'pobj', 'in', 'IN'), ('last', 'JJ', 'pobj', 'at', 'IN'), ('it', 'PRP', 'pobj', 'about', 'IN'), ('raptures', 'NNS', 'pobj', 'with', 'IN'), ('wife', 'NN', 'pobj', 'of', 'IN'), ('kindness', 'NN', 'pobj', 'for', 'IN'), ('matter', 'NN', 'pobj', 'for', 'IN'), ('time', 'NN', 'pobj', 'At', 'IN'), ('life', 'NN', 'pobj', 'of', 'IN'), ('sakes', 'NNS', 'pobj', 'for', 'IN'), ('you', 'PRP', 'pobj', 'with', 'IN'), ('ball', 'NN', 'pobj', 'at', 'IN'), ('evening', 'NN', 'pobj', 'of', 'IN'), ('dinner', 'NN', 'pobj', 'to', 'IN'), ('assistance', 'NN', 'pobj', 'with', 'IN'), ('daughters', 'NNS', 'pobj', 'of', 'IN'), ('subject', 'NN', 'pobj', 'on', 'IN'), ('husband', 'NN', 'pobj', 'from', 'IN'), ('Bingley', 'NNP', 'pobj', 'of', 'IN'), ('ways', 'NNS', 'pobj', 'in', 'IN'), ('questions', 'NNS', 'pobj', 'with', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('last', 'JJ', 'pobj', 'at', 'IN'), ('neighbour', 'NN', 'pobj', 'of', 'IN'), ('him', 'PRP', 'pobj', 'with', 'IN'), ('assembly', 'NN', 'pobj', 'at', 'IN'), ('party', 'NN', 'pobj', 'with', 'IN'), ('dancing', 'NN', 'pobj', 'of', 'IN'), ('love', 'NN', 'pobj', 'in', 'IN'), ('heart', 'NN', 'pobj', 'of', 'IN'), ('daughters', 'NNS', 'pobj', 'of', 'IN'), ('Netherfield', 'NNP', 'pobj', 'at', 'IN'), ('husband', 'NN', 'pobj', 'to', 'IN'), ('days', 'NNS', 'pobj', 'In', 'IN'), ('him', 'PRP', 'pobj', 'with', 'IN'), ('library', 'NN', 'pobj', 'in', 'IN'), ('sight', 'NN', 'pobj', 'to', 'IN'), ('ladies', 'NNS', 'pobj', 'of', 'IN'), ('ascertaining', 'VBG', 'pobj', 'of', 'IN'), ('window', 'NN', 'pobj', 'from', 'IN'), ('dinner', 'NN', 'pobj', 'to', 'IN'), ('housekeeping', 'NN', 'pobj', 'to', 'IN'), ('town', 'NN', 'pobj', 'in', 'IN'), ('invitation', 'NN', 'pobj', 'of', 'IN'), ('town', 'NN', 'pobj', 'in', 'IN'), ('arrival', 'NN', 'pobj', 'after', 'IN'), ('Hertfordshire', 'NNP', 'pobj', 'in', 'IN'), ('place', 'NN', 'pobj', 'from', 'IN'), ('another', 'DT', 'pobj', 'to', 'IN'), ('Netherfield', 'NNP', 'pobj', 'at', 'IN'), ('Illustration', 'NN', 'pobj', 'of', 'IN'), ('Allen', 'NNP', 'pobj', 'by', 'IN'), ('London', 'NNP', 'pobj', 'to', 'IN'), ('ball', 'NN', 'pobj', 'for', 'IN'), ('him', 'PRP', 'pobj', 'with', 'IN'), ('assembly', 'NN', 'pobj', 'to', 'IN'), ('number', 'NN', 'pobj', 'over', 'IN'), ('ladies', 'NNS', 'pobj', 'of', 'IN'), ('ball', 'NN', 'pobj', 'before', 'IN'), ('twelve', 'CD', 'pobj', 'of', 'IN'), ('him', 'PRP', 'pobj', 'with', 'IN'), ('London', 'NNP', 'pobj', 'from', 'IN'), ('five', 'CD', 'pobj', 'of', 'IN'), ('eldest', 'JJS', 'pobj', 'of', 'IN'), ('air', 'NN', 'pobj', 'with', 'IN'), ('fashion', 'NN', 'pobj', 'of', 'IN'), ('law', 'NN', 'pobj', 'in', 'IN'), ('room', 'NN', 'pobj', 'of', 'IN'), ('person', 'NN', 'pobj', 'by', 'IN'), ('circulation', 'NN', 'pobj', 'in', 'IN'), ('minutes', 'NNS', 'pobj', 'within', 'IN'), ('entrance', 'NN', 'pobj', 'after', 'IN'), ('man', 'NN', 'pobj', 'of', 'IN'), ('Bingley', 'NNP', 'pobj', 'than', 'IN'), ('admiration', 'NN', 'pobj', 'with', 'IN'), ('evening', 'NN', 'pobj', 'for', 'IN'), ('popularity', 'NN', 'pobj', 'of', 'IN'), ('company', 'NN', 'pobj', 'above', 'IN'), ('Derbyshire', 'NNP', 'pobj', 'in', 'IN'), ('friend', 'NN', 'pobj', 'with', 'IN'), ('people', 'NNS', 'pobj', 'with', 'IN'), ('room', 'NN', 'pobj', 'in', 'IN'), ('Netherfield', 'NNP', 'pobj', 'at', 'IN'), ('themselves', 'PRP', 'pobj', 'for', 'IN'), ('him', 'PRP', 'pobj', 'between', 'IN'), ('Hurst', 'NNP', 'pobj', 'with', 'IN'), ('Bingley', 'NNP', 'pobj', 'with', 'IN'), ('lady', 'NN', 'pobj', 'to', 'IN'), ('evening', 'NN', 'pobj', 'of', 'IN'), ('room', 'NN', 'pobj', 'about', 'IN'), ('one', 'CD', 'pobj', 'to', 'IN'), ('party', 'NN', 'pobj', 'of', 'IN'), ('world', 'NN', 'pobj', 'in', 'IN'), ('violent', 'JJ', 'pobj', 'Amongst', 'IN'), ('him', 'PRP', 'pobj', 'against', 'IN'), ('behaviour', 'NN', 'pobj', 'of', 'IN'), ('resentment', 'NN', 'pobj', 'into', 'IN'), ('slighted', 'VBN', 'pobj', 'by', 'IN'), ('daughters', 'NNS', 'pobj', 'of', 'IN'), ('scarcity', 'NN', 'pobj', 'by', 'IN'), ('gentlemen', 'NNS', 'pobj', 'of', 'IN'), ('dances', 'NNS', 'pobj', 'for', 'IN'), ('part', 'NN', 'pobj', 'during', 'IN'), ('time', 'NN', 'pobj', 'of', 'IN'), ('enough', 'RB', 'pobj', 'near', 'IN'), ('him', 'PRP', 'pobj', 'between', 'IN'), ('dance', 'NN', 'pobj', 'from', 'IN'), ('minutes', 'NNS', 'pobj', 'for', 'IN'), ('yourself', 'PRP', 'pobj', 'by', 'IN'), ('manner', 'NN', 'pobj', 'in', 'IN'), ('partner', 'NN', 'pobj', 'with', 'IN'), ('assembly', 'NN', 'pobj', 'At', 'IN'), ('this', 'DT', 'pobj', 'as', 'IN'), ('room', 'NN', 'pobj', 'in', 'IN'), ('me', 'PRP', 'pobj', 'to', 'IN'), ('kingdom', 'NN', 'pobj', 'for', 'IN'), ('honour', 'NN', 'pobj', 'Upon', 'IN'), ('girls', 'NNS', 'pobj', 'with', 'IN'), ('life', 'NN', 'pobj', 'in', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('girl', 'NN', 'pobj', 'with', 'IN'), ('room', 'NN', 'pobj', 'in', 'IN'), ('Bennet', 'NNP', 'pobj', 'at', 'IN'), ('sisters', 'NNS', 'pobj', 'of', 'IN'), ('you', 'PRP', 'pobj', 'behind', 'IN'), ('Allen', 'NNP', 'pobj', 'by', 'IN'), ('moment', 'NN', 'pobj', 'for', 'IN'), ('Elizabeth', 'NNP', 'pobj', 'at', 'IN'), ('humour', 'NN', 'pobj', 'in', 'IN'), ('present', 'NN', 'pobj', 'at', 'IN'), ('ladies', 'NNS', 'pobj', 'to', 'IN'), ('men', 'NNS', 'pobj', 'by', 'IN'), ('partner', 'NN', 'pobj', 'to', 'IN'), ('me', 'PRP', 'pobj', 'with', 'IN'), ('feelings', 'NNS', 'pobj', 'with', 'IN'), ('him', 'PRP', 'pobj', 'towards', 'IN'), ('spirit', 'NN', 'pobj', 'with', 'IN'), ('friends', 'NNS', 'pobj', 'among', 'IN'), ('anything', 'NN', 'pobj', 'in', 'IN'), ('family', 'NN', 'pobj', 'to', 'IN'), ('party', 'NN', 'pobj', 'by', 'IN'), ('her', 'PRP$', 'pobj', 'with', 'IN'), ('sisters', 'NNS', 'pobj', 'by', 'IN'), ('this', 'DT', 'pobj', 'by', 'IN'), ('way', 'NN', 'pobj', 'in', 'IN'), ('Bingley', 'NNP', 'pobj', 'to', 'IN'), ('girl', 'NN', 'pobj', 'as', 'IN'), ('neighbourhood', 'NN', 'pobj', 'in', 'IN'), ('partners', 'NNS', 'pobj', 'without', 'IN'), ('ball', 'NN', 'pobj', 'at', 'IN'), ('spirits', 'NNS', 'pobj', 'in', 'IN'), ('Longbourn', 'NNP', 'pobj', 'to', 'IN'), ('which', 'WDT', 'pobj', 'of', 'IN'), ('book', 'NN', 'pobj', 'With', 'IN'), ('time', 'NN', 'pobj', 'of', 'IN'), ('occasion', 'NN', 'pobj', 'on', 'IN'), ('curiosity', 'NN', 'pobj', 'of', 'IN'), ('event', 'NN', 'pobj', 'to', 'IN'), ('evening', 'NN', 'pobj', 'of', 'IN'), ('stranger', 'NN', 'pobj', 'on', 'IN'), ('it', 'PRP', 'pobj', 'like', 'IN'), ('her', 'PRP', 'pobj', 'with', 'IN'), ('twice', 'RB', 'pobj', 'with', 'IN'), ('_', 'DT', 'pobj', 'of', 'IN'), ('her', 'PRP', 'pobj', 'with', 'IN'), ('room', 'NN', 'pobj', 'in', 'IN'), ('all', 'DT', 'pobj', 'of', 'IN'), ('her', 'PRP', 'pobj', 'with', 'IN'), ('Jane', 'NNP', 'pobj', 'with', 'IN'), ('next', 'JJ', 'pobj', 'for', 'IN'), ('King', 'NNP', 'pobj', 'with', 'IN'), ('Lucas', 'NNP', 'pobj', 'with', 'IN'), ('Jane', 'NNP', 'pobj', 'with', 'IN'), ('Lizzy', 'NNP', 'pobj', 'with', 'IN'), ('_', 'NN', 'pobj', 'for', 'IN'), ('sake', 'NN', 'pobj', 'For', 'IN'), ('partners', 'NNS', 'pobj', 'of', 'IN'), ('dance', 'NN', 'pobj', 'in', 'IN'), ('him', 'PRP', 'pobj', 'with', 'IN'), ('life', 'NN', 'pobj', 'in', 'IN'), ('dresses', 'NNS', 'pobj', 'than', 'IN'), ('Hurst', 'NNP', 'pobj', 'upon', 'IN'), ('description', 'NN', 'pobj', 'against', 'IN'), ('finery', 'NN', 'pobj', 'of', 'IN'), ('subject', 'NN', 'pobj', 'of', 'IN'), ('bitterness', 'NN', 'pobj', 'with', 'IN'), ('spirit', 'NN', 'pobj', 'of', 'IN'), ('Darcy', 'NNP', 'pobj', 'of', 'IN'), ('all', 'DT', 'pobj', 'at', 'IN'), ('downs', 'NNS', 'pobj', 'of', 'IN'), ('praise', 'NN', 'pobj', 'in', 'IN'), ('Bingley', 'NNP', 'pobj', 'of', 'IN'), ('sister', 'NN', 'pobj', 'to', 'IN'), ('breeding', 'NN', 'pobj', 'with', 'IN'), ('you', 'PRP', 'pobj', 'for', 'IN'), ('us', 'PRP', 'pobj', 'between', 'IN'), ('surprise', 'NN', 'pobj', 'by', 'IN'), ('woman', 'NN', 'pobj', 'as', 'IN'), ('room', 'NN', 'pobj', 'in', 'IN'), ('gallantry', 'NN', 'pobj', 'to', 'IN'), ('that', 'DT', 'pobj', 'for', 'IN'), ('anybody', 'NN', 'pobj', 'in', 'IN'), ('eyes', 'NNS', 'pobj', 'in', 'IN'), ('being', 'NN', 'pobj', 'of', 'IN'), ('life', 'NN', 'pobj', 'in', 'IN'), ('_', 'DT', 'pobj', 'With', 'IN'), ('your', 'PRP$', 'pobj', 'With', 'IN'), ('_', 'NN', 'pobj', 'With', 'IN'), ('sense', 'NN', 'pobj', 'With', 'IN'), ('follies', 'NNS', 'pobj', 'to', 'IN'), ('others', 'NNS', 'pobj', 'of', 'IN'), ('candour', 'NN', 'pobj', 'of', 'IN'), ('it', 'PRP', 'pobj', 'with', 'IN'), ('ostentation', 'NN', 'pobj', 'without', 'IN'), ('character', 'NN', 'pobj', 'of', 'IN'), ('bad,--belongs', 'NNS', 'pobj', 'of', 'IN'), ('you', 'PRP', 'pobj', 'to', 'IN'), ('sisters', 'NNS', 'pobj', 'like', 'VBP'), ('his', 'PRP', 'pobj', 'to', 'IN'), ('them', 'PRP', 'pobj', 'with', 'IN'), ('brother', 'NN', 'pobj', 'with', 'IN'), ('her', 'PRP', 'pobj', 'in', 'IN'), ('silence', 'NN', 'pobj', 'in', 'IN'), ('assembly', 'NN', 'pobj', 'at', 'IN'), ('quickness', 'NN', 'pobj', 'with', 'IN'), ('observation', 'NN', 'pobj', 'of', 'IN'), ('temper', 'NN', 'pobj', 'of', 'IN'), ('sister', 'NN', 'pobj', 'than', 'IN'), ('judgment', 'NN', 'pobj', 'with', 'IN'), ('attention', 'NN', 'pobj', 'by', 'IN'), ('herself', 'PRP', 'pobj', 'to', 'IN'), ('fact', 'NN', 'pobj', 'in', 'IN'), ('humour', 'NN', 'pobj', 'in', 'IN'), ('power', 'NN', 'pobj', 'in', 'IN'), ('one', 'CD', 'pobj', 'in', 'IN'), ('seminaries', 'NNS', 'pobj', 'of', 'IN'), ('town', 'NN', 'pobj', 'in', 'IN'), ('pounds', 'NNS', 'pobj', 'of', 'IN'), ('habit', 'NN', 'pobj', 'in', 'IN'), ('people', 'NNS', 'pobj', 'with', 'IN'), ('rank', 'NN', 'pobj', 'of', 'IN'), ('respect', 'NN', 'pobj', 'in', 'IN'), ('themselves', 'PRP', 'pobj', 'of', 'IN'), ('others', 'NNS', 'pobj', 'of', 'IN'), ('family', 'NN', 'pobj', 'of', 'IN'), ('north', 'NN', 'pobj', 'in', 'IN'), ('England', 'NNP', 'pobj', 'of', 'IN'), ('memories', 'NNS', 'pobj', 'on', 'IN'), ('trade', 'NN', 'pobj', 'by', 'IN'), ('amount', 'NN', 'pobj', 'to', 'IN'), ('pounds', 'NNS', 'pobj', 'of', 'IN'), ('father', 'NN', 'pobj', 'from', 'IN'), ('county', 'NN', 'pobj', 'of', 'IN'), ('house', 'NN', 'pobj', 'with', 'IN'), ('manor', 'NN', 'pobj', 'of', 'IN'), ('many', 'JJ', 'pobj', 'to', 'IN'), ('those', 'DT', 'pobj', 'of', 'IN'), ('temper', 'NN', 'pobj', 'of', 'IN'), ('days', 'NNS', 'pobj', 'of', 'IN'), ('Netherfield', 'NNP', 'pobj', 'at', 'IN'), ('purchase', 'NN', 'pobj', 'to', 'IN'), ('own', 'JJ', 'pobj', 'of', 'IN'), ('tenant', 'NN', 'pobj', 'as', 'IN'), ('means', 'VBZ', 'pobj', 'by', 'IN'), ('table', 'NN', 'pobj', 'at', 'IN'), ('fashion', 'NN', 'pobj', 'of', 'IN'), ('fortune', 'NN', 'pobj', 'than', 'IN'), ('home', 'NN', 'pobj', 'as', 'IN'), ('age', 'NN', 'pobj', 'of', 'IN'), ('recommendation', 'NN', 'pobj', 'by', 'IN'), ('House', 'NNP', 'pobj', 'at', 'IN'), ('it', 'PRP', 'pobj', 'at', 'IN'), ('it', 'PRP', 'pobj', 'into', 'IN'), ('hour', 'NN', 'pobj', 'for', 'IN'), ('situation', 'NN', 'pobj', 'with', 'IN'), ('praise', 'NN', 'pobj', 'in', 'IN'), ('him', 'PRP', 'pobj', 'Between', 'IN'), ('spite', 'NN', 'pobj', 'in', 'IN'), ('opposition', 'NN', 'pobj', 'of', 'IN'), ('character', 'NN', 'pobj', 'of', 'IN'), ('Darcy', 'NNP', 'pobj', 'to', 'IN'), ('easiness', 'NN', 'pobj', 'by', 'IN'), ('temper', 'NN', 'pobj', 'of', 'IN'), ('own', 'JJ', 'pobj', 'to', 'IN'), ('strength', 'NN', 'pobj', 'On', 'IN'), ('regard', 'NN', 'pobj', 'of', 'IN'), ('judgment', 'NN', 'pobj', 'of', 'IN'), ('understanding', 'NN', 'pobj', 'In', 'IN'), ('means', 'NNS', 'pobj', 'by', 'IN'), ('time', 'NN', 'pobj', 'at', 'IN'), ('respect', 'NN', 'pobj', 'In', 'IN'), ('which', 'WDT', 'pobj', 'in', 'IN'), ('assembly', 'NN', 'pobj', 'of', 'IN'), ('people', 'NNS', 'pobj', 'with', 'IN'), ('life', 'NN', 'pobj', 'in', 'IN'), ('him', 'PRP', 'pobj', 'to', 'IN'), ('room', 'NN', 'pobj', 'with', 'IN'), ('Bennet', 'NNP', 'pobj', 'to', 'IN'), ('contrary', 'NN', 'pobj', 'on', 'IN'), ('people', 'NNS', 'pobj', 'of', 'IN'), ('whom', 'WP', 'pobj', 'in', 'IN'), ('none', 'NN', 'pobj', 'for', 'IN'), ('whom', 'WP', 'pobj', 'of', 'IN'), ('none', 'NN', 'pobj', 'from', 'IN'), ('girl', 'NN', 'pobj', 'as', 'IN'), ('commendation', 'NN', 'pobj', 'by', 'IN'), ('her', 'PRP', 'pobj', 'of', 'IN'), ('Allen', 'NNP', 'pobj', 'by', 'IN'), ('walk', 'NN', 'pobj', 'Within', 'IN'), ('Longbourn', 'NNP', 'pobj', 'of', 'IN'), ('whom', 'WP', 'pobj', 'with', 'IN'), ('trade', 'NN', 'pobj', 'in', 'IN'), ('Meryton', 'NNP', 'pobj', 'in', 'IN'), ('honour', 'NN', 'pobj', 'to', 'IN'), ('knighthood', 'NN', 'pobj', 'of', 'IN'), ('address', 'NN', 'pobj', 'by', 'IN'), ('king', 'NN', 'pobj', 'to', 'IN'), ('mayoralty', 'NN', 'pobj', 'during', 'IN'), ('business', 'NN', 'pobj', 'to', 'IN'), ('residence', 'NN', 'pobj', 'to', 'IN'), ('town', 'NN', 'pobj', 'in', 'IN'), ('family', 'NN', 'pobj', 'with', 'IN'), ('house', 'NN', 'pobj', 'to', 'IN'), ('mile', 'NN', 'pobj', 'about', 'IN'), ('Meryton', 'NNP', 'pobj', 'from', 'IN'), ('period', 'NN', 'pobj', 'from', 'IN'), ('pleasure', 'NN', 'pobj', 'with', 'IN'), ('importance', 'NN', 'pobj', 'of', 'IN'), ('business', 'NN', 'pobj', 'by', 'IN'), ('world', 'NN', 'pobj', 'to', 'IN'), ('rank', 'NN', 'pobj', 'by', 'IN'), ('contrary', 'NN', 'pobj', 'on', 'IN'), ('everybody', 'NN', 'pobj', 'to', 'IN'), ('inoffensive', 'JJ', 'pobj', 'By', 'IN'), ('James', 'NNP', 'pobj', 'at', 'IN'), ('woman', 'NN', 'pobj', 'of', 'IN'), ('Bennet', 'NNP', 'pobj', 'to', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('ball', 'NN', 'pobj', 'over', 'IN'), ('command', 'NN', 'pobj', 'with', 'IN'), ('Lucas', 'NNP', 'pobj', 'to', 'IN'), ('twice', 'RB', 'pobj', 'with', 'IN'), ('it', 'PRP', 'pobj', 'about', 'IN'), ('Robinson', 'NNP', 'pobj', 'about', 'IN'), ('him', 'PRP', 'pobj', 'between', 'IN'), ('you', 'PRP', 'pobj', 'to', 'IN'), ('room', 'NN', 'pobj', 'in', 'IN'), ('question', 'NN', 'pobj', 'to', 'IN'), ('doubt', 'NN', 'pobj', 'beyond', 'IN'), ('point', 'NN', 'pobj', 'on', 'IN'), ('word', 'NN', 'pobj', 'Upon', 'IN'), ('if', 'IN', 'pobj', 'as', 'RB'), ('nothing', 'NN', 'pobj', 'to', 'IN'), ('purpose', 'NN', 'pobj', 'to', 'IN'), ('_', 'NFP', 'pobj', 'than', 'IN'), ('friend', 'NN', 'pobj', 'as', 'IN'), ('head', 'NN', 'pobj', 'into', 'IN'), ('treatment', 'NN', 'pobj', 'by', 'IN'), ('him', 'PRP', 'pobj', 'by', 'IN'), ('her', 'PRP', 'pobj', 'to', 'IN'), ('hour', 'NN', 'pobj', 'for', 'IN'), ('Allen', 'NNP', 'pobj', 'by', 'IN'), ('her', 'PRP', 'pobj', 'to', 'IN'), ('last', 'JJ', 'pobj', 'at', 'IN'), ('acquaintance', 'NN', 'pobj', 'among', 'IN'), ('_', 'NN', 'pobj', 'With', 'IN'), ('them', 'PRP', 'pobj', 'With', 'IN'), ('it', 'PRP', 'pobj', 'of', 'IN'), ('Long', 'NNP', 'pobj', 'to', 'IN'), ('pride', 'NN', 'pobj', 'with', 'IN'), ('ball', 'NN', 'pobj', 'to', 'IN'), ('chaise', 'NN', 'pobj', 'in', 'IN'), ('Long', 'NNP', 'pobj', 'to', 'IN'), ('Eliza', 'NNP', 'pobj', 'with', 'IN'), ('_', 'NN', 'pobj', 'with', 'IN'), ('him', 'PRP', 'pobj', 'with', 'IN'), ('it', 'PRP', 'pobj', 'for', 'IN'), ('family', 'NN', 'pobj', 'with', 'IN'), ('favour', 'NN', 'pobj', 'in', 'IN'), ('himself', 'PRP', 'pobj', 'of', 'IN'), ('solidity', 'NN', 'pobj', 'upon', 'IN'), ('reflections', 'NNS', 'pobj', 'of', 'IN'), ('all', 'DT', 'pobj', 'By', 'IN'), ('it', 'PRP', 'pobj', 'to', 'IN'), ('us', 'PRP', 'pobj', 'of', 'IN'), ('complacency', 'NN', 'pobj', 'of', 'IN'), ('score', 'NN', 'pobj', 'on', 'IN'), ('quality', 'NN', 'pobj', 'of', 'IN'), ('opinion', 'NN', 'pobj', 'to', 'IN'), ('ourselves', 'PRP', 'pobj', 'of', 'IN'), ('us', 'PRP', 'pobj', 'of', 'IN'), ('Darcy', 'NNP', 'pobj', 'as', 'IN'), ('sisters', 'NNS', 'pobj', 'with', 'IN'), ('foxhounds', 'NNS', 'pobj', 'of', 'IN'), ('wine', 'NN', 'pobj', 'of', 'IN'), ('it', 'PRP', 'pobj', 'at', 'IN'), ('visit', 'NN', 'pobj', 'with', 'IN'), ('Longbourn', 'NNP', 'pobj', 'of', 'IN'), ('those', 'DT', 'pobj', 'on', 'IN'), ('Netherfield', 'NNP', 'pobj', 'of', 'IN'), ('form', 'NN', 'pobj', 'in', 'IN'), ('will', 'NN', 'pobj', 'on', 'IN'), ('Hurst', 'NNP', 'pobj', 'of', 'IN'), ('_', 'NNP', 'pobj', 'with', 'IN'), ('them', 'PRP', 'pobj', 'with', 'IN'), ('eldest', 'JJS', 'pobj', 'towards', 'IN'), ('Jane', 'NNP', 'pobj', 'By', 'IN'), ('pleasure', 'NN', 'pobj', 'with', 'IN'), ('treatment', 'NN', 'pobj', 'in', 'IN'), ('everybody', 'NN', 'pobj', 'of', 'IN'), ('Jane', 'NNP', 'pobj', 'to', 'IN'), ('probability', 'NN', 'pobj', 'in', 'IN'), ('influence', 'NN', 'pobj', 'from', 'IN'), ('admiration', 'NN', 'pobj', 'of', 'IN'), ('_', 'DT', 'pobj', 'to', 'IN'), ('her', 'PRP$', 'pobj', 'to', 'IN'), ('preference', 'NN', 'pobj', 'to', 'IN'), ('him', 'PRP', 'pobj', 'for', 'IN'), ('first', 'JJ', 'pobj', 'from', 'IN'), ('way', 'NN', 'pobj', 'in', 'IN'), ('love', 'NN', 'pobj', 'in', 'IN'), ('pleasure', 'NN', 'pobj', 'with', 'IN'), ('world', 'NN', 'pobj', 'by', 'IN'), ('strength', 'NN', 'pobj', 'with', 'IN'), ('feeling', 'NN', 'pobj', 'of', 'IN'), ('temper', 'NN', 'pobj', 'of', 'IN'), ('manner', 'NN', 'pobj', 'of', 'IN'), ('suspicions', 'NNS', 'pobj', 'from', 'IN'), ('impertinent', 'NN', 'pobj', 'of', 'IN'), ('friend', 'NN', 'pobj', 'to', 'IN'), ('public', 'NN', 'pobj', 'on', 'IN'), ('case', 'NN', 'pobj', 'in', 'IN'), ('skill', 'NN', 'pobj', 'with', 'IN'), ('object', 'NN', 'pobj', 'from', 'IN'), ('it', 'PRP', 'pobj', 'of', 'IN'), ('dark', 'NN', 'pobj', 'in', 'IN'), ('gratitude', 'NN', 'pobj', 'of', 'IN'), ('attachment', 'NN', 'pobj', 'in', 'IN'), ('itself', 'PRP', 'pobj', 'to', 'IN'), ('us', 'PRP', 'pobj', 'of', 'IN'), ('love', 'NN', 'pobj', 'in', 'IN'), ('encouragement', 'NN', 'pobj', 'without', 'IN'), ('cases', 'NNS', 'pobj', 'In', 'IN'), ('ten', 'CD', 'pobj', 'of', 'IN'), ('her', 'PRP', 'pobj', 'like', 'IN'), ('him', 'PRP', 'pobj', 'for', 'IN'), ('man', 'NN', 'pobj', 'to', 'IN'), ('her', 'PRP', 'pobj', 'of', 'IN'), ('hours', 'NNS', 'pobj', 'for', 'IN'), ('parties', 'NNS', 'pobj', 'in', 'IN'), ('hour', 'NN', 'pobj', 'of', 'IN'), ('which', 'WDT', 'pobj', 'in', 'IN'), ('him', 'PRP', 'pobj', 'of', 'IN'), ('love', 'NN', 'pobj', 'in', 'IN'), ('question', 'NN', 'pobj', 'in', 'IN'), ('design', 'NN', 'pobj', 'by', 'IN'), ('degree', 'NN', 'pobj', 'of', 'IN'), ('regard', 'NN', 'pobj', 'of', 'IN'), ('reasonableness', 'NN', 'pobj', 'of', 'IN'), ('him', 'PRP', 'pobj', 'with', 'IN'), ('Meryton', 'NNP', 'pobj', 'at', 'IN'), ('house', 'NN', 'pobj', 'at', 'IN'), ('company', 'NN', 'pobj', 'in', 'IN'), ('him', 'PRP', 'pobj', 'with', 'IN'), ('him', 'PRP', 'pobj', 'with', 'IN'), ('un', 'NNP', 'pobj', 'like', 'IN'), ('Commerce', 'NNP', 'pobj', 'than', 'IN'), ('respect', 'NN', 'pobj', 'with', 'IN'), ('characteristic', 'NN', 'pobj', 'to', 'IN'), ('heart', 'NN', 'pobj', 'with', 'IN'), ('him', 'PRP', 'pobj', 'to', 'IN'), ('morrow', 'NN', 'pobj', 'to', 'IN'), ('happiness', 'NN', 'pobj', 'of', 'IN'), ('twelvemonth', 'NN', 'pobj', 'for', 'IN'), ('marriage', 'NN', 'pobj', 'in', 'IN'), ('chance', 'NN', 'pobj', 'of', 'IN'), ('parties', 'NNS', 'pobj', 'of', 'IN'), ('other', 'JJ', 'pobj', 'to', 'IN'), ('least', 'JJS', 'pobj', 'in', 'IN'), ('vexation', 'NN', 'pobj', 'of', 'IN'), ('defects', 'NNS', 'pobj', 'of', 'IN'), ('person', 'NN', 'pobj', 'of', 'IN'), ('whom', 'WP', 'pobj', 'with', 'IN'), ('way', 'NN', 'pobj', 'in', 'IN'), ('sister', 'NN', 'pobj', 'to', 'IN'), ('suspecting', 'NN', 'pobj', 'from', 'IN'), ('interest', 'NN', 'pobj', 'of', 'IN'), ('eyes', 'NNS', 'pobj', 'in', 'IN'), ('friend', 'NN', 'pobj', 'of', 'IN'), ('her', 'PRP', 'pobj', 'at', 'IN'), ('admiration', 'NN', 'pobj', 'without', 'IN'), ('ball', 'NN', 'pobj', 'at', 'IN'), ('her', 'PRP', 'pobj', 'at', 'IN'), ('himself', 'PRP', 'pobj', 'to', 'IN'), ('face', 'NN', 'pobj', 'in', 'IN'), ('expression', 'NN', 'pobj', 'by', 'IN'), ('eyes', 'NNS', 'pobj', 'of', 'IN'), ('eye', 'NN', 'pobj', 'with', 'IN'), ('symmetry', 'NN', 'pobj', 'of', 'IN'), ('form', 'NN', 'pobj', 'in', 'IN'), ('spite', 'NN', 'pobj', 'in', 'IN'), ('asserting', 'VBG', 'pobj', 'of', 'IN'), ('world', 'NN', 'pobj', 'of', 'IN'), ('playfulness', 'NN', 'pobj', 'by', 'IN'), ('this', 'DT', 'pobj', 'Of', 'IN'), ('her', 'PRP', 'pobj', 'to', 'IN'), ('her', 'PRP', 'pobj', 'of', 'IN'), ('step', 'NN', 'pobj', 'as', 'IN'), ('conversing', 'NN', 'pobj', 'towards', 'IN'), ('her', 'PRP', 'pobj', 'with', 'IN'), ('conversation', 'NN', 'pobj', 'to', 'IN'), ('others', 'NNS', 'pobj', 'with', 'IN'), ('Lucas', 'NNP', 'pobj', 'at', 'IN'), ('Charlotte', 'NNP', 'pobj', 'to', 'IN'), ('conversation', 'NN', 'pobj', 'to', 'IN'), ('Forster', 'NNP', 'pobj', 'with', 'IN'), ('what', 'WP', 'pobj', 'about', 'IN'), ('him', 'PRP', 'pobj', 'of', 'IN'), ('several', 'JJ', 'pobj', 'of', 'IN'), ('Allen', 'NNP', 'pobj', 'by', 'IN'), ('speaking', 'VBG', 'pobj', 'of', 'IN'), ('him', 'PRP', 'pobj', 'to', 'IN'), ('him', 'PRP', 'pobj', 'to', 'IN'), ('Meryton', 'NNP', 'pobj', 'at', 'IN'), ('energy', 'NN', 'pobj', 'With', 'IN'), ('us', 'PRP', 'pobj', 'on', 'IN'), ('way', 'NN', 'pobj', 'by', 'IN'), ('friend!--always', 'NNS', 'pobj', 'of', 'IN'), ('anybody', 'NN', 'pobj', 'before', 'IN'), ('those', 'DT', 'pobj', 'before', 'IN'), ('habit', 'NN', 'pobj', 'in', 'IN'), ('persevering', 'NN', 'pobj', 'On', 'IN'), ('Darcy', 'NNP', 'pobj', 'at', 'IN'), ('course', 'NN', 'pobj', 'of', 'IN'), ('capital', 'NN', 'pobj', 'by', 'IN'), ('song', 'NN', 'pobj', 'After', 'IN'), ('entreaties', 'NNS', 'pobj', 'to', 'IN'), ('several', 'JJ', 'pobj', 'of', 'IN'), ('instrument', 'NN', 'pobj', 'at', 'IN'), ('sister', 'NN', 'pobj', 'by', 'IN'), ('consequence', 'NN', 'pobj', 'in', 'IN'), ('family', 'NN', 'pobj', 'in', 'IN'), ('knowledge', 'NN', 'pobj', 'for', 'IN'), ('display', 'NN', 'pobj', 'for', 'IN'), ('excellence', 'NN', 'pobj', 'of', 'IN'), ('pleasure', 'NN', 'pobj', 'with', 'IN'), ('end', 'NN', 'pobj', 'at', 'IN'), ('concerto', 'NN', 'pobj', 'of', 'IN'), ('airs', 'NNS', 'pobj', 'by', 'IN'), ('request', 'NN', 'pobj', 'at', 'IN'), ('sisters', 'NNS', 'pobj', 'of', 'IN'), ('some', 'DT', 'pobj', 'with', 'IN'), ('Lucases', 'NNPS', 'pobj', 'of', 'IN'), ('dancing', 'VBG', 'pobj', 'in', 'IN'), ('end', 'NN', 'pobj', 'at', 'IN'), ('room', 'NN', 'pobj', 'of', 'IN'), ('them', 'PRP', 'pobj', 'near', 'IN'), ('indignation', 'NN', 'pobj', 'in', 'IN'), ('mode', 'NN', 'pobj', 'at', 'IN'), ('exclusion', 'NN', 'pobj', 'to', 'IN'), ('conversation', 'NN', 'pobj', 'of', 'IN'), ('thoughts', 'NNS', 'pobj', 'by', 'IN'), ('William', 'NNP', 'pobj', 'till', 'IN'), ('people', 'NNS', 'pobj', 'for', 'IN'), ('dancing', 'NN', 'pobj', 'like', 'IN'), ('one', 'CD', 'pobj', 'as', 'IN'), ('refinements', 'NNS', 'pobj', 'of', 'IN'), ('societies', 'NNS', 'pobj', 'of', 'IN'), ('vogue', 'NN', 'pobj', 'in', 'IN'), ('societies', 'NNS', 'pobj', 'amongst', 'IN'), ('world', 'NN', 'pobj', 'of', 'IN'), ('pause', 'NN', 'pobj', 'after', 'IN'), ('science', 'NN', 'pobj', 'in', 'IN'), ('Meryton', 'NNP', 'pobj', 'at', 'IN'), ('sight', 'NN', 'pobj', 'from', 'IN'), ('James', 'NNP', 'pobj', 'at', 'IN'), ('place', 'NN', 'pobj', 'to', 'IN'), ('place', 'NN', 'pobj', 'to', 'IN'), ('town', 'NN', 'pobj', 'in', 'IN'), ('town', 'NN', 'pobj', 'in', 'IN'), ('society', 'NN', 'pobj', 'of', 'IN'), ('London', 'NNP', 'pobj', 'of', 'IN'), ('Lucas', 'NNP', 'pobj', 'with', 'IN'), ('hopes', 'NNS', 'pobj', 'in', 'IN'), ('answer', 'NN', 'pobj', 'of', 'IN'), ('moving', 'VBG', 'pobj', 'at', 'IN'), ('them', 'PRP', 'pobj', 'towards', 'IN'), ('notion', 'NN', 'pobj', 'with', 'IN'), ('her,--', 'NNP', 'pobj', 'to', 'IN'), ('you', 'PRP', 'pobj', 'to', 'IN'), ('partner', 'NN', 'pobj', 'as', 'IN'), ('you', 'PRP', 'pobj', 'before', 'IN'), ('Darcy', 'NNP', 'pobj', 'to', 'IN'), ('discomposure', 'NN', 'pobj', 'with', 'IN'), ('William,--', 'NNP', 'pobj', 'to', 'IN'), ('dancing', 'NN', 'pobj', 'of', 'IN'), ('order', 'NN', 'pobj', 'in', 'IN'), ('partner', 'NN', 'pobj', 'for', 'IN'), ('propriety', 'NN', 'pobj', 'with', 'IN'), ('hand', 'NN', 'pobj', 'of', 'IN'), ('vain', 'NN', 'pobj', 'in', 'IN'), ('all', 'DT', 'pobj', 'at', 'IN'), ('attempt', 'NN', 'pobj', 'by', 'IN'), ('persuasion', 'NN', 'pobj', 'at', 'IN'), ('dance', 'NN', 'pobj', 'in', 'IN'), ('hour', 'NN', 'pobj', 'for', 'IN'), ('complaisance', 'NN', 'pobj', 'at', 'IN'), ('partner', 'NN', 'pobj', 'to', 'IN'), ('gentleman', 'NN', 'pobj', 'with', 'IN'), ('her', 'PRP', 'pobj', 'of', 'IN'), ('complacency', 'NN', 'pobj', 'with', 'IN'), ('Bingley,--', 'NNP', 'pobj', 'by', 'IN'), ('reverie', 'NN', 'pobj', 'of', 'IN'), ('society', 'NN', 'pobj', 'in', 'IN'), ('opinion', 'NN', 'pobj', 'of', 'IN'), ('people', 'NNS', 'pobj', 'of', 'IN'), ('them', 'PRP', 'pobj', 'on', 'IN'), ('pleasure', 'NN', 'pobj', 'on', 'IN'), ('eyes', 'NNS', 'pobj', 'of', 'IN'), ('face', 'NN', 'pobj', 'in', 'IN'), ('woman', 'NN', 'pobj', 'of', 'IN'), ('face', 'NN', 'pobj', 'on', 'IN'), ('Bennet', 'NNP', 'pobj', 'with', 'IN'), ('admiration', 'NN', 'pobj', 'from', 'IN'), ('love', 'VB', 'pobj', 'to', 'IN'), ('love', 'NN', 'pobj', 'from', 'IN'), ('matrimony', 'NN', 'pobj', 'to', 'IN'), ('moment', 'NN', 'pobj', 'in', 'IN'), ('it', 'PRP', 'pobj', 'about', 'IN'), ('law', 'NN', 'pobj', 'in', 'IN'), ('course', 'NN', 'pobj', 'of', 'RB'), ('Pemberley', 'NNP', 'pobj', 'at', 'IN'), ('you', 'PRP', 'pobj', 'with', 'IN'), ('her', 'PRP', 'pobj', 'to', 'IN'), ('indifference', 'NN', 'pobj', 'with', 'IN'), ('manner', 'NN', 'pobj', 'in', 'IN'), ('Bennet', 'NNP', 'pobj', 'for', 'IN'), ('Allen', 'NNP', 'pobj', 'by', 'IN'), ('estate', 'NN', 'pobj', 'in', 'IN'), ('thousand', 'CD', 'pobj', 'of', 'IN'), ('daughters', 'NNS', 'pobj', 'for', 'IN'), ('default', 'NN', 'pobj', 'in', 'IN'), ('male', 'NNP', 'pobj', 'of', 'IN'), ('relation', 'NN', 'pobj', 'on', 'IN'), ('situation', 'NN', 'pobj', 'for', 'IN'), ('life', 'NN', 'pobj', 'in', 'IN'), ('his', 'PRP$', 'pobj', 'of', 'IN'), ('Meryton', 'NNP', 'pobj', 'in', 'IN'), ('Philips', 'NNP', 'pobj', 'to', 'IN'), ('father', 'NN', 'pobj', 'to', 'IN'), ('business', 'NN', 'pobj', 'in', 'IN'), ('London', 'NNP', 'pobj', 'in', 'IN'), ('line', 'NN', 'pobj', 'in', 'IN'), ('trade', 'NN', 'pobj', 'of', 'IN'), ('Longbourn', 'NNP', 'pobj', 'of', 'IN'), ('Meryton', 'NNP', 'pobj', 'from', 'IN'), ('ladies', 'NNS', 'pobj', 'for', 'IN'), ('aunt', 'NN', 'pobj', 'to', 'IN'), ('shop', 'NN', 'pobj', 'to', 'IN'), ('way', 'NN', 'pobj', 'over', 'IN'), ('family', 'NN', 'pobj', 'of', 'IN'), ('attentions', 'NNS', 'pobj', 'in', 'IN'), ('sisters', 'NNS', 'pobj', 'than', 'IN'), ('Meryton', 'NNP', 'pobj', 'to', 'IN'), ('evening', 'NN', 'pobj', 'for', 'IN'), ('news', 'NN', 'pobj', 'of', 'IN'), ('aunt', 'NN', 'pobj', 'from', 'IN'), ('present', 'JJ', 'pobj', 'At', 'IN'), ('news', 'NN', 'pobj', 'with', 'IN'), ('arrival', 'NN', 'pobj', 'by', 'IN'), ('regiment', 'NN', 'pobj', 'of', 'IN'), ('neighbourhood', 'NN', 'pobj', 'in', 'IN'), ('Philips', 'NNP', 'pobj', 'to', 'IN'), ('intelligence', 'NN', 'pobj', 'of', 'IN'), ('knowledge', 'NN', 'pobj', 'to', 'IN'), ('names', 'NNS', 'pobj', 'of', 'IN'), ('length', 'NN', 'pobj', 'at', 'IN'), ('nieces', 'NNS', 'pobj', 'to', 'IN'), ('unknown', 'JJ', 'pobj', 'of', 'IN'), ('nothing', 'NN', 'pobj', 'of', 'IN'), ('officers', 'NNS', 'pobj', 'but', 'IN'), ('which', 'WDT', 'pobj', 'of', 'IN'), ('mother', 'NN', 'pobj', 'to', 'IN'), ('eyes', 'NNS', 'pobj', 'in', 'IN'), ('regimentals', 'NNS', 'pobj', 'to', 'IN'), ('ensign', 'NN', 'pobj', 'of', 'IN'), ('effusions', 'NNS', 'pobj', 'to', 'IN'), ('subject', 'NN', 'pobj', 'on', 'IN'), ('all', 'DT', 'pobj', 'From', 'IN'), ('manner', 'NN', 'pobj', 'by', 'IN'), ('girls', 'NNS', 'pobj', 'of', 'IN'), ('country', 'NN', 'pobj', 'in', 'IN'), ('indifference', 'NN', 'pobj', 'with', 'IN'), ('Carter', 'NNP', 'pobj', 'of', 'IN'), ('course', 'NN', 'pobj', 'in', 'IN'), ('day', 'NN', 'pobj', 'of', 'IN'), ('London', 'NNP', 'pobj', 'to', 'IN'), ('children', 'NNS', 'pobj', 'of', 'IN'), ('own', 'JJ', 'pobj', 'of', 'IN'), ('it', 'PRP', 'pobj', 'of', 'IN'), ('them', 'PRP', 'pobj', 'of', 'IN'), ('which', 'WDT', 'pobj', 'on', 'IN'), ('particular', 'NN', 'pobj', 'in', 'IN'), ('you', 'PRP', 'pobj', 'from', 'IN'), ('father', 'NN', 'pobj', 'of', 'IN'), ('age', 'NN', 'pobj', 'to', 'IN'), ('officers', 'NNS', 'pobj', 'about', 'IN'), ('heart', 'NN', 'pobj', 'at', 'IN'), ('year', 'NN', 'pobj', 'with', 'IN'), ('girls', 'NNS', 'pobj', 'of', 'IN'), ('him', 'PRP', 'pobj', 'to', 'IN'), ('William', 'NNP', 'pobj', 'at', 'IN'), ('regimentals', 'NNS', 'pobj', 'in', 'IN'), ('Watson', 'NNP', 'pobj', 'to', 'IN'), ('library', 'NN', 'pobj', 'in', 'IN'), ('entrance', 'NN', 'pobj', 'by', 'IN'), ('footman', 'NN', 'pobj', 'of', 'IN'), ('note', 'NN', 'pobj', 'with', 'IN'), ('Bennet', 'NNP', 'pobj', 'for', 'IN'), ('Netherfield', 'NNP', 'pobj', 'from', 'IN'), ('answer', 'NN', 'pobj', 'for', 'IN'), ('pleasure', 'NN', 'pobj', 'with', 'IN'), ('Bingley', 'NNP', 'pobj', 'from', 'IN'), ('day', 'NN', 'pobj', 'to', 'IN'), ('Louisa', 'NNP', 'pobj', 'with', 'IN'), ('danger', 'NN', 'pobj', 'in', 'IN'), ('r</t>
   </si>
 </sst>
 </file>
@@ -138,7 +99,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +110,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -616,148 +584,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,34 +1080,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="24.5192307692308" customWidth="1"/>
-    <col min="4" max="4" width="14.5865384615385" customWidth="1"/>
-    <col min="5" max="5" width="14.2596153846154" customWidth="1"/>
-    <col min="6" max="6" width="15.2211538461538" customWidth="1"/>
-    <col min="7" max="7" width="13.9423076923077" customWidth="1"/>
-    <col min="8" max="8" width="14.2596153846154" customWidth="1"/>
-    <col min="9" max="9" width="15.8653846153846" customWidth="1"/>
+    <col min="1" max="1" width="22.4326923076923" customWidth="1"/>
+    <col min="2" max="2" width="13.9423076923077" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="14.2596153846154" customWidth="1"/>
+    <col min="5" max="5" width="18.9038461538462" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="17.7788461538462" customWidth="1"/>
     <col min="10" max="10" width="12.0192307692308" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="12.0096153846154" customWidth="1"/>
-    <col min="13" max="13" width="14.9038461538462" customWidth="1"/>
-    <col min="14" max="14" width="18.1057692307692" customWidth="1"/>
-    <col min="15" max="15" width="20.6730769230769" customWidth="1"/>
-    <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="19.5480769230769" customWidth="1"/>
-    <col min="18" max="18" width="18.7403846153846" customWidth="1"/>
-    <col min="19" max="19" width="17.4711538461538" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="15.5384615384615" customWidth="1"/>
+    <col min="13" max="13" width="14.2596153846154" customWidth="1"/>
+    <col min="14" max="14" width="16.0288461538462" customWidth="1"/>
+    <col min="15" max="15" width="14.9038461538462" customWidth="1"/>
+    <col min="16" max="16" width="17.4615384615385" customWidth="1"/>
+    <col min="17" max="17" width="16.1826923076923" customWidth="1"/>
+    <col min="18" max="18" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,13 +1163,10 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
       </c>
       <c r="B2">
         <v>5739</v>
@@ -1238,28 +1204,25 @@
       <c r="M2">
         <v>9812</v>
       </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
+      <c r="N2">
+        <v>6838</v>
+      </c>
+      <c r="O2">
+        <v>6203</v>
+      </c>
+      <c r="P2">
+        <v>13874</v>
+      </c>
+      <c r="Q2">
+        <v>13190</v>
+      </c>
+      <c r="R2">
+        <v>15560</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>4774</v>
@@ -1286,34 +1249,31 @@
         <v>7</v>
       </c>
       <c r="J3">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="K3">
-        <v>3845</v>
+        <v>3848</v>
       </c>
       <c r="L3">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="M3">
-        <v>9252</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
-        <v>32</v>
+        <v>9242</v>
+      </c>
+      <c r="N3">
+        <v>5823</v>
+      </c>
+      <c r="O3">
+        <v>5116</v>
+      </c>
+      <c r="P3">
+        <v>8780</v>
+      </c>
+      <c r="Q3">
+        <v>13216</v>
+      </c>
+      <c r="R3">
+        <v>12285</v>
       </c>
     </row>
   </sheetData>
